--- a/W-Domestic Standard Upload Template.xlsx
+++ b/W-Domestic Standard Upload Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\275261\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CD80CC-965C-4527-813B-64084523F53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F21EF6E1-2E35-4415-AD49-BA7E0FB50922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18225338-B922-4E21-859F-D7BA408AC1F8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{CE78BDE3-7438-4330-9B0A-3EEE37903C7F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="1" xr2:uid="{CE78BDE3-7438-4330-9B0A-3EEE37903C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Master" sheetId="1" state="hidden" r:id="rId1"/>
@@ -65,6 +65,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -352,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="640">
   <si>
     <t>#</t>
   </si>
@@ -1158,6 +1160,75 @@
     <t xml:space="preserve">Shape </t>
   </si>
   <si>
+    <t>col:0</t>
+  </si>
+  <si>
+    <t>col:1</t>
+  </si>
+  <si>
+    <t>col:2</t>
+  </si>
+  <si>
+    <t>col:3</t>
+  </si>
+  <si>
+    <t>col:4</t>
+  </si>
+  <si>
+    <t>col:5</t>
+  </si>
+  <si>
+    <t>col:6</t>
+  </si>
+  <si>
+    <t>col:7</t>
+  </si>
+  <si>
+    <t>col:8</t>
+  </si>
+  <si>
+    <t>col:9</t>
+  </si>
+  <si>
+    <t>col:10</t>
+  </si>
+  <si>
+    <t>col:11</t>
+  </si>
+  <si>
+    <t>col:12</t>
+  </si>
+  <si>
+    <t>col:13</t>
+  </si>
+  <si>
+    <t>col:14</t>
+  </si>
+  <si>
+    <t>col:15</t>
+  </si>
+  <si>
+    <t>col:16</t>
+  </si>
+  <si>
+    <t>col:17</t>
+  </si>
+  <si>
+    <t>col:18</t>
+  </si>
+  <si>
+    <t>col:19</t>
+  </si>
+  <si>
+    <t>col:20</t>
+  </si>
+  <si>
+    <t>col:21</t>
+  </si>
+  <si>
+    <t>col:22</t>
+  </si>
+  <si>
     <t>dep:0</t>
   </si>
   <si>
@@ -1353,6 +1424,78 @@
     <t>dep:64</t>
   </si>
   <si>
+    <t>dep:65</t>
+  </si>
+  <si>
+    <t>dep:66</t>
+  </si>
+  <si>
+    <t>dep:67</t>
+  </si>
+  <si>
+    <t>dep:68</t>
+  </si>
+  <si>
+    <t>dep:69</t>
+  </si>
+  <si>
+    <t>dep:70</t>
+  </si>
+  <si>
+    <t>dep:71</t>
+  </si>
+  <si>
+    <t>dep:72</t>
+  </si>
+  <si>
+    <t>dep:73</t>
+  </si>
+  <si>
+    <t>siz:0</t>
+  </si>
+  <si>
+    <t>siz:1</t>
+  </si>
+  <si>
+    <t>siz:2</t>
+  </si>
+  <si>
+    <t>siz:3</t>
+  </si>
+  <si>
+    <t>siz:4</t>
+  </si>
+  <si>
+    <t>siz:5</t>
+  </si>
+  <si>
+    <t>siz:6</t>
+  </si>
+  <si>
+    <t>siz:7</t>
+  </si>
+  <si>
+    <t>siz:8</t>
+  </si>
+  <si>
+    <t>siz:9</t>
+  </si>
+  <si>
+    <t>siz:10</t>
+  </si>
+  <si>
+    <t>siz:11</t>
+  </si>
+  <si>
+    <t>siz:12</t>
+  </si>
+  <si>
+    <t>siz:13</t>
+  </si>
+  <si>
+    <t>siz:14</t>
+  </si>
+  <si>
     <t>typ:0</t>
   </si>
   <si>
@@ -1626,289 +1769,214 @@
     <t>typ:90</t>
   </si>
   <si>
+    <t>typ:91</t>
+  </si>
+  <si>
+    <t>typ:92</t>
+  </si>
+  <si>
+    <t>typ:93</t>
+  </si>
+  <si>
+    <t>typ:94</t>
+  </si>
+  <si>
+    <t>typ:95</t>
+  </si>
+  <si>
+    <t>typ:96</t>
+  </si>
+  <si>
+    <t>typ:97</t>
+  </si>
+  <si>
+    <t>typ:98</t>
+  </si>
+  <si>
+    <t>mat:0</t>
+  </si>
+  <si>
+    <t>mat:1</t>
+  </si>
+  <si>
+    <t>mat:2</t>
+  </si>
+  <si>
+    <t>mat:3</t>
+  </si>
+  <si>
+    <t>mat:4</t>
+  </si>
+  <si>
+    <t>mat:5</t>
+  </si>
+  <si>
+    <t>mat:6</t>
+  </si>
+  <si>
+    <t>mat:7</t>
+  </si>
+  <si>
+    <t>mat:8</t>
+  </si>
+  <si>
+    <t>mat:9</t>
+  </si>
+  <si>
+    <t>mat:10</t>
+  </si>
+  <si>
+    <t>mat:11</t>
+  </si>
+  <si>
+    <t>mat:12</t>
+  </si>
+  <si>
+    <t>mat:13</t>
+  </si>
+  <si>
+    <t>mat:14</t>
+  </si>
+  <si>
+    <t>mat:15</t>
+  </si>
+  <si>
+    <t>mat:16</t>
+  </si>
+  <si>
+    <t>mat:17</t>
+  </si>
+  <si>
+    <t>mat:18</t>
+  </si>
+  <si>
+    <t>mat:19</t>
+  </si>
+  <si>
+    <t>mat:20</t>
+  </si>
+  <si>
+    <t>mat:21</t>
+  </si>
+  <si>
+    <t>mat:22</t>
+  </si>
+  <si>
+    <t>mat:23</t>
+  </si>
+  <si>
+    <t>mat:24</t>
+  </si>
+  <si>
+    <t>mat:25</t>
+  </si>
+  <si>
+    <t>mat:26</t>
+  </si>
+  <si>
+    <t>mat:27</t>
+  </si>
+  <si>
+    <t>mat:28</t>
+  </si>
+  <si>
+    <t>mat:29</t>
+  </si>
+  <si>
     <t>cor:0</t>
   </si>
   <si>
-    <t>cor:1</t>
-  </si>
-  <si>
-    <t>cor:2</t>
-  </si>
-  <si>
-    <t>cor:3</t>
-  </si>
-  <si>
-    <t>cor:4</t>
-  </si>
-  <si>
-    <t>cor:5</t>
-  </si>
-  <si>
-    <t>cor:6</t>
-  </si>
-  <si>
-    <t>cor:7</t>
-  </si>
-  <si>
-    <t>cor:8</t>
-  </si>
-  <si>
-    <t>cor:9</t>
-  </si>
-  <si>
-    <t>cor:10</t>
-  </si>
-  <si>
-    <t>cor:11</t>
-  </si>
-  <si>
-    <t>cor:12</t>
-  </si>
-  <si>
-    <t>cor:13</t>
-  </si>
-  <si>
-    <t>cor:14</t>
-  </si>
-  <si>
-    <t>cor:15</t>
-  </si>
-  <si>
-    <t>cor:16</t>
-  </si>
-  <si>
-    <t>cor:17</t>
-  </si>
-  <si>
-    <t>cor:18</t>
-  </si>
-  <si>
-    <t>cor:19</t>
-  </si>
-  <si>
-    <t>cor:20</t>
-  </si>
-  <si>
-    <t>cor:21</t>
-  </si>
-  <si>
-    <t>cor:22</t>
-  </si>
-  <si>
-    <t>cor:23</t>
-  </si>
-  <si>
-    <t>cor:24</t>
-  </si>
-  <si>
-    <t>cor:25</t>
-  </si>
-  <si>
-    <t>cor:26</t>
-  </si>
-  <si>
-    <t>cor:27</t>
-  </si>
-  <si>
-    <t>cor:28</t>
-  </si>
-  <si>
-    <t>cor:29</t>
-  </si>
-  <si>
-    <t>cor:30</t>
-  </si>
-  <si>
-    <t>cor:31</t>
-  </si>
-  <si>
-    <t>cor:32</t>
-  </si>
-  <si>
-    <t>cor:33</t>
-  </si>
-  <si>
-    <t>cor:34</t>
-  </si>
-  <si>
-    <t>cor:35</t>
-  </si>
-  <si>
-    <t>cor:36</t>
-  </si>
-  <si>
-    <t>cor:37</t>
-  </si>
-  <si>
-    <t>cor:38</t>
-  </si>
-  <si>
-    <t>cor:39</t>
-  </si>
-  <si>
-    <t>cor:40</t>
-  </si>
-  <si>
-    <t>cor:41</t>
-  </si>
-  <si>
-    <t>cor:42</t>
-  </si>
-  <si>
-    <t>cor:43</t>
-  </si>
-  <si>
-    <t>cor:44</t>
-  </si>
-  <si>
-    <t>cor:45</t>
-  </si>
-  <si>
-    <t>cor:46</t>
-  </si>
-  <si>
-    <t>cor:47</t>
-  </si>
-  <si>
-    <t>cor:48</t>
-  </si>
-  <si>
-    <t>cor:49</t>
-  </si>
-  <si>
-    <t>cor:50</t>
-  </si>
-  <si>
-    <t>cor:51</t>
-  </si>
-  <si>
-    <t>cor:52</t>
-  </si>
-  <si>
-    <t>cor:53</t>
-  </si>
-  <si>
-    <t>cor:54</t>
-  </si>
-  <si>
-    <t>cor:55</t>
-  </si>
-  <si>
-    <t>cor:56</t>
-  </si>
-  <si>
-    <t>cor:57</t>
-  </si>
-  <si>
-    <t>cor:58</t>
-  </si>
-  <si>
-    <t>cor:59</t>
-  </si>
-  <si>
-    <t>cor:60</t>
-  </si>
-  <si>
-    <t>cor:61</t>
-  </si>
-  <si>
-    <t>cor:62</t>
-  </si>
-  <si>
-    <t>cor:63</t>
-  </si>
-  <si>
-    <t>cor:64</t>
-  </si>
-  <si>
-    <t>cor:65</t>
-  </si>
-  <si>
-    <t>cor:66</t>
-  </si>
-  <si>
-    <t>cor:67</t>
-  </si>
-  <si>
-    <t>cor:68</t>
-  </si>
-  <si>
-    <t>cor:69</t>
-  </si>
-  <si>
-    <t>cor:70</t>
-  </si>
-  <si>
-    <t>cor:71</t>
-  </si>
-  <si>
-    <t>cor:72</t>
-  </si>
-  <si>
-    <t>cor:73</t>
-  </si>
-  <si>
-    <t>cor:74</t>
-  </si>
-  <si>
-    <t>cor:75</t>
-  </si>
-  <si>
-    <t>cor:76</t>
-  </si>
-  <si>
-    <t>cor:77</t>
-  </si>
-  <si>
-    <t>cor:78</t>
-  </si>
-  <si>
-    <t>cor:79</t>
-  </si>
-  <si>
-    <t>cor:80</t>
-  </si>
-  <si>
-    <t>cor:81</t>
-  </si>
-  <si>
-    <t>cor:82</t>
-  </si>
-  <si>
-    <t>cor:83</t>
-  </si>
-  <si>
-    <t>cor:84</t>
-  </si>
-  <si>
-    <t>cor:85</t>
-  </si>
-  <si>
-    <t>cor:86</t>
-  </si>
-  <si>
-    <t>cor:87</t>
-  </si>
-  <si>
-    <t>cor:88</t>
-  </si>
-  <si>
-    <t>cor:89</t>
-  </si>
-  <si>
-    <t>cor:90</t>
-  </si>
-  <si>
-    <t>cor:91</t>
-  </si>
-  <si>
-    <t>cor:92</t>
-  </si>
-  <si>
-    <t>cor:93</t>
-  </si>
-  <si>
-    <t>cor:94</t>
+    <t>sup:0</t>
+  </si>
+  <si>
+    <t>sup:1</t>
+  </si>
+  <si>
+    <t>sup:2</t>
+  </si>
+  <si>
+    <t>sup:3</t>
+  </si>
+  <si>
+    <t>sup:4</t>
+  </si>
+  <si>
+    <t>sup:5</t>
+  </si>
+  <si>
+    <t>sup:6</t>
+  </si>
+  <si>
+    <t>sup:7</t>
+  </si>
+  <si>
+    <t>sup:8</t>
+  </si>
+  <si>
+    <t>sup:9</t>
+  </si>
+  <si>
+    <t>sup:10</t>
+  </si>
+  <si>
+    <t>sup:11</t>
+  </si>
+  <si>
+    <t>sup:12</t>
+  </si>
+  <si>
+    <t>sup:13</t>
+  </si>
+  <si>
+    <t>sup:14</t>
+  </si>
+  <si>
+    <t>sup:15</t>
+  </si>
+  <si>
+    <t>sup:16</t>
+  </si>
+  <si>
+    <t>sup:17</t>
+  </si>
+  <si>
+    <t>sup:18</t>
+  </si>
+  <si>
+    <t>sup:19</t>
+  </si>
+  <si>
+    <t>sup:20</t>
+  </si>
+  <si>
+    <t>sup:21</t>
+  </si>
+  <si>
+    <t>sup:22</t>
+  </si>
+  <si>
+    <t>sup:23</t>
+  </si>
+  <si>
+    <t>sup:24</t>
+  </si>
+  <si>
+    <t>sup:25</t>
+  </si>
+  <si>
+    <t>sup:26</t>
+  </si>
+  <si>
+    <t>sup:27</t>
+  </si>
+  <si>
+    <t>sup:28</t>
+  </si>
+  <si>
+    <t>sup:29</t>
+  </si>
+  <si>
+    <t>sup:30</t>
   </si>
   <si>
     <t>cat:0</t>
@@ -2110,543 +2178,6 @@
   </si>
   <si>
     <t>cat:66</t>
-  </si>
-  <si>
-    <t>cat:67</t>
-  </si>
-  <si>
-    <t>cat:68</t>
-  </si>
-  <si>
-    <t>cat:69</t>
-  </si>
-  <si>
-    <t>cat:70</t>
-  </si>
-  <si>
-    <t>cat:71</t>
-  </si>
-  <si>
-    <t>cat:72</t>
-  </si>
-  <si>
-    <t>cat:73</t>
-  </si>
-  <si>
-    <t>cat:74</t>
-  </si>
-  <si>
-    <t>cat:75</t>
-  </si>
-  <si>
-    <t>cat:76</t>
-  </si>
-  <si>
-    <t>cat:77</t>
-  </si>
-  <si>
-    <t>cat:78</t>
-  </si>
-  <si>
-    <t>cat:79</t>
-  </si>
-  <si>
-    <t>cat:80</t>
-  </si>
-  <si>
-    <t>cat:81</t>
-  </si>
-  <si>
-    <t>cat:82</t>
-  </si>
-  <si>
-    <t>cat:83</t>
-  </si>
-  <si>
-    <t>cat:84</t>
-  </si>
-  <si>
-    <t>cat:85</t>
-  </si>
-  <si>
-    <t>cat:86</t>
-  </si>
-  <si>
-    <t>cat:87</t>
-  </si>
-  <si>
-    <t>cat:88</t>
-  </si>
-  <si>
-    <t>cat:89</t>
-  </si>
-  <si>
-    <t>cat:90</t>
-  </si>
-  <si>
-    <t>cat:91</t>
-  </si>
-  <si>
-    <t>cat:92</t>
-  </si>
-  <si>
-    <t>cat:93</t>
-  </si>
-  <si>
-    <t>cat:94</t>
-  </si>
-  <si>
-    <t>cat:95</t>
-  </si>
-  <si>
-    <t>cat:96</t>
-  </si>
-  <si>
-    <t>lab:0</t>
-  </si>
-  <si>
-    <t>lab:1</t>
-  </si>
-  <si>
-    <t>lab:2</t>
-  </si>
-  <si>
-    <t>lab:3</t>
-  </si>
-  <si>
-    <t>lab:4</t>
-  </si>
-  <si>
-    <t>lab:5</t>
-  </si>
-  <si>
-    <t>lab:6</t>
-  </si>
-  <si>
-    <t>lab:7</t>
-  </si>
-  <si>
-    <t>lab:8</t>
-  </si>
-  <si>
-    <t>lab:9</t>
-  </si>
-  <si>
-    <t>lab:10</t>
-  </si>
-  <si>
-    <t>lab:11</t>
-  </si>
-  <si>
-    <t>lab:12</t>
-  </si>
-  <si>
-    <t>lab:13</t>
-  </si>
-  <si>
-    <t>lab:14</t>
-  </si>
-  <si>
-    <t>lab:15</t>
-  </si>
-  <si>
-    <t>lab:16</t>
-  </si>
-  <si>
-    <t>lab:17</t>
-  </si>
-  <si>
-    <t>lab:18</t>
-  </si>
-  <si>
-    <t>lab:19</t>
-  </si>
-  <si>
-    <t>lab:20</t>
-  </si>
-  <si>
-    <t>lab:21</t>
-  </si>
-  <si>
-    <t>lab:22</t>
-  </si>
-  <si>
-    <t>lab:23</t>
-  </si>
-  <si>
-    <t>lab:24</t>
-  </si>
-  <si>
-    <t>lab:25</t>
-  </si>
-  <si>
-    <t>lab:26</t>
-  </si>
-  <si>
-    <t>lab:27</t>
-  </si>
-  <si>
-    <t>lab:28</t>
-  </si>
-  <si>
-    <t>lab:29</t>
-  </si>
-  <si>
-    <t>lab:30</t>
-  </si>
-  <si>
-    <t>lab:31</t>
-  </si>
-  <si>
-    <t>lab:32</t>
-  </si>
-  <si>
-    <t>lab:33</t>
-  </si>
-  <si>
-    <t>lab:34</t>
-  </si>
-  <si>
-    <t>lab:35</t>
-  </si>
-  <si>
-    <t>lab:36</t>
-  </si>
-  <si>
-    <t>lab:37</t>
-  </si>
-  <si>
-    <t>lab:38</t>
-  </si>
-  <si>
-    <t>lab:39</t>
-  </si>
-  <si>
-    <t>lab:40</t>
-  </si>
-  <si>
-    <t>lab:41</t>
-  </si>
-  <si>
-    <t>lab:42</t>
-  </si>
-  <si>
-    <t>lab:43</t>
-  </si>
-  <si>
-    <t>lab:44</t>
-  </si>
-  <si>
-    <t>lab:45</t>
-  </si>
-  <si>
-    <t>lab:46</t>
-  </si>
-  <si>
-    <t>lab:47</t>
-  </si>
-  <si>
-    <t>lab:48</t>
-  </si>
-  <si>
-    <t>lab:49</t>
-  </si>
-  <si>
-    <t>lab:50</t>
-  </si>
-  <si>
-    <t>lab:51</t>
-  </si>
-  <si>
-    <t>pon:0</t>
-  </si>
-  <si>
-    <t>pon:1</t>
-  </si>
-  <si>
-    <t>pon:2</t>
-  </si>
-  <si>
-    <t>pon:3</t>
-  </si>
-  <si>
-    <t>pon:4</t>
-  </si>
-  <si>
-    <t>pon:5</t>
-  </si>
-  <si>
-    <t>pon:6</t>
-  </si>
-  <si>
-    <t>pon:7</t>
-  </si>
-  <si>
-    <t>pon:8</t>
-  </si>
-  <si>
-    <t>pon:9</t>
-  </si>
-  <si>
-    <t>pon:10</t>
-  </si>
-  <si>
-    <t>pon:11</t>
-  </si>
-  <si>
-    <t>pon:12</t>
-  </si>
-  <si>
-    <t>pon:13</t>
-  </si>
-  <si>
-    <t>pon:14</t>
-  </si>
-  <si>
-    <t>pon:15</t>
-  </si>
-  <si>
-    <t>pon:16</t>
-  </si>
-  <si>
-    <t>pon:17</t>
-  </si>
-  <si>
-    <t>pon:18</t>
-  </si>
-  <si>
-    <t>pon:19</t>
-  </si>
-  <si>
-    <t>pon:20</t>
-  </si>
-  <si>
-    <t>pon:21</t>
-  </si>
-  <si>
-    <t>pon:22</t>
-  </si>
-  <si>
-    <t>pon:23</t>
-  </si>
-  <si>
-    <t>pon:24</t>
-  </si>
-  <si>
-    <t>pon:25</t>
-  </si>
-  <si>
-    <t>pon:26</t>
-  </si>
-  <si>
-    <t>pon:27</t>
-  </si>
-  <si>
-    <t>pon:28</t>
-  </si>
-  <si>
-    <t>pon:29</t>
-  </si>
-  <si>
-    <t>pon:30</t>
-  </si>
-  <si>
-    <t>pon:31</t>
-  </si>
-  <si>
-    <t>pon:32</t>
-  </si>
-  <si>
-    <t>pon:33</t>
-  </si>
-  <si>
-    <t>pon:34</t>
-  </si>
-  <si>
-    <t>pon:35</t>
-  </si>
-  <si>
-    <t>pon:36</t>
-  </si>
-  <si>
-    <t>pon:37</t>
-  </si>
-  <si>
-    <t>pon:38</t>
-  </si>
-  <si>
-    <t>pon:39</t>
-  </si>
-  <si>
-    <t>pon:40</t>
-  </si>
-  <si>
-    <t>pon:41</t>
-  </si>
-  <si>
-    <t>pon:42</t>
-  </si>
-  <si>
-    <t>pon:43</t>
-  </si>
-  <si>
-    <t>pon:44</t>
-  </si>
-  <si>
-    <t>pon:45</t>
-  </si>
-  <si>
-    <t>pon:46</t>
-  </si>
-  <si>
-    <t>pon:47</t>
-  </si>
-  <si>
-    <t>pon:48</t>
-  </si>
-  <si>
-    <t>pon:49</t>
-  </si>
-  <si>
-    <t>pon:50</t>
-  </si>
-  <si>
-    <t>pon:51</t>
-  </si>
-  <si>
-    <t>pon:52</t>
-  </si>
-  <si>
-    <t>pon:53</t>
-  </si>
-  <si>
-    <t>pon:54</t>
-  </si>
-  <si>
-    <t>pon:55</t>
-  </si>
-  <si>
-    <t>pon:56</t>
-  </si>
-  <si>
-    <t>pon:57</t>
-  </si>
-  <si>
-    <t>pon:58</t>
-  </si>
-  <si>
-    <t>pon:59</t>
-  </si>
-  <si>
-    <t>pon:60</t>
-  </si>
-  <si>
-    <t>pon:61</t>
-  </si>
-  <si>
-    <t>pon:62</t>
-  </si>
-  <si>
-    <t>pon:63</t>
-  </si>
-  <si>
-    <t>pon:64</t>
-  </si>
-  <si>
-    <t>pon:65</t>
-  </si>
-  <si>
-    <t>pon:66</t>
-  </si>
-  <si>
-    <t>pon:67</t>
-  </si>
-  <si>
-    <t>pon:68</t>
-  </si>
-  <si>
-    <t>pon:69</t>
-  </si>
-  <si>
-    <t>pon:70</t>
-  </si>
-  <si>
-    <t>pon:71</t>
-  </si>
-  <si>
-    <t>pon:72</t>
-  </si>
-  <si>
-    <t>pon:73</t>
-  </si>
-  <si>
-    <t>pon:74</t>
-  </si>
-  <si>
-    <t>pon:75</t>
-  </si>
-  <si>
-    <t>pon:76</t>
-  </si>
-  <si>
-    <t>pon:77</t>
-  </si>
-  <si>
-    <t>pon:78</t>
-  </si>
-  <si>
-    <t>pon:79</t>
-  </si>
-  <si>
-    <t>pon:80</t>
-  </si>
-  <si>
-    <t>pon:81</t>
-  </si>
-  <si>
-    <t>pon:82</t>
-  </si>
-  <si>
-    <t>pon:83</t>
-  </si>
-  <si>
-    <t>pon:84</t>
-  </si>
-  <si>
-    <t>pon:85</t>
-  </si>
-  <si>
-    <t>pon:86</t>
-  </si>
-  <si>
-    <t>pon:87</t>
-  </si>
-  <si>
-    <t>pon:88</t>
-  </si>
-  <si>
-    <t>pon:89</t>
-  </si>
-  <si>
-    <t>pon:90</t>
-  </si>
-  <si>
-    <t>tes:0</t>
-  </si>
-  <si>
-    <t>tes:1</t>
-  </si>
-  <si>
-    <t>tes:2</t>
-  </si>
-  <si>
-    <t>tes:3</t>
-  </si>
-  <si>
-    <t>tes:4</t>
-  </si>
-  <si>
-    <t>tes:5</t>
   </si>
   <si>
     <t>red</t>
@@ -2803,10 +2334,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3108,7 +2640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3198,24 +2730,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3224,24 +2745,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3250,31 +2760,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3289,284 +2784,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3956,26 +3243,26 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="26" width="5.15625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="27.15625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="26" width="44.41796875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="26" width="66.578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="26" width="14.83984375" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" style="26" width="12.41796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="26" width="14.15625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="28" width="15.41796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="26" width="15.41796875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="26" width="14.83984375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="26" width="5.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="27" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="26" width="44.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="66.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="26" width="14.85546875" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" style="26" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="26" width="14.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="28" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="26" width="15.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="26" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="43.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4010,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="28.9" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4045,7 +3332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="28.9">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -4080,7 +3367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="94.5" hidden="1" customHeight="1">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -4115,7 +3402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="5">
         <v>7</v>
       </c>
@@ -4150,7 +3437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="28.9" hidden="1">
       <c r="A6" s="5">
         <v>10</v>
       </c>
@@ -4185,7 +3472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="5">
         <v>11</v>
       </c>
@@ -4220,7 +3507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="28.9" hidden="1">
       <c r="A8" s="5">
         <v>13</v>
       </c>
@@ -4255,7 +3542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="5">
         <v>15</v>
       </c>
@@ -4290,7 +3577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>16</v>
       </c>
@@ -4325,7 +3612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="5">
         <v>17</v>
       </c>
@@ -4360,7 +3647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="5">
         <v>18</v>
       </c>
@@ -4395,7 +3682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="5">
         <v>19</v>
       </c>
@@ -4430,7 +3717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="5">
         <v>20</v>
       </c>
@@ -4465,7 +3752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="5">
         <v>21</v>
       </c>
@@ -4500,7 +3787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="5">
         <v>22</v>
       </c>
@@ -4535,7 +3822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" s="16" customFormat="1" hidden="1">
       <c r="A17" s="5">
         <v>23</v>
       </c>
@@ -4568,7 +3855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="5">
         <v>24</v>
       </c>
@@ -4603,7 +3890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="5">
         <v>25</v>
       </c>
@@ -4638,7 +3925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="5">
         <v>26</v>
       </c>
@@ -4673,7 +3960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="5">
         <v>27</v>
       </c>
@@ -4708,7 +3995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="5">
         <v>28</v>
       </c>
@@ -4743,7 +4030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="5">
         <v>29</v>
       </c>
@@ -4778,7 +4065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="5">
         <v>30</v>
       </c>
@@ -4813,7 +4100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="5">
         <v>31</v>
       </c>
@@ -4848,7 +4135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>32</v>
       </c>
@@ -4883,7 +4170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="5">
         <v>33</v>
       </c>
@@ -4916,7 +4203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="5">
         <v>34</v>
       </c>
@@ -4951,7 +4238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" ht="28.9" hidden="1">
       <c r="A29" s="5">
         <v>35</v>
       </c>
@@ -4986,7 +4273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="5">
         <v>36</v>
       </c>
@@ -5021,7 +4308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>37</v>
       </c>
@@ -5056,7 +4343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" ht="28.9" hidden="1">
       <c r="A32" s="5">
         <v>38</v>
       </c>
@@ -5091,7 +4378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="5">
         <v>39</v>
       </c>
@@ -5126,7 +4413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="5">
         <v>40</v>
       </c>
@@ -5161,7 +4448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="5">
         <v>41</v>
       </c>
@@ -5196,7 +4483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="5">
         <v>42</v>
       </c>
@@ -5231,7 +4518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="5">
         <v>43</v>
       </c>
@@ -5266,7 +4553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" ht="28.9" hidden="1">
       <c r="A38" s="5">
         <v>45</v>
       </c>
@@ -5299,7 +4586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="5">
         <v>46</v>
       </c>
@@ -5334,7 +4621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" ht="28.9" hidden="1">
       <c r="A40" s="5">
         <v>47</v>
       </c>
@@ -5369,7 +4656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" ht="28.9" hidden="1">
       <c r="A41" s="5">
         <v>49</v>
       </c>
@@ -5404,7 +4691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="5">
         <v>50</v>
       </c>
@@ -5439,7 +4726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>51</v>
       </c>
@@ -5474,7 +4761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:11" ht="43.15">
       <c r="A44" s="5">
         <v>52</v>
       </c>
@@ -5509,7 +4796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" ht="43.15" hidden="1">
       <c r="A45" s="5">
         <v>55</v>
       </c>
@@ -5544,7 +4831,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" ht="28.9" hidden="1">
       <c r="A46" s="5">
         <v>57</v>
       </c>
@@ -5579,7 +4866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11" ht="28.9" hidden="1">
       <c r="A47" s="5">
         <v>58</v>
       </c>
@@ -5614,7 +4901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="5">
         <v>61</v>
       </c>
@@ -5649,7 +4936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:11" ht="28.9" hidden="1">
       <c r="A49" s="5">
         <v>62</v>
       </c>
@@ -5682,7 +4969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:11" ht="28.9" hidden="1">
       <c r="A50" s="5">
         <v>63</v>
       </c>
@@ -5717,7 +5004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11" ht="28.9" hidden="1">
       <c r="A51" s="5">
         <v>66</v>
       </c>
@@ -5752,7 +5039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="5">
         <v>76</v>
       </c>
@@ -5787,7 +5074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="5">
         <v>77</v>
       </c>
@@ -5820,7 +5107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="5">
         <v>78</v>
       </c>
@@ -5853,7 +5140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="5">
         <v>83</v>
       </c>
@@ -5888,7 +5175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="5">
         <v>84</v>
       </c>
@@ -5923,7 +5210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:11" ht="28.9" hidden="1">
       <c r="A57" s="5">
         <v>85</v>
       </c>
@@ -5958,7 +5245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="5">
         <v>90</v>
       </c>
@@ -5993,7 +5280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:11" s="16" customFormat="1" hidden="1">
       <c r="A59" s="5">
         <v>92</v>
       </c>
@@ -6028,7 +5315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:11" ht="60" hidden="1" customHeight="1">
       <c r="A60" s="5">
         <v>93</v>
       </c>
@@ -6063,7 +5350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="5">
         <v>98</v>
       </c>
@@ -6098,7 +5385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="5">
         <v>101</v>
       </c>
@@ -6133,7 +5420,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="5">
         <v>102</v>
       </c>
@@ -6168,7 +5455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:11" ht="43.15" hidden="1">
       <c r="A64" s="5">
         <v>103</v>
       </c>
@@ -6203,7 +5490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="5">
         <v>104</v>
       </c>
@@ -6238,7 +5525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="5">
         <v>105</v>
       </c>
@@ -6271,7 +5558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="5">
         <v>106</v>
       </c>
@@ -6306,7 +5593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="5">
         <v>116</v>
       </c>
@@ -6341,7 +5628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="5">
         <v>117</v>
       </c>
@@ -6376,7 +5663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="5">
         <v>118</v>
       </c>
@@ -6411,7 +5698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="5">
         <v>119</v>
       </c>
@@ -6446,7 +5733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" ht="28.9" hidden="1">
       <c r="A72" s="5">
         <v>120</v>
       </c>
@@ -6481,7 +5768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="5">
         <v>121</v>
       </c>
@@ -6516,7 +5803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="5">
         <v>122</v>
       </c>
@@ -6551,7 +5838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="5">
         <v>123</v>
       </c>
@@ -6586,7 +5873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="5">
         <v>125</v>
       </c>
@@ -6621,7 +5908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="5">
         <v>126</v>
       </c>
@@ -6656,7 +5943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="5">
         <v>129</v>
       </c>
@@ -6691,7 +5978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="5">
         <v>130</v>
       </c>
@@ -6726,7 +6013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="5">
         <v>131</v>
       </c>
@@ -6761,7 +6048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" ht="28.9">
       <c r="A81" s="5">
         <v>132</v>
       </c>
@@ -6796,7 +6083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="5">
         <v>133</v>
       </c>
@@ -6831,7 +6118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="5">
         <v>138</v>
       </c>
@@ -6866,7 +6153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="5">
         <v>139</v>
       </c>
@@ -6901,7 +6188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11">
       <c r="A85" s="5">
         <v>141</v>
       </c>
@@ -6936,7 +6223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="5">
         <v>142</v>
       </c>
@@ -6971,7 +6258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="5">
         <v>147</v>
       </c>
@@ -7004,7 +6291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="5">
         <v>148</v>
       </c>
@@ -7039,7 +6326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="5">
         <v>152</v>
       </c>
@@ -7072,7 +6359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="5">
         <v>153</v>
       </c>
@@ -7105,7 +6392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="5">
         <v>154</v>
       </c>
@@ -7138,7 +6425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:11" ht="28.9" hidden="1">
       <c r="A92" s="5">
         <v>155</v>
       </c>
@@ -7171,7 +6458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:11" s="24" customFormat="1" ht="28.9" hidden="1">
       <c r="A93" s="5">
         <v>158</v>
       </c>
@@ -7206,7 +6493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="5">
         <v>164</v>
       </c>
@@ -7239,7 +6526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="5">
         <v>165</v>
       </c>
@@ -7272,7 +6559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="5">
         <v>167</v>
       </c>
@@ -7307,7 +6594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97" s="5">
         <v>168</v>
       </c>
@@ -7342,7 +6629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="5">
         <v>170</v>
       </c>
@@ -7377,7 +6664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="5">
         <v>173</v>
       </c>
@@ -7412,7 +6699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100" s="5">
         <v>177</v>
       </c>
@@ -7447,7 +6734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101" s="5">
         <v>178</v>
       </c>
@@ -7533,178 +6820,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
-  <dimension ref="A1:CV102"/>
+  <dimension ref="A1:CV104"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.68359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="36" width="9.41796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="36" width="10.578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="36" width="8.41796875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="37" width="8.41796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="38" width="10.41796875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="40" width="9.41796875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="39" width="8.578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="39" width="11.15625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" style="39" width="9.0" collapsed="true"/>
-    <col min="13" max="18" bestFit="true" customWidth="true" style="39" width="8.41796875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="39" width="9.41796875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="39" width="10.15625" collapsed="true"/>
-    <col min="21" max="23" bestFit="true" customWidth="true" style="39" width="9.41796875" collapsed="true"/>
-    <col min="24" max="30" bestFit="true" customWidth="true" style="39" width="8.41796875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="39" width="13.15625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="39" width="10.83984375" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="39" width="10.15625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="39" width="12.68359375" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="38" width="11.0" collapsed="true"/>
-    <col min="36" max="36" style="38" width="8.68359375" collapsed="true"/>
-    <col min="37" max="38" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="38" width="11.0" collapsed="true"/>
-    <col min="40" max="44" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="45" max="45" style="38" width="8.68359375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="38" width="8.578125" collapsed="true"/>
-    <col min="47" max="51" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="52" max="52" style="38" width="8.68359375" collapsed="true"/>
-    <col min="53" max="55" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="56" max="56" customWidth="true" style="38" width="18.0" collapsed="true"/>
-    <col min="57" max="59" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="true"/>
-    <col min="61" max="63" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="64" max="64" customWidth="true" style="38" width="13.578125" collapsed="true"/>
-    <col min="65" max="65" customWidth="true" style="38" width="12.83984375" collapsed="true"/>
-    <col min="66" max="66" customWidth="true" style="38" width="13.15625" collapsed="true"/>
-    <col min="67" max="67" customWidth="true" style="38" width="11.83984375" collapsed="true"/>
-    <col min="68" max="68" customWidth="true" style="38" width="15.83984375" collapsed="true"/>
-    <col min="69" max="69" customWidth="true" style="38" width="13.15625" collapsed="true"/>
-    <col min="70" max="70" customWidth="true" style="38" width="17.68359375" collapsed="true"/>
-    <col min="71" max="71" customWidth="true" style="38" width="11.41796875" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="38" width="9.41796875" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="74" max="74" customWidth="true" style="38" width="13.578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="38" width="8.578125" collapsed="true"/>
-    <col min="76" max="77" style="38" width="8.68359375" collapsed="true"/>
-    <col min="78" max="80" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="true"/>
-    <col min="82" max="83" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="84" max="84" customWidth="true" style="38" width="13.15625" collapsed="true"/>
-    <col min="85" max="86" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="true"/>
-    <col min="88" max="88" customWidth="true" style="38" width="10.578125" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" style="38" width="8.41796875" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="38" width="10.15625" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="93" max="94" bestFit="true" customWidth="true" style="38" width="9.41796875" collapsed="true"/>
-    <col min="95" max="95" customWidth="true" style="38" width="11.41796875" collapsed="true"/>
-    <col min="96" max="99" bestFit="true" customWidth="true" style="38" width="8.26171875" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="38" width="10.15625" collapsed="true"/>
+    <col min="1" max="1" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="34" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="84" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="75" width="8.42578125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="76" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="77" width="10.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="78" width="9.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="36" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="36" width="11.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" style="36" width="9.0" collapsed="true"/>
+    <col min="13" max="18" bestFit="true" customWidth="true" style="36" width="8.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="36" width="9.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="36" width="10.140625" collapsed="true"/>
+    <col min="21" max="23" bestFit="true" customWidth="true" style="36" width="9.42578125" collapsed="true"/>
+    <col min="24" max="30" bestFit="true" customWidth="true" style="36" width="8.42578125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="36" width="13.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="36" width="10.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="36" width="10.140625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="36" width="12.7109375" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="35" width="11.0" collapsed="true"/>
+    <col min="36" max="36" style="35" width="8.7109375" collapsed="true"/>
+    <col min="37" max="38" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="35" width="11.0" collapsed="true"/>
+    <col min="40" max="44" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="45" max="45" style="35" width="8.7109375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="35" width="8.5703125" collapsed="true"/>
+    <col min="47" max="51" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="52" max="52" style="35" width="8.7109375" collapsed="true"/>
+    <col min="53" max="55" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" style="35" width="18.0" collapsed="true"/>
+    <col min="57" max="59" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="35" width="8.42578125" collapsed="true"/>
+    <col min="61" max="63" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" style="35" width="13.5703125" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" style="35" width="12.85546875" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" style="35" width="13.140625" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" style="35" width="11.85546875" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" style="35" width="15.85546875" collapsed="true"/>
+    <col min="69" max="69" customWidth="true" style="35" width="13.140625" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" style="35" width="17.7109375" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="35" width="11.42578125" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="35" width="9.42578125" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" style="35" width="13.5703125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="35" width="8.5703125" collapsed="true"/>
+    <col min="76" max="77" style="35" width="8.7109375" collapsed="true"/>
+    <col min="78" max="80" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" style="35" width="8.42578125" collapsed="true"/>
+    <col min="82" max="83" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="84" max="84" customWidth="true" style="35" width="13.140625" collapsed="true"/>
+    <col min="85" max="86" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="35" width="8.42578125" collapsed="true"/>
+    <col min="88" max="88" customWidth="true" style="35" width="10.5703125" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="35" width="8.42578125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="35" width="10.140625" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="93" max="94" bestFit="true" customWidth="true" style="35" width="9.42578125" collapsed="true"/>
+    <col min="95" max="95" customWidth="true" style="35" width="11.42578125" collapsed="true"/>
+    <col min="96" max="99" bestFit="true" customWidth="true" style="35" width="8.28515625" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="35" width="10.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:100" ht="45.75">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="34" t="s">
+      <c r="C1" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="34" t="s">
+      <c r="N1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AE1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AG1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AH1" s="33" t="s">
         <v>35</v>
       </c>
       <c r="AI1" s="10" t="s">
@@ -7906,3728 +7193,3009 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:100" ht="14.65" thickBot="1">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AL2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AR2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AS2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AU2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AW2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AX2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AY2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="AZ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BA2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BB2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BC2" s="43" t="s">
+      <c r="BC2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BD2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BE2" s="43" t="s">
+      <c r="BE2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BF2" s="46" t="s">
+      <c r="BF2" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="BG2" s="43" t="s">
+      <c r="BG2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BH2" s="43" t="s">
+      <c r="BH2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BI2" s="43" t="s">
+      <c r="BI2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="BJ2" s="43" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="BK2" s="43" t="s">
+      <c r="BK2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="BL2" s="43" t="s">
+      <c r="BL2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BM2" s="43" t="s">
+      <c r="BM2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BN2" s="43" t="s">
+      <c r="BN2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BO2" s="43" t="s">
+      <c r="BO2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BP2" s="43" t="s">
+      <c r="BP2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BQ2" s="43" t="s">
+      <c r="BQ2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BR2" s="43" t="s">
+      <c r="BR2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BS2" s="43" t="s">
+      <c r="BS2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BT2" s="43" t="s">
+      <c r="BT2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BU2" s="43" t="s">
+      <c r="BU2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BV2" s="43" t="s">
+      <c r="BV2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BW2" s="43" t="s">
+      <c r="BW2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BX2" s="43" t="s">
+      <c r="BX2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BY2" s="43" t="s">
+      <c r="BY2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BZ2" s="43" t="s">
+      <c r="BZ2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="CA2" s="43" t="s">
+      <c r="CA2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="CB2" s="43" t="s">
+      <c r="CB2" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="CC2" s="43" t="s">
+      <c r="CC2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CD2" s="43" t="s">
+      <c r="CD2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CE2" s="43" t="s">
+      <c r="CE2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CF2" s="43" t="s">
+      <c r="CF2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CG2" s="43" t="s">
+      <c r="CG2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CH2" s="43" t="s">
+      <c r="CH2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CI2" s="43" t="s">
+      <c r="CI2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CJ2" s="43" t="s">
+      <c r="CJ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CK2" s="43" t="s">
+      <c r="CK2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CL2" s="43" t="s">
+      <c r="CL2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="CM2" s="43" t="s">
+      <c r="CM2" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="CN2" s="43" t="s">
+      <c r="CN2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CO2" s="43" t="s">
+      <c r="CO2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="CP2" s="43" t="s">
+      <c r="CP2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="CQ2" s="43" t="s">
+      <c r="CQ2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="CR2" s="43" t="s">
+      <c r="CR2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CS2" s="43" t="s">
+      <c r="CS2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CT2" s="43" t="s">
+      <c r="CT2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CU2" s="43" t="s">
+      <c r="CU2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="CV2" s="43" t="s">
+      <c r="CV2" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:100">
       <c r="A3" s="31"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="X3" s="56" t="s">
+      <c r="X3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" s="56" t="s">
+      <c r="Y3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" s="56" t="s">
+      <c r="Z3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AB3" s="56" t="s">
+      <c r="AB3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AC3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="56" t="s">
+      <c r="AD3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AE3" s="56" t="s">
+      <c r="AE3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AF3" s="56" t="s">
+      <c r="AF3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AG3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AH3" s="56" t="s">
+      <c r="AH3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AI3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI3" s="55" t="s">
+      <c r="AI3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="BJ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC3" s="55" t="s">
+      <c r="BJ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CD3" s="55" t="s">
+      <c r="CD3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CE3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT3" s="55" t="s">
+      <c r="CE3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CU3" s="55" t="s">
+      <c r="CU3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CV3" s="58" t="s">
+      <c r="CV3" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:100" s="29" customFormat="1" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:100" s="29" customFormat="1" ht="76.5">
       <c r="A4" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="T4" s="66" t="s">
+      <c r="T4" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="X4" s="66" t="s">
+      <c r="X4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="Y4" s="66" t="s">
+      <c r="Y4" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="Z4" s="66" t="s">
+      <c r="Z4" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="AA4" s="66" t="s">
+      <c r="AA4" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="AB4" s="64" t="s">
+      <c r="AB4" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="AD4" s="66" t="s">
+      <c r="AD4" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="AE4" s="64" t="s">
+      <c r="AE4" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AF4" s="64" t="s">
+      <c r="AF4" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AG4" s="64" t="s">
+      <c r="AG4" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AH4" s="64" t="s">
+      <c r="AH4" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="AI4" s="67" t="s">
+      <c r="AI4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="63" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="67" t="s">
+      <c r="AK4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AL4" s="67" t="s">
+      <c r="AL4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AM4" s="67" t="s">
+      <c r="AM4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" s="67" t="s">
+      <c r="AN4" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AO4" s="67" t="s">
+      <c r="AO4" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AP4" s="67" t="s">
+      <c r="AP4" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AQ4" s="67" t="s">
+      <c r="AQ4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AR4" s="67" t="s">
+      <c r="AR4" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AS4" s="67" t="s">
+      <c r="AS4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="AT4" s="67" t="s">
+      <c r="AT4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AU4" s="63" t="s">
+      <c r="AU4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AV4" s="67" t="s">
+      <c r="AV4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="AW4" s="63" t="s">
+      <c r="AW4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AX4" s="67" t="s">
+      <c r="AX4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AY4" s="67" t="s">
+      <c r="AY4" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AZ4" s="67" t="s">
+      <c r="AZ4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="BA4" s="67" t="s">
+      <c r="BA4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="67" t="s">
+      <c r="BB4" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="BC4" s="63" t="s">
+      <c r="BC4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="BD4" s="63" t="s">
+      <c r="BD4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="BE4" s="63" t="s">
+      <c r="BE4" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="BF4" s="63" t="s">
+      <c r="BF4" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="BG4" s="67" t="s">
+      <c r="BG4" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="BH4" s="63" t="s">
+      <c r="BH4" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="BI4" s="63" t="s">
+      <c r="BI4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="BJ4" s="63" t="s">
+      <c r="BJ4" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="BK4" s="63" t="s">
+      <c r="BK4" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="63" t="s">
+      <c r="BL4" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="BM4" s="67" t="s">
+      <c r="BM4" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="BN4" s="67" t="s">
+      <c r="BN4" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="BO4" s="63" t="s">
+      <c r="BO4" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="BP4" s="63" t="s">
+      <c r="BP4" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="BQ4" s="63" t="s">
+      <c r="BQ4" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="BR4" s="67" t="s">
+      <c r="BR4" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="BS4" s="63" t="s">
+      <c r="BS4" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="BT4" s="67" t="s">
+      <c r="BT4" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="BU4" s="67" t="s">
+      <c r="BU4" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="BV4" s="63" t="s">
+      <c r="BV4" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="BW4" s="63" t="s">
+      <c r="BW4" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="BX4" s="63" t="s">
+      <c r="BX4" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="BY4" s="63" t="s">
+      <c r="BY4" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="BZ4" s="63" t="s">
+      <c r="BZ4" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="CA4" s="63" t="s">
+      <c r="CA4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="CB4" s="67" t="s">
+      <c r="CB4" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="CC4" s="63" t="s">
+      <c r="CC4" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="CD4" s="63" t="s">
+      <c r="CD4" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="CE4" s="67" t="s">
+      <c r="CE4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="CF4" s="63" t="s">
+      <c r="CF4" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="CG4" s="63" t="s">
+      <c r="CG4" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="CH4" s="67" t="s">
+      <c r="CH4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="CI4" s="68" t="s">
+      <c r="CI4" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="CJ4" s="67" t="s">
+      <c r="CJ4" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="CK4" s="63" t="s">
+      <c r="CK4" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="CL4" s="67" t="s">
+      <c r="CL4" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="CM4" s="67" t="s">
+      <c r="CM4" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="CN4" s="68" t="s">
+      <c r="CN4" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="CO4" s="63" t="s">
+      <c r="CO4" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="CP4" s="67" t="s">
+      <c r="CP4" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="CQ4" s="67" t="s">
+      <c r="CQ4" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="CR4" s="67" t="s">
+      <c r="CR4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="CS4" s="63" t="s">
+      <c r="CS4" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="CT4" s="68" t="s">
+      <c r="CT4" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="CU4" s="63" t="s">
+      <c r="CU4" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="CV4" s="69" t="s">
+      <c r="CV4" s="54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:100" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" t="n" s="39">
-        <v>17.242462417227923</v>
-      </c>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="49"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="49"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49"/>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="49"/>
-      <c r="BP5" s="49"/>
-      <c r="BQ5" s="49"/>
-      <c r="BR5" s="49"/>
-      <c r="BS5" s="49"/>
-      <c r="BT5" s="49"/>
-      <c r="BU5" s="49"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="49"/>
-      <c r="BX5" s="49"/>
-      <c r="BY5" s="49"/>
-      <c r="BZ5" s="49"/>
-      <c r="CA5" s="49"/>
-      <c r="CB5" s="49"/>
-      <c r="CC5" s="49"/>
-      <c r="CD5" s="49"/>
-      <c r="CE5" s="49"/>
-      <c r="CF5" s="49"/>
-      <c r="CG5" s="49"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="49"/>
-      <c r="CJ5" s="49"/>
-      <c r="CK5" s="49"/>
-      <c r="CL5" s="49"/>
-      <c r="CM5" s="49"/>
-      <c r="CN5" s="49"/>
-      <c r="CO5" s="49"/>
-      <c r="CP5" s="49"/>
-      <c r="CQ5" s="49"/>
-      <c r="CR5" s="49"/>
-      <c r="CS5" s="49"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="49"/>
-      <c r="CV5" s="49"/>
+    <row r="5" spans="1:100" hidden="1">
+      <c r="B5" s="41"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42"/>
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42"/>
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42"/>
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="36">
-        <v>13.440532193313903</v>
-      </c>
-      <c r="C6" t="n" s="258">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D6" t="s" s="36">
-        <v>598</v>
-      </c>
-      <c r="E6" t="n" s="70">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F6" t="n" s="162">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G6" t="s" s="38">
+      <c r="B6" t="n" s="34">
+        <v>70.6451789168083</v>
+      </c>
+      <c r="C6" t="n" s="84">
+        <v>2.635608776123699</v>
+      </c>
+      <c r="D6" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E6" t="s" s="76">
+        <v>250</v>
+      </c>
+      <c r="F6" t="s" s="76">
+        <v>347</v>
+      </c>
+      <c r="G6" t="s" s="77">
+        <v>362</v>
+      </c>
+      <c r="H6" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I6" t="s" s="36">
+        <v>492</v>
+      </c>
+      <c r="J6" t="s" s="36">
+        <v>273</v>
+      </c>
+      <c r="K6" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L6" t="s" s="36">
+        <v>523</v>
+      </c>
+      <c r="M6" t="s" s="36">
+        <v>461</v>
+      </c>
+      <c r="AC6" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n" s="34">
+        <v>38.11669745141031</v>
+      </c>
+      <c r="C7" t="n" s="84">
+        <v>56.938706315634036</v>
+      </c>
+      <c r="D7" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E7" t="s" s="76">
+        <v>251</v>
+      </c>
+      <c r="F7" t="s" s="76">
+        <v>348</v>
+      </c>
+      <c r="G7" t="s" s="77">
+        <v>363</v>
+      </c>
+      <c r="H7" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I7" t="s" s="36">
+        <v>493</v>
+      </c>
+      <c r="J7" t="s" s="36">
+        <v>274</v>
+      </c>
+      <c r="K7" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L7" t="s" s="36">
+        <v>524</v>
+      </c>
+      <c r="M7" t="s" s="36">
+        <v>462</v>
+      </c>
+      <c r="AC7" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n" s="34">
+        <v>11.272892842957782</v>
+      </c>
+      <c r="C8" t="n" s="84">
+        <v>86.66184134883366</v>
+      </c>
+      <c r="D8" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E8" t="s" s="76">
+        <v>252</v>
+      </c>
+      <c r="F8" t="s" s="76">
+        <v>349</v>
+      </c>
+      <c r="G8" t="s" s="77">
+        <v>364</v>
+      </c>
+      <c r="H8" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I8" t="s" s="36">
+        <v>494</v>
+      </c>
+      <c r="J8" t="s" s="36">
+        <v>275</v>
+      </c>
+      <c r="K8" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L8" t="s" s="36">
+        <v>525</v>
+      </c>
+      <c r="M8" t="s" s="36">
+        <v>463</v>
+      </c>
+      <c r="AC8" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n" s="34">
+        <v>76.36872840817996</v>
+      </c>
+      <c r="C9" t="n" s="84">
+        <v>86.55412099317597</v>
+      </c>
+      <c r="D9" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E9" t="s" s="76">
+        <v>253</v>
+      </c>
+      <c r="F9" t="s" s="76">
+        <v>350</v>
+      </c>
+      <c r="G9" t="s" s="77">
+        <v>365</v>
+      </c>
+      <c r="H9" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I9" t="s" s="36">
+        <v>495</v>
+      </c>
+      <c r="J9" t="s" s="36">
+        <v>276</v>
+      </c>
+      <c r="K9" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L9" t="s" s="36">
+        <v>526</v>
+      </c>
+      <c r="M9" t="s" s="36">
+        <v>464</v>
+      </c>
+      <c r="AC9" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n" s="34">
+        <v>34.976313682315144</v>
+      </c>
+      <c r="C10" t="n" s="84">
+        <v>32.23784669244863</v>
+      </c>
+      <c r="D10" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E10" t="s" s="76">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s" s="76">
+        <v>351</v>
+      </c>
+      <c r="G10" t="s" s="77">
+        <v>366</v>
+      </c>
+      <c r="H10" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I10" t="s" s="36">
+        <v>496</v>
+      </c>
+      <c r="J10" t="s" s="36">
+        <v>277</v>
+      </c>
+      <c r="K10" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L10" t="s" s="36">
+        <v>527</v>
+      </c>
+      <c r="M10" t="s" s="36">
+        <v>465</v>
+      </c>
+      <c r="AC10" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n" s="34">
+        <v>28.881143809326204</v>
+      </c>
+      <c r="C11" t="n" s="84">
+        <v>15.538038436151002</v>
+      </c>
+      <c r="D11" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E11" t="s" s="76">
+        <v>255</v>
+      </c>
+      <c r="F11" t="s" s="76">
+        <v>352</v>
+      </c>
+      <c r="G11" t="s" s="77">
+        <v>367</v>
+      </c>
+      <c r="H11" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I11" t="s" s="36">
+        <v>497</v>
+      </c>
+      <c r="J11" t="s" s="36">
+        <v>278</v>
+      </c>
+      <c r="K11" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L11" t="s" s="36">
+        <v>528</v>
+      </c>
+      <c r="M11" t="s" s="36">
+        <v>466</v>
+      </c>
+      <c r="AC11" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n" s="34">
+        <v>10.439086221580107</v>
+      </c>
+      <c r="C12" t="n" s="84">
+        <v>77.65533288588404</v>
+      </c>
+      <c r="D12" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E12" t="s" s="76">
+        <v>256</v>
+      </c>
+      <c r="F12" t="s" s="76">
+        <v>353</v>
+      </c>
+      <c r="G12" t="s" s="77">
+        <v>368</v>
+      </c>
+      <c r="H12" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I12" t="s" s="36">
+        <v>498</v>
+      </c>
+      <c r="J12" t="s" s="36">
+        <v>279</v>
+      </c>
+      <c r="K12" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L12" t="s" s="36">
+        <v>529</v>
+      </c>
+      <c r="M12" t="s" s="36">
+        <v>467</v>
+      </c>
+      <c r="AC12" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n" s="34">
+        <v>24.53213139692474</v>
+      </c>
+      <c r="C13" t="n" s="84">
+        <v>46.59676679191948</v>
+      </c>
+      <c r="D13" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E13" t="s" s="76">
+        <v>257</v>
+      </c>
+      <c r="F13" t="s" s="76">
+        <v>354</v>
+      </c>
+      <c r="G13" t="s" s="77">
+        <v>369</v>
+      </c>
+      <c r="H13" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I13" t="s" s="36">
+        <v>499</v>
+      </c>
+      <c r="J13" t="s" s="36">
+        <v>280</v>
+      </c>
+      <c r="K13" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L13" t="s" s="36">
+        <v>530</v>
+      </c>
+      <c r="M13" t="s" s="36">
+        <v>468</v>
+      </c>
+      <c r="AC13" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n" s="34">
+        <v>43.98512231245368</v>
+      </c>
+      <c r="C14" t="n" s="84">
+        <v>26.366622655184656</v>
+      </c>
+      <c r="D14" t="n" s="75">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="E14" t="s" s="76">
+        <v>258</v>
+      </c>
+      <c r="F14" t="s" s="76">
+        <v>355</v>
+      </c>
+      <c r="G14" t="s" s="77">
+        <v>370</v>
+      </c>
+      <c r="H14" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I14" t="s" s="36">
+        <v>500</v>
+      </c>
+      <c r="J14" t="s" s="36">
+        <v>281</v>
+      </c>
+      <c r="K14" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L14" t="s" s="36">
+        <v>531</v>
+      </c>
+      <c r="M14" t="s" s="36">
+        <v>469</v>
+      </c>
+      <c r="AC14" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n" s="34">
+        <v>39.57282608966476</v>
+      </c>
+      <c r="C15" t="n" s="84">
+        <v>68.2301604511948</v>
+      </c>
+      <c r="E15" t="s" s="76">
+        <v>259</v>
+      </c>
+      <c r="F15" t="s" s="76">
+        <v>356</v>
+      </c>
+      <c r="G15" t="s" s="77">
+        <v>371</v>
+      </c>
+      <c r="H15" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I15" t="s" s="36">
+        <v>501</v>
+      </c>
+      <c r="J15" t="s" s="36">
+        <v>282</v>
+      </c>
+      <c r="K15" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L15" t="s" s="36">
+        <v>532</v>
+      </c>
+      <c r="M15" t="s" s="36">
+        <v>470</v>
+      </c>
+      <c r="AC15" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n" s="34">
+        <v>22.103109004460098</v>
+      </c>
+      <c r="C16" t="n" s="84">
+        <v>4.289194969075972</v>
+      </c>
+      <c r="E16" t="s" s="76">
+        <v>260</v>
+      </c>
+      <c r="F16" t="s" s="76">
+        <v>357</v>
+      </c>
+      <c r="G16" t="s" s="77">
+        <v>372</v>
+      </c>
+      <c r="H16" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I16" t="s" s="36">
+        <v>502</v>
+      </c>
+      <c r="J16" t="s" s="36">
+        <v>283</v>
+      </c>
+      <c r="K16" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L16" t="s" s="36">
+        <v>533</v>
+      </c>
+      <c r="M16" t="s" s="36">
+        <v>471</v>
+      </c>
+      <c r="AC16" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n" s="34">
+        <v>68.23171599052435</v>
+      </c>
+      <c r="C17" t="n" s="84">
+        <v>10.986113086488558</v>
+      </c>
+      <c r="E17" t="s" s="76">
+        <v>261</v>
+      </c>
+      <c r="F17" t="s" s="76">
+        <v>358</v>
+      </c>
+      <c r="G17" t="s" s="77">
+        <v>373</v>
+      </c>
+      <c r="H17" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I17" t="s" s="36">
+        <v>503</v>
+      </c>
+      <c r="J17" t="s" s="36">
+        <v>284</v>
+      </c>
+      <c r="K17" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L17" t="s" s="36">
+        <v>534</v>
+      </c>
+      <c r="M17" t="s" s="36">
+        <v>472</v>
+      </c>
+      <c r="AC17" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n" s="34">
+        <v>63.44018944964929</v>
+      </c>
+      <c r="C18" t="n" s="84">
+        <v>41.07918845780709</v>
+      </c>
+      <c r="E18" t="s" s="76">
+        <v>262</v>
+      </c>
+      <c r="F18" t="s" s="76">
+        <v>359</v>
+      </c>
+      <c r="G18" t="s" s="77">
+        <v>374</v>
+      </c>
+      <c r="H18" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I18" t="s" s="36">
+        <v>504</v>
+      </c>
+      <c r="J18" t="s" s="36">
+        <v>285</v>
+      </c>
+      <c r="K18" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L18" t="s" s="36">
+        <v>535</v>
+      </c>
+      <c r="M18" t="s" s="36">
+        <v>473</v>
+      </c>
+      <c r="AC18" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="n" s="34">
+        <v>63.018551513010514</v>
+      </c>
+      <c r="C19" t="n" s="84">
+        <v>65.33756928027331</v>
+      </c>
+      <c r="E19" t="s" s="76">
+        <v>263</v>
+      </c>
+      <c r="F19" t="s" s="76">
+        <v>360</v>
+      </c>
+      <c r="G19" t="s" s="77">
+        <v>375</v>
+      </c>
+      <c r="H19" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I19" t="s" s="36">
+        <v>505</v>
+      </c>
+      <c r="J19" t="s" s="36">
+        <v>286</v>
+      </c>
+      <c r="K19" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L19" t="s" s="36">
+        <v>536</v>
+      </c>
+      <c r="M19" t="s" s="36">
+        <v>474</v>
+      </c>
+      <c r="AC19" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="n" s="34">
+        <v>29.28388662232848</v>
+      </c>
+      <c r="C20" t="n" s="84">
+        <v>34.87453867695687</v>
+      </c>
+      <c r="E20" t="s" s="76">
+        <v>264</v>
+      </c>
+      <c r="F20" t="s" s="76">
+        <v>361</v>
+      </c>
+      <c r="G20" t="s" s="77">
+        <v>376</v>
+      </c>
+      <c r="H20" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I20" t="s" s="36">
+        <v>506</v>
+      </c>
+      <c r="J20" t="s" s="36">
+        <v>287</v>
+      </c>
+      <c r="K20" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L20" t="s" s="36">
+        <v>537</v>
+      </c>
+      <c r="M20" t="s" s="36">
+        <v>475</v>
+      </c>
+      <c r="AC20" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n" s="34">
+        <v>30.56110736284168</v>
+      </c>
+      <c r="C21" t="n" s="84">
+        <v>80.59589504102722</v>
+      </c>
+      <c r="E21" t="s" s="76">
+        <v>265</v>
+      </c>
+      <c r="G21" t="s" s="77">
+        <v>377</v>
+      </c>
+      <c r="H21" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I21" t="s" s="36">
+        <v>507</v>
+      </c>
+      <c r="J21" t="s" s="36">
+        <v>288</v>
+      </c>
+      <c r="K21" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L21" t="s" s="36">
+        <v>538</v>
+      </c>
+      <c r="M21" t="s" s="36">
+        <v>476</v>
+      </c>
+      <c r="AC21" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n" s="34">
+        <v>88.49689946330233</v>
+      </c>
+      <c r="C22" t="n" s="84">
+        <v>88.23462439327649</v>
+      </c>
+      <c r="E22" t="s" s="76">
+        <v>266</v>
+      </c>
+      <c r="G22" t="s" s="77">
+        <v>378</v>
+      </c>
+      <c r="H22" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I22" t="s" s="36">
+        <v>508</v>
+      </c>
+      <c r="J22" t="s" s="36">
+        <v>289</v>
+      </c>
+      <c r="K22" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L22" t="s" s="36">
+        <v>539</v>
+      </c>
+      <c r="M22" t="s" s="36">
+        <v>477</v>
+      </c>
+      <c r="AC22" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="n" s="34">
+        <v>78.75729314673006</v>
+      </c>
+      <c r="C23" t="n" s="84">
+        <v>86.80280279364845</v>
+      </c>
+      <c r="E23" t="s" s="76">
+        <v>267</v>
+      </c>
+      <c r="G23" t="s" s="77">
+        <v>379</v>
+      </c>
+      <c r="H23" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I23" t="s" s="36">
+        <v>509</v>
+      </c>
+      <c r="J23" t="s" s="36">
+        <v>290</v>
+      </c>
+      <c r="K23" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L23" t="s" s="36">
+        <v>540</v>
+      </c>
+      <c r="M23" t="s" s="36">
+        <v>478</v>
+      </c>
+      <c r="AC23" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="n" s="34">
+        <v>47.252758187046815</v>
+      </c>
+      <c r="C24" t="n" s="84">
+        <v>41.342792469986044</v>
+      </c>
+      <c r="E24" t="s" s="76">
+        <v>268</v>
+      </c>
+      <c r="G24" t="s" s="77">
+        <v>380</v>
+      </c>
+      <c r="H24" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I24" t="s" s="36">
+        <v>510</v>
+      </c>
+      <c r="J24" t="s" s="36">
+        <v>291</v>
+      </c>
+      <c r="K24" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L24" t="s" s="36">
+        <v>541</v>
+      </c>
+      <c r="M24" t="s" s="36">
+        <v>479</v>
+      </c>
+      <c r="AC24" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="n" s="34">
+        <v>42.5623886212586</v>
+      </c>
+      <c r="C25" t="n" s="84">
+        <v>56.61671443095816</v>
+      </c>
+      <c r="E25" t="s" s="76">
+        <v>269</v>
+      </c>
+      <c r="G25" t="s" s="77">
+        <v>381</v>
+      </c>
+      <c r="H25" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I25" t="s" s="36">
+        <v>511</v>
+      </c>
+      <c r="J25" t="s" s="36">
+        <v>292</v>
+      </c>
+      <c r="K25" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L25" t="s" s="36">
+        <v>542</v>
+      </c>
+      <c r="M25" t="s" s="36">
+        <v>480</v>
+      </c>
+      <c r="AC25" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="n" s="34">
+        <v>0.6827601983057763</v>
+      </c>
+      <c r="C26" t="n" s="84">
+        <v>99.74524944709357</v>
+      </c>
+      <c r="E26" t="s" s="76">
+        <v>270</v>
+      </c>
+      <c r="G26" t="s" s="77">
+        <v>382</v>
+      </c>
+      <c r="H26" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I26" t="s" s="36">
+        <v>512</v>
+      </c>
+      <c r="J26" t="s" s="36">
+        <v>293</v>
+      </c>
+      <c r="K26" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L26" t="s" s="36">
+        <v>543</v>
+      </c>
+      <c r="M26" t="s" s="36">
+        <v>481</v>
+      </c>
+      <c r="AC26" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="n" s="34">
+        <v>37.70412444341547</v>
+      </c>
+      <c r="C27" t="n" s="84">
+        <v>90.98836098974242</v>
+      </c>
+      <c r="E27" t="s" s="76">
+        <v>271</v>
+      </c>
+      <c r="G27" t="s" s="77">
+        <v>383</v>
+      </c>
+      <c r="H27" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I27" t="s" s="36">
+        <v>513</v>
+      </c>
+      <c r="J27" t="s" s="36">
+        <v>294</v>
+      </c>
+      <c r="K27" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L27" t="s" s="36">
+        <v>544</v>
+      </c>
+      <c r="M27" t="s" s="36">
+        <v>482</v>
+      </c>
+      <c r="AC27" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="n" s="34">
+        <v>21.690115433944445</v>
+      </c>
+      <c r="C28" t="n" s="84">
+        <v>19.790674987329215</v>
+      </c>
+      <c r="E28" t="s" s="76">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s" s="77">
+        <v>384</v>
+      </c>
+      <c r="H28" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I28" t="s" s="36">
+        <v>514</v>
+      </c>
+      <c r="J28" t="s" s="36">
+        <v>295</v>
+      </c>
+      <c r="K28" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L28" t="s" s="36">
+        <v>545</v>
+      </c>
+      <c r="M28" t="s" s="36">
+        <v>483</v>
+      </c>
+      <c r="AC28" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="n" s="34">
+        <v>49.43742430144433</v>
+      </c>
+      <c r="C29" t="n" s="84">
+        <v>11.627364562280762</v>
+      </c>
+      <c r="G29" t="s" s="77">
+        <v>385</v>
+      </c>
+      <c r="H29" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I29" t="s" s="36">
+        <v>515</v>
+      </c>
+      <c r="J29" t="s" s="36">
+        <v>296</v>
+      </c>
+      <c r="K29" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L29" t="s" s="36">
+        <v>546</v>
+      </c>
+      <c r="M29" t="s" s="36">
+        <v>484</v>
+      </c>
+      <c r="AC29" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="n" s="34">
+        <v>89.78228803877082</v>
+      </c>
+      <c r="C30" t="n" s="84">
+        <v>1.3885410934409093</v>
+      </c>
+      <c r="G30" t="s" s="77">
+        <v>386</v>
+      </c>
+      <c r="H30" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I30" t="s" s="36">
+        <v>516</v>
+      </c>
+      <c r="J30" t="s" s="36">
+        <v>297</v>
+      </c>
+      <c r="K30" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="L30" t="s" s="36">
+        <v>547</v>
+      </c>
+      <c r="M30" t="s" s="36">
+        <v>485</v>
+      </c>
+      <c r="AC30" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="n" s="34">
+        <v>4.088131902890235</v>
+      </c>
+      <c r="C31" t="n" s="84">
+        <v>42.181566956318704</v>
+      </c>
+      <c r="G31" t="s" s="77">
+        <v>387</v>
+      </c>
+      <c r="H31" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I31" t="s" s="36">
+        <v>517</v>
+      </c>
+      <c r="J31" t="s" s="36">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s" s="36">
+        <v>548</v>
+      </c>
+      <c r="M31" t="s" s="36">
+        <v>486</v>
+      </c>
+      <c r="AC31" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n" s="34">
+        <v>61.94576070951787</v>
+      </c>
+      <c r="C32" t="n" s="84">
+        <v>59.661878586176606</v>
+      </c>
+      <c r="G32" t="s" s="77">
+        <v>388</v>
+      </c>
+      <c r="H32" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I32" t="s" s="36">
+        <v>518</v>
+      </c>
+      <c r="J32" t="s" s="36">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s" s="36">
+        <v>549</v>
+      </c>
+      <c r="M32" t="s" s="36">
+        <v>487</v>
+      </c>
+      <c r="AC32" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="n" s="34">
+        <v>68.12643662398052</v>
+      </c>
+      <c r="C33" t="n" s="84">
+        <v>77.53178507156841</v>
+      </c>
+      <c r="G33" t="s" s="77">
+        <v>389</v>
+      </c>
+      <c r="H33" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I33" t="s" s="36">
+        <v>519</v>
+      </c>
+      <c r="J33" t="s" s="36">
+        <v>300</v>
+      </c>
+      <c r="L33" t="s" s="36">
+        <v>550</v>
+      </c>
+      <c r="M33" t="s" s="36">
+        <v>488</v>
+      </c>
+      <c r="AC33" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="n" s="34">
+        <v>69.5307192508467</v>
+      </c>
+      <c r="C34" t="n" s="84">
+        <v>33.536114591505765</v>
+      </c>
+      <c r="G34" t="s" s="77">
+        <v>390</v>
+      </c>
+      <c r="H34" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I34" t="s" s="36">
+        <v>520</v>
+      </c>
+      <c r="J34" t="s" s="36">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s" s="36">
+        <v>551</v>
+      </c>
+      <c r="M34" t="s" s="36">
+        <v>489</v>
+      </c>
+      <c r="AC34" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="n" s="34">
+        <v>97.95345594246146</v>
+      </c>
+      <c r="G35" t="s" s="77">
+        <v>391</v>
+      </c>
+      <c r="H35" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I35" t="s" s="36">
+        <v>521</v>
+      </c>
+      <c r="J35" t="s" s="36">
+        <v>302</v>
+      </c>
+      <c r="L35" t="s" s="36">
+        <v>552</v>
+      </c>
+      <c r="M35" t="s" s="36">
+        <v>490</v>
+      </c>
+      <c r="AC35" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="n" s="34">
+        <v>75.0798283251982</v>
+      </c>
+      <c r="G36" t="s" s="77">
+        <v>392</v>
+      </c>
+      <c r="H36" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="I36" t="s" s="36">
+        <v>522</v>
+      </c>
+      <c r="J36" t="s" s="36">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="36">
+        <v>553</v>
+      </c>
+      <c r="AC36" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="n" s="34">
+        <v>25.138778693096963</v>
+      </c>
+      <c r="G37" t="s" s="77">
+        <v>393</v>
+      </c>
+      <c r="H37" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J37" t="s" s="36">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s" s="36">
+        <v>554</v>
+      </c>
+      <c r="AC37" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="n" s="34">
+        <v>65.34227135238982</v>
+      </c>
+      <c r="G38" t="s" s="77">
+        <v>394</v>
+      </c>
+      <c r="H38" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J38" t="s" s="36">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s" s="36">
+        <v>555</v>
+      </c>
+      <c r="AC38" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="n" s="34">
+        <v>9.735330776541373</v>
+      </c>
+      <c r="G39" t="s" s="77">
+        <v>395</v>
+      </c>
+      <c r="H39" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J39" t="s" s="36">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s" s="36">
+        <v>556</v>
+      </c>
+      <c r="AC39" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="n" s="34">
+        <v>79.74008553669285</v>
+      </c>
+      <c r="G40" t="s" s="77">
+        <v>396</v>
+      </c>
+      <c r="H40" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J40" t="s" s="36">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s" s="36">
+        <v>557</v>
+      </c>
+      <c r="AC40" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="n" s="34">
+        <v>58.30589810100888</v>
+      </c>
+      <c r="G41" t="s" s="77">
+        <v>397</v>
+      </c>
+      <c r="H41" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J41" t="s" s="36">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s" s="36">
+        <v>558</v>
+      </c>
+      <c r="AC41" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="n" s="34">
+        <v>54.7400772967634</v>
+      </c>
+      <c r="G42" t="s" s="77">
+        <v>398</v>
+      </c>
+      <c r="H42" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J42" t="s" s="36">
+        <v>309</v>
+      </c>
+      <c r="L42" t="s" s="36">
+        <v>559</v>
+      </c>
+      <c r="AC42" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="n" s="34">
+        <v>64.7705869060455</v>
+      </c>
+      <c r="G43" t="s" s="77">
+        <v>399</v>
+      </c>
+      <c r="H43" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J43" t="s" s="36">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="36">
+        <v>560</v>
+      </c>
+      <c r="AC43" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="n" s="34">
+        <v>95.43530211478775</v>
+      </c>
+      <c r="G44" t="s" s="77">
+        <v>400</v>
+      </c>
+      <c r="H44" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J44" t="s" s="36">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s" s="36">
+        <v>561</v>
+      </c>
+      <c r="AC44" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="n" s="34">
+        <v>49.03673731826414</v>
+      </c>
+      <c r="G45" t="s" s="77">
+        <v>401</v>
+      </c>
+      <c r="H45" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J45" t="s" s="36">
+        <v>312</v>
+      </c>
+      <c r="L45" t="s" s="36">
+        <v>562</v>
+      </c>
+      <c r="AC45" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="n" s="34">
+        <v>96.72129627648305</v>
+      </c>
+      <c r="G46" t="s" s="77">
+        <v>402</v>
+      </c>
+      <c r="H46" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J46" t="s" s="36">
+        <v>313</v>
+      </c>
+      <c r="L46" t="s" s="36">
+        <v>563</v>
+      </c>
+      <c r="AC46" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="n" s="34">
+        <v>0.07481590123679105</v>
+      </c>
+      <c r="G47" t="s" s="77">
+        <v>403</v>
+      </c>
+      <c r="H47" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J47" t="s" s="36">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s" s="36">
+        <v>564</v>
+      </c>
+      <c r="AC47" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="n" s="34">
+        <v>22.393261216049453</v>
+      </c>
+      <c r="G48" t="s" s="77">
+        <v>404</v>
+      </c>
+      <c r="H48" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J48" t="s" s="36">
         <v>315</v>
       </c>
-      <c r="H6" t="s" s="40">
-        <v>650</v>
-      </c>
-      <c r="I6" t="n" s="39">
-        <v>19.92531390853309</v>
-      </c>
-      <c r="J6" t="s" s="39">
-        <v>250</v>
-      </c>
-      <c r="K6" t="n" s="326">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L6" t="s" s="39">
-        <v>501</v>
-      </c>
-      <c r="M6" t="n" s="39">
-        <v>99.91867660148577</v>
-      </c>
-      <c r="AC6" t="n" s="39">
-        <v>74.30515855790598</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n" s="36">
-        <v>66.25033713192347</v>
-      </c>
-      <c r="C7" t="n" s="259">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D7" t="s" s="36">
-        <v>599</v>
-      </c>
-      <c r="E7" t="n" s="71">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F7" t="n" s="163">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G7" t="s" s="38">
+      <c r="L48" t="s" s="36">
+        <v>565</v>
+      </c>
+      <c r="AC48" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="n" s="34">
+        <v>62.690890841264725</v>
+      </c>
+      <c r="G49" t="s" s="77">
+        <v>405</v>
+      </c>
+      <c r="H49" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J49" t="s" s="36">
         <v>316</v>
       </c>
-      <c r="H7" t="s" s="40">
-        <v>651</v>
-      </c>
-      <c r="I7" t="n" s="39">
-        <v>76.49718441367459</v>
-      </c>
-      <c r="J7" t="s" s="39">
-        <v>251</v>
-      </c>
-      <c r="K7" t="n" s="327">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L7" t="s" s="39">
-        <v>502</v>
-      </c>
-      <c r="M7" t="n" s="39">
-        <v>46.640194236215535</v>
-      </c>
-      <c r="AC7" t="n" s="39">
-        <v>31.411585920517503</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="n" s="36">
-        <v>83.93817917935203</v>
-      </c>
-      <c r="C8" t="n" s="260">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D8" t="s" s="36">
-        <v>600</v>
-      </c>
-      <c r="E8" t="n" s="72">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F8" t="n" s="164">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G8" t="s" s="38">
+      <c r="L49" t="s" s="36">
+        <v>566</v>
+      </c>
+      <c r="AC49" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="n" s="34">
+        <v>94.98233500499128</v>
+      </c>
+      <c r="G50" t="s" s="77">
+        <v>406</v>
+      </c>
+      <c r="H50" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J50" t="s" s="36">
         <v>317</v>
       </c>
-      <c r="H8" t="s" s="40">
-        <v>652</v>
-      </c>
-      <c r="I8" t="n" s="39">
-        <v>29.052803619635892</v>
-      </c>
-      <c r="J8" t="s" s="39">
-        <v>252</v>
-      </c>
-      <c r="K8" t="n" s="328">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L8" t="s" s="39">
-        <v>503</v>
-      </c>
-      <c r="M8" t="n" s="39">
-        <v>54.16772066590377</v>
-      </c>
-      <c r="AC8" t="n" s="39">
-        <v>46.57173492806962</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n" s="36">
-        <v>10.882825511898098</v>
-      </c>
-      <c r="C9" t="n" s="261">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D9" t="s" s="36">
-        <v>601</v>
-      </c>
-      <c r="E9" t="n" s="73">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F9" t="n" s="165">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G9" t="s" s="38">
+      <c r="L50" t="s" s="36">
+        <v>567</v>
+      </c>
+      <c r="AC50" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="n" s="34">
+        <v>78.31596211442434</v>
+      </c>
+      <c r="G51" t="s" s="77">
+        <v>407</v>
+      </c>
+      <c r="H51" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J51" t="s" s="36">
         <v>318</v>
       </c>
-      <c r="H9" t="s" s="40">
-        <v>653</v>
-      </c>
-      <c r="I9" t="n" s="39">
-        <v>34.362027202284374</v>
-      </c>
-      <c r="J9" t="s" s="39">
-        <v>253</v>
-      </c>
-      <c r="K9" t="n" s="329">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L9" t="s" s="39">
-        <v>504</v>
-      </c>
-      <c r="M9" t="n" s="39">
-        <v>12.342129127220458</v>
-      </c>
-      <c r="AC9" t="n" s="39">
-        <v>14.001755561365336</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="n" s="36">
-        <v>74.4676520251317</v>
-      </c>
-      <c r="C10" t="n" s="262">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D10" t="s" s="36">
-        <v>602</v>
-      </c>
-      <c r="E10" t="n" s="74">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F10" t="n" s="166">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G10" t="s" s="38">
+      <c r="L51" t="s" s="36">
+        <v>568</v>
+      </c>
+      <c r="AC51" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="n" s="34">
+        <v>49.94594460570041</v>
+      </c>
+      <c r="G52" t="s" s="77">
+        <v>408</v>
+      </c>
+      <c r="H52" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J52" t="s" s="36">
         <v>319</v>
       </c>
-      <c r="H10" t="s" s="40">
-        <v>654</v>
-      </c>
-      <c r="I10" t="n" s="39">
-        <v>67.33140666805072</v>
-      </c>
-      <c r="J10" t="s" s="39">
-        <v>254</v>
-      </c>
-      <c r="K10" t="n" s="330">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L10" t="s" s="39">
-        <v>505</v>
-      </c>
-      <c r="M10" t="n" s="39">
-        <v>91.07413513013196</v>
-      </c>
-      <c r="AC10" t="n" s="39">
-        <v>20.906692374336977</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="n" s="36">
-        <v>60.63607813251905</v>
-      </c>
-      <c r="C11" t="n" s="263">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D11" t="s" s="36">
-        <v>603</v>
-      </c>
-      <c r="E11" t="n" s="75">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F11" t="n" s="167">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G11" t="s" s="38">
+      <c r="L52" t="s" s="36">
+        <v>569</v>
+      </c>
+      <c r="AC52" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="n" s="34">
+        <v>13.84504774722225</v>
+      </c>
+      <c r="G53" t="s" s="77">
+        <v>409</v>
+      </c>
+      <c r="H53" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J53" t="s" s="36">
         <v>320</v>
       </c>
-      <c r="H11" t="s" s="40">
-        <v>655</v>
-      </c>
-      <c r="I11" t="n" s="39">
-        <v>81.48858533811494</v>
-      </c>
-      <c r="J11" t="s" s="39">
-        <v>255</v>
-      </c>
-      <c r="K11" t="n" s="331">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L11" t="s" s="39">
-        <v>506</v>
-      </c>
-      <c r="M11" t="n" s="39">
-        <v>5.88317757436132</v>
-      </c>
-      <c r="AC11" t="n" s="39">
-        <v>58.9849896795156</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n" s="36">
-        <v>24.69773331188645</v>
-      </c>
-      <c r="C12" t="n" s="264">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D12" t="s" s="36">
-        <v>604</v>
-      </c>
-      <c r="E12" t="n" s="76">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F12" t="n" s="168">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G12" t="s" s="38">
+      <c r="L53" t="s" s="36">
+        <v>570</v>
+      </c>
+      <c r="AC53" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="n" s="34">
+        <v>1.745525366320122</v>
+      </c>
+      <c r="G54" t="s" s="77">
+        <v>410</v>
+      </c>
+      <c r="H54" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J54" t="s" s="36">
         <v>321</v>
       </c>
-      <c r="H12" t="s" s="40">
-        <v>656</v>
-      </c>
-      <c r="I12" t="n" s="39">
-        <v>0.6754610346169643</v>
-      </c>
-      <c r="J12" t="s" s="39">
-        <v>256</v>
-      </c>
-      <c r="K12" t="n" s="332">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L12" t="s" s="39">
-        <v>507</v>
-      </c>
-      <c r="M12" t="n" s="39">
-        <v>52.797069643650595</v>
-      </c>
-      <c r="AC12" t="n" s="39">
-        <v>50.119146422977344</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="n" s="36">
-        <v>88.12592658897383</v>
-      </c>
-      <c r="C13" t="n" s="265">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D13" t="s" s="36">
-        <v>605</v>
-      </c>
-      <c r="E13" t="n" s="77">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F13" t="n" s="169">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G13" t="s" s="38">
+      <c r="L54" t="s" s="36">
+        <v>571</v>
+      </c>
+      <c r="AC54" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="n" s="34">
+        <v>4.636824626454783</v>
+      </c>
+      <c r="G55" t="s" s="77">
+        <v>411</v>
+      </c>
+      <c r="H55" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J55" t="s" s="36">
         <v>322</v>
       </c>
-      <c r="H13" t="s" s="40">
-        <v>657</v>
-      </c>
-      <c r="I13" t="n" s="39">
-        <v>47.11060661865821</v>
-      </c>
-      <c r="J13" t="s" s="39">
-        <v>257</v>
-      </c>
-      <c r="K13" t="n" s="333">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L13" t="s" s="39">
-        <v>508</v>
-      </c>
-      <c r="M13" t="n" s="39">
-        <v>21.48716649792084</v>
-      </c>
-      <c r="AC13" t="n" s="39">
-        <v>17.68930412429014</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="n" s="36">
-        <v>63.21565261186367</v>
-      </c>
-      <c r="C14" t="n" s="266">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D14" t="s" s="36">
-        <v>606</v>
-      </c>
-      <c r="E14" t="n" s="78">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F14" t="n" s="170">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G14" t="s" s="38">
+      <c r="L55" t="s" s="36">
+        <v>572</v>
+      </c>
+      <c r="AC55" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="n" s="34">
+        <v>57.2632968271681</v>
+      </c>
+      <c r="G56" t="s" s="77">
+        <v>412</v>
+      </c>
+      <c r="H56" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J56" t="s" s="36">
         <v>323</v>
       </c>
-      <c r="H14" t="s" s="40">
-        <v>658</v>
-      </c>
-      <c r="I14" t="n" s="39">
-        <v>92.43728648553756</v>
-      </c>
-      <c r="J14" t="s" s="39">
-        <v>258</v>
-      </c>
-      <c r="K14" t="n" s="334">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L14" t="s" s="39">
-        <v>509</v>
-      </c>
-      <c r="M14" t="n" s="39">
-        <v>18.694138814136608</v>
-      </c>
-      <c r="AC14" t="n" s="39">
-        <v>76.0415434734519</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="n" s="36">
-        <v>14.917901121744615</v>
-      </c>
-      <c r="C15" t="n" s="267">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D15" t="s" s="36">
-        <v>607</v>
-      </c>
-      <c r="E15" t="n" s="79">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F15" t="n" s="171">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G15" t="s" s="38">
+      <c r="L56" t="s" s="36">
+        <v>573</v>
+      </c>
+      <c r="AC56" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="n" s="34">
+        <v>40.513395378914176</v>
+      </c>
+      <c r="G57" t="s" s="77">
+        <v>413</v>
+      </c>
+      <c r="H57" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J57" t="s" s="36">
         <v>324</v>
       </c>
-      <c r="H15" t="s" s="40">
-        <v>659</v>
-      </c>
-      <c r="I15" t="n" s="39">
-        <v>32.81675045596775</v>
-      </c>
-      <c r="J15" t="s" s="39">
-        <v>259</v>
-      </c>
-      <c r="K15" t="n" s="335">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L15" t="s" s="39">
-        <v>510</v>
-      </c>
-      <c r="M15" t="n" s="39">
-        <v>18.989082643792944</v>
-      </c>
-      <c r="AC15" t="n" s="39">
-        <v>37.86428046430679</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n" s="36">
-        <v>98.41997326068534</v>
-      </c>
-      <c r="C16" t="n" s="268">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D16" t="s" s="36">
-        <v>608</v>
-      </c>
-      <c r="E16" t="n" s="80">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F16" t="n" s="172">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G16" t="s" s="38">
+      <c r="L57" t="s" s="36">
+        <v>574</v>
+      </c>
+      <c r="AC57" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="G58" t="s" s="77">
+        <v>414</v>
+      </c>
+      <c r="H58" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J58" t="s" s="36">
         <v>325</v>
       </c>
-      <c r="H16" t="s" s="40">
-        <v>660</v>
-      </c>
-      <c r="I16" t="n" s="39">
-        <v>89.65140289183817</v>
-      </c>
-      <c r="J16" t="s" s="39">
-        <v>260</v>
-      </c>
-      <c r="K16" t="n" s="336">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L16" t="s" s="39">
-        <v>511</v>
-      </c>
-      <c r="M16" t="n" s="39">
-        <v>41.72431915364104</v>
-      </c>
-      <c r="AC16" t="n" s="39">
-        <v>69.54047133619751</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n" s="36">
-        <v>32.286560964478674</v>
-      </c>
-      <c r="C17" t="n" s="269">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D17" t="s" s="36">
-        <v>609</v>
-      </c>
-      <c r="E17" t="n" s="81">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F17" t="n" s="173">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G17" t="s" s="38">
+      <c r="L58" t="s" s="36">
+        <v>575</v>
+      </c>
+      <c r="AC58" t="n" s="36">
+        <v>44963.953589108794</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="G59" t="s" s="77">
+        <v>415</v>
+      </c>
+      <c r="H59" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J59" t="s" s="36">
         <v>326</v>
       </c>
-      <c r="H17" t="s" s="40">
-        <v>661</v>
-      </c>
-      <c r="I17" t="n" s="39">
-        <v>21.17927696293851</v>
-      </c>
-      <c r="J17" t="s" s="39">
-        <v>261</v>
-      </c>
-      <c r="K17" t="n" s="337">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L17" t="s" s="39">
-        <v>512</v>
-      </c>
-      <c r="M17" t="n" s="39">
-        <v>34.97053751103629</v>
-      </c>
-      <c r="AC17" t="n" s="39">
-        <v>71.22048483929122</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="n" s="36">
-        <v>19.255790878480937</v>
-      </c>
-      <c r="C18" t="n" s="270">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D18" t="s" s="36">
-        <v>610</v>
-      </c>
-      <c r="E18" t="n" s="82">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F18" t="n" s="174">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G18" t="s" s="38">
+      <c r="L59" t="s" s="36">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="G60" t="s" s="77">
+        <v>416</v>
+      </c>
+      <c r="H60" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J60" t="s" s="36">
         <v>327</v>
       </c>
-      <c r="H18" t="s" s="40">
-        <v>662</v>
-      </c>
-      <c r="I18" t="n" s="39">
-        <v>34.7091956628617</v>
-      </c>
-      <c r="J18" t="s" s="39">
-        <v>262</v>
-      </c>
-      <c r="K18" t="n" s="338">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L18" t="s" s="39">
-        <v>513</v>
-      </c>
-      <c r="M18" t="n" s="39">
-        <v>57.86655689980304</v>
-      </c>
-      <c r="AC18" t="n" s="39">
-        <v>87.72118187434627</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n" s="36">
-        <v>61.08438859050543</v>
-      </c>
-      <c r="C19" t="n" s="271">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D19" t="s" s="36">
-        <v>611</v>
-      </c>
-      <c r="E19" t="n" s="83">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F19" t="n" s="175">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G19" t="s" s="38">
+      <c r="L60" t="s" s="36">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="G61" t="s" s="77">
+        <v>417</v>
+      </c>
+      <c r="H61" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J61" t="s" s="36">
         <v>328</v>
       </c>
-      <c r="H19" t="s" s="40">
-        <v>663</v>
-      </c>
-      <c r="I19" t="n" s="39">
-        <v>90.85494680598157</v>
-      </c>
-      <c r="J19" t="s" s="39">
-        <v>263</v>
-      </c>
-      <c r="K19" t="n" s="339">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L19" t="s" s="39">
-        <v>514</v>
-      </c>
-      <c r="M19" t="n" s="39">
-        <v>90.21473745383507</v>
-      </c>
-      <c r="AC19" t="n" s="39">
-        <v>11.55538447106924</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n" s="36">
-        <v>7.34825504725899</v>
-      </c>
-      <c r="C20" t="n" s="272">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D20" t="s" s="36">
-        <v>612</v>
-      </c>
-      <c r="E20" t="n" s="84">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F20" t="n" s="176">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G20" t="s" s="38">
+      <c r="L61" t="s" s="36">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="G62" t="s" s="77">
+        <v>418</v>
+      </c>
+      <c r="H62" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J62" t="s" s="36">
         <v>329</v>
       </c>
-      <c r="H20" t="s" s="40">
-        <v>664</v>
-      </c>
-      <c r="I20" t="n" s="39">
-        <v>34.84182797015647</v>
-      </c>
-      <c r="J20" t="s" s="39">
-        <v>264</v>
-      </c>
-      <c r="K20" t="n" s="340">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L20" t="s" s="39">
-        <v>515</v>
-      </c>
-      <c r="M20" t="n" s="39">
-        <v>71.37587969133813</v>
-      </c>
-      <c r="AC20" t="n" s="39">
-        <v>28.514963609093456</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="n" s="36">
-        <v>47.56381420228685</v>
-      </c>
-      <c r="C21" t="n" s="273">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D21" t="s" s="36">
-        <v>613</v>
-      </c>
-      <c r="E21" t="n" s="85">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F21" t="n" s="177">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G21" t="s" s="38">
+      <c r="L62" t="s" s="36">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="G63" t="s" s="77">
+        <v>419</v>
+      </c>
+      <c r="H63" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J63" t="s" s="36">
         <v>330</v>
       </c>
-      <c r="H21" t="s" s="40">
-        <v>665</v>
-      </c>
-      <c r="J21" t="s" s="39">
-        <v>265</v>
-      </c>
-      <c r="K21" t="n" s="341">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L21" t="s" s="39">
-        <v>516</v>
-      </c>
-      <c r="M21" t="n" s="39">
-        <v>63.45910760842558</v>
-      </c>
-      <c r="AC21" t="n" s="39">
-        <v>17.567915179391193</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="n" s="36">
-        <v>98.60209833900362</v>
-      </c>
-      <c r="C22" t="n" s="274">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D22" t="s" s="36">
-        <v>614</v>
-      </c>
-      <c r="E22" t="n" s="86">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F22" t="n" s="178">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G22" t="s" s="38">
+      <c r="L63" t="s" s="36">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="G64" t="s" s="77">
+        <v>420</v>
+      </c>
+      <c r="H64" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J64" t="s" s="36">
         <v>331</v>
       </c>
-      <c r="H22" t="s" s="40">
-        <v>666</v>
-      </c>
-      <c r="J22" t="s" s="39">
-        <v>266</v>
-      </c>
-      <c r="K22" t="n" s="342">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L22" t="s" s="39">
-        <v>517</v>
-      </c>
-      <c r="M22" t="n" s="39">
-        <v>57.6884124682716</v>
-      </c>
-      <c r="AC22" t="n" s="39">
-        <v>14.901899706730992</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="n" s="36">
-        <v>95.44174338950121</v>
-      </c>
-      <c r="C23" t="n" s="275">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D23" t="s" s="36">
-        <v>615</v>
-      </c>
-      <c r="E23" t="n" s="87">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F23" t="n" s="179">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G23" t="s" s="38">
+      <c r="L64" t="s" s="36">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="G65" t="s" s="77">
+        <v>421</v>
+      </c>
+      <c r="H65" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J65" t="s" s="36">
         <v>332</v>
       </c>
-      <c r="H23" t="s" s="40">
-        <v>667</v>
-      </c>
-      <c r="J23" t="s" s="39">
-        <v>267</v>
-      </c>
-      <c r="K23" t="n" s="343">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L23" t="s" s="39">
-        <v>518</v>
-      </c>
-      <c r="M23" t="n" s="39">
-        <v>8.812444936269037</v>
-      </c>
-      <c r="AC23" t="n" s="39">
-        <v>23.344247127513473</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="n" s="36">
-        <v>15.434548026033301</v>
-      </c>
-      <c r="C24" t="n" s="276">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D24" t="s" s="36">
-        <v>616</v>
-      </c>
-      <c r="E24" t="n" s="88">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F24" t="n" s="180">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G24" t="s" s="38">
+      <c r="L65" t="s" s="36">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="G66" t="s" s="77">
+        <v>422</v>
+      </c>
+      <c r="H66" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J66" t="s" s="36">
         <v>333</v>
       </c>
-      <c r="H24" t="s" s="40">
-        <v>668</v>
-      </c>
-      <c r="J24" t="s" s="39">
-        <v>268</v>
-      </c>
-      <c r="K24" t="n" s="344">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L24" t="s" s="39">
-        <v>519</v>
-      </c>
-      <c r="M24" t="n" s="39">
-        <v>16.63786067099068</v>
-      </c>
-      <c r="AC24" t="n" s="39">
-        <v>7.251161673099327</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="n" s="36">
-        <v>95.32091246974467</v>
-      </c>
-      <c r="C25" t="n" s="277">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D25" t="s" s="36">
-        <v>617</v>
-      </c>
-      <c r="E25" t="n" s="89">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F25" t="n" s="181">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G25" t="s" s="38">
+      <c r="L66" t="s" s="36">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67" t="s" s="77">
+        <v>423</v>
+      </c>
+      <c r="H67" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J67" t="s" s="36">
         <v>334</v>
       </c>
-      <c r="H25" t="s" s="40">
-        <v>669</v>
-      </c>
-      <c r="J25" t="s" s="39">
-        <v>269</v>
-      </c>
-      <c r="K25" t="n" s="345">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L25" t="s" s="39">
-        <v>520</v>
-      </c>
-      <c r="M25" t="n" s="39">
-        <v>12.68219920760475</v>
-      </c>
-      <c r="AC25" t="n" s="39">
-        <v>41.45995739985514</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="n" s="36">
-        <v>89.34455606787671</v>
-      </c>
-      <c r="C26" t="n" s="278">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D26" t="s" s="36">
-        <v>618</v>
-      </c>
-      <c r="E26" t="n" s="90">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F26" t="n" s="182">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G26" t="s" s="38">
+      <c r="L67" t="s" s="36">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="G68" t="s" s="77">
+        <v>424</v>
+      </c>
+      <c r="H68" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J68" t="s" s="36">
         <v>335</v>
       </c>
-      <c r="H26" t="s" s="40">
-        <v>670</v>
-      </c>
-      <c r="J26" t="s" s="39">
-        <v>270</v>
-      </c>
-      <c r="K26" t="n" s="346">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L26" t="s" s="39">
-        <v>521</v>
-      </c>
-      <c r="M26" t="n" s="39">
-        <v>54.58155604939008</v>
-      </c>
-      <c r="AC26" t="n" s="39">
-        <v>72.75455821326072</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="n" s="36">
-        <v>9.79044150955809</v>
-      </c>
-      <c r="C27" t="n" s="279">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D27" t="s" s="36">
-        <v>619</v>
-      </c>
-      <c r="E27" t="n" s="91">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F27" t="n" s="183">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G27" t="s" s="38">
+      <c r="L68" t="s" s="36">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="G69" t="s" s="77">
+        <v>425</v>
+      </c>
+      <c r="H69" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J69" t="s" s="36">
         <v>336</v>
       </c>
-      <c r="H27" t="s" s="40">
-        <v>671</v>
-      </c>
-      <c r="J27" t="s" s="39">
-        <v>271</v>
-      </c>
-      <c r="K27" t="n" s="347">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="L27" t="s" s="39">
-        <v>522</v>
-      </c>
-      <c r="M27" t="n" s="39">
-        <v>4.005305361111677</v>
-      </c>
-      <c r="AC27" t="n" s="39">
-        <v>28.94265414801066</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="n" s="36">
-        <v>52.902791116902705</v>
-      </c>
-      <c r="C28" t="n" s="280">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D28" t="s" s="36">
-        <v>620</v>
-      </c>
-      <c r="E28" t="n" s="92">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F28" t="n" s="184">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G28" t="s" s="38">
+      <c r="L69" t="s" s="36">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="G70" t="s" s="77">
+        <v>426</v>
+      </c>
+      <c r="H70" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J70" t="s" s="36">
         <v>337</v>
       </c>
-      <c r="H28" t="s" s="40">
-        <v>672</v>
-      </c>
-      <c r="J28" t="s" s="39">
-        <v>272</v>
-      </c>
-      <c r="L28" t="s" s="39">
-        <v>523</v>
-      </c>
-      <c r="M28" t="n" s="39">
-        <v>4.838906928982334</v>
-      </c>
-      <c r="AC28" t="n" s="39">
-        <v>62.34661249451905</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="n" s="36">
-        <v>24.185423453281164</v>
-      </c>
-      <c r="C29" t="n" s="281">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D29" t="s" s="36">
-        <v>621</v>
-      </c>
-      <c r="E29" t="n" s="93">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F29" t="n" s="185">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G29" t="s" s="38">
+      <c r="L70" t="s" s="36">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" t="s" s="77">
+        <v>427</v>
+      </c>
+      <c r="H71" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J71" t="s" s="36">
         <v>338</v>
       </c>
-      <c r="H29" t="s" s="40">
-        <v>673</v>
-      </c>
-      <c r="J29" t="s" s="39">
-        <v>273</v>
-      </c>
-      <c r="L29" t="s" s="39">
-        <v>524</v>
-      </c>
-      <c r="M29" t="n" s="39">
-        <v>26.43413323856898</v>
-      </c>
-      <c r="AC29" t="n" s="39">
-        <v>64.29053840359327</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="n" s="36">
-        <v>47.446863184823904</v>
-      </c>
-      <c r="C30" t="n" s="282">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D30" t="s" s="36">
-        <v>622</v>
-      </c>
-      <c r="E30" t="n" s="94">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F30" t="n" s="186">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G30" t="s" s="38">
+      <c r="L71" t="s" s="36">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="G72" t="s" s="77">
+        <v>428</v>
+      </c>
+      <c r="H72" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J72" t="s" s="36">
         <v>339</v>
       </c>
-      <c r="H30" t="s" s="40">
-        <v>674</v>
-      </c>
-      <c r="J30" t="s" s="39">
-        <v>274</v>
-      </c>
-      <c r="L30" t="s" s="39">
-        <v>525</v>
-      </c>
-      <c r="M30" t="n" s="39">
-        <v>92.86700268922893</v>
-      </c>
-      <c r="AC30" t="n" s="39">
-        <v>86.06890583196675</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="n" s="36">
-        <v>61.22123312737848</v>
-      </c>
-      <c r="C31" t="n" s="283">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D31" t="s" s="36">
-        <v>623</v>
-      </c>
-      <c r="E31" t="n" s="95">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F31" t="n" s="187">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G31" t="s" s="38">
+      <c r="L72" t="s" s="36">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73" t="s" s="77">
+        <v>429</v>
+      </c>
+      <c r="H73" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J73" t="s" s="36">
         <v>340</v>
       </c>
-      <c r="H31" t="s" s="40">
-        <v>675</v>
-      </c>
-      <c r="J31" t="s" s="39">
-        <v>275</v>
-      </c>
-      <c r="L31" t="s" s="39">
-        <v>526</v>
-      </c>
-      <c r="AC31" t="n" s="39">
-        <v>87.72530536759757</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="n" s="36">
-        <v>41.32016608399017</v>
-      </c>
-      <c r="C32" t="n" s="284">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D32" t="s" s="36">
-        <v>624</v>
-      </c>
-      <c r="E32" t="n" s="96">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F32" t="n" s="188">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G32" t="s" s="38">
+    </row>
+    <row r="74">
+      <c r="G74" t="s" s="77">
+        <v>430</v>
+      </c>
+      <c r="H74" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J74" t="s" s="36">
         <v>341</v>
       </c>
-      <c r="H32" t="s" s="40">
-        <v>676</v>
-      </c>
-      <c r="J32" t="s" s="39">
-        <v>276</v>
-      </c>
-      <c r="L32" t="s" s="39">
-        <v>527</v>
-      </c>
-      <c r="AC32" t="n" s="39">
-        <v>92.33250070347954</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="n" s="36">
-        <v>53.72392963010687</v>
-      </c>
-      <c r="C33" t="n" s="285">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D33" t="s" s="36">
-        <v>625</v>
-      </c>
-      <c r="E33" t="n" s="97">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F33" t="n" s="189">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G33" t="s" s="38">
+    </row>
+    <row r="75">
+      <c r="G75" t="s" s="77">
+        <v>431</v>
+      </c>
+      <c r="H75" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J75" t="s" s="36">
         <v>342</v>
       </c>
-      <c r="H33" t="s" s="40">
-        <v>677</v>
-      </c>
-      <c r="J33" t="s" s="39">
-        <v>277</v>
-      </c>
-      <c r="L33" t="s" s="39">
-        <v>528</v>
-      </c>
-      <c r="AC33" t="n" s="39">
-        <v>89.31362823979323</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="n" s="36">
-        <v>8.497966260462487</v>
-      </c>
-      <c r="C34" t="n" s="286">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D34" t="s" s="36">
-        <v>626</v>
-      </c>
-      <c r="E34" t="n" s="98">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F34" t="n" s="190">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G34" t="s" s="38">
+    </row>
+    <row r="76">
+      <c r="G76" t="s" s="77">
+        <v>432</v>
+      </c>
+      <c r="H76" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J76" t="s" s="36">
         <v>343</v>
       </c>
-      <c r="H34" t="s" s="40">
-        <v>678</v>
-      </c>
-      <c r="J34" t="s" s="39">
-        <v>278</v>
-      </c>
-      <c r="L34" t="s" s="39">
-        <v>529</v>
-      </c>
-      <c r="AC34" t="n" s="39">
-        <v>51.30818795576254</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="n" s="36">
-        <v>58.70733269838864</v>
-      </c>
-      <c r="C35" t="n" s="287">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D35" t="s" s="36">
-        <v>627</v>
-      </c>
-      <c r="E35" t="n" s="99">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F35" t="n" s="191">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G35" t="s" s="38">
+    </row>
+    <row r="77">
+      <c r="G77" t="s" s="77">
+        <v>433</v>
+      </c>
+      <c r="H77" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J77" t="s" s="36">
         <v>344</v>
       </c>
-      <c r="H35" t="s" s="40">
-        <v>679</v>
-      </c>
-      <c r="J35" t="s" s="39">
-        <v>279</v>
-      </c>
-      <c r="L35" t="s" s="39">
-        <v>530</v>
-      </c>
-      <c r="AC35" t="n" s="39">
-        <v>7.024074371921829</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="n" s="36">
-        <v>80.56114952568821</v>
-      </c>
-      <c r="C36" t="n" s="288">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D36" t="s" s="36">
-        <v>628</v>
-      </c>
-      <c r="E36" t="n" s="100">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F36" t="n" s="192">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G36" t="s" s="38">
+    </row>
+    <row r="78">
+      <c r="G78" t="s" s="77">
+        <v>434</v>
+      </c>
+      <c r="H78" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J78" t="s" s="36">
         <v>345</v>
       </c>
-      <c r="H36" t="s" s="40">
-        <v>680</v>
-      </c>
-      <c r="J36" t="s" s="39">
-        <v>280</v>
-      </c>
-      <c r="L36" t="s" s="39">
-        <v>531</v>
-      </c>
-      <c r="AC36" t="n" s="39">
-        <v>0.6396416667880045</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="n" s="36">
-        <v>2.416877713452814</v>
-      </c>
-      <c r="C37" t="n" s="289">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D37" t="s" s="36">
-        <v>629</v>
-      </c>
-      <c r="E37" t="n" s="101">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F37" t="n" s="193">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G37" t="s" s="38">
+    </row>
+    <row r="79">
+      <c r="G79" t="s" s="77">
+        <v>435</v>
+      </c>
+      <c r="H79" t="n" s="78">
+        <v>44963.953589108794</v>
+      </c>
+      <c r="J79" t="s" s="36">
         <v>346</v>
       </c>
-      <c r="H37" t="s" s="40">
-        <v>681</v>
-      </c>
-      <c r="J37" t="s" s="39">
-        <v>281</v>
-      </c>
-      <c r="L37" t="s" s="39">
-        <v>532</v>
-      </c>
-      <c r="AC37" t="n" s="39">
-        <v>74.76217743300305</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="n" s="36">
-        <v>59.429213924544776</v>
-      </c>
-      <c r="C38" t="n" s="290">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D38" t="s" s="36">
-        <v>630</v>
-      </c>
-      <c r="E38" t="n" s="102">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F38" t="n" s="194">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G38" t="s" s="38">
-        <v>347</v>
-      </c>
-      <c r="H38" t="s" s="40">
-        <v>682</v>
-      </c>
-      <c r="J38" t="s" s="39">
-        <v>282</v>
-      </c>
-      <c r="L38" t="s" s="39">
-        <v>533</v>
-      </c>
-      <c r="AC38" t="n" s="39">
-        <v>17.30246965899426</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="n" s="36">
-        <v>58.048625718325475</v>
-      </c>
-      <c r="C39" t="n" s="291">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D39" t="s" s="36">
-        <v>631</v>
-      </c>
-      <c r="E39" t="n" s="103">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F39" t="n" s="195">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G39" t="s" s="38">
-        <v>348</v>
-      </c>
-      <c r="H39" t="s" s="40">
-        <v>683</v>
-      </c>
-      <c r="J39" t="s" s="39">
-        <v>283</v>
-      </c>
-      <c r="L39" t="s" s="39">
-        <v>534</v>
-      </c>
-      <c r="AC39" t="n" s="39">
-        <v>58.57432320933646</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="n" s="36">
-        <v>93.83442141729684</v>
-      </c>
-      <c r="C40" t="n" s="292">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D40" t="s" s="36">
-        <v>632</v>
-      </c>
-      <c r="E40" t="n" s="104">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F40" t="n" s="196">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G40" t="s" s="38">
-        <v>349</v>
-      </c>
-      <c r="H40" t="s" s="40">
-        <v>684</v>
-      </c>
-      <c r="J40" t="s" s="39">
-        <v>284</v>
-      </c>
-      <c r="L40" t="s" s="39">
-        <v>535</v>
-      </c>
-      <c r="AC40" t="n" s="39">
-        <v>43.7574443434187</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="n" s="36">
-        <v>53.10071308879242</v>
-      </c>
-      <c r="C41" t="n" s="293">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D41" t="s" s="36">
-        <v>633</v>
-      </c>
-      <c r="E41" t="n" s="105">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F41" t="n" s="197">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G41" t="s" s="38">
-        <v>350</v>
-      </c>
-      <c r="H41" t="s" s="40">
-        <v>685</v>
-      </c>
-      <c r="J41" t="s" s="39">
-        <v>285</v>
-      </c>
-      <c r="L41" t="s" s="39">
-        <v>536</v>
-      </c>
-      <c r="AC41" t="n" s="39">
-        <v>46.222649887667366</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="n" s="36">
-        <v>60.55660716902026</v>
-      </c>
-      <c r="C42" t="n" s="294">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D42" t="s" s="36">
-        <v>634</v>
-      </c>
-      <c r="E42" t="n" s="106">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F42" t="n" s="198">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G42" t="s" s="38">
-        <v>351</v>
-      </c>
-      <c r="H42" t="s" s="40">
-        <v>686</v>
-      </c>
-      <c r="J42" t="s" s="39">
-        <v>286</v>
-      </c>
-      <c r="L42" t="s" s="39">
-        <v>537</v>
-      </c>
-      <c r="AC42" t="n" s="39">
-        <v>82.16671463068937</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="n" s="36">
-        <v>73.22753585717193</v>
-      </c>
-      <c r="C43" t="n" s="295">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D43" t="s" s="36">
-        <v>635</v>
-      </c>
-      <c r="E43" t="n" s="107">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F43" t="n" s="199">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G43" t="s" s="38">
-        <v>352</v>
-      </c>
-      <c r="H43" t="s" s="40">
-        <v>687</v>
-      </c>
-      <c r="J43" t="s" s="39">
-        <v>287</v>
-      </c>
-      <c r="L43" t="s" s="39">
-        <v>538</v>
-      </c>
-      <c r="AC43" t="n" s="39">
-        <v>33.96199787958868</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="n" s="36">
-        <v>9.852798541835162</v>
-      </c>
-      <c r="C44" t="n" s="296">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D44" t="s" s="36">
-        <v>636</v>
-      </c>
-      <c r="E44" t="n" s="108">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F44" t="n" s="200">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G44" t="s" s="38">
-        <v>353</v>
-      </c>
-      <c r="H44" t="s" s="40">
-        <v>688</v>
-      </c>
-      <c r="J44" t="s" s="39">
-        <v>288</v>
-      </c>
-      <c r="L44" t="s" s="39">
-        <v>539</v>
-      </c>
-      <c r="AC44" t="n" s="39">
-        <v>16.517591757752914</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="n" s="36">
-        <v>4.610824839709715</v>
-      </c>
-      <c r="C45" t="n" s="297">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D45" t="s" s="36">
-        <v>637</v>
-      </c>
-      <c r="E45" t="n" s="109">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F45" t="n" s="201">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G45" t="s" s="38">
-        <v>354</v>
-      </c>
-      <c r="H45" t="s" s="40">
-        <v>689</v>
-      </c>
-      <c r="J45" t="s" s="39">
-        <v>289</v>
-      </c>
-      <c r="L45" t="s" s="39">
-        <v>540</v>
-      </c>
-      <c r="AC45" t="n" s="39">
-        <v>46.41278992409122</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="n" s="36">
-        <v>92.78031019812353</v>
-      </c>
-      <c r="C46" t="n" s="298">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D46" t="s" s="36">
-        <v>638</v>
-      </c>
-      <c r="E46" t="n" s="110">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F46" t="n" s="202">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G46" t="s" s="38">
-        <v>355</v>
-      </c>
-      <c r="H46" t="s" s="40">
-        <v>690</v>
-      </c>
-      <c r="J46" t="s" s="39">
-        <v>290</v>
-      </c>
-      <c r="L46" t="s" s="39">
-        <v>541</v>
-      </c>
-      <c r="AC46" t="n" s="39">
-        <v>69.75235577212504</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="n" s="36">
-        <v>31.865200611008582</v>
-      </c>
-      <c r="C47" t="n" s="299">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D47" t="s" s="36">
-        <v>639</v>
-      </c>
-      <c r="E47" t="n" s="111">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F47" t="n" s="203">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G47" t="s" s="38">
-        <v>356</v>
-      </c>
-      <c r="H47" t="s" s="40">
-        <v>691</v>
-      </c>
-      <c r="J47" t="s" s="39">
-        <v>291</v>
-      </c>
-      <c r="L47" t="s" s="39">
-        <v>542</v>
-      </c>
-      <c r="AC47" t="n" s="39">
-        <v>56.79919608561851</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="n" s="36">
-        <v>72.26158672720359</v>
-      </c>
-      <c r="C48" t="n" s="300">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D48" t="s" s="36">
-        <v>640</v>
-      </c>
-      <c r="E48" t="n" s="112">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F48" t="n" s="204">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G48" t="s" s="38">
-        <v>357</v>
-      </c>
-      <c r="H48" t="s" s="40">
-        <v>692</v>
-      </c>
-      <c r="J48" t="s" s="39">
-        <v>292</v>
-      </c>
-      <c r="L48" t="s" s="39">
-        <v>543</v>
-      </c>
-      <c r="AC48" t="n" s="39">
-        <v>18.7193835441644</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="n" s="36">
-        <v>67.05022870243921</v>
-      </c>
-      <c r="C49" t="n" s="301">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D49" t="s" s="36">
-        <v>641</v>
-      </c>
-      <c r="E49" t="n" s="113">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F49" t="n" s="205">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G49" t="s" s="38">
-        <v>358</v>
-      </c>
-      <c r="H49" t="s" s="40">
-        <v>693</v>
-      </c>
-      <c r="J49" t="s" s="39">
-        <v>293</v>
-      </c>
-      <c r="L49" t="s" s="39">
-        <v>544</v>
-      </c>
-      <c r="AC49" t="n" s="39">
-        <v>60.45155058647453</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="n" s="36">
-        <v>67.37123954728322</v>
-      </c>
-      <c r="C50" t="n" s="302">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D50" t="s" s="36">
-        <v>642</v>
-      </c>
-      <c r="E50" t="n" s="114">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F50" t="n" s="206">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G50" t="s" s="38">
-        <v>359</v>
-      </c>
-      <c r="H50" t="s" s="40">
-        <v>694</v>
-      </c>
-      <c r="J50" t="s" s="39">
-        <v>294</v>
-      </c>
-      <c r="L50" t="s" s="39">
-        <v>545</v>
-      </c>
-      <c r="AC50" t="n" s="39">
-        <v>92.78871831191269</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="n" s="303">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D51" t="s" s="36">
-        <v>643</v>
-      </c>
-      <c r="E51" t="n" s="115">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F51" t="n" s="207">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G51" t="s" s="38">
-        <v>360</v>
-      </c>
-      <c r="H51" t="s" s="40">
-        <v>695</v>
-      </c>
-      <c r="J51" t="s" s="39">
-        <v>295</v>
-      </c>
-      <c r="L51" t="s" s="39">
-        <v>546</v>
-      </c>
-      <c r="AC51" t="n" s="39">
-        <v>23.359762314402655</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="n" s="304">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D52" t="s" s="36">
-        <v>644</v>
-      </c>
-      <c r="E52" t="n" s="116">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F52" t="n" s="208">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G52" t="s" s="38">
-        <v>361</v>
-      </c>
-      <c r="H52" t="s" s="40">
-        <v>696</v>
-      </c>
-      <c r="J52" t="s" s="39">
-        <v>296</v>
-      </c>
-      <c r="L52" t="s" s="39">
-        <v>547</v>
-      </c>
-      <c r="AC52" t="n" s="39">
-        <v>67.72378873558354</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" t="n" s="305">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D53" t="s" s="36">
-        <v>645</v>
-      </c>
-      <c r="E53" t="n" s="117">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F53" t="n" s="209">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G53" t="s" s="38">
-        <v>362</v>
-      </c>
-      <c r="H53" t="s" s="40">
-        <v>697</v>
-      </c>
-      <c r="J53" t="s" s="39">
-        <v>297</v>
-      </c>
-      <c r="L53" t="s" s="39">
-        <v>548</v>
-      </c>
-      <c r="AC53" t="n" s="39">
-        <v>47.776620835932526</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="n" s="306">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D54" t="s" s="36">
-        <v>646</v>
-      </c>
-      <c r="E54" t="n" s="118">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F54" t="n" s="210">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G54" t="s" s="38">
-        <v>363</v>
-      </c>
-      <c r="H54" t="s" s="40">
-        <v>698</v>
-      </c>
-      <c r="J54" t="s" s="39">
-        <v>298</v>
-      </c>
-      <c r="L54" t="s" s="39">
-        <v>549</v>
-      </c>
-      <c r="AC54" t="n" s="39">
-        <v>31.843317682985894</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" t="n" s="307">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D55" t="s" s="36">
-        <v>647</v>
-      </c>
-      <c r="E55" t="n" s="119">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F55" t="n" s="211">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G55" t="s" s="38">
-        <v>364</v>
-      </c>
-      <c r="H55" t="s" s="40">
-        <v>699</v>
-      </c>
-      <c r="J55" t="s" s="39">
-        <v>299</v>
-      </c>
-      <c r="L55" t="s" s="39">
-        <v>550</v>
-      </c>
-      <c r="AC55" t="n" s="39">
-        <v>0.5353652603439785</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="n" s="308">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D56" t="s" s="36">
-        <v>648</v>
-      </c>
-      <c r="E56" t="n" s="120">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F56" t="n" s="212">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G56" t="s" s="38">
-        <v>365</v>
-      </c>
-      <c r="H56" t="s" s="40">
-        <v>700</v>
-      </c>
-      <c r="J56" t="s" s="39">
-        <v>300</v>
-      </c>
-      <c r="L56" t="s" s="39">
-        <v>551</v>
-      </c>
-      <c r="AC56" t="n" s="39">
-        <v>70.17846597373169</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" t="n" s="309">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="D57" t="s" s="36">
-        <v>649</v>
-      </c>
-      <c r="E57" t="n" s="121">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F57" t="n" s="213">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G57" t="s" s="38">
-        <v>366</v>
-      </c>
-      <c r="H57" t="s" s="40">
-        <v>701</v>
-      </c>
-      <c r="J57" t="s" s="39">
-        <v>301</v>
-      </c>
-      <c r="L57" t="s" s="39">
-        <v>552</v>
-      </c>
-      <c r="AC57" t="n" s="39">
-        <v>58.05634758214687</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" t="n" s="310">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E58" t="n" s="122">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F58" t="n" s="214">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G58" t="s" s="38">
-        <v>367</v>
-      </c>
-      <c r="H58" t="s" s="40">
-        <v>702</v>
-      </c>
-      <c r="J58" t="s" s="39">
-        <v>302</v>
-      </c>
-      <c r="L58" t="s" s="39">
-        <v>553</v>
-      </c>
-      <c r="AC58" t="n" s="39">
-        <v>59.327730931063215</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="n" s="311">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E59" t="n" s="123">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F59" t="n" s="215">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G59" t="s" s="38">
-        <v>368</v>
-      </c>
-      <c r="H59" t="s" s="40">
-        <v>703</v>
-      </c>
-      <c r="J59" t="s" s="39">
-        <v>303</v>
-      </c>
-      <c r="L59" t="s" s="39">
-        <v>554</v>
-      </c>
-      <c r="AC59" t="n" s="39">
-        <v>70.22646531169646</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="n" s="312">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E60" t="n" s="124">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F60" t="n" s="216">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G60" t="s" s="38">
-        <v>369</v>
-      </c>
-      <c r="H60" t="s" s="40">
-        <v>704</v>
-      </c>
-      <c r="J60" t="s" s="39">
-        <v>304</v>
-      </c>
-      <c r="L60" t="s" s="39">
-        <v>555</v>
-      </c>
-      <c r="AC60" t="n" s="39">
-        <v>42.696116973768426</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" t="n" s="313">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E61" t="n" s="125">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F61" t="n" s="217">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G61" t="s" s="38">
-        <v>370</v>
-      </c>
-      <c r="H61" t="s" s="40">
-        <v>705</v>
-      </c>
-      <c r="J61" t="s" s="39">
-        <v>305</v>
-      </c>
-      <c r="L61" t="s" s="39">
-        <v>556</v>
-      </c>
-      <c r="AC61" t="n" s="39">
-        <v>7.75924545134229</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="n" s="314">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E62" t="n" s="126">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F62" t="n" s="218">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G62" t="s" s="38">
-        <v>371</v>
-      </c>
-      <c r="H62" t="s" s="40">
-        <v>706</v>
-      </c>
-      <c r="J62" t="s" s="39">
-        <v>306</v>
-      </c>
-      <c r="L62" t="s" s="39">
-        <v>557</v>
-      </c>
-      <c r="AC62" t="n" s="39">
-        <v>15.998373968803559</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="n" s="315">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E63" t="n" s="127">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F63" t="n" s="219">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G63" t="s" s="38">
-        <v>372</v>
-      </c>
-      <c r="H63" t="s" s="40">
-        <v>707</v>
-      </c>
-      <c r="J63" t="s" s="39">
-        <v>307</v>
-      </c>
-      <c r="L63" t="s" s="39">
-        <v>558</v>
-      </c>
-      <c r="AC63" t="n" s="39">
-        <v>72.66146160729096</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="n" s="316">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E64" t="n" s="128">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F64" t="n" s="220">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G64" t="s" s="38">
-        <v>373</v>
-      </c>
-      <c r="H64" t="s" s="40">
-        <v>708</v>
-      </c>
-      <c r="J64" t="s" s="39">
-        <v>308</v>
-      </c>
-      <c r="L64" t="s" s="39">
-        <v>559</v>
-      </c>
-      <c r="AC64" t="n" s="39">
-        <v>76.09372619507145</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="n" s="317">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E65" t="n" s="129">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F65" t="n" s="221">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G65" t="s" s="38">
-        <v>374</v>
-      </c>
-      <c r="H65" t="s" s="40">
-        <v>709</v>
-      </c>
-      <c r="J65" t="s" s="39">
-        <v>309</v>
-      </c>
-      <c r="L65" t="s" s="39">
-        <v>560</v>
-      </c>
-      <c r="AC65" t="n" s="39">
-        <v>46.4857182653061</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="n" s="318">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E66" t="n" s="130">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F66" t="n" s="222">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G66" t="s" s="38">
-        <v>375</v>
-      </c>
-      <c r="H66" t="s" s="40">
-        <v>710</v>
-      </c>
-      <c r="J66" t="s" s="39">
-        <v>310</v>
-      </c>
-      <c r="L66" t="s" s="39">
-        <v>561</v>
-      </c>
-      <c r="AC66" t="n" s="39">
-        <v>3.749179079555487</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="n" s="319">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E67" t="n" s="131">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F67" t="n" s="223">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G67" t="s" s="38">
-        <v>376</v>
-      </c>
-      <c r="H67" t="s" s="40">
-        <v>711</v>
-      </c>
-      <c r="J67" t="s" s="39">
-        <v>311</v>
-      </c>
-      <c r="L67" t="s" s="39">
-        <v>562</v>
-      </c>
-      <c r="AC67" t="n" s="39">
-        <v>67.64116374087178</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="n" s="320">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E68" t="n" s="132">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F68" t="n" s="224">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G68" t="s" s="38">
-        <v>377</v>
-      </c>
-      <c r="H68" t="s" s="40">
-        <v>712</v>
-      </c>
-      <c r="J68" t="s" s="39">
-        <v>312</v>
-      </c>
-      <c r="L68" t="s" s="39">
-        <v>563</v>
-      </c>
-      <c r="AC68" t="n" s="39">
-        <v>70.71039647429784</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="n" s="321">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E69" t="n" s="133">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F69" t="n" s="225">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G69" t="s" s="38">
-        <v>378</v>
-      </c>
-      <c r="H69" t="s" s="40">
-        <v>713</v>
-      </c>
-      <c r="J69" t="s" s="39">
-        <v>313</v>
-      </c>
-      <c r="L69" t="s" s="39">
-        <v>564</v>
-      </c>
-      <c r="AC69" t="n" s="39">
-        <v>47.733018831286245</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" t="n" s="322">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E70" t="n" s="134">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F70" t="n" s="226">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G70" t="s" s="38">
-        <v>379</v>
-      </c>
-      <c r="H70" t="s" s="40">
-        <v>714</v>
-      </c>
-      <c r="J70" t="s" s="39">
-        <v>314</v>
-      </c>
-      <c r="L70" t="s" s="39">
-        <v>565</v>
-      </c>
-      <c r="AC70" t="n" s="39">
-        <v>92.96583535758074</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="C71" t="n" s="323">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E71" t="n" s="135">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F71" t="n" s="227">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G71" t="s" s="38">
-        <v>380</v>
-      </c>
-      <c r="H71" t="s" s="40">
-        <v>715</v>
-      </c>
-      <c r="L71" t="s" s="39">
-        <v>566</v>
-      </c>
-      <c r="AC71" t="n" s="39">
-        <v>2.334754768647773</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="n" s="324">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E72" t="n" s="136">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F72" t="n" s="228">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G72" t="s" s="38">
-        <v>381</v>
-      </c>
-      <c r="H72" t="s" s="40">
-        <v>716</v>
-      </c>
-      <c r="L72" t="s" s="39">
-        <v>567</v>
-      </c>
-      <c r="AC72" t="n" s="39">
-        <v>31.356612396404216</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="C73" t="n" s="325">
-        <v>44963.483332916665</v>
-      </c>
-      <c r="E73" t="n" s="137">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F73" t="n" s="229">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G73" t="s" s="38">
-        <v>382</v>
-      </c>
-      <c r="H73" t="s" s="40">
-        <v>717</v>
-      </c>
-      <c r="L73" t="s" s="39">
-        <v>568</v>
-      </c>
-      <c r="AC73" t="n" s="39">
-        <v>17.455852286164674</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="E74" t="n" s="138">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F74" t="n" s="230">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G74" t="s" s="38">
-        <v>383</v>
-      </c>
-      <c r="H74" t="s" s="40">
-        <v>718</v>
-      </c>
-      <c r="L74" t="s" s="39">
-        <v>569</v>
-      </c>
-      <c r="AC74" t="n" s="39">
-        <v>55.308896465351054</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="E75" t="n" s="139">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F75" t="n" s="231">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G75" t="s" s="38">
-        <v>384</v>
-      </c>
-      <c r="H75" t="s" s="40">
-        <v>719</v>
-      </c>
-      <c r="L75" t="s" s="39">
-        <v>570</v>
-      </c>
-      <c r="AC75" t="n" s="39">
-        <v>47.00718849015581</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="E76" t="n" s="140">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F76" t="n" s="232">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G76" t="s" s="38">
-        <v>385</v>
-      </c>
-      <c r="H76" t="s" s="40">
-        <v>720</v>
-      </c>
-      <c r="L76" t="s" s="39">
-        <v>571</v>
-      </c>
-      <c r="AC76" t="n" s="39">
-        <v>99.60797856392203</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="E77" t="n" s="141">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F77" t="n" s="233">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G77" t="s" s="38">
-        <v>386</v>
-      </c>
-      <c r="H77" t="s" s="40">
-        <v>721</v>
-      </c>
-      <c r="L77" t="s" s="39">
-        <v>572</v>
-      </c>
-      <c r="AC77" t="n" s="39">
-        <v>25.60149167878507</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="E78" t="n" s="142">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F78" t="n" s="234">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G78" t="s" s="38">
-        <v>387</v>
-      </c>
-      <c r="H78" t="s" s="40">
-        <v>722</v>
-      </c>
-      <c r="L78" t="s" s="39">
-        <v>573</v>
-      </c>
-      <c r="AC78" t="n" s="39">
-        <v>23.515718406344956</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="n" s="143">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F79" t="n" s="235">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G79" t="s" s="38">
-        <v>388</v>
-      </c>
-      <c r="H79" t="s" s="40">
-        <v>723</v>
-      </c>
-      <c r="L79" t="s" s="39">
-        <v>574</v>
-      </c>
-      <c r="AC79" t="n" s="39">
-        <v>35.93698080108234</v>
-      </c>
     </row>
     <row r="80">
-      <c r="E80" t="n" s="144">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F80" t="n" s="236">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G80" t="s" s="38">
-        <v>389</v>
-      </c>
-      <c r="H80" t="s" s="40">
-        <v>724</v>
-      </c>
-      <c r="L80" t="s" s="39">
-        <v>575</v>
-      </c>
-      <c r="AC80" t="n" s="39">
-        <v>18.441566647187802</v>
+      <c r="G80" t="s" s="77">
+        <v>436</v>
+      </c>
+      <c r="H80" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="n" s="145">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F81" t="n" s="237">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G81" t="s" s="38">
-        <v>390</v>
-      </c>
-      <c r="H81" t="s" s="40">
-        <v>725</v>
-      </c>
-      <c r="L81" t="s" s="39">
-        <v>576</v>
-      </c>
-      <c r="AC81" t="n" s="39">
-        <v>30.73960515476325</v>
+      <c r="G81" t="s" s="77">
+        <v>437</v>
+      </c>
+      <c r="H81" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="n" s="146">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F82" t="n" s="238">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G82" t="s" s="38">
-        <v>391</v>
-      </c>
-      <c r="H82" t="s" s="40">
-        <v>726</v>
-      </c>
-      <c r="L82" t="s" s="39">
-        <v>577</v>
-      </c>
-      <c r="AC82" t="n" s="39">
-        <v>48.658851542660805</v>
+      <c r="G82" t="s" s="77">
+        <v>438</v>
+      </c>
+      <c r="H82" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="n" s="147">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F83" t="n" s="239">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G83" t="s" s="38">
-        <v>392</v>
-      </c>
-      <c r="H83" t="s" s="40">
-        <v>727</v>
-      </c>
-      <c r="L83" t="s" s="39">
-        <v>578</v>
-      </c>
-      <c r="AC83" t="n" s="39">
-        <v>29.787169694805694</v>
+      <c r="G83" t="s" s="77">
+        <v>439</v>
+      </c>
+      <c r="H83" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="n" s="148">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F84" t="n" s="240">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G84" t="s" s="38">
-        <v>393</v>
-      </c>
-      <c r="H84" t="s" s="40">
-        <v>728</v>
-      </c>
-      <c r="L84" t="s" s="39">
-        <v>579</v>
-      </c>
-      <c r="AC84" t="n" s="39">
-        <v>69.62321498804354</v>
+      <c r="G84" t="s" s="77">
+        <v>440</v>
+      </c>
+      <c r="H84" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="n" s="149">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F85" t="n" s="241">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G85" t="s" s="38">
-        <v>394</v>
-      </c>
-      <c r="H85" t="s" s="40">
-        <v>729</v>
-      </c>
-      <c r="L85" t="s" s="39">
-        <v>580</v>
-      </c>
-      <c r="AC85" t="n" s="39">
-        <v>85.97346471977382</v>
+      <c r="G85" t="s" s="77">
+        <v>441</v>
+      </c>
+      <c r="H85" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="n" s="150">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F86" t="n" s="242">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G86" t="s" s="38">
-        <v>395</v>
-      </c>
-      <c r="H86" t="s" s="40">
-        <v>730</v>
-      </c>
-      <c r="L86" t="s" s="39">
-        <v>581</v>
-      </c>
-      <c r="AC86" t="n" s="39">
-        <v>72.2711698702513</v>
+      <c r="G86" t="s" s="77">
+        <v>442</v>
+      </c>
+      <c r="H86" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="n" s="151">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F87" t="n" s="243">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G87" t="s" s="38">
-        <v>396</v>
-      </c>
-      <c r="H87" t="s" s="40">
-        <v>731</v>
-      </c>
-      <c r="L87" t="s" s="39">
-        <v>582</v>
-      </c>
-      <c r="AC87" t="n" s="39">
-        <v>97.82120672636671</v>
+      <c r="G87" t="s" s="77">
+        <v>443</v>
+      </c>
+      <c r="H87" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="n" s="152">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F88" t="n" s="244">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G88" t="s" s="38">
-        <v>397</v>
-      </c>
-      <c r="H88" t="s" s="40">
-        <v>732</v>
-      </c>
-      <c r="L88" t="s" s="39">
-        <v>583</v>
+      <c r="G88" t="s" s="77">
+        <v>444</v>
+      </c>
+      <c r="H88" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="n" s="153">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F89" t="n" s="245">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G89" t="s" s="38">
-        <v>398</v>
-      </c>
-      <c r="H89" t="s" s="40">
-        <v>733</v>
-      </c>
-      <c r="L89" t="s" s="39">
-        <v>584</v>
+      <c r="G89" t="s" s="77">
+        <v>445</v>
+      </c>
+      <c r="H89" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="n" s="154">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F90" t="n" s="246">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G90" t="s" s="38">
-        <v>399</v>
-      </c>
-      <c r="H90" t="s" s="40">
-        <v>734</v>
-      </c>
-      <c r="L90" t="s" s="39">
-        <v>585</v>
+      <c r="G90" t="s" s="77">
+        <v>446</v>
+      </c>
+      <c r="H90" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="n" s="155">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F91" t="n" s="247">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G91" t="s" s="38">
-        <v>400</v>
-      </c>
-      <c r="H91" t="s" s="40">
-        <v>735</v>
-      </c>
-      <c r="L91" t="s" s="39">
-        <v>586</v>
+      <c r="G91" t="s" s="77">
+        <v>447</v>
+      </c>
+      <c r="H91" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="n" s="156">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F92" t="n" s="248">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G92" t="s" s="38">
-        <v>401</v>
-      </c>
-      <c r="H92" t="s" s="40">
-        <v>736</v>
-      </c>
-      <c r="L92" t="s" s="39">
-        <v>587</v>
+      <c r="G92" t="s" s="77">
+        <v>448</v>
+      </c>
+      <c r="H92" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="93">
-      <c r="E93" t="n" s="157">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F93" t="n" s="249">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G93" t="s" s="38">
-        <v>402</v>
-      </c>
-      <c r="H93" t="s" s="40">
-        <v>737</v>
-      </c>
-      <c r="L93" t="s" s="39">
-        <v>588</v>
+      <c r="G93" t="s" s="77">
+        <v>449</v>
+      </c>
+      <c r="H93" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="94">
-      <c r="E94" t="n" s="158">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F94" t="n" s="250">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G94" t="s" s="38">
-        <v>403</v>
-      </c>
-      <c r="H94" t="s" s="40">
-        <v>738</v>
-      </c>
-      <c r="L94" t="s" s="39">
-        <v>589</v>
+      <c r="G94" t="s" s="77">
+        <v>450</v>
+      </c>
+      <c r="H94" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="95">
-      <c r="E95" t="n" s="159">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F95" t="n" s="251">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G95" t="s" s="38">
-        <v>404</v>
-      </c>
-      <c r="H95" t="s" s="40">
-        <v>739</v>
-      </c>
-      <c r="L95" t="s" s="39">
-        <v>590</v>
+      <c r="G95" t="s" s="77">
+        <v>451</v>
+      </c>
+      <c r="H95" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="96">
-      <c r="E96" t="n" s="160">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F96" t="n" s="252">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="G96" t="s" s="38">
-        <v>405</v>
-      </c>
-      <c r="H96" t="s" s="40">
-        <v>740</v>
-      </c>
-      <c r="L96" t="s" s="39">
-        <v>591</v>
+      <c r="G96" t="s" s="77">
+        <v>452</v>
+      </c>
+      <c r="H96" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="97">
-      <c r="E97" t="n" s="161">
-        <v>44963.4833328588</v>
-      </c>
-      <c r="F97" t="n" s="253">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="L97" t="s" s="39">
-        <v>592</v>
+      <c r="G97" t="s" s="77">
+        <v>453</v>
+      </c>
+      <c r="H97" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="98">
-      <c r="F98" t="n" s="254">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="L98" t="s" s="39">
-        <v>593</v>
+      <c r="G98" t="s" s="77">
+        <v>454</v>
+      </c>
+      <c r="H98" t="n" s="78">
+        <v>44963.953589108794</v>
       </c>
     </row>
     <row r="99">
-      <c r="F99" t="n" s="255">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="L99" t="s" s="39">
-        <v>594</v>
+      <c r="G99" t="s" s="77">
+        <v>455</v>
       </c>
     </row>
     <row r="100">
-      <c r="F100" t="n" s="256">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="L100" t="s" s="39">
-        <v>595</v>
+      <c r="G100" t="s" s="77">
+        <v>456</v>
       </c>
     </row>
     <row r="101">
-      <c r="F101" t="n" s="257">
-        <v>44963.483332905096</v>
-      </c>
-      <c r="L101" t="s" s="39">
-        <v>596</v>
+      <c r="G101" t="s" s="77">
+        <v>457</v>
       </c>
     </row>
     <row r="102">
-      <c r="L102" t="s" s="39">
-        <v>597</v>
+      <c r="G102" t="s" s="77">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="G103" t="s" s="77">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="G104" t="s" s="77">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -11644,509 +10212,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
-  <dimension ref="A2:G96"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s" s="0">
-        <v>408</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>741</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>742</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s" s="0">
-        <v>409</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>744</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>745</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s" s="0">
-        <v>410</v>
-      </c>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="n" s="0">
+        <v>4.6869539217224</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6" spans="5:7">
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="0">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="0">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="0">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="0">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="0">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="0">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="0">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="0">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="0">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="0">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="0">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="0">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="0">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>500</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12163,22 +10257,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>747</v>
+        <v>590</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>754</v>
+        <v>597</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>764</v>
+        <v>607</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>774</v>
+        <v>617</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>784</v>
+        <v>627</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>794</v>
+        <v>637</v>
       </c>
       <c r="G1" t="n" s="0">
         <v>0.021</v>
@@ -12186,22 +10280,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>748</v>
+        <v>591</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>755</v>
+        <v>598</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>765</v>
+        <v>608</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>775</v>
+        <v>618</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>785</v>
+        <v>628</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>795</v>
+        <v>638</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>100.3</v>
@@ -12209,22 +10303,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>749</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>756</v>
+        <v>599</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>766</v>
+        <v>609</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>776</v>
+        <v>619</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>786</v>
+        <v>629</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>796</v>
+        <v>639</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>9.275</v>
@@ -12232,19 +10326,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>750</v>
+        <v>593</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>757</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>767</v>
+        <v>610</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>777</v>
+        <v>620</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>787</v>
+        <v>630</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>100000.734</v>
@@ -12252,95 +10346,95 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>751</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>758</v>
+        <v>601</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>768</v>
+        <v>611</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>778</v>
+        <v>621</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>788</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>752</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>759</v>
+        <v>602</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>769</v>
+        <v>612</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>779</v>
+        <v>622</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>789</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>753</v>
+        <v>596</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>760</v>
+        <v>603</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>770</v>
+        <v>613</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>780</v>
+        <v>623</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>790</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="0">
-        <v>761</v>
+        <v>604</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>771</v>
+        <v>614</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>781</v>
+        <v>624</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>791</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="0">
-        <v>762</v>
+        <v>605</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>772</v>
+        <v>615</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>782</v>
+        <v>625</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>792</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="0">
-        <v>763</v>
+        <v>606</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>773</v>
+        <v>616</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>783</v>
+        <v>626</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>793</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -12549,45 +10643,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9149A93E-C697-4066-B609-D79D6821B8AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9149A93E-C697-4066-B609-D79D6821B8AF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DAFC0D-C589-4871-8EC2-037587728CED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cc44513a-9740-48a8-b9a6-11a9236a0f51"/>
-    <ds:schemaRef ds:uri="ab086da4-aeaa-470f-88f5-e96437a646bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DAFC0D-C589-4871-8EC2-037587728CED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7799FA91-D05F-41CA-9D85-32D7401AB4F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ab086da4-aeaa-470f-88f5-e96437a646bb"/>
-    <ds:schemaRef ds:uri="cc44513a-9740-48a8-b9a6-11a9236a0f51"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7799FA91-D05F-41CA-9D85-32D7401AB4F3}"/>
 </file>
--- a/W-Domestic Standard Upload Template.xlsx
+++ b/W-Domestic Standard Upload Template.xlsx
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="606">
   <si>
     <t>#</t>
   </si>
@@ -1229,226 +1229,124 @@
     <t>col:22</t>
   </si>
   <si>
-    <t>dep:0</t>
-  </si>
-  <si>
-    <t>dep:1</t>
-  </si>
-  <si>
-    <t>dep:2</t>
-  </si>
-  <si>
-    <t>dep:3</t>
-  </si>
-  <si>
-    <t>dep:4</t>
-  </si>
-  <si>
-    <t>dep:5</t>
-  </si>
-  <si>
-    <t>dep:6</t>
-  </si>
-  <si>
-    <t>dep:7</t>
-  </si>
-  <si>
-    <t>dep:8</t>
-  </si>
-  <si>
-    <t>dep:9</t>
-  </si>
-  <si>
-    <t>dep:10</t>
-  </si>
-  <si>
-    <t>dep:11</t>
-  </si>
-  <si>
-    <t>dep:12</t>
-  </si>
-  <si>
-    <t>dep:13</t>
-  </si>
-  <si>
-    <t>dep:14</t>
-  </si>
-  <si>
-    <t>dep:15</t>
-  </si>
-  <si>
-    <t>dep:16</t>
-  </si>
-  <si>
-    <t>dep:17</t>
-  </si>
-  <si>
-    <t>dep:18</t>
-  </si>
-  <si>
-    <t>dep:19</t>
-  </si>
-  <si>
-    <t>dep:20</t>
-  </si>
-  <si>
-    <t>dep:21</t>
-  </si>
-  <si>
-    <t>dep:22</t>
-  </si>
-  <si>
-    <t>dep:23</t>
-  </si>
-  <si>
-    <t>dep:24</t>
-  </si>
-  <si>
-    <t>dep:25</t>
-  </si>
-  <si>
-    <t>dep:26</t>
-  </si>
-  <si>
-    <t>dep:27</t>
-  </si>
-  <si>
-    <t>dep:28</t>
-  </si>
-  <si>
-    <t>dep:29</t>
-  </si>
-  <si>
-    <t>dep:30</t>
-  </si>
-  <si>
-    <t>dep:31</t>
-  </si>
-  <si>
-    <t>dep:32</t>
-  </si>
-  <si>
-    <t>dep:33</t>
-  </si>
-  <si>
-    <t>dep:34</t>
-  </si>
-  <si>
-    <t>dep:35</t>
-  </si>
-  <si>
-    <t>dep:36</t>
-  </si>
-  <si>
-    <t>dep:37</t>
-  </si>
-  <si>
-    <t>dep:38</t>
-  </si>
-  <si>
-    <t>dep:39</t>
-  </si>
-  <si>
-    <t>dep:40</t>
-  </si>
-  <si>
-    <t>dep:41</t>
-  </si>
-  <si>
-    <t>dep:42</t>
-  </si>
-  <si>
-    <t>dep:43</t>
-  </si>
-  <si>
-    <t>dep:44</t>
-  </si>
-  <si>
-    <t>dep:45</t>
-  </si>
-  <si>
-    <t>dep:46</t>
-  </si>
-  <si>
-    <t>dep:47</t>
-  </si>
-  <si>
-    <t>dep:48</t>
-  </si>
-  <si>
-    <t>dep:49</t>
-  </si>
-  <si>
-    <t>dep:50</t>
-  </si>
-  <si>
-    <t>dep:51</t>
-  </si>
-  <si>
-    <t>dep:52</t>
-  </si>
-  <si>
-    <t>dep:53</t>
-  </si>
-  <si>
-    <t>dep:54</t>
-  </si>
-  <si>
-    <t>dep:55</t>
-  </si>
-  <si>
-    <t>dep:56</t>
-  </si>
-  <si>
-    <t>dep:57</t>
-  </si>
-  <si>
-    <t>dep:58</t>
-  </si>
-  <si>
-    <t>dep:59</t>
-  </si>
-  <si>
-    <t>dep:60</t>
-  </si>
-  <si>
-    <t>dep:61</t>
-  </si>
-  <si>
-    <t>dep:62</t>
-  </si>
-  <si>
-    <t>dep:63</t>
-  </si>
-  <si>
-    <t>dep:64</t>
-  </si>
-  <si>
-    <t>dep:65</t>
-  </si>
-  <si>
-    <t>dep:66</t>
-  </si>
-  <si>
-    <t>dep:67</t>
-  </si>
-  <si>
-    <t>dep:68</t>
-  </si>
-  <si>
-    <t>dep:69</t>
-  </si>
-  <si>
-    <t>dep:70</t>
-  </si>
-  <si>
-    <t>dep:71</t>
-  </si>
-  <si>
-    <t>dep:72</t>
-  </si>
-  <si>
-    <t>dep:73</t>
+    <t>col:23</t>
+  </si>
+  <si>
+    <t>col:24</t>
+  </si>
+  <si>
+    <t>col:25</t>
+  </si>
+  <si>
+    <t>col:26</t>
+  </si>
+  <si>
+    <t>col:27</t>
+  </si>
+  <si>
+    <t>col:28</t>
+  </si>
+  <si>
+    <t>col:29</t>
+  </si>
+  <si>
+    <t>col:30</t>
+  </si>
+  <si>
+    <t>col:31</t>
+  </si>
+  <si>
+    <t>col:32</t>
+  </si>
+  <si>
+    <t>col:33</t>
+  </si>
+  <si>
+    <t>col:34</t>
+  </si>
+  <si>
+    <t>col:35</t>
+  </si>
+  <si>
+    <t>col:36</t>
+  </si>
+  <si>
+    <t>col:37</t>
+  </si>
+  <si>
+    <t>col:38</t>
+  </si>
+  <si>
+    <t>col:39</t>
+  </si>
+  <si>
+    <t>col:40</t>
+  </si>
+  <si>
+    <t>col:41</t>
+  </si>
+  <si>
+    <t>col:42</t>
+  </si>
+  <si>
+    <t>col:43</t>
+  </si>
+  <si>
+    <t>col:44</t>
+  </si>
+  <si>
+    <t>col:45</t>
+  </si>
+  <si>
+    <t>col:46</t>
+  </si>
+  <si>
+    <t>col:47</t>
+  </si>
+  <si>
+    <t>col:48</t>
+  </si>
+  <si>
+    <t>col:49</t>
+  </si>
+  <si>
+    <t>col:50</t>
+  </si>
+  <si>
+    <t>col:51</t>
+  </si>
+  <si>
+    <t>col:52</t>
+  </si>
+  <si>
+    <t>col:53</t>
+  </si>
+  <si>
+    <t>col:54</t>
+  </si>
+  <si>
+    <t>col:55</t>
+  </si>
+  <si>
+    <t>col:56</t>
+  </si>
+  <si>
+    <t>col:57</t>
+  </si>
+  <si>
+    <t>col:58</t>
+  </si>
+  <si>
+    <t>col:59</t>
+  </si>
+  <si>
+    <t>col:60</t>
+  </si>
+  <si>
+    <t>col:61</t>
+  </si>
+  <si>
+    <t>col:62</t>
   </si>
   <si>
     <t>siz:0</t>
@@ -1496,6 +1394,33 @@
     <t>siz:14</t>
   </si>
   <si>
+    <t>siz:15</t>
+  </si>
+  <si>
+    <t>siz:16</t>
+  </si>
+  <si>
+    <t>siz:17</t>
+  </si>
+  <si>
+    <t>siz:18</t>
+  </si>
+  <si>
+    <t>siz:19</t>
+  </si>
+  <si>
+    <t>siz:20</t>
+  </si>
+  <si>
+    <t>siz:21</t>
+  </si>
+  <si>
+    <t>siz:22</t>
+  </si>
+  <si>
+    <t>siz:23</t>
+  </si>
+  <si>
     <t>typ:0</t>
   </si>
   <si>
@@ -1652,147 +1577,6 @@
     <t>typ:51</t>
   </si>
   <si>
-    <t>typ:52</t>
-  </si>
-  <si>
-    <t>typ:53</t>
-  </si>
-  <si>
-    <t>typ:54</t>
-  </si>
-  <si>
-    <t>typ:55</t>
-  </si>
-  <si>
-    <t>typ:56</t>
-  </si>
-  <si>
-    <t>typ:57</t>
-  </si>
-  <si>
-    <t>typ:58</t>
-  </si>
-  <si>
-    <t>typ:59</t>
-  </si>
-  <si>
-    <t>typ:60</t>
-  </si>
-  <si>
-    <t>typ:61</t>
-  </si>
-  <si>
-    <t>typ:62</t>
-  </si>
-  <si>
-    <t>typ:63</t>
-  </si>
-  <si>
-    <t>typ:64</t>
-  </si>
-  <si>
-    <t>typ:65</t>
-  </si>
-  <si>
-    <t>typ:66</t>
-  </si>
-  <si>
-    <t>typ:67</t>
-  </si>
-  <si>
-    <t>typ:68</t>
-  </si>
-  <si>
-    <t>typ:69</t>
-  </si>
-  <si>
-    <t>typ:70</t>
-  </si>
-  <si>
-    <t>typ:71</t>
-  </si>
-  <si>
-    <t>typ:72</t>
-  </si>
-  <si>
-    <t>typ:73</t>
-  </si>
-  <si>
-    <t>typ:74</t>
-  </si>
-  <si>
-    <t>typ:75</t>
-  </si>
-  <si>
-    <t>typ:76</t>
-  </si>
-  <si>
-    <t>typ:77</t>
-  </si>
-  <si>
-    <t>typ:78</t>
-  </si>
-  <si>
-    <t>typ:79</t>
-  </si>
-  <si>
-    <t>typ:80</t>
-  </si>
-  <si>
-    <t>typ:81</t>
-  </si>
-  <si>
-    <t>typ:82</t>
-  </si>
-  <si>
-    <t>typ:83</t>
-  </si>
-  <si>
-    <t>typ:84</t>
-  </si>
-  <si>
-    <t>typ:85</t>
-  </si>
-  <si>
-    <t>typ:86</t>
-  </si>
-  <si>
-    <t>typ:87</t>
-  </si>
-  <si>
-    <t>typ:88</t>
-  </si>
-  <si>
-    <t>typ:89</t>
-  </si>
-  <si>
-    <t>typ:90</t>
-  </si>
-  <si>
-    <t>typ:91</t>
-  </si>
-  <si>
-    <t>typ:92</t>
-  </si>
-  <si>
-    <t>typ:93</t>
-  </si>
-  <si>
-    <t>typ:94</t>
-  </si>
-  <si>
-    <t>typ:95</t>
-  </si>
-  <si>
-    <t>typ:96</t>
-  </si>
-  <si>
-    <t>typ:97</t>
-  </si>
-  <si>
-    <t>typ:98</t>
-  </si>
-  <si>
     <t>mat:0</t>
   </si>
   <si>
@@ -1856,328 +1640,442 @@
     <t>mat:20</t>
   </si>
   <si>
-    <t>mat:21</t>
-  </si>
-  <si>
-    <t>mat:22</t>
-  </si>
-  <si>
-    <t>mat:23</t>
-  </si>
-  <si>
-    <t>mat:24</t>
-  </si>
-  <si>
-    <t>mat:25</t>
-  </si>
-  <si>
-    <t>mat:26</t>
-  </si>
-  <si>
-    <t>mat:27</t>
-  </si>
-  <si>
-    <t>mat:28</t>
-  </si>
-  <si>
-    <t>mat:29</t>
-  </si>
-  <si>
-    <t>cor:0</t>
-  </si>
-  <si>
-    <t>sup:0</t>
-  </si>
-  <si>
-    <t>sup:1</t>
-  </si>
-  <si>
-    <t>sup:2</t>
-  </si>
-  <si>
-    <t>sup:3</t>
-  </si>
-  <si>
-    <t>sup:4</t>
-  </si>
-  <si>
-    <t>sup:5</t>
-  </si>
-  <si>
-    <t>sup:6</t>
-  </si>
-  <si>
-    <t>sup:7</t>
-  </si>
-  <si>
-    <t>sup:8</t>
-  </si>
-  <si>
-    <t>sup:9</t>
-  </si>
-  <si>
-    <t>sup:10</t>
-  </si>
-  <si>
-    <t>sup:11</t>
-  </si>
-  <si>
-    <t>sup:12</t>
-  </si>
-  <si>
-    <t>sup:13</t>
-  </si>
-  <si>
-    <t>sup:14</t>
-  </si>
-  <si>
-    <t>sup:15</t>
-  </si>
-  <si>
-    <t>sup:16</t>
-  </si>
-  <si>
-    <t>sup:17</t>
-  </si>
-  <si>
-    <t>sup:18</t>
-  </si>
-  <si>
-    <t>sup:19</t>
-  </si>
-  <si>
-    <t>sup:20</t>
-  </si>
-  <si>
-    <t>sup:21</t>
-  </si>
-  <si>
-    <t>sup:22</t>
-  </si>
-  <si>
-    <t>sup:23</t>
-  </si>
-  <si>
-    <t>sup:24</t>
-  </si>
-  <si>
-    <t>sup:25</t>
-  </si>
-  <si>
-    <t>sup:26</t>
-  </si>
-  <si>
-    <t>sup:27</t>
-  </si>
-  <si>
-    <t>sup:28</t>
-  </si>
-  <si>
-    <t>sup:29</t>
-  </si>
-  <si>
-    <t>sup:30</t>
-  </si>
-  <si>
-    <t>cat:0</t>
-  </si>
-  <si>
-    <t>cat:1</t>
-  </si>
-  <si>
-    <t>cat:2</t>
-  </si>
-  <si>
-    <t>cat:3</t>
-  </si>
-  <si>
-    <t>cat:4</t>
-  </si>
-  <si>
-    <t>cat:5</t>
-  </si>
-  <si>
-    <t>cat:6</t>
-  </si>
-  <si>
-    <t>cat:7</t>
-  </si>
-  <si>
-    <t>cat:8</t>
-  </si>
-  <si>
-    <t>cat:9</t>
-  </si>
-  <si>
-    <t>cat:10</t>
-  </si>
-  <si>
-    <t>cat:11</t>
-  </si>
-  <si>
-    <t>cat:12</t>
-  </si>
-  <si>
-    <t>cat:13</t>
-  </si>
-  <si>
-    <t>cat:14</t>
-  </si>
-  <si>
-    <t>cat:15</t>
-  </si>
-  <si>
-    <t>cat:16</t>
-  </si>
-  <si>
-    <t>cat:17</t>
-  </si>
-  <si>
-    <t>cat:18</t>
-  </si>
-  <si>
-    <t>cat:19</t>
-  </si>
-  <si>
-    <t>cat:20</t>
-  </si>
-  <si>
-    <t>cat:21</t>
-  </si>
-  <si>
-    <t>cat:22</t>
-  </si>
-  <si>
-    <t>cat:23</t>
-  </si>
-  <si>
-    <t>cat:24</t>
-  </si>
-  <si>
-    <t>cat:25</t>
-  </si>
-  <si>
-    <t>cat:26</t>
-  </si>
-  <si>
-    <t>cat:27</t>
-  </si>
-  <si>
-    <t>cat:28</t>
-  </si>
-  <si>
-    <t>cat:29</t>
-  </si>
-  <si>
-    <t>cat:30</t>
-  </si>
-  <si>
-    <t>cat:31</t>
-  </si>
-  <si>
-    <t>cat:32</t>
-  </si>
-  <si>
-    <t>cat:33</t>
-  </si>
-  <si>
-    <t>cat:34</t>
-  </si>
-  <si>
-    <t>cat:35</t>
-  </si>
-  <si>
-    <t>cat:36</t>
-  </si>
-  <si>
-    <t>cat:37</t>
-  </si>
-  <si>
-    <t>cat:38</t>
-  </si>
-  <si>
-    <t>cat:39</t>
-  </si>
-  <si>
-    <t>cat:40</t>
-  </si>
-  <si>
-    <t>cat:41</t>
-  </si>
-  <si>
-    <t>cat:42</t>
-  </si>
-  <si>
-    <t>cat:43</t>
-  </si>
-  <si>
-    <t>cat:44</t>
-  </si>
-  <si>
-    <t>cat:45</t>
-  </si>
-  <si>
-    <t>cat:46</t>
-  </si>
-  <si>
-    <t>cat:47</t>
-  </si>
-  <si>
-    <t>cat:48</t>
-  </si>
-  <si>
-    <t>cat:49</t>
-  </si>
-  <si>
-    <t>cat:50</t>
-  </si>
-  <si>
-    <t>cat:51</t>
-  </si>
-  <si>
-    <t>cat:52</t>
-  </si>
-  <si>
-    <t>cat:53</t>
-  </si>
-  <si>
-    <t>cat:54</t>
-  </si>
-  <si>
-    <t>cat:55</t>
-  </si>
-  <si>
-    <t>cat:56</t>
-  </si>
-  <si>
-    <t>cat:57</t>
-  </si>
-  <si>
-    <t>cat:58</t>
-  </si>
-  <si>
-    <t>cat:59</t>
-  </si>
-  <si>
-    <t>cat:60</t>
-  </si>
-  <si>
-    <t>cat:61</t>
-  </si>
-  <si>
-    <t>cat:62</t>
-  </si>
-  <si>
-    <t>cat:63</t>
-  </si>
-  <si>
-    <t>cat:64</t>
-  </si>
-  <si>
-    <t>cat:65</t>
-  </si>
-  <si>
-    <t>cat:66</t>
+    <t>wei:0</t>
+  </si>
+  <si>
+    <t>wei:1</t>
+  </si>
+  <si>
+    <t>wei:2</t>
+  </si>
+  <si>
+    <t>wei:3</t>
+  </si>
+  <si>
+    <t>wei:4</t>
+  </si>
+  <si>
+    <t>wei:5</t>
+  </si>
+  <si>
+    <t>wei:6</t>
+  </si>
+  <si>
+    <t>wei:7</t>
+  </si>
+  <si>
+    <t>wei:8</t>
+  </si>
+  <si>
+    <t>wei:9</t>
+  </si>
+  <si>
+    <t>wei:10</t>
+  </si>
+  <si>
+    <t>wei:11</t>
+  </si>
+  <si>
+    <t>wei:12</t>
+  </si>
+  <si>
+    <t>wei:13</t>
+  </si>
+  <si>
+    <t>wei:14</t>
+  </si>
+  <si>
+    <t>wei:15</t>
+  </si>
+  <si>
+    <t>wei:16</t>
+  </si>
+  <si>
+    <t>wei:17</t>
+  </si>
+  <si>
+    <t>wei:18</t>
+  </si>
+  <si>
+    <t>wei:19</t>
+  </si>
+  <si>
+    <t>wei:20</t>
+  </si>
+  <si>
+    <t>wei:21</t>
+  </si>
+  <si>
+    <t>wei:22</t>
+  </si>
+  <si>
+    <t>wei:23</t>
+  </si>
+  <si>
+    <t>wei:24</t>
+  </si>
+  <si>
+    <t>wei:25</t>
+  </si>
+  <si>
+    <t>wei:26</t>
+  </si>
+  <si>
+    <t>wei:27</t>
+  </si>
+  <si>
+    <t>wei:28</t>
+  </si>
+  <si>
+    <t>wei:29</t>
+  </si>
+  <si>
+    <t>wei:30</t>
+  </si>
+  <si>
+    <t>wei:31</t>
+  </si>
+  <si>
+    <t>wei:32</t>
+  </si>
+  <si>
+    <t>wei:33</t>
+  </si>
+  <si>
+    <t>wei:34</t>
+  </si>
+  <si>
+    <t>wei:35</t>
+  </si>
+  <si>
+    <t>wei:36</t>
+  </si>
+  <si>
+    <t>wei:37</t>
+  </si>
+  <si>
+    <t>wei:38</t>
+  </si>
+  <si>
+    <t>wei:39</t>
+  </si>
+  <si>
+    <t>wei:40</t>
+  </si>
+  <si>
+    <t>wei:41</t>
+  </si>
+  <si>
+    <t>wei:42</t>
+  </si>
+  <si>
+    <t>wei:43</t>
+  </si>
+  <si>
+    <t>wei:44</t>
+  </si>
+  <si>
+    <t>wei:45</t>
+  </si>
+  <si>
+    <t>wei:46</t>
+  </si>
+  <si>
+    <t>wei:47</t>
+  </si>
+  <si>
+    <t>wei:48</t>
+  </si>
+  <si>
+    <t>wei:49</t>
+  </si>
+  <si>
+    <t>wei:50</t>
+  </si>
+  <si>
+    <t>wei:51</t>
+  </si>
+  <si>
+    <t>wei:52</t>
+  </si>
+  <si>
+    <t>cla:0</t>
+  </si>
+  <si>
+    <t>cla:1</t>
+  </si>
+  <si>
+    <t>cla:2</t>
+  </si>
+  <si>
+    <t>cla:3</t>
+  </si>
+  <si>
+    <t>cla:4</t>
+  </si>
+  <si>
+    <t>cla:5</t>
+  </si>
+  <si>
+    <t>cla:6</t>
+  </si>
+  <si>
+    <t>cla:7</t>
+  </si>
+  <si>
+    <t>cla:8</t>
+  </si>
+  <si>
+    <t>cla:9</t>
+  </si>
+  <si>
+    <t>cla:10</t>
+  </si>
+  <si>
+    <t>cla:11</t>
+  </si>
+  <si>
+    <t>cla:12</t>
+  </si>
+  <si>
+    <t>cla:13</t>
+  </si>
+  <si>
+    <t>cla:14</t>
+  </si>
+  <si>
+    <t>cla:15</t>
+  </si>
+  <si>
+    <t>cla:16</t>
+  </si>
+  <si>
+    <t>cla:17</t>
+  </si>
+  <si>
+    <t>cla:18</t>
+  </si>
+  <si>
+    <t>cla:19</t>
+  </si>
+  <si>
+    <t>cla:20</t>
+  </si>
+  <si>
+    <t>cla:21</t>
+  </si>
+  <si>
+    <t>cla:22</t>
+  </si>
+  <si>
+    <t>cla:23</t>
+  </si>
+  <si>
+    <t>cla:24</t>
+  </si>
+  <si>
+    <t>cla:25</t>
+  </si>
+  <si>
+    <t>cla:26</t>
+  </si>
+  <si>
+    <t>cla:27</t>
+  </si>
+  <si>
+    <t>cla:28</t>
+  </si>
+  <si>
+    <t>cla:29</t>
+  </si>
+  <si>
+    <t>cla:30</t>
+  </si>
+  <si>
+    <t>cla:31</t>
+  </si>
+  <si>
+    <t>cla:32</t>
+  </si>
+  <si>
+    <t>cla:33</t>
+  </si>
+  <si>
+    <t>cla:34</t>
+  </si>
+  <si>
+    <t>cla:35</t>
+  </si>
+  <si>
+    <t>cla:36</t>
+  </si>
+  <si>
+    <t>cla:37</t>
+  </si>
+  <si>
+    <t>cla:38</t>
+  </si>
+  <si>
+    <t>cla:39</t>
+  </si>
+  <si>
+    <t>cla:40</t>
+  </si>
+  <si>
+    <t>cla:41</t>
+  </si>
+  <si>
+    <t>cla:42</t>
+  </si>
+  <si>
+    <t>cla:43</t>
+  </si>
+  <si>
+    <t>cla:44</t>
+  </si>
+  <si>
+    <t>cla:45</t>
+  </si>
+  <si>
+    <t>cla:46</t>
+  </si>
+  <si>
+    <t>cla:47</t>
+  </si>
+  <si>
+    <t>cla:48</t>
+  </si>
+  <si>
+    <t>pon:0</t>
+  </si>
+  <si>
+    <t>pon:1</t>
+  </si>
+  <si>
+    <t>pon:2</t>
+  </si>
+  <si>
+    <t>pon:3</t>
+  </si>
+  <si>
+    <t>pon:4</t>
+  </si>
+  <si>
+    <t>pon:5</t>
+  </si>
+  <si>
+    <t>pon:6</t>
+  </si>
+  <si>
+    <t>pon:7</t>
+  </si>
+  <si>
+    <t>pon:8</t>
+  </si>
+  <si>
+    <t>pon:9</t>
+  </si>
+  <si>
+    <t>pon:10</t>
+  </si>
+  <si>
+    <t>pon:11</t>
+  </si>
+  <si>
+    <t>pon:12</t>
+  </si>
+  <si>
+    <t>pon:13</t>
+  </si>
+  <si>
+    <t>pon:14</t>
+  </si>
+  <si>
+    <t>pon:15</t>
+  </si>
+  <si>
+    <t>pon:16</t>
+  </si>
+  <si>
+    <t>pon:17</t>
+  </si>
+  <si>
+    <t>pon:18</t>
+  </si>
+  <si>
+    <t>pon:19</t>
+  </si>
+  <si>
+    <t>pon:20</t>
+  </si>
+  <si>
+    <t>pon:21</t>
+  </si>
+  <si>
+    <t>pon:22</t>
+  </si>
+  <si>
+    <t>pon:23</t>
+  </si>
+  <si>
+    <t>pon:24</t>
+  </si>
+  <si>
+    <t>pon:25</t>
+  </si>
+  <si>
+    <t>pon:26</t>
+  </si>
+  <si>
+    <t>pon:27</t>
+  </si>
+  <si>
+    <t>pon:28</t>
+  </si>
+  <si>
+    <t>pon:29</t>
+  </si>
+  <si>
+    <t>pon:30</t>
+  </si>
+  <si>
+    <t>pon:31</t>
+  </si>
+  <si>
+    <t>pon:32</t>
+  </si>
+  <si>
+    <t>pon:33</t>
+  </si>
+  <si>
+    <t>pon:34</t>
+  </si>
+  <si>
+    <t>pon:35</t>
+  </si>
+  <si>
+    <t>pon:36</t>
+  </si>
+  <si>
+    <t>pon:37</t>
+  </si>
+  <si>
+    <t>pon:38</t>
+  </si>
+  <si>
+    <t>pon:39</t>
+  </si>
+  <si>
+    <t>pon:40</t>
+  </si>
+  <si>
+    <t>pon:41</t>
+  </si>
+  <si>
+    <t>pon:42</t>
+  </si>
+  <si>
+    <t>pon:43</t>
   </si>
   <si>
     <t>red</t>
@@ -6820,7 +6718,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
-  <dimension ref="A1:CV104"/>
+  <dimension ref="A1:CV82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -8125,8 +8023,8 @@
       <c r="Z5" s="43"/>
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
-      <c r="AC5" t="n" s="36">
-        <v>44963.953589108794</v>
+      <c r="AC5" t="s" s="36">
+        <v>410</v>
       </c>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -8202,2000 +8100,1701 @@
     </row>
     <row r="6">
       <c r="B6" t="n" s="34">
-        <v>70.6451789168083</v>
+        <v>12.071326216922795</v>
       </c>
       <c r="C6" t="n" s="84">
-        <v>2.635608776123699</v>
+        <v>51.56050717904619</v>
       </c>
       <c r="D6" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E6" t="s" s="76">
         <v>250</v>
       </c>
       <c r="F6" t="s" s="76">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="G6" t="s" s="77">
-        <v>362</v>
-      </c>
-      <c r="H6" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I6" t="s" s="36">
-        <v>492</v>
-      </c>
-      <c r="J6" t="s" s="36">
-        <v>273</v>
-      </c>
-      <c r="K6" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L6" t="s" s="36">
-        <v>523</v>
+        <v>337</v>
+      </c>
+      <c r="H6" t="s" s="78">
+        <v>512</v>
+      </c>
+      <c r="I6" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J6" t="n" s="36">
+        <v>9.448220918031936</v>
+      </c>
+      <c r="K6" t="s" s="36">
+        <v>463</v>
+      </c>
+      <c r="L6" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M6" t="s" s="36">
-        <v>461</v>
-      </c>
-      <c r="AC6" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>389</v>
+      </c>
+      <c r="AC6" t="s" s="36">
+        <v>411</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n" s="34">
-        <v>38.11669745141031</v>
-      </c>
       <c r="C7" t="n" s="84">
-        <v>56.938706315634036</v>
+        <v>97.76389641419551</v>
       </c>
       <c r="D7" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E7" t="s" s="76">
         <v>251</v>
       </c>
       <c r="F7" t="s" s="76">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="G7" t="s" s="77">
-        <v>363</v>
-      </c>
-      <c r="H7" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I7" t="s" s="36">
-        <v>493</v>
-      </c>
-      <c r="J7" t="s" s="36">
-        <v>274</v>
-      </c>
-      <c r="K7" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L7" t="s" s="36">
-        <v>524</v>
+        <v>338</v>
+      </c>
+      <c r="H7" t="s" s="78">
+        <v>513</v>
+      </c>
+      <c r="I7" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J7" t="n" s="36">
+        <v>98.036640512255</v>
+      </c>
+      <c r="K7" t="s" s="36">
+        <v>464</v>
+      </c>
+      <c r="L7" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M7" t="s" s="36">
-        <v>462</v>
-      </c>
-      <c r="AC7" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>390</v>
+      </c>
+      <c r="AC7" t="s" s="36">
+        <v>412</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n" s="34">
-        <v>11.272892842957782</v>
-      </c>
       <c r="C8" t="n" s="84">
-        <v>86.66184134883366</v>
+        <v>34.83254112085766</v>
       </c>
       <c r="D8" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E8" t="s" s="76">
         <v>252</v>
       </c>
       <c r="F8" t="s" s="76">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="G8" t="s" s="77">
-        <v>364</v>
-      </c>
-      <c r="H8" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I8" t="s" s="36">
-        <v>494</v>
-      </c>
-      <c r="J8" t="s" s="36">
-        <v>275</v>
-      </c>
-      <c r="K8" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L8" t="s" s="36">
-        <v>525</v>
+        <v>339</v>
+      </c>
+      <c r="H8" t="s" s="78">
+        <v>514</v>
+      </c>
+      <c r="I8" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J8" t="n" s="36">
+        <v>17.210174030290627</v>
+      </c>
+      <c r="K8" t="s" s="36">
+        <v>465</v>
+      </c>
+      <c r="L8" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M8" t="s" s="36">
-        <v>463</v>
-      </c>
-      <c r="AC8" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>391</v>
+      </c>
+      <c r="AC8" t="s" s="36">
+        <v>413</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="n" s="34">
-        <v>76.36872840817996</v>
-      </c>
       <c r="C9" t="n" s="84">
-        <v>86.55412099317597</v>
+        <v>9.16272969728027</v>
       </c>
       <c r="D9" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E9" t="s" s="76">
         <v>253</v>
       </c>
       <c r="F9" t="s" s="76">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="G9" t="s" s="77">
-        <v>365</v>
-      </c>
-      <c r="H9" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I9" t="s" s="36">
-        <v>495</v>
-      </c>
-      <c r="J9" t="s" s="36">
-        <v>276</v>
-      </c>
-      <c r="K9" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L9" t="s" s="36">
-        <v>526</v>
+        <v>340</v>
+      </c>
+      <c r="H9" t="s" s="78">
+        <v>515</v>
+      </c>
+      <c r="I9" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J9" t="n" s="36">
+        <v>96.72575933862235</v>
+      </c>
+      <c r="K9" t="s" s="36">
+        <v>466</v>
+      </c>
+      <c r="L9" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M9" t="s" s="36">
-        <v>464</v>
-      </c>
-      <c r="AC9" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>392</v>
+      </c>
+      <c r="AC9" t="s" s="36">
+        <v>414</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="n" s="34">
-        <v>34.976313682315144</v>
-      </c>
       <c r="C10" t="n" s="84">
-        <v>32.23784669244863</v>
+        <v>26.251299715207676</v>
       </c>
       <c r="D10" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E10" t="s" s="76">
         <v>254</v>
       </c>
       <c r="F10" t="s" s="76">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="G10" t="s" s="77">
-        <v>366</v>
-      </c>
-      <c r="H10" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I10" t="s" s="36">
-        <v>496</v>
-      </c>
-      <c r="J10" t="s" s="36">
-        <v>277</v>
-      </c>
-      <c r="K10" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L10" t="s" s="36">
-        <v>527</v>
+        <v>341</v>
+      </c>
+      <c r="H10" t="s" s="78">
+        <v>516</v>
+      </c>
+      <c r="I10" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J10" t="n" s="36">
+        <v>46.51533377065126</v>
+      </c>
+      <c r="K10" t="s" s="36">
+        <v>467</v>
+      </c>
+      <c r="L10" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M10" t="s" s="36">
-        <v>465</v>
-      </c>
-      <c r="AC10" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>393</v>
+      </c>
+      <c r="AC10" t="s" s="36">
+        <v>415</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="n" s="34">
-        <v>28.881143809326204</v>
-      </c>
       <c r="C11" t="n" s="84">
-        <v>15.538038436151002</v>
+        <v>1.8262227480269622</v>
       </c>
       <c r="D11" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E11" t="s" s="76">
         <v>255</v>
       </c>
       <c r="F11" t="s" s="76">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="G11" t="s" s="77">
-        <v>367</v>
-      </c>
-      <c r="H11" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I11" t="s" s="36">
-        <v>497</v>
-      </c>
-      <c r="J11" t="s" s="36">
-        <v>278</v>
-      </c>
-      <c r="K11" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L11" t="s" s="36">
-        <v>528</v>
+        <v>342</v>
+      </c>
+      <c r="H11" t="s" s="78">
+        <v>517</v>
+      </c>
+      <c r="I11" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J11" t="n" s="36">
+        <v>62.469102899424115</v>
+      </c>
+      <c r="K11" t="s" s="36">
+        <v>468</v>
+      </c>
+      <c r="L11" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M11" t="s" s="36">
-        <v>466</v>
-      </c>
-      <c r="AC11" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>394</v>
+      </c>
+      <c r="AC11" t="s" s="36">
+        <v>416</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="n" s="34">
-        <v>10.439086221580107</v>
-      </c>
       <c r="C12" t="n" s="84">
-        <v>77.65533288588404</v>
+        <v>80.0606995860964</v>
       </c>
       <c r="D12" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E12" t="s" s="76">
         <v>256</v>
       </c>
       <c r="F12" t="s" s="76">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="G12" t="s" s="77">
-        <v>368</v>
-      </c>
-      <c r="H12" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I12" t="s" s="36">
-        <v>498</v>
-      </c>
-      <c r="J12" t="s" s="36">
-        <v>279</v>
-      </c>
-      <c r="K12" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L12" t="s" s="36">
-        <v>529</v>
+        <v>343</v>
+      </c>
+      <c r="H12" t="s" s="78">
+        <v>518</v>
+      </c>
+      <c r="I12" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J12" t="n" s="36">
+        <v>73.72856767569584</v>
+      </c>
+      <c r="K12" t="s" s="36">
+        <v>469</v>
+      </c>
+      <c r="L12" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M12" t="s" s="36">
-        <v>467</v>
-      </c>
-      <c r="AC12" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>395</v>
+      </c>
+      <c r="AC12" t="s" s="36">
+        <v>417</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="n" s="34">
-        <v>24.53213139692474</v>
-      </c>
       <c r="C13" t="n" s="84">
-        <v>46.59676679191948</v>
+        <v>31.480341965039592</v>
       </c>
       <c r="D13" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E13" t="s" s="76">
         <v>257</v>
       </c>
       <c r="F13" t="s" s="76">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="G13" t="s" s="77">
-        <v>369</v>
-      </c>
-      <c r="H13" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I13" t="s" s="36">
-        <v>499</v>
-      </c>
-      <c r="J13" t="s" s="36">
-        <v>280</v>
-      </c>
-      <c r="K13" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L13" t="s" s="36">
-        <v>530</v>
+        <v>344</v>
+      </c>
+      <c r="H13" t="s" s="78">
+        <v>519</v>
+      </c>
+      <c r="I13" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J13" t="n" s="36">
+        <v>3.1332860052224354</v>
+      </c>
+      <c r="K13" t="s" s="36">
+        <v>470</v>
+      </c>
+      <c r="L13" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M13" t="s" s="36">
-        <v>468</v>
-      </c>
-      <c r="AC13" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>396</v>
+      </c>
+      <c r="AC13" t="s" s="36">
+        <v>418</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="n" s="34">
-        <v>43.98512231245368</v>
-      </c>
       <c r="C14" t="n" s="84">
-        <v>26.366622655184656</v>
+        <v>28.353134006428892</v>
       </c>
       <c r="D14" t="n" s="75">
-        <v>44963.953589108794</v>
+        <v>44964.63976636574</v>
       </c>
       <c r="E14" t="s" s="76">
         <v>258</v>
       </c>
       <c r="F14" t="s" s="76">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="G14" t="s" s="77">
-        <v>370</v>
-      </c>
-      <c r="H14" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I14" t="s" s="36">
-        <v>500</v>
-      </c>
-      <c r="J14" t="s" s="36">
-        <v>281</v>
-      </c>
-      <c r="K14" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L14" t="s" s="36">
-        <v>531</v>
+        <v>345</v>
+      </c>
+      <c r="H14" t="s" s="78">
+        <v>520</v>
+      </c>
+      <c r="I14" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J14" t="n" s="36">
+        <v>65.27431283258119</v>
+      </c>
+      <c r="K14" t="s" s="36">
+        <v>471</v>
+      </c>
+      <c r="L14" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M14" t="s" s="36">
-        <v>469</v>
-      </c>
-      <c r="AC14" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>397</v>
+      </c>
+      <c r="AC14" t="s" s="36">
+        <v>419</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="n" s="34">
-        <v>39.57282608966476</v>
-      </c>
       <c r="C15" t="n" s="84">
-        <v>68.2301604511948</v>
+        <v>9.92986676172758</v>
+      </c>
+      <c r="D15" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E15" t="s" s="76">
         <v>259</v>
       </c>
       <c r="F15" t="s" s="76">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="G15" t="s" s="77">
-        <v>371</v>
-      </c>
-      <c r="H15" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I15" t="s" s="36">
-        <v>501</v>
-      </c>
-      <c r="J15" t="s" s="36">
-        <v>282</v>
-      </c>
-      <c r="K15" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L15" t="s" s="36">
-        <v>532</v>
+        <v>346</v>
+      </c>
+      <c r="H15" t="s" s="78">
+        <v>521</v>
+      </c>
+      <c r="I15" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J15" t="n" s="36">
+        <v>72.09843172646328</v>
+      </c>
+      <c r="K15" t="s" s="36">
+        <v>472</v>
+      </c>
+      <c r="L15" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M15" t="s" s="36">
-        <v>470</v>
-      </c>
-      <c r="AC15" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>398</v>
+      </c>
+      <c r="AC15" t="s" s="36">
+        <v>420</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="n" s="34">
-        <v>22.103109004460098</v>
-      </c>
       <c r="C16" t="n" s="84">
-        <v>4.289194969075972</v>
+        <v>84.45231105794797</v>
+      </c>
+      <c r="D16" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E16" t="s" s="76">
         <v>260</v>
       </c>
       <c r="F16" t="s" s="76">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="G16" t="s" s="77">
-        <v>372</v>
-      </c>
-      <c r="H16" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I16" t="s" s="36">
-        <v>502</v>
-      </c>
-      <c r="J16" t="s" s="36">
-        <v>283</v>
-      </c>
-      <c r="K16" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L16" t="s" s="36">
-        <v>533</v>
+        <v>347</v>
+      </c>
+      <c r="H16" t="s" s="78">
+        <v>522</v>
+      </c>
+      <c r="I16" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J16" t="n" s="36">
+        <v>34.13422959953708</v>
+      </c>
+      <c r="K16" t="s" s="36">
+        <v>473</v>
+      </c>
+      <c r="L16" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M16" t="s" s="36">
-        <v>471</v>
-      </c>
-      <c r="AC16" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>399</v>
+      </c>
+      <c r="AC16" t="s" s="36">
+        <v>421</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="n" s="34">
-        <v>68.23171599052435</v>
-      </c>
       <c r="C17" t="n" s="84">
-        <v>10.986113086488558</v>
+        <v>49.020326447663585</v>
+      </c>
+      <c r="D17" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E17" t="s" s="76">
         <v>261</v>
       </c>
       <c r="F17" t="s" s="76">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G17" t="s" s="77">
-        <v>373</v>
-      </c>
-      <c r="H17" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I17" t="s" s="36">
-        <v>503</v>
-      </c>
-      <c r="J17" t="s" s="36">
-        <v>284</v>
-      </c>
-      <c r="K17" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L17" t="s" s="36">
-        <v>534</v>
+        <v>348</v>
+      </c>
+      <c r="H17" t="s" s="78">
+        <v>523</v>
+      </c>
+      <c r="I17" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J17" t="n" s="36">
+        <v>13.214145829871725</v>
+      </c>
+      <c r="K17" t="s" s="36">
+        <v>474</v>
+      </c>
+      <c r="L17" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M17" t="s" s="36">
-        <v>472</v>
-      </c>
-      <c r="AC17" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>400</v>
+      </c>
+      <c r="AC17" t="s" s="36">
+        <v>422</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="n" s="34">
-        <v>63.44018944964929</v>
-      </c>
       <c r="C18" t="n" s="84">
-        <v>41.07918845780709</v>
+        <v>16.120018360654765</v>
+      </c>
+      <c r="D18" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E18" t="s" s="76">
         <v>262</v>
       </c>
       <c r="F18" t="s" s="76">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="G18" t="s" s="77">
-        <v>374</v>
-      </c>
-      <c r="H18" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I18" t="s" s="36">
-        <v>504</v>
-      </c>
-      <c r="J18" t="s" s="36">
-        <v>285</v>
-      </c>
-      <c r="K18" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L18" t="s" s="36">
-        <v>535</v>
+        <v>349</v>
+      </c>
+      <c r="H18" t="s" s="78">
+        <v>524</v>
+      </c>
+      <c r="I18" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J18" t="n" s="36">
+        <v>12.16679455907963</v>
+      </c>
+      <c r="K18" t="s" s="36">
+        <v>475</v>
+      </c>
+      <c r="L18" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M18" t="s" s="36">
-        <v>473</v>
-      </c>
-      <c r="AC18" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>401</v>
+      </c>
+      <c r="AC18" t="s" s="36">
+        <v>423</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="n" s="34">
-        <v>63.018551513010514</v>
-      </c>
       <c r="C19" t="n" s="84">
-        <v>65.33756928027331</v>
+        <v>94.75941831242373</v>
+      </c>
+      <c r="D19" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E19" t="s" s="76">
         <v>263</v>
       </c>
       <c r="F19" t="s" s="76">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="G19" t="s" s="77">
-        <v>375</v>
-      </c>
-      <c r="H19" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I19" t="s" s="36">
-        <v>505</v>
-      </c>
-      <c r="J19" t="s" s="36">
-        <v>286</v>
-      </c>
-      <c r="K19" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L19" t="s" s="36">
-        <v>536</v>
+        <v>350</v>
+      </c>
+      <c r="H19" t="s" s="78">
+        <v>525</v>
+      </c>
+      <c r="I19" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J19" t="n" s="36">
+        <v>80.5878909060308</v>
+      </c>
+      <c r="K19" t="s" s="36">
+        <v>476</v>
+      </c>
+      <c r="L19" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M19" t="s" s="36">
-        <v>474</v>
-      </c>
-      <c r="AC19" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>402</v>
+      </c>
+      <c r="AC19" t="s" s="36">
+        <v>424</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="n" s="34">
-        <v>29.28388662232848</v>
-      </c>
       <c r="C20" t="n" s="84">
-        <v>34.87453867695687</v>
+        <v>78.14488092965193</v>
+      </c>
+      <c r="D20" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E20" t="s" s="76">
         <v>264</v>
       </c>
       <c r="F20" t="s" s="76">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="G20" t="s" s="77">
-        <v>376</v>
-      </c>
-      <c r="H20" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I20" t="s" s="36">
-        <v>506</v>
-      </c>
-      <c r="J20" t="s" s="36">
-        <v>287</v>
-      </c>
-      <c r="K20" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L20" t="s" s="36">
-        <v>537</v>
+        <v>351</v>
+      </c>
+      <c r="H20" t="s" s="78">
+        <v>526</v>
+      </c>
+      <c r="I20" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J20" t="n" s="36">
+        <v>35.16160800111433</v>
+      </c>
+      <c r="K20" t="s" s="36">
+        <v>477</v>
+      </c>
+      <c r="L20" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M20" t="s" s="36">
-        <v>475</v>
-      </c>
-      <c r="AC20" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>403</v>
+      </c>
+      <c r="AC20" t="s" s="36">
+        <v>425</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="n" s="34">
-        <v>30.56110736284168</v>
-      </c>
       <c r="C21" t="n" s="84">
-        <v>80.59589504102722</v>
+        <v>73.8091790398476</v>
+      </c>
+      <c r="D21" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E21" t="s" s="76">
         <v>265</v>
       </c>
+      <c r="F21" t="s" s="76">
+        <v>328</v>
+      </c>
       <c r="G21" t="s" s="77">
-        <v>377</v>
-      </c>
-      <c r="H21" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I21" t="s" s="36">
-        <v>507</v>
-      </c>
-      <c r="J21" t="s" s="36">
-        <v>288</v>
-      </c>
-      <c r="K21" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L21" t="s" s="36">
-        <v>538</v>
+        <v>352</v>
+      </c>
+      <c r="H21" t="s" s="78">
+        <v>527</v>
+      </c>
+      <c r="I21" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J21" t="n" s="36">
+        <v>55.78937601209816</v>
+      </c>
+      <c r="K21" t="s" s="36">
+        <v>478</v>
+      </c>
+      <c r="L21" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M21" t="s" s="36">
-        <v>476</v>
-      </c>
-      <c r="AC21" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>404</v>
+      </c>
+      <c r="AC21" t="s" s="36">
+        <v>426</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="n" s="34">
-        <v>88.49689946330233</v>
-      </c>
       <c r="C22" t="n" s="84">
-        <v>88.23462439327649</v>
+        <v>47.39936354530063</v>
+      </c>
+      <c r="D22" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E22" t="s" s="76">
         <v>266</v>
       </c>
+      <c r="F22" t="s" s="76">
+        <v>329</v>
+      </c>
       <c r="G22" t="s" s="77">
-        <v>378</v>
-      </c>
-      <c r="H22" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I22" t="s" s="36">
-        <v>508</v>
-      </c>
-      <c r="J22" t="s" s="36">
-        <v>289</v>
-      </c>
-      <c r="K22" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L22" t="s" s="36">
-        <v>539</v>
+        <v>353</v>
+      </c>
+      <c r="H22" t="s" s="78">
+        <v>528</v>
+      </c>
+      <c r="I22" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="J22" t="n" s="36">
+        <v>75.93271691716026</v>
+      </c>
+      <c r="K22" t="s" s="36">
+        <v>479</v>
+      </c>
+      <c r="L22" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M22" t="s" s="36">
-        <v>477</v>
-      </c>
-      <c r="AC22" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>405</v>
+      </c>
+      <c r="AC22" t="s" s="36">
+        <v>427</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="n" s="34">
-        <v>78.75729314673006</v>
-      </c>
       <c r="C23" t="n" s="84">
-        <v>86.80280279364845</v>
+        <v>27.24920296309622</v>
+      </c>
+      <c r="D23" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E23" t="s" s="76">
         <v>267</v>
       </c>
+      <c r="F23" t="s" s="76">
+        <v>330</v>
+      </c>
       <c r="G23" t="s" s="77">
-        <v>379</v>
-      </c>
-      <c r="H23" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I23" t="s" s="36">
-        <v>509</v>
-      </c>
-      <c r="J23" t="s" s="36">
-        <v>290</v>
-      </c>
-      <c r="K23" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L23" t="s" s="36">
-        <v>540</v>
+        <v>354</v>
+      </c>
+      <c r="H23" t="s" s="78">
+        <v>529</v>
+      </c>
+      <c r="J23" t="n" s="36">
+        <v>98.38807455949707</v>
+      </c>
+      <c r="K23" t="s" s="36">
+        <v>480</v>
+      </c>
+      <c r="L23" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M23" t="s" s="36">
-        <v>478</v>
-      </c>
-      <c r="AC23" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>406</v>
+      </c>
+      <c r="AC23" t="s" s="36">
+        <v>428</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="n" s="34">
-        <v>47.252758187046815</v>
-      </c>
       <c r="C24" t="n" s="84">
-        <v>41.342792469986044</v>
+        <v>19.58327967576664</v>
+      </c>
+      <c r="D24" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E24" t="s" s="76">
         <v>268</v>
       </c>
+      <c r="F24" t="s" s="76">
+        <v>331</v>
+      </c>
       <c r="G24" t="s" s="77">
-        <v>380</v>
-      </c>
-      <c r="H24" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I24" t="s" s="36">
-        <v>510</v>
-      </c>
-      <c r="J24" t="s" s="36">
-        <v>291</v>
-      </c>
-      <c r="K24" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L24" t="s" s="36">
-        <v>541</v>
+        <v>355</v>
+      </c>
+      <c r="H24" t="s" s="78">
+        <v>530</v>
+      </c>
+      <c r="J24" t="n" s="36">
+        <v>94.56298345744246</v>
+      </c>
+      <c r="K24" t="s" s="36">
+        <v>481</v>
+      </c>
+      <c r="L24" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M24" t="s" s="36">
-        <v>479</v>
-      </c>
-      <c r="AC24" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>407</v>
+      </c>
+      <c r="AC24" t="s" s="36">
+        <v>429</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="n" s="34">
-        <v>42.5623886212586</v>
-      </c>
       <c r="C25" t="n" s="84">
-        <v>56.61671443095816</v>
+        <v>98.21992498750916</v>
+      </c>
+      <c r="D25" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E25" t="s" s="76">
         <v>269</v>
       </c>
+      <c r="F25" t="s" s="76">
+        <v>332</v>
+      </c>
       <c r="G25" t="s" s="77">
-        <v>381</v>
-      </c>
-      <c r="H25" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I25" t="s" s="36">
-        <v>511</v>
-      </c>
-      <c r="J25" t="s" s="36">
-        <v>292</v>
-      </c>
-      <c r="K25" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L25" t="s" s="36">
-        <v>542</v>
+        <v>356</v>
+      </c>
+      <c r="H25" t="s" s="78">
+        <v>531</v>
+      </c>
+      <c r="J25" t="n" s="36">
+        <v>63.40675512413119</v>
+      </c>
+      <c r="K25" t="s" s="36">
+        <v>482</v>
+      </c>
+      <c r="L25" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M25" t="s" s="36">
-        <v>480</v>
-      </c>
-      <c r="AC25" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>408</v>
+      </c>
+      <c r="AC25" t="s" s="36">
+        <v>430</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="n" s="34">
-        <v>0.6827601983057763</v>
-      </c>
       <c r="C26" t="n" s="84">
-        <v>99.74524944709357</v>
+        <v>30.70541398403066</v>
+      </c>
+      <c r="D26" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E26" t="s" s="76">
         <v>270</v>
       </c>
+      <c r="F26" t="s" s="76">
+        <v>333</v>
+      </c>
       <c r="G26" t="s" s="77">
-        <v>382</v>
-      </c>
-      <c r="H26" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I26" t="s" s="36">
-        <v>512</v>
-      </c>
-      <c r="J26" t="s" s="36">
-        <v>293</v>
-      </c>
-      <c r="K26" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L26" t="s" s="36">
-        <v>543</v>
+        <v>357</v>
+      </c>
+      <c r="H26" t="s" s="78">
+        <v>532</v>
+      </c>
+      <c r="J26" t="n" s="36">
+        <v>54.233209855388566</v>
+      </c>
+      <c r="K26" t="s" s="36">
+        <v>483</v>
+      </c>
+      <c r="L26" t="n" s="36">
+        <v>44964.63976636574</v>
       </c>
       <c r="M26" t="s" s="36">
-        <v>481</v>
-      </c>
-      <c r="AC26" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>409</v>
+      </c>
+      <c r="AC26" t="s" s="36">
+        <v>431</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="n" s="34">
-        <v>37.70412444341547</v>
-      </c>
       <c r="C27" t="n" s="84">
-        <v>90.98836098974242</v>
+        <v>56.03741104207146</v>
+      </c>
+      <c r="D27" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E27" t="s" s="76">
         <v>271</v>
       </c>
+      <c r="F27" t="s" s="76">
+        <v>334</v>
+      </c>
       <c r="G27" t="s" s="77">
-        <v>383</v>
-      </c>
-      <c r="H27" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I27" t="s" s="36">
-        <v>513</v>
-      </c>
-      <c r="J27" t="s" s="36">
-        <v>294</v>
-      </c>
-      <c r="K27" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L27" t="s" s="36">
-        <v>544</v>
-      </c>
-      <c r="M27" t="s" s="36">
-        <v>482</v>
-      </c>
-      <c r="AC27" t="n" s="36">
-        <v>44963.953589108794</v>
+        <v>358</v>
+      </c>
+      <c r="H27" t="s" s="78">
+        <v>533</v>
+      </c>
+      <c r="J27" t="n" s="36">
+        <v>11.525923709314634</v>
+      </c>
+      <c r="K27" t="s" s="36">
+        <v>484</v>
+      </c>
+      <c r="L27" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC27" t="s" s="36">
+        <v>432</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="n" s="34">
-        <v>21.690115433944445</v>
-      </c>
       <c r="C28" t="n" s="84">
-        <v>19.790674987329215</v>
+        <v>59.54985348739693</v>
+      </c>
+      <c r="D28" t="n" s="75">
+        <v>44964.63976636574</v>
       </c>
       <c r="E28" t="s" s="76">
         <v>272</v>
       </c>
+      <c r="F28" t="s" s="76">
+        <v>335</v>
+      </c>
       <c r="G28" t="s" s="77">
+        <v>359</v>
+      </c>
+      <c r="H28" t="s" s="78">
+        <v>534</v>
+      </c>
+      <c r="J28" t="n" s="36">
+        <v>2.5654763394706737</v>
+      </c>
+      <c r="K28" t="s" s="36">
+        <v>485</v>
+      </c>
+      <c r="L28" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC28" t="s" s="36">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="n" s="84">
+        <v>3.943678612286794</v>
+      </c>
+      <c r="D29" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E29" t="s" s="76">
+        <v>273</v>
+      </c>
+      <c r="F29" t="s" s="76">
+        <v>336</v>
+      </c>
+      <c r="G29" t="s" s="77">
+        <v>360</v>
+      </c>
+      <c r="H29" t="s" s="78">
+        <v>535</v>
+      </c>
+      <c r="J29" t="n" s="36">
+        <v>74.02857446620746</v>
+      </c>
+      <c r="K29" t="s" s="36">
+        <v>486</v>
+      </c>
+      <c r="L29" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC29" t="s" s="36">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="n" s="84">
+        <v>53.15282931909635</v>
+      </c>
+      <c r="D30" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E30" t="s" s="76">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s" s="77">
+        <v>361</v>
+      </c>
+      <c r="H30" t="s" s="78">
+        <v>536</v>
+      </c>
+      <c r="J30" t="n" s="36">
+        <v>70.30259729040671</v>
+      </c>
+      <c r="K30" t="s" s="36">
+        <v>487</v>
+      </c>
+      <c r="L30" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC30" t="s" s="36">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="n" s="84">
+        <v>19.198019523716216</v>
+      </c>
+      <c r="D31" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E31" t="s" s="76">
+        <v>275</v>
+      </c>
+      <c r="G31" t="s" s="77">
+        <v>362</v>
+      </c>
+      <c r="H31" t="s" s="78">
+        <v>537</v>
+      </c>
+      <c r="J31" t="n" s="36">
+        <v>27.910757374096605</v>
+      </c>
+      <c r="K31" t="s" s="36">
+        <v>488</v>
+      </c>
+      <c r="L31" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC31" t="s" s="36">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="n" s="84">
+        <v>25.464385912590814</v>
+      </c>
+      <c r="D32" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E32" t="s" s="76">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s" s="77">
+        <v>363</v>
+      </c>
+      <c r="H32" t="s" s="78">
+        <v>538</v>
+      </c>
+      <c r="J32" t="n" s="36">
+        <v>46.220004801505034</v>
+      </c>
+      <c r="K32" t="s" s="36">
+        <v>489</v>
+      </c>
+      <c r="L32" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC32" t="s" s="36">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="n" s="84">
+        <v>90.16676569288492</v>
+      </c>
+      <c r="D33" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E33" t="s" s="76">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s" s="77">
+        <v>364</v>
+      </c>
+      <c r="H33" t="s" s="78">
+        <v>539</v>
+      </c>
+      <c r="J33" t="n" s="36">
+        <v>89.74235801442725</v>
+      </c>
+      <c r="K33" t="s" s="36">
+        <v>490</v>
+      </c>
+      <c r="L33" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC33" t="s" s="36">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="n" s="84">
+        <v>91.23489432857646</v>
+      </c>
+      <c r="D34" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E34" t="s" s="76">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s" s="77">
+        <v>365</v>
+      </c>
+      <c r="H34" t="s" s="78">
+        <v>540</v>
+      </c>
+      <c r="J34" t="n" s="36">
+        <v>55.77021039209552</v>
+      </c>
+      <c r="K34" t="s" s="36">
+        <v>491</v>
+      </c>
+      <c r="L34" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC34" t="s" s="36">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="n" s="84">
+        <v>36.9351687344334</v>
+      </c>
+      <c r="D35" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E35" t="s" s="76">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s" s="77">
+        <v>366</v>
+      </c>
+      <c r="H35" t="s" s="78">
+        <v>541</v>
+      </c>
+      <c r="J35" t="n" s="36">
+        <v>66.24829471593011</v>
+      </c>
+      <c r="K35" t="s" s="36">
+        <v>492</v>
+      </c>
+      <c r="L35" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC35" t="s" s="36">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="n" s="84">
+        <v>70.6591511546798</v>
+      </c>
+      <c r="D36" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E36" t="s" s="76">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s" s="77">
+        <v>367</v>
+      </c>
+      <c r="H36" t="s" s="78">
+        <v>542</v>
+      </c>
+      <c r="J36" t="n" s="36">
+        <v>84.00362319288625</v>
+      </c>
+      <c r="K36" t="s" s="36">
+        <v>493</v>
+      </c>
+      <c r="L36" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC36" t="s" s="36">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="n" s="84">
+        <v>60.311932285849466</v>
+      </c>
+      <c r="D37" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E37" t="s" s="76">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s" s="77">
+        <v>368</v>
+      </c>
+      <c r="H37" t="s" s="78">
+        <v>543</v>
+      </c>
+      <c r="J37" t="n" s="36">
+        <v>60.759304010330084</v>
+      </c>
+      <c r="K37" t="s" s="36">
+        <v>494</v>
+      </c>
+      <c r="L37" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC37" t="s" s="36">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="n" s="84">
+        <v>94.90353699845062</v>
+      </c>
+      <c r="D38" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E38" t="s" s="76">
+        <v>282</v>
+      </c>
+      <c r="G38" t="s" s="77">
+        <v>369</v>
+      </c>
+      <c r="H38" t="s" s="78">
+        <v>544</v>
+      </c>
+      <c r="J38" t="n" s="36">
+        <v>25.26545734576996</v>
+      </c>
+      <c r="K38" t="s" s="36">
+        <v>495</v>
+      </c>
+      <c r="L38" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC38" t="s" s="36">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="n" s="84">
+        <v>53.553612646299655</v>
+      </c>
+      <c r="D39" t="n" s="75">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="E39" t="s" s="76">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s" s="77">
+        <v>370</v>
+      </c>
+      <c r="H39" t="s" s="78">
+        <v>545</v>
+      </c>
+      <c r="J39" t="n" s="36">
+        <v>47.28249771209353</v>
+      </c>
+      <c r="K39" t="s" s="36">
+        <v>496</v>
+      </c>
+      <c r="L39" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC39" t="s" s="36">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="n" s="84">
+        <v>44.369374762209404</v>
+      </c>
+      <c r="E40" t="s" s="76">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s" s="77">
+        <v>371</v>
+      </c>
+      <c r="H40" t="s" s="78">
+        <v>546</v>
+      </c>
+      <c r="J40" t="n" s="36">
+        <v>24.07187285424568</v>
+      </c>
+      <c r="K40" t="s" s="36">
+        <v>497</v>
+      </c>
+      <c r="L40" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC40" t="s" s="36">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="n" s="84">
+        <v>15.39356997906861</v>
+      </c>
+      <c r="E41" t="s" s="76">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s" s="77">
+        <v>372</v>
+      </c>
+      <c r="H41" t="s" s="78">
+        <v>547</v>
+      </c>
+      <c r="J41" t="n" s="36">
+        <v>96.65664272575721</v>
+      </c>
+      <c r="K41" t="s" s="36">
+        <v>498</v>
+      </c>
+      <c r="L41" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC41" t="s" s="36">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="n" s="84">
+        <v>98.00592036380391</v>
+      </c>
+      <c r="E42" t="s" s="76">
+        <v>286</v>
+      </c>
+      <c r="G42" t="s" s="77">
+        <v>373</v>
+      </c>
+      <c r="H42" t="s" s="78">
+        <v>548</v>
+      </c>
+      <c r="J42" t="n" s="36">
+        <v>56.017185427046925</v>
+      </c>
+      <c r="K42" t="s" s="36">
+        <v>499</v>
+      </c>
+      <c r="L42" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC42" t="s" s="36">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="n" s="84">
+        <v>19.772733947668264</v>
+      </c>
+      <c r="E43" t="s" s="76">
+        <v>287</v>
+      </c>
+      <c r="G43" t="s" s="77">
+        <v>374</v>
+      </c>
+      <c r="H43" t="s" s="78">
+        <v>549</v>
+      </c>
+      <c r="K43" t="s" s="36">
+        <v>500</v>
+      </c>
+      <c r="L43" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC43" t="s" s="36">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="n" s="84">
+        <v>77.33965443540797</v>
+      </c>
+      <c r="E44" t="s" s="76">
+        <v>288</v>
+      </c>
+      <c r="G44" t="s" s="77">
+        <v>375</v>
+      </c>
+      <c r="H44" t="s" s="78">
+        <v>550</v>
+      </c>
+      <c r="K44" t="s" s="36">
+        <v>501</v>
+      </c>
+      <c r="L44" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC44" t="s" s="36">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="n" s="84">
+        <v>63.853304073117314</v>
+      </c>
+      <c r="E45" t="s" s="76">
+        <v>289</v>
+      </c>
+      <c r="G45" t="s" s="77">
+        <v>376</v>
+      </c>
+      <c r="H45" t="s" s="78">
+        <v>551</v>
+      </c>
+      <c r="K45" t="s" s="36">
+        <v>502</v>
+      </c>
+      <c r="L45" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC45" t="s" s="36">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="n" s="84">
+        <v>48.85513710447289</v>
+      </c>
+      <c r="E46" t="s" s="76">
+        <v>290</v>
+      </c>
+      <c r="G46" t="s" s="77">
+        <v>377</v>
+      </c>
+      <c r="H46" t="s" s="78">
+        <v>552</v>
+      </c>
+      <c r="K46" t="s" s="36">
+        <v>503</v>
+      </c>
+      <c r="L46" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC46" t="s" s="36">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="n" s="84">
+        <v>32.33054026646882</v>
+      </c>
+      <c r="E47" t="s" s="76">
+        <v>291</v>
+      </c>
+      <c r="G47" t="s" s="77">
+        <v>378</v>
+      </c>
+      <c r="H47" t="s" s="78">
+        <v>553</v>
+      </c>
+      <c r="K47" t="s" s="36">
+        <v>504</v>
+      </c>
+      <c r="L47" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC47" t="s" s="36">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="n" s="84">
+        <v>45.231978161372496</v>
+      </c>
+      <c r="E48" t="s" s="76">
+        <v>292</v>
+      </c>
+      <c r="G48" t="s" s="77">
+        <v>379</v>
+      </c>
+      <c r="H48" t="s" s="78">
+        <v>554</v>
+      </c>
+      <c r="K48" t="s" s="36">
+        <v>505</v>
+      </c>
+      <c r="L48" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC48" t="s" s="36">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="n" s="84">
+        <v>72.68365390351002</v>
+      </c>
+      <c r="E49" t="s" s="76">
+        <v>293</v>
+      </c>
+      <c r="G49" t="s" s="77">
+        <v>380</v>
+      </c>
+      <c r="H49" t="s" s="78">
+        <v>555</v>
+      </c>
+      <c r="K49" t="s" s="36">
+        <v>506</v>
+      </c>
+      <c r="L49" t="n" s="36">
+        <v>44964.63976636574</v>
+      </c>
+      <c r="AC49" t="s" s="36">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="n" s="84">
+        <v>73.56006553605748</v>
+      </c>
+      <c r="E50" t="s" s="76">
+        <v>294</v>
+      </c>
+      <c r="G50" t="s" s="77">
+        <v>381</v>
+      </c>
+      <c r="K50" t="s" s="36">
+        <v>507</v>
+      </c>
+      <c r="AC50" t="s" s="36">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="n" s="84">
+        <v>76.8279703026564</v>
+      </c>
+      <c r="E51" t="s" s="76">
+        <v>295</v>
+      </c>
+      <c r="G51" t="s" s="77">
+        <v>382</v>
+      </c>
+      <c r="K51" t="s" s="36">
+        <v>508</v>
+      </c>
+      <c r="AC51" t="s" s="36">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="n" s="84">
+        <v>67.43117262386119</v>
+      </c>
+      <c r="E52" t="s" s="76">
+        <v>296</v>
+      </c>
+      <c r="G52" t="s" s="77">
+        <v>383</v>
+      </c>
+      <c r="K52" t="s" s="36">
+        <v>509</v>
+      </c>
+      <c r="AC52" t="s" s="36">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="n" s="84">
+        <v>52.71395332423027</v>
+      </c>
+      <c r="E53" t="s" s="76">
+        <v>297</v>
+      </c>
+      <c r="G53" t="s" s="77">
         <v>384</v>
       </c>
-      <c r="H28" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I28" t="s" s="36">
-        <v>514</v>
-      </c>
-      <c r="J28" t="s" s="36">
-        <v>295</v>
-      </c>
-      <c r="K28" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L28" t="s" s="36">
-        <v>545</v>
-      </c>
-      <c r="M28" t="s" s="36">
-        <v>483</v>
-      </c>
-      <c r="AC28" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="n" s="34">
-        <v>49.43742430144433</v>
-      </c>
-      <c r="C29" t="n" s="84">
-        <v>11.627364562280762</v>
-      </c>
-      <c r="G29" t="s" s="77">
+      <c r="K53" t="s" s="36">
+        <v>510</v>
+      </c>
+      <c r="AC53" t="s" s="36">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="n" s="84">
+        <v>81.71220798378152</v>
+      </c>
+      <c r="E54" t="s" s="76">
+        <v>298</v>
+      </c>
+      <c r="G54" t="s" s="77">
         <v>385</v>
       </c>
-      <c r="H29" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I29" t="s" s="36">
-        <v>515</v>
-      </c>
-      <c r="J29" t="s" s="36">
-        <v>296</v>
-      </c>
-      <c r="K29" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L29" t="s" s="36">
-        <v>546</v>
-      </c>
-      <c r="M29" t="s" s="36">
-        <v>484</v>
-      </c>
-      <c r="AC29" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="n" s="34">
-        <v>89.78228803877082</v>
-      </c>
-      <c r="C30" t="n" s="84">
-        <v>1.3885410934409093</v>
-      </c>
-      <c r="G30" t="s" s="77">
+      <c r="K54" t="s" s="36">
+        <v>511</v>
+      </c>
+      <c r="AC54" t="s" s="36">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="n" s="84">
+        <v>51.89270541874534</v>
+      </c>
+      <c r="E55" t="s" s="76">
+        <v>299</v>
+      </c>
+      <c r="G55" t="s" s="77">
         <v>386</v>
       </c>
-      <c r="H30" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I30" t="s" s="36">
-        <v>516</v>
-      </c>
-      <c r="J30" t="s" s="36">
-        <v>297</v>
-      </c>
-      <c r="K30" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="L30" t="s" s="36">
-        <v>547</v>
-      </c>
-      <c r="M30" t="s" s="36">
-        <v>485</v>
-      </c>
-      <c r="AC30" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="n" s="34">
-        <v>4.088131902890235</v>
-      </c>
-      <c r="C31" t="n" s="84">
-        <v>42.181566956318704</v>
-      </c>
-      <c r="G31" t="s" s="77">
+      <c r="AC55" t="s" s="36">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="n" s="84">
+        <v>22.378775782395856</v>
+      </c>
+      <c r="E56" t="s" s="76">
+        <v>300</v>
+      </c>
+      <c r="G56" t="s" s="77">
         <v>387</v>
       </c>
-      <c r="H31" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I31" t="s" s="36">
-        <v>517</v>
-      </c>
-      <c r="J31" t="s" s="36">
-        <v>298</v>
-      </c>
-      <c r="L31" t="s" s="36">
-        <v>548</v>
-      </c>
-      <c r="M31" t="s" s="36">
-        <v>486</v>
-      </c>
-      <c r="AC31" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="n" s="34">
-        <v>61.94576070951787</v>
-      </c>
-      <c r="C32" t="n" s="84">
-        <v>59.661878586176606</v>
-      </c>
-      <c r="G32" t="s" s="77">
+      <c r="AC56" t="s" s="36">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="n" s="84">
+        <v>92.1240236969263</v>
+      </c>
+      <c r="E57" t="s" s="76">
+        <v>301</v>
+      </c>
+      <c r="G57" t="s" s="77">
         <v>388</v>
       </c>
-      <c r="H32" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I32" t="s" s="36">
-        <v>518</v>
-      </c>
-      <c r="J32" t="s" s="36">
-        <v>299</v>
-      </c>
-      <c r="L32" t="s" s="36">
-        <v>549</v>
-      </c>
-      <c r="M32" t="s" s="36">
-        <v>487</v>
-      </c>
-      <c r="AC32" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="n" s="34">
-        <v>68.12643662398052</v>
-      </c>
-      <c r="C33" t="n" s="84">
-        <v>77.53178507156841</v>
-      </c>
-      <c r="G33" t="s" s="77">
-        <v>389</v>
-      </c>
-      <c r="H33" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I33" t="s" s="36">
-        <v>519</v>
-      </c>
-      <c r="J33" t="s" s="36">
-        <v>300</v>
-      </c>
-      <c r="L33" t="s" s="36">
-        <v>550</v>
-      </c>
-      <c r="M33" t="s" s="36">
-        <v>488</v>
-      </c>
-      <c r="AC33" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="n" s="34">
-        <v>69.5307192508467</v>
-      </c>
-      <c r="C34" t="n" s="84">
-        <v>33.536114591505765</v>
-      </c>
-      <c r="G34" t="s" s="77">
-        <v>390</v>
-      </c>
-      <c r="H34" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I34" t="s" s="36">
-        <v>520</v>
-      </c>
-      <c r="J34" t="s" s="36">
-        <v>301</v>
-      </c>
-      <c r="L34" t="s" s="36">
-        <v>551</v>
-      </c>
-      <c r="M34" t="s" s="36">
-        <v>489</v>
-      </c>
-      <c r="AC34" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="n" s="34">
-        <v>97.95345594246146</v>
-      </c>
-      <c r="G35" t="s" s="77">
-        <v>391</v>
-      </c>
-      <c r="H35" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I35" t="s" s="36">
-        <v>521</v>
-      </c>
-      <c r="J35" t="s" s="36">
+      <c r="AC57" t="s" s="36">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="n" s="84">
+        <v>99.12492821306894</v>
+      </c>
+      <c r="E58" t="s" s="76">
         <v>302</v>
       </c>
-      <c r="L35" t="s" s="36">
-        <v>552</v>
-      </c>
-      <c r="M35" t="s" s="36">
-        <v>490</v>
-      </c>
-      <c r="AC35" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="n" s="34">
-        <v>75.0798283251982</v>
-      </c>
-      <c r="G36" t="s" s="77">
-        <v>392</v>
-      </c>
-      <c r="H36" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="I36" t="s" s="36">
-        <v>522</v>
-      </c>
-      <c r="J36" t="s" s="36">
+    </row>
+    <row r="59">
+      <c r="C59" t="n" s="84">
+        <v>87.99565543344829</v>
+      </c>
+      <c r="E59" t="s" s="76">
         <v>303</v>
       </c>
-      <c r="L36" t="s" s="36">
-        <v>553</v>
-      </c>
-      <c r="AC36" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="n" s="34">
-        <v>25.138778693096963</v>
-      </c>
-      <c r="G37" t="s" s="77">
-        <v>393</v>
-      </c>
-      <c r="H37" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J37" t="s" s="36">
+    </row>
+    <row r="60">
+      <c r="C60" t="n" s="84">
+        <v>12.226468580454553</v>
+      </c>
+      <c r="E60" t="s" s="76">
         <v>304</v>
       </c>
-      <c r="L37" t="s" s="36">
-        <v>554</v>
-      </c>
-      <c r="AC37" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="n" s="34">
-        <v>65.34227135238982</v>
-      </c>
-      <c r="G38" t="s" s="77">
-        <v>394</v>
-      </c>
-      <c r="H38" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J38" t="s" s="36">
+    </row>
+    <row r="61">
+      <c r="C61" t="n" s="84">
+        <v>26.567623902249537</v>
+      </c>
+      <c r="E61" t="s" s="76">
         <v>305</v>
       </c>
-      <c r="L38" t="s" s="36">
-        <v>555</v>
-      </c>
-      <c r="AC38" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="n" s="34">
-        <v>9.735330776541373</v>
-      </c>
-      <c r="G39" t="s" s="77">
-        <v>395</v>
-      </c>
-      <c r="H39" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J39" t="s" s="36">
+    </row>
+    <row r="62">
+      <c r="C62" t="n" s="84">
+        <v>65.54317650583916</v>
+      </c>
+      <c r="E62" t="s" s="76">
         <v>306</v>
       </c>
-      <c r="L39" t="s" s="36">
-        <v>556</v>
-      </c>
-      <c r="AC39" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="n" s="34">
-        <v>79.74008553669285</v>
-      </c>
-      <c r="G40" t="s" s="77">
-        <v>396</v>
-      </c>
-      <c r="H40" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J40" t="s" s="36">
+    </row>
+    <row r="63">
+      <c r="C63" t="n" s="84">
+        <v>12.632109173043249</v>
+      </c>
+      <c r="E63" t="s" s="76">
         <v>307</v>
       </c>
-      <c r="L40" t="s" s="36">
-        <v>557</v>
-      </c>
-      <c r="AC40" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="n" s="34">
-        <v>58.30589810100888</v>
-      </c>
-      <c r="G41" t="s" s="77">
-        <v>397</v>
-      </c>
-      <c r="H41" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J41" t="s" s="36">
+    </row>
+    <row r="64">
+      <c r="C64" t="n" s="84">
+        <v>89.38533384480209</v>
+      </c>
+      <c r="E64" t="s" s="76">
         <v>308</v>
       </c>
-      <c r="L41" t="s" s="36">
-        <v>558</v>
-      </c>
-      <c r="AC41" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="n" s="34">
-        <v>54.7400772967634</v>
-      </c>
-      <c r="G42" t="s" s="77">
-        <v>398</v>
-      </c>
-      <c r="H42" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J42" t="s" s="36">
+    </row>
+    <row r="65">
+      <c r="C65" t="n" s="84">
+        <v>61.728992523391454</v>
+      </c>
+      <c r="E65" t="s" s="76">
         <v>309</v>
       </c>
-      <c r="L42" t="s" s="36">
-        <v>559</v>
-      </c>
-      <c r="AC42" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="n" s="34">
-        <v>64.7705869060455</v>
-      </c>
-      <c r="G43" t="s" s="77">
-        <v>399</v>
-      </c>
-      <c r="H43" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J43" t="s" s="36">
+    </row>
+    <row r="66">
+      <c r="C66" t="n" s="84">
+        <v>66.58946907995745</v>
+      </c>
+      <c r="E66" t="s" s="76">
         <v>310</v>
       </c>
-      <c r="L43" t="s" s="36">
-        <v>560</v>
-      </c>
-      <c r="AC43" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="n" s="34">
-        <v>95.43530211478775</v>
-      </c>
-      <c r="G44" t="s" s="77">
-        <v>400</v>
-      </c>
-      <c r="H44" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J44" t="s" s="36">
+    </row>
+    <row r="67">
+      <c r="C67" t="n" s="84">
+        <v>55.083537093637645</v>
+      </c>
+      <c r="E67" t="s" s="76">
         <v>311</v>
       </c>
-      <c r="L44" t="s" s="36">
-        <v>561</v>
-      </c>
-      <c r="AC44" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="n" s="34">
-        <v>49.03673731826414</v>
-      </c>
-      <c r="G45" t="s" s="77">
-        <v>401</v>
-      </c>
-      <c r="H45" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J45" t="s" s="36">
+    </row>
+    <row r="68">
+      <c r="C68" t="n" s="84">
+        <v>65.45743094489916</v>
+      </c>
+      <c r="E68" t="s" s="76">
         <v>312</v>
       </c>
-      <c r="L45" t="s" s="36">
-        <v>562</v>
-      </c>
-      <c r="AC45" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="n" s="34">
-        <v>96.72129627648305</v>
-      </c>
-      <c r="G46" t="s" s="77">
-        <v>402</v>
-      </c>
-      <c r="H46" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J46" t="s" s="36">
-        <v>313</v>
-      </c>
-      <c r="L46" t="s" s="36">
-        <v>563</v>
-      </c>
-      <c r="AC46" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="n" s="34">
-        <v>0.07481590123679105</v>
-      </c>
-      <c r="G47" t="s" s="77">
-        <v>403</v>
-      </c>
-      <c r="H47" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J47" t="s" s="36">
-        <v>314</v>
-      </c>
-      <c r="L47" t="s" s="36">
-        <v>564</v>
-      </c>
-      <c r="AC47" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="n" s="34">
-        <v>22.393261216049453</v>
-      </c>
-      <c r="G48" t="s" s="77">
-        <v>404</v>
-      </c>
-      <c r="H48" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J48" t="s" s="36">
-        <v>315</v>
-      </c>
-      <c r="L48" t="s" s="36">
-        <v>565</v>
-      </c>
-      <c r="AC48" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="n" s="34">
-        <v>62.690890841264725</v>
-      </c>
-      <c r="G49" t="s" s="77">
-        <v>405</v>
-      </c>
-      <c r="H49" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J49" t="s" s="36">
-        <v>316</v>
-      </c>
-      <c r="L49" t="s" s="36">
-        <v>566</v>
-      </c>
-      <c r="AC49" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="n" s="34">
-        <v>94.98233500499128</v>
-      </c>
-      <c r="G50" t="s" s="77">
-        <v>406</v>
-      </c>
-      <c r="H50" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J50" t="s" s="36">
-        <v>317</v>
-      </c>
-      <c r="L50" t="s" s="36">
-        <v>567</v>
-      </c>
-      <c r="AC50" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="n" s="34">
-        <v>78.31596211442434</v>
-      </c>
-      <c r="G51" t="s" s="77">
-        <v>407</v>
-      </c>
-      <c r="H51" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J51" t="s" s="36">
-        <v>318</v>
-      </c>
-      <c r="L51" t="s" s="36">
-        <v>568</v>
-      </c>
-      <c r="AC51" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="n" s="34">
-        <v>49.94594460570041</v>
-      </c>
-      <c r="G52" t="s" s="77">
-        <v>408</v>
-      </c>
-      <c r="H52" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J52" t="s" s="36">
-        <v>319</v>
-      </c>
-      <c r="L52" t="s" s="36">
-        <v>569</v>
-      </c>
-      <c r="AC52" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="n" s="34">
-        <v>13.84504774722225</v>
-      </c>
-      <c r="G53" t="s" s="77">
-        <v>409</v>
-      </c>
-      <c r="H53" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J53" t="s" s="36">
-        <v>320</v>
-      </c>
-      <c r="L53" t="s" s="36">
-        <v>570</v>
-      </c>
-      <c r="AC53" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="n" s="34">
-        <v>1.745525366320122</v>
-      </c>
-      <c r="G54" t="s" s="77">
-        <v>410</v>
-      </c>
-      <c r="H54" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J54" t="s" s="36">
-        <v>321</v>
-      </c>
-      <c r="L54" t="s" s="36">
-        <v>571</v>
-      </c>
-      <c r="AC54" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="n" s="34">
-        <v>4.636824626454783</v>
-      </c>
-      <c r="G55" t="s" s="77">
-        <v>411</v>
-      </c>
-      <c r="H55" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J55" t="s" s="36">
-        <v>322</v>
-      </c>
-      <c r="L55" t="s" s="36">
-        <v>572</v>
-      </c>
-      <c r="AC55" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="n" s="34">
-        <v>57.2632968271681</v>
-      </c>
-      <c r="G56" t="s" s="77">
-        <v>412</v>
-      </c>
-      <c r="H56" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J56" t="s" s="36">
-        <v>323</v>
-      </c>
-      <c r="L56" t="s" s="36">
-        <v>573</v>
-      </c>
-      <c r="AC56" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="n" s="34">
-        <v>40.513395378914176</v>
-      </c>
-      <c r="G57" t="s" s="77">
-        <v>413</v>
-      </c>
-      <c r="H57" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J57" t="s" s="36">
-        <v>324</v>
-      </c>
-      <c r="L57" t="s" s="36">
-        <v>574</v>
-      </c>
-      <c r="AC57" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="G58" t="s" s="77">
-        <v>414</v>
-      </c>
-      <c r="H58" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J58" t="s" s="36">
-        <v>325</v>
-      </c>
-      <c r="L58" t="s" s="36">
-        <v>575</v>
-      </c>
-      <c r="AC58" t="n" s="36">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="G59" t="s" s="77">
-        <v>415</v>
-      </c>
-      <c r="H59" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J59" t="s" s="36">
-        <v>326</v>
-      </c>
-      <c r="L59" t="s" s="36">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="G60" t="s" s="77">
-        <v>416</v>
-      </c>
-      <c r="H60" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J60" t="s" s="36">
-        <v>327</v>
-      </c>
-      <c r="L60" t="s" s="36">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="G61" t="s" s="77">
-        <v>417</v>
-      </c>
-      <c r="H61" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J61" t="s" s="36">
-        <v>328</v>
-      </c>
-      <c r="L61" t="s" s="36">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="G62" t="s" s="77">
-        <v>418</v>
-      </c>
-      <c r="H62" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J62" t="s" s="36">
-        <v>329</v>
-      </c>
-      <c r="L62" t="s" s="36">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="G63" t="s" s="77">
-        <v>419</v>
-      </c>
-      <c r="H63" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J63" t="s" s="36">
-        <v>330</v>
-      </c>
-      <c r="L63" t="s" s="36">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="G64" t="s" s="77">
-        <v>420</v>
-      </c>
-      <c r="H64" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J64" t="s" s="36">
-        <v>331</v>
-      </c>
-      <c r="L64" t="s" s="36">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="G65" t="s" s="77">
-        <v>421</v>
-      </c>
-      <c r="H65" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J65" t="s" s="36">
-        <v>332</v>
-      </c>
-      <c r="L65" t="s" s="36">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="G66" t="s" s="77">
-        <v>422</v>
-      </c>
-      <c r="H66" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J66" t="s" s="36">
-        <v>333</v>
-      </c>
-      <c r="L66" t="s" s="36">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="G67" t="s" s="77">
-        <v>423</v>
-      </c>
-      <c r="H67" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J67" t="s" s="36">
-        <v>334</v>
-      </c>
-      <c r="L67" t="s" s="36">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="G68" t="s" s="77">
-        <v>424</v>
-      </c>
-      <c r="H68" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J68" t="s" s="36">
-        <v>335</v>
-      </c>
-      <c r="L68" t="s" s="36">
-        <v>585</v>
-      </c>
     </row>
     <row r="69">
-      <c r="G69" t="s" s="77">
-        <v>425</v>
-      </c>
-      <c r="H69" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J69" t="s" s="36">
-        <v>336</v>
-      </c>
-      <c r="L69" t="s" s="36">
-        <v>586</v>
+      <c r="C69" t="n" s="84">
+        <v>44.7022711300367</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s" s="77">
-        <v>426</v>
-      </c>
-      <c r="H70" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J70" t="s" s="36">
-        <v>337</v>
-      </c>
-      <c r="L70" t="s" s="36">
-        <v>587</v>
+      <c r="C70" t="n" s="84">
+        <v>78.68449387484816</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s" s="77">
-        <v>427</v>
-      </c>
-      <c r="H71" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J71" t="s" s="36">
-        <v>338</v>
-      </c>
-      <c r="L71" t="s" s="36">
-        <v>588</v>
+      <c r="C71" t="n" s="84">
+        <v>28.604862268284826</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s" s="77">
-        <v>428</v>
-      </c>
-      <c r="H72" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J72" t="s" s="36">
-        <v>339</v>
-      </c>
-      <c r="L72" t="s" s="36">
-        <v>589</v>
+      <c r="C72" t="n" s="84">
+        <v>59.07126662600866</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s" s="77">
-        <v>429</v>
-      </c>
-      <c r="H73" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J73" t="s" s="36">
-        <v>340</v>
+      <c r="C73" t="n" s="84">
+        <v>14.274996723608712</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s" s="77">
-        <v>430</v>
-      </c>
-      <c r="H74" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J74" t="s" s="36">
-        <v>341</v>
+      <c r="C74" t="n" s="84">
+        <v>93.27843353350761</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s" s="77">
-        <v>431</v>
-      </c>
-      <c r="H75" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J75" t="s" s="36">
-        <v>342</v>
+      <c r="C75" t="n" s="84">
+        <v>75.63597525915488</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s" s="77">
-        <v>432</v>
-      </c>
-      <c r="H76" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J76" t="s" s="36">
-        <v>343</v>
+      <c r="C76" t="n" s="84">
+        <v>3.3029321097327924</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s" s="77">
-        <v>433</v>
-      </c>
-      <c r="H77" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J77" t="s" s="36">
-        <v>344</v>
+      <c r="C77" t="n" s="84">
+        <v>47.01321165462491</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s" s="77">
-        <v>434</v>
-      </c>
-      <c r="H78" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J78" t="s" s="36">
-        <v>345</v>
+      <c r="C78" t="n" s="84">
+        <v>52.451700712271055</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s" s="77">
-        <v>435</v>
-      </c>
-      <c r="H79" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-      <c r="J79" t="s" s="36">
-        <v>346</v>
+      <c r="C79" t="n" s="84">
+        <v>12.515123918440796</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s" s="77">
-        <v>436</v>
-      </c>
-      <c r="H80" t="n" s="78">
-        <v>44963.953589108794</v>
+      <c r="C80" t="n" s="84">
+        <v>25.64983443116341</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s" s="77">
-        <v>437</v>
-      </c>
-      <c r="H81" t="n" s="78">
-        <v>44963.953589108794</v>
+      <c r="C81" t="n" s="84">
+        <v>55.98722311285861</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s" s="77">
-        <v>438</v>
-      </c>
-      <c r="H82" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="G83" t="s" s="77">
-        <v>439</v>
-      </c>
-      <c r="H83" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="G84" t="s" s="77">
-        <v>440</v>
-      </c>
-      <c r="H84" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="G85" t="s" s="77">
-        <v>441</v>
-      </c>
-      <c r="H85" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="G86" t="s" s="77">
-        <v>442</v>
-      </c>
-      <c r="H86" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="G87" t="s" s="77">
-        <v>443</v>
-      </c>
-      <c r="H87" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="G88" t="s" s="77">
-        <v>444</v>
-      </c>
-      <c r="H88" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="G89" t="s" s="77">
-        <v>445</v>
-      </c>
-      <c r="H89" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="G90" t="s" s="77">
-        <v>446</v>
-      </c>
-      <c r="H90" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="G91" t="s" s="77">
-        <v>447</v>
-      </c>
-      <c r="H91" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="G92" t="s" s="77">
-        <v>448</v>
-      </c>
-      <c r="H92" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="G93" t="s" s="77">
-        <v>449</v>
-      </c>
-      <c r="H93" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="G94" t="s" s="77">
-        <v>450</v>
-      </c>
-      <c r="H94" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="G95" t="s" s="77">
-        <v>451</v>
-      </c>
-      <c r="H95" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="G96" t="s" s="77">
-        <v>452</v>
-      </c>
-      <c r="H96" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="G97" t="s" s="77">
-        <v>453</v>
-      </c>
-      <c r="H97" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="G98" t="s" s="77">
-        <v>454</v>
-      </c>
-      <c r="H98" t="n" s="78">
-        <v>44963.953589108794</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="G99" t="s" s="77">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="G100" t="s" s="77">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="G101" t="s" s="77">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="G102" t="s" s="77">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="G103" t="s" s="77">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="G104" t="s" s="77">
-        <v>460</v>
+      <c r="C82" t="n" s="84">
+        <v>71.79146435979065</v>
       </c>
     </row>
   </sheetData>
@@ -10212,7 +9811,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -10221,26 +9820,174 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>491</v>
+      <c r="A2" t="n" s="0">
+        <v>80.16707733671313</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>15.572281139645039</v>
       </c>
     </row>
     <row r="4" spans="5:7">
+      <c r="A4" t="n" s="0">
+        <v>85.08761520553685</v>
+      </c>
       <c r="E4" t="n" s="0">
-        <v>4.6869539217224</v>
-      </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
+        <v>2.4089901268404823</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>2.4969034176250196</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>6.084877450098655</v>
+      </c>
     </row>
     <row r="5" spans="5:7">
+      <c r="A5" t="n" s="0">
+        <v>71.77927695271696</v>
+      </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
     </row>
     <row r="6" spans="5:7">
+      <c r="A6" t="n" s="0">
+        <v>8.767887462331892</v>
+      </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>8.155102510233792</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>77.1070533367483</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>13.254456143197757</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>25.680667693521</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>19.021654341993298</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>25.98517482445477</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>50.7647047514198</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>48.1441455726378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>32.06325795321647</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>81.85192281318726</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>26.72035196758794</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>88.3225159393284</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>94.0881047783357</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>53.25014061687672</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>74.80843760096778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>5.151583747130184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>3.4962999852028</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>94.89101546348309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>7.002691255351367</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>54.68884409098022</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>12.037901014957242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>61.55418059920774</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>76.08478389022957</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>77.9842895005223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>19.22239471761643</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>78.13552646732047</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10257,22 +10004,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="G1" t="n" s="0">
         <v>0.021</v>
@@ -10280,22 +10027,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>598</v>
+        <v>564</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>628</v>
+        <v>594</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>100.3</v>
@@ -10303,22 +10050,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>592</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>9.275</v>
@@ -10326,19 +10073,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>620</v>
+        <v>586</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>100000.734</v>
@@ -10346,95 +10093,95 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>631</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>632</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>633</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="0">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>624</v>
+        <v>590</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>634</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="0">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>635</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="0">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>616</v>
+        <v>582</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>636</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/W-Domestic Standard Upload Template.xlsx
+++ b/W-Domestic Standard Upload Template.xlsx
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="531">
   <si>
     <t>#</t>
   </si>
@@ -1160,132 +1160,6 @@
     <t xml:space="preserve">Shape </t>
   </si>
   <si>
-    <t>cat:0</t>
-  </si>
-  <si>
-    <t>cat:1</t>
-  </si>
-  <si>
-    <t>cat:2</t>
-  </si>
-  <si>
-    <t>cat:3</t>
-  </si>
-  <si>
-    <t>cat:4</t>
-  </si>
-  <si>
-    <t>cat:5</t>
-  </si>
-  <si>
-    <t>cat:6</t>
-  </si>
-  <si>
-    <t>cat:7</t>
-  </si>
-  <si>
-    <t>cat:8</t>
-  </si>
-  <si>
-    <t>cat:9</t>
-  </si>
-  <si>
-    <t>cat:10</t>
-  </si>
-  <si>
-    <t>cat:11</t>
-  </si>
-  <si>
-    <t>cat:12</t>
-  </si>
-  <si>
-    <t>cat:13</t>
-  </si>
-  <si>
-    <t>cat:14</t>
-  </si>
-  <si>
-    <t>cat:15</t>
-  </si>
-  <si>
-    <t>cat:16</t>
-  </si>
-  <si>
-    <t>cat:17</t>
-  </si>
-  <si>
-    <t>cat:18</t>
-  </si>
-  <si>
-    <t>cat:19</t>
-  </si>
-  <si>
-    <t>cat:20</t>
-  </si>
-  <si>
-    <t>cat:21</t>
-  </si>
-  <si>
-    <t>cat:22</t>
-  </si>
-  <si>
-    <t>cat:23</t>
-  </si>
-  <si>
-    <t>cat:24</t>
-  </si>
-  <si>
-    <t>cat:25</t>
-  </si>
-  <si>
-    <t>cat:26</t>
-  </si>
-  <si>
-    <t>cat:27</t>
-  </si>
-  <si>
-    <t>cat:28</t>
-  </si>
-  <si>
-    <t>cat:29</t>
-  </si>
-  <si>
-    <t>cat:30</t>
-  </si>
-  <si>
-    <t>cat:31</t>
-  </si>
-  <si>
-    <t>cat:32</t>
-  </si>
-  <si>
-    <t>cat:33</t>
-  </si>
-  <si>
-    <t>cat:34</t>
-  </si>
-  <si>
-    <t>cat:35</t>
-  </si>
-  <si>
-    <t>cat:36</t>
-  </si>
-  <si>
-    <t>cat:37</t>
-  </si>
-  <si>
-    <t>cat:38</t>
-  </si>
-  <si>
-    <t>cat:39</t>
-  </si>
-  <si>
-    <t>cat:40</t>
-  </si>
-  <si>
-    <t>cat:41</t>
-  </si>
-  <si>
     <t>ven:0</t>
   </si>
   <si>
@@ -1418,13 +1292,565 @@
     <t>ven:43</t>
   </si>
   <si>
-    <t>ven:44</t>
-  </si>
-  <si>
-    <t>ven:45</t>
-  </si>
-  <si>
-    <t>ven:46</t>
+    <t>lab:0</t>
+  </si>
+  <si>
+    <t>lab:1</t>
+  </si>
+  <si>
+    <t>lab:2</t>
+  </si>
+  <si>
+    <t>lab:3</t>
+  </si>
+  <si>
+    <t>lab:4</t>
+  </si>
+  <si>
+    <t>lab:5</t>
+  </si>
+  <si>
+    <t>lab:6</t>
+  </si>
+  <si>
+    <t>lab:7</t>
+  </si>
+  <si>
+    <t>lab:8</t>
+  </si>
+  <si>
+    <t>lab:9</t>
+  </si>
+  <si>
+    <t>lab:10</t>
+  </si>
+  <si>
+    <t>lab:11</t>
+  </si>
+  <si>
+    <t>lab:12</t>
+  </si>
+  <si>
+    <t>lab:13</t>
+  </si>
+  <si>
+    <t>lab:14</t>
+  </si>
+  <si>
+    <t>lab:15</t>
+  </si>
+  <si>
+    <t>lab:16</t>
+  </si>
+  <si>
+    <t>lab:17</t>
+  </si>
+  <si>
+    <t>lab:18</t>
+  </si>
+  <si>
+    <t>lab:19</t>
+  </si>
+  <si>
+    <t>lab:20</t>
+  </si>
+  <si>
+    <t>lab:21</t>
+  </si>
+  <si>
+    <t>lab:22</t>
+  </si>
+  <si>
+    <t>lab:23</t>
+  </si>
+  <si>
+    <t>lab:24</t>
+  </si>
+  <si>
+    <t>lab:25</t>
+  </si>
+  <si>
+    <t>lab:26</t>
+  </si>
+  <si>
+    <t>lab:27</t>
+  </si>
+  <si>
+    <t>lab:28</t>
+  </si>
+  <si>
+    <t>lab:29</t>
+  </si>
+  <si>
+    <t>lab:30</t>
+  </si>
+  <si>
+    <t>lab:31</t>
+  </si>
+  <si>
+    <t>lab:32</t>
+  </si>
+  <si>
+    <t>lab:33</t>
+  </si>
+  <si>
+    <t>lab:34</t>
+  </si>
+  <si>
+    <t>lab:35</t>
+  </si>
+  <si>
+    <t>lab:36</t>
+  </si>
+  <si>
+    <t>lab:37</t>
+  </si>
+  <si>
+    <t>lab:38</t>
+  </si>
+  <si>
+    <t>lab:39</t>
+  </si>
+  <si>
+    <t>lab:40</t>
+  </si>
+  <si>
+    <t>lab:41</t>
+  </si>
+  <si>
+    <t>lab:42</t>
+  </si>
+  <si>
+    <t>lab:43</t>
+  </si>
+  <si>
+    <t>lab:44</t>
+  </si>
+  <si>
+    <t>lab:45</t>
+  </si>
+  <si>
+    <t>lab:46</t>
+  </si>
+  <si>
+    <t>lab:47</t>
+  </si>
+  <si>
+    <t>lab:48</t>
+  </si>
+  <si>
+    <t>lab:49</t>
+  </si>
+  <si>
+    <t>lab:50</t>
+  </si>
+  <si>
+    <t>lab:51</t>
+  </si>
+  <si>
+    <t>lab:52</t>
+  </si>
+  <si>
+    <t>lab:53</t>
+  </si>
+  <si>
+    <t>lab:54</t>
+  </si>
+  <si>
+    <t>lab:55</t>
+  </si>
+  <si>
+    <t>lab:56</t>
+  </si>
+  <si>
+    <t>lab:57</t>
+  </si>
+  <si>
+    <t>lab:58</t>
+  </si>
+  <si>
+    <t>lab:59</t>
+  </si>
+  <si>
+    <t>lab:60</t>
+  </si>
+  <si>
+    <t>lab:61</t>
+  </si>
+  <si>
+    <t>lab:62</t>
+  </si>
+  <si>
+    <t>lab:63</t>
+  </si>
+  <si>
+    <t>lab:64</t>
+  </si>
+  <si>
+    <t>lab:65</t>
+  </si>
+  <si>
+    <t>lab:66</t>
+  </si>
+  <si>
+    <t>lab:67</t>
+  </si>
+  <si>
+    <t>lab:68</t>
+  </si>
+  <si>
+    <t>lab:69</t>
+  </si>
+  <si>
+    <t>lab:70</t>
+  </si>
+  <si>
+    <t>lab:71</t>
+  </si>
+  <si>
+    <t>lab:72</t>
+  </si>
+  <si>
+    <t>lab:73</t>
+  </si>
+  <si>
+    <t>lab:74</t>
+  </si>
+  <si>
+    <t>lab:75</t>
+  </si>
+  <si>
+    <t>lab:76</t>
+  </si>
+  <si>
+    <t>lab:77</t>
+  </si>
+  <si>
+    <t>lab:78</t>
+  </si>
+  <si>
+    <t>lab:79</t>
+  </si>
+  <si>
+    <t>lab:80</t>
+  </si>
+  <si>
+    <t>lab:81</t>
+  </si>
+  <si>
+    <t>lab:82</t>
+  </si>
+  <si>
+    <t>lab:83</t>
+  </si>
+  <si>
+    <t>lab:84</t>
+  </si>
+  <si>
+    <t>lab:85</t>
+  </si>
+  <si>
+    <t>lab:86</t>
+  </si>
+  <si>
+    <t>lab:87</t>
+  </si>
+  <si>
+    <t>lab:88</t>
+  </si>
+  <si>
+    <t>lab:89</t>
+  </si>
+  <si>
+    <t>lab:90</t>
+  </si>
+  <si>
+    <t>lab:91</t>
+  </si>
+  <si>
+    <t>lab:92</t>
+  </si>
+  <si>
+    <t>lab:93</t>
+  </si>
+  <si>
+    <t>lab:94</t>
+  </si>
+  <si>
+    <t>lab:95</t>
+  </si>
+  <si>
+    <t>lab:96</t>
+  </si>
+  <si>
+    <t>lab:97</t>
+  </si>
+  <si>
+    <t>pon:0</t>
+  </si>
+  <si>
+    <t>pon:1</t>
+  </si>
+  <si>
+    <t>pon:2</t>
+  </si>
+  <si>
+    <t>pon:3</t>
+  </si>
+  <si>
+    <t>pon:4</t>
+  </si>
+  <si>
+    <t>pon:5</t>
+  </si>
+  <si>
+    <t>pon:6</t>
+  </si>
+  <si>
+    <t>pon:7</t>
+  </si>
+  <si>
+    <t>pon:8</t>
+  </si>
+  <si>
+    <t>pon:9</t>
+  </si>
+  <si>
+    <t>pon:10</t>
+  </si>
+  <si>
+    <t>pon:11</t>
+  </si>
+  <si>
+    <t>pon:12</t>
+  </si>
+  <si>
+    <t>pon:13</t>
+  </si>
+  <si>
+    <t>pon:14</t>
+  </si>
+  <si>
+    <t>pon:15</t>
+  </si>
+  <si>
+    <t>pon:16</t>
+  </si>
+  <si>
+    <t>pon:17</t>
+  </si>
+  <si>
+    <t>pon:18</t>
+  </si>
+  <si>
+    <t>pon:19</t>
+  </si>
+  <si>
+    <t>pon:20</t>
+  </si>
+  <si>
+    <t>pon:21</t>
+  </si>
+  <si>
+    <t>pon:22</t>
+  </si>
+  <si>
+    <t>pon:23</t>
+  </si>
+  <si>
+    <t>pon:24</t>
+  </si>
+  <si>
+    <t>pon:25</t>
+  </si>
+  <si>
+    <t>pon:26</t>
+  </si>
+  <si>
+    <t>pon:27</t>
+  </si>
+  <si>
+    <t>pon:28</t>
+  </si>
+  <si>
+    <t>pon:29</t>
+  </si>
+  <si>
+    <t>pon:30</t>
+  </si>
+  <si>
+    <t>pon:31</t>
+  </si>
+  <si>
+    <t>pon:32</t>
+  </si>
+  <si>
+    <t>pon:33</t>
+  </si>
+  <si>
+    <t>pon:34</t>
+  </si>
+  <si>
+    <t>pon:35</t>
+  </si>
+  <si>
+    <t>pon:36</t>
+  </si>
+  <si>
+    <t>pon:37</t>
+  </si>
+  <si>
+    <t>pon:38</t>
+  </si>
+  <si>
+    <t>pon:39</t>
+  </si>
+  <si>
+    <t>pon:40</t>
+  </si>
+  <si>
+    <t>pon:41</t>
+  </si>
+  <si>
+    <t>pon:42</t>
+  </si>
+  <si>
+    <t>pon:43</t>
+  </si>
+  <si>
+    <t>pon:44</t>
+  </si>
+  <si>
+    <t>pon:45</t>
+  </si>
+  <si>
+    <t>pon:46</t>
+  </si>
+  <si>
+    <t>pon:47</t>
+  </si>
+  <si>
+    <t>pon:48</t>
+  </si>
+  <si>
+    <t>pon:49</t>
+  </si>
+  <si>
+    <t>pon:50</t>
+  </si>
+  <si>
+    <t>pon:51</t>
+  </si>
+  <si>
+    <t>pon:52</t>
+  </si>
+  <si>
+    <t>pon:53</t>
+  </si>
+  <si>
+    <t>pon:54</t>
+  </si>
+  <si>
+    <t>pon:55</t>
+  </si>
+  <si>
+    <t>pon:56</t>
+  </si>
+  <si>
+    <t>pon:57</t>
+  </si>
+  <si>
+    <t>pon:58</t>
+  </si>
+  <si>
+    <t>pon:59</t>
+  </si>
+  <si>
+    <t>pon:60</t>
+  </si>
+  <si>
+    <t>pon:61</t>
+  </si>
+  <si>
+    <t>pon:62</t>
+  </si>
+  <si>
+    <t>pon:63</t>
+  </si>
+  <si>
+    <t>pon:64</t>
+  </si>
+  <si>
+    <t>pon:65</t>
+  </si>
+  <si>
+    <t>pon:66</t>
+  </si>
+  <si>
+    <t>pon:67</t>
+  </si>
+  <si>
+    <t>pon:68</t>
+  </si>
+  <si>
+    <t>pon:69</t>
+  </si>
+  <si>
+    <t>pon:70</t>
+  </si>
+  <si>
+    <t>pon:71</t>
+  </si>
+  <si>
+    <t>pon:72</t>
+  </si>
+  <si>
+    <t>pon:73</t>
+  </si>
+  <si>
+    <t>pon:74</t>
+  </si>
+  <si>
+    <t>pon:75</t>
+  </si>
+  <si>
+    <t>pon:76</t>
+  </si>
+  <si>
+    <t>pon:77</t>
+  </si>
+  <si>
+    <t>pon:78</t>
+  </si>
+  <si>
+    <t>pon:79</t>
+  </si>
+  <si>
+    <t>pon:80</t>
+  </si>
+  <si>
+    <t>pon:81</t>
+  </si>
+  <si>
+    <t>pon:82</t>
+  </si>
+  <si>
+    <t>pon:83</t>
+  </si>
+  <si>
+    <t>pon:84</t>
+  </si>
+  <si>
+    <t>pon:85</t>
+  </si>
+  <si>
+    <t>pon:86</t>
+  </si>
+  <si>
+    <t>pon:87</t>
+  </si>
+  <si>
+    <t>pon:88</t>
   </si>
   <si>
     <t>red</t>
@@ -6067,7 +6493,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
-  <dimension ref="A1:CV88"/>
+  <dimension ref="A1:CV103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -7373,7 +7799,7 @@
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
       <c r="AC5" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>99.38821754547749</v>
       </c>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -7449,1779 +7875,2094 @@
     </row>
     <row r="6">
       <c r="B6" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>98.52292277781774</v>
       </c>
       <c r="C6" t="s" s="84">
-        <v>292</v>
-      </c>
-      <c r="D6" t="n" s="75">
-        <v>93.95022407623532</v>
+        <v>250</v>
+      </c>
+      <c r="D6" t="s" s="75">
+        <v>294</v>
       </c>
       <c r="E6" t="n" s="76">
-        <v>81.10473061504089</v>
+        <v>30.34952270748129</v>
       </c>
       <c r="F6" t="n" s="76">
-        <v>33.02313233022803</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G6" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H6" t="n" s="78">
-        <v>98.3192035733342</v>
+        <v>31.359052698722202</v>
+      </c>
+      <c r="H6" t="s" s="78">
+        <v>392</v>
       </c>
       <c r="I6" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J6" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K6" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L6" t="s" s="36">
-        <v>250</v>
+        <v>49.583684046730056</v>
+      </c>
+      <c r="L6" t="n" s="36">
+        <v>47.20510775277603</v>
       </c>
       <c r="M6" t="n" s="36">
-        <v>57.085248607474384</v>
+        <v>38.99640828030358</v>
       </c>
       <c r="AC6" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>36.26618920447227</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>25.841479092038565</v>
       </c>
       <c r="C7" t="s" s="84">
-        <v>293</v>
-      </c>
-      <c r="D7" t="n" s="75">
-        <v>74.59813937180614</v>
+        <v>251</v>
+      </c>
+      <c r="D7" t="s" s="75">
+        <v>295</v>
       </c>
       <c r="E7" t="n" s="76">
-        <v>34.466316545872836</v>
+        <v>9.613815982851037</v>
       </c>
       <c r="F7" t="n" s="76">
-        <v>45.63350665261565</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G7" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H7" t="n" s="78">
-        <v>86.71216303445067</v>
+        <v>80.22660618553962</v>
+      </c>
+      <c r="H7" t="s" s="78">
+        <v>393</v>
       </c>
       <c r="I7" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J7" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K7" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L7" t="s" s="36">
-        <v>251</v>
+        <v>36.27505553976415</v>
+      </c>
+      <c r="L7" t="n" s="36">
+        <v>21.923765380326355</v>
       </c>
       <c r="M7" t="n" s="36">
-        <v>92.77090605560325</v>
+        <v>90.73593899567362</v>
       </c>
       <c r="AC7" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>58.73373702714265</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>74.16849160472458</v>
       </c>
       <c r="C8" t="s" s="84">
-        <v>294</v>
-      </c>
-      <c r="D8" t="n" s="75">
-        <v>67.25710257752982</v>
+        <v>252</v>
+      </c>
+      <c r="D8" t="s" s="75">
+        <v>296</v>
       </c>
       <c r="E8" t="n" s="76">
-        <v>80.04120205726942</v>
+        <v>78.19827728710564</v>
       </c>
       <c r="F8" t="n" s="76">
-        <v>88.59290032431298</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G8" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H8" t="n" s="78">
-        <v>10.042187714478413</v>
+        <v>77.4117139933034</v>
+      </c>
+      <c r="H8" t="s" s="78">
+        <v>394</v>
       </c>
       <c r="I8" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J8" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K8" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L8" t="s" s="36">
-        <v>252</v>
+        <v>25.00411039997753</v>
+      </c>
+      <c r="L8" t="n" s="36">
+        <v>74.09643843022836</v>
       </c>
       <c r="M8" t="n" s="36">
-        <v>24.477441749571383</v>
+        <v>1.4330109914957534</v>
       </c>
       <c r="AC8" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>42.34759859954411</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>67.85179904337268</v>
       </c>
       <c r="C9" t="s" s="84">
-        <v>295</v>
-      </c>
-      <c r="D9" t="n" s="75">
-        <v>19.733444060515925</v>
+        <v>253</v>
+      </c>
+      <c r="D9" t="s" s="75">
+        <v>297</v>
       </c>
       <c r="E9" t="n" s="76">
-        <v>69.08886696048987</v>
+        <v>57.7040413260709</v>
       </c>
       <c r="F9" t="n" s="76">
-        <v>15.201549344462762</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G9" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H9" t="n" s="78">
-        <v>90.34703537384118</v>
+        <v>53.92225544207607</v>
+      </c>
+      <c r="H9" t="s" s="78">
+        <v>395</v>
       </c>
       <c r="I9" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J9" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K9" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L9" t="s" s="36">
-        <v>253</v>
+        <v>97.31945632865006</v>
+      </c>
+      <c r="L9" t="n" s="36">
+        <v>98.81998451954772</v>
       </c>
       <c r="M9" t="n" s="36">
-        <v>33.18780393436851</v>
+        <v>3.939720236328581</v>
       </c>
       <c r="AC9" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>41.79133315543272</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>47.731858342633025</v>
       </c>
       <c r="C10" t="s" s="84">
-        <v>296</v>
-      </c>
-      <c r="D10" t="n" s="75">
-        <v>57.16028601541653</v>
+        <v>254</v>
+      </c>
+      <c r="D10" t="s" s="75">
+        <v>298</v>
       </c>
       <c r="E10" t="n" s="76">
-        <v>1.5867056380474809</v>
+        <v>28.75442646926786</v>
       </c>
       <c r="F10" t="n" s="76">
-        <v>44.79343815871842</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G10" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H10" t="n" s="78">
-        <v>70.6110158279913</v>
+        <v>29.16425887782321</v>
+      </c>
+      <c r="H10" t="s" s="78">
+        <v>396</v>
       </c>
       <c r="I10" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J10" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K10" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L10" t="s" s="36">
-        <v>254</v>
+        <v>8.341918162587426</v>
+      </c>
+      <c r="L10" t="n" s="36">
+        <v>98.48479922256216</v>
       </c>
       <c r="M10" t="n" s="36">
-        <v>18.93155280086809</v>
+        <v>37.262499190282675</v>
       </c>
       <c r="AC10" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>59.117803219132036</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>77.30567042828375</v>
       </c>
       <c r="C11" t="s" s="84">
-        <v>297</v>
-      </c>
-      <c r="D11" t="n" s="75">
-        <v>17.13481447244324</v>
+        <v>255</v>
+      </c>
+      <c r="D11" t="s" s="75">
+        <v>299</v>
       </c>
       <c r="E11" t="n" s="76">
-        <v>80.02746209570402</v>
+        <v>25.13505043559272</v>
       </c>
       <c r="F11" t="n" s="76">
-        <v>62.611905226883266</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G11" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H11" t="n" s="78">
-        <v>46.21600596959533</v>
+        <v>62.53146692022361</v>
+      </c>
+      <c r="H11" t="s" s="78">
+        <v>397</v>
       </c>
       <c r="I11" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J11" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K11" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L11" t="s" s="36">
-        <v>255</v>
+        <v>18.481330579845423</v>
+      </c>
+      <c r="L11" t="n" s="36">
+        <v>36.452360339172515</v>
       </c>
       <c r="M11" t="n" s="36">
-        <v>23.687897327114193</v>
+        <v>46.298185079089016</v>
       </c>
       <c r="AC11" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>6.367463199821599</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>71.13708524039319</v>
       </c>
       <c r="C12" t="s" s="84">
-        <v>298</v>
-      </c>
-      <c r="D12" t="n" s="75">
-        <v>25.188044160680157</v>
+        <v>256</v>
+      </c>
+      <c r="D12" t="s" s="75">
+        <v>300</v>
       </c>
       <c r="E12" t="n" s="76">
-        <v>34.009346505892864</v>
+        <v>55.20400241300085</v>
       </c>
       <c r="F12" t="n" s="76">
-        <v>29.476573911060843</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G12" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H12" t="n" s="78">
-        <v>65.73300142560069</v>
+        <v>98.84224703698649</v>
+      </c>
+      <c r="H12" t="s" s="78">
+        <v>398</v>
       </c>
       <c r="I12" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J12" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K12" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L12" t="s" s="36">
-        <v>256</v>
+        <v>3.779599592453542</v>
+      </c>
+      <c r="L12" t="n" s="36">
+        <v>14.234660685231038</v>
       </c>
       <c r="M12" t="n" s="36">
-        <v>42.664314287295035</v>
+        <v>79.38486644665062</v>
       </c>
       <c r="AC12" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>37.60790608431851</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="n" s="34">
-        <v>44964.71703053241</v>
+        <v>56.101550413418444</v>
       </c>
       <c r="C13" t="s" s="84">
-        <v>299</v>
-      </c>
-      <c r="D13" t="n" s="75">
-        <v>65.42473222047211</v>
+        <v>257</v>
+      </c>
+      <c r="D13" t="s" s="75">
+        <v>301</v>
       </c>
       <c r="E13" t="n" s="76">
-        <v>28.223776887919904</v>
+        <v>12.642951927722802</v>
       </c>
       <c r="F13" t="n" s="76">
-        <v>24.884986013857848</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G13" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H13" t="n" s="78">
-        <v>52.10762847322934</v>
+        <v>55.252120947710424</v>
+      </c>
+      <c r="H13" t="s" s="78">
+        <v>399</v>
       </c>
       <c r="I13" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J13" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K13" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L13" t="s" s="36">
-        <v>257</v>
-      </c>
-      <c r="M13" t="n" s="36">
-        <v>59.813930605722156</v>
+        <v>15.168611588762182</v>
+      </c>
+      <c r="L13" t="n" s="36">
+        <v>97.33086715418904</v>
       </c>
       <c r="AC13" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>49.398873790524945</v>
       </c>
     </row>
     <row r="14">
+      <c r="B14" t="n" s="34">
+        <v>66.69649447011837</v>
+      </c>
       <c r="C14" t="s" s="84">
-        <v>300</v>
-      </c>
-      <c r="D14" t="n" s="75">
-        <v>13.385968922892689</v>
+        <v>258</v>
+      </c>
+      <c r="D14" t="s" s="75">
+        <v>302</v>
       </c>
       <c r="E14" t="n" s="76">
-        <v>89.24040252662448</v>
+        <v>88.7488915673344</v>
       </c>
       <c r="F14" t="n" s="76">
-        <v>26.599027002604757</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G14" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H14" t="n" s="78">
-        <v>76.26266286635708</v>
+        <v>50.67508581262303</v>
+      </c>
+      <c r="H14" t="s" s="78">
+        <v>400</v>
       </c>
       <c r="I14" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J14" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K14" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L14" t="s" s="36">
-        <v>258</v>
-      </c>
-      <c r="M14" t="n" s="36">
-        <v>98.10910516779455</v>
+        <v>11.60409057032844</v>
+      </c>
+      <c r="L14" t="n" s="36">
+        <v>84.61614896888857</v>
       </c>
       <c r="AC14" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>82.86075096166591</v>
       </c>
     </row>
     <row r="15">
+      <c r="B15" t="n" s="34">
+        <v>73.78286790253156</v>
+      </c>
       <c r="C15" t="s" s="84">
-        <v>301</v>
-      </c>
-      <c r="D15" t="n" s="75">
-        <v>10.081347708759193</v>
+        <v>259</v>
+      </c>
+      <c r="D15" t="s" s="75">
+        <v>303</v>
       </c>
       <c r="E15" t="n" s="76">
-        <v>44.06044433842311</v>
+        <v>1.2075102557199013</v>
       </c>
       <c r="F15" t="n" s="76">
-        <v>57.84849309871972</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G15" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H15" t="n" s="78">
-        <v>58.49266740498897</v>
+        <v>36.90753298878473</v>
+      </c>
+      <c r="H15" t="s" s="78">
+        <v>401</v>
       </c>
       <c r="I15" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J15" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K15" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L15" t="s" s="36">
-        <v>259</v>
-      </c>
-      <c r="M15" t="n" s="36">
-        <v>13.241269550257185</v>
+        <v>3.573642218823714</v>
+      </c>
+      <c r="L15" t="n" s="36">
+        <v>81.5377220866923</v>
       </c>
       <c r="AC15" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>93.33087984659136</v>
       </c>
     </row>
     <row r="16">
+      <c r="B16" t="n" s="34">
+        <v>83.73784899127087</v>
+      </c>
       <c r="C16" t="s" s="84">
-        <v>302</v>
-      </c>
-      <c r="D16" t="n" s="75">
-        <v>88.97846298298155</v>
+        <v>260</v>
+      </c>
+      <c r="D16" t="s" s="75">
+        <v>304</v>
+      </c>
+      <c r="E16" t="n" s="76">
+        <v>44.23552052269589</v>
       </c>
       <c r="F16" t="n" s="76">
-        <v>57.085976460094166</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G16" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H16" t="n" s="78">
-        <v>40.66460921881827</v>
+        <v>98.12990937626664</v>
+      </c>
+      <c r="H16" t="s" s="78">
+        <v>402</v>
       </c>
       <c r="I16" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J16" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K16" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L16" t="s" s="36">
-        <v>260</v>
-      </c>
-      <c r="M16" t="n" s="36">
-        <v>95.40976236551366</v>
+        <v>74.44714286792272</v>
+      </c>
+      <c r="L16" t="n" s="36">
+        <v>6.3684752303799</v>
       </c>
       <c r="AC16" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>16.731743474138494</v>
       </c>
     </row>
     <row r="17">
+      <c r="B17" t="n" s="34">
+        <v>71.76740189440076</v>
+      </c>
       <c r="C17" t="s" s="84">
-        <v>303</v>
-      </c>
-      <c r="D17" t="n" s="75">
-        <v>98.16701903053897</v>
+        <v>261</v>
+      </c>
+      <c r="D17" t="s" s="75">
+        <v>305</v>
+      </c>
+      <c r="E17" t="n" s="76">
+        <v>31.23123932401096</v>
       </c>
       <c r="F17" t="n" s="76">
-        <v>16.222069347155955</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G17" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H17" t="n" s="78">
-        <v>38.962535598192346</v>
+        <v>7.76117260875937</v>
+      </c>
+      <c r="H17" t="s" s="78">
+        <v>403</v>
       </c>
       <c r="I17" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J17" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K17" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L17" t="s" s="36">
-        <v>261</v>
-      </c>
-      <c r="M17" t="n" s="36">
-        <v>98.67521748687082</v>
+        <v>41.252118302579134</v>
+      </c>
+      <c r="L17" t="n" s="36">
+        <v>90.77275369940618</v>
       </c>
       <c r="AC17" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>38.39328825774319</v>
       </c>
     </row>
     <row r="18">
+      <c r="B18" t="n" s="34">
+        <v>11.113747224337867</v>
+      </c>
       <c r="C18" t="s" s="84">
-        <v>304</v>
+        <v>262</v>
+      </c>
+      <c r="D18" t="s" s="75">
+        <v>306</v>
+      </c>
+      <c r="E18" t="n" s="76">
+        <v>97.1088776258087</v>
       </c>
       <c r="F18" t="n" s="76">
-        <v>69.10632382163436</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G18" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H18" t="n" s="78">
-        <v>91.2043988293895</v>
+        <v>20.08847738244739</v>
+      </c>
+      <c r="H18" t="s" s="78">
+        <v>404</v>
       </c>
       <c r="I18" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.93705337963</v>
       </c>
       <c r="J18" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K18" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L18" t="s" s="36">
-        <v>262</v>
-      </c>
-      <c r="M18" t="n" s="36">
-        <v>3.132440174193407</v>
+        <v>66.05848726556482</v>
+      </c>
+      <c r="L18" t="n" s="36">
+        <v>61.51464658614631</v>
       </c>
       <c r="AC18" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>42.22521446990783</v>
       </c>
     </row>
     <row r="19">
+      <c r="B19" t="n" s="34">
+        <v>28.028180032093875</v>
+      </c>
       <c r="C19" t="s" s="84">
-        <v>305</v>
+        <v>263</v>
+      </c>
+      <c r="D19" t="s" s="75">
+        <v>307</v>
+      </c>
+      <c r="E19" t="n" s="76">
+        <v>73.07847021478554</v>
       </c>
       <c r="F19" t="n" s="76">
-        <v>25.305303531633793</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="G19" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H19" t="n" s="78">
-        <v>5.074364790842123</v>
-      </c>
-      <c r="I19" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>20.836676992228544</v>
+      </c>
+      <c r="H19" t="s" s="78">
+        <v>405</v>
       </c>
       <c r="J19" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K19" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L19" t="s" s="36">
-        <v>263</v>
-      </c>
-      <c r="M19" t="n" s="36">
-        <v>1.2369270950963074</v>
+        <v>26.933793593610268</v>
+      </c>
+      <c r="L19" t="n" s="36">
+        <v>58.84699230929799</v>
       </c>
       <c r="AC19" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>66.45567595829098</v>
       </c>
     </row>
     <row r="20">
+      <c r="B20" t="n" s="34">
+        <v>2.357655322458785</v>
+      </c>
       <c r="C20" t="s" s="84">
-        <v>306</v>
-      </c>
-      <c r="F20" t="n" s="76">
-        <v>35.62462160260977</v>
+        <v>264</v>
+      </c>
+      <c r="D20" t="s" s="75">
+        <v>308</v>
+      </c>
+      <c r="E20" t="n" s="76">
+        <v>19.041647969655706</v>
       </c>
       <c r="G20" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H20" t="n" s="78">
-        <v>68.21537973393016</v>
-      </c>
-      <c r="I20" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>38.05942093908739</v>
+      </c>
+      <c r="H20" t="s" s="78">
+        <v>406</v>
       </c>
       <c r="J20" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K20" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L20" t="s" s="36">
-        <v>264</v>
-      </c>
-      <c r="M20" t="n" s="36">
-        <v>60.426564473153356</v>
+        <v>17.12512656870604</v>
+      </c>
+      <c r="L20" t="n" s="36">
+        <v>38.07098605925937</v>
       </c>
       <c r="AC20" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>1.2257701246430885</v>
       </c>
     </row>
     <row r="21">
+      <c r="B21" t="n" s="34">
+        <v>9.4471900079522</v>
+      </c>
       <c r="C21" t="s" s="84">
-        <v>307</v>
-      </c>
-      <c r="F21" t="n" s="76">
-        <v>4.328264542136962</v>
+        <v>265</v>
+      </c>
+      <c r="D21" t="s" s="75">
+        <v>309</v>
+      </c>
+      <c r="E21" t="n" s="76">
+        <v>26.194213638999564</v>
       </c>
       <c r="G21" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H21" t="n" s="78">
-        <v>3.064779481740232</v>
-      </c>
-      <c r="I21" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>82.84835109435481</v>
+      </c>
+      <c r="H21" t="s" s="78">
+        <v>407</v>
       </c>
       <c r="J21" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44964.937053368056</v>
       </c>
       <c r="K21" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L21" t="s" s="36">
-        <v>265</v>
-      </c>
-      <c r="M21" t="n" s="36">
-        <v>0.0442484183008629</v>
+        <v>87.62876320595274</v>
+      </c>
+      <c r="L21" t="n" s="36">
+        <v>46.30194845691216</v>
       </c>
       <c r="AC21" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>51.922622686490314</v>
       </c>
     </row>
     <row r="22">
+      <c r="B22" t="n" s="34">
+        <v>8.309872660193385</v>
+      </c>
       <c r="C22" t="s" s="84">
-        <v>308</v>
-      </c>
-      <c r="F22" t="n" s="76">
-        <v>66.9704702541027</v>
+        <v>266</v>
+      </c>
+      <c r="D22" t="s" s="75">
+        <v>310</v>
+      </c>
+      <c r="E22" t="n" s="76">
+        <v>13.096962504732002</v>
       </c>
       <c r="G22" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H22" t="n" s="78">
-        <v>98.85167701337066</v>
-      </c>
-      <c r="I22" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J22" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>74.6283391327624</v>
+      </c>
+      <c r="H22" t="s" s="78">
+        <v>408</v>
       </c>
       <c r="K22" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L22" t="s" s="36">
-        <v>266</v>
-      </c>
-      <c r="M22" t="n" s="36">
-        <v>58.06610395800737</v>
+        <v>18.15827042516196</v>
+      </c>
+      <c r="L22" t="n" s="36">
+        <v>80.04353929007333</v>
       </c>
       <c r="AC22" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>78.04966861496592</v>
       </c>
     </row>
     <row r="23">
+      <c r="B23" t="n" s="34">
+        <v>65.90689897880512</v>
+      </c>
       <c r="C23" t="s" s="84">
-        <v>309</v>
-      </c>
-      <c r="F23" t="n" s="76">
-        <v>20.716649262904397</v>
+        <v>267</v>
+      </c>
+      <c r="D23" t="s" s="75">
+        <v>311</v>
+      </c>
+      <c r="E23" t="n" s="76">
+        <v>84.66084770323553</v>
       </c>
       <c r="G23" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H23" t="n" s="78">
-        <v>25.521681333903643</v>
-      </c>
-      <c r="I23" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J23" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>88.32418231349449</v>
+      </c>
+      <c r="H23" t="s" s="78">
+        <v>409</v>
       </c>
       <c r="K23" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L23" t="s" s="36">
-        <v>267</v>
-      </c>
-      <c r="M23" t="n" s="36">
-        <v>42.25503809190264</v>
+        <v>60.430048048433925</v>
+      </c>
+      <c r="L23" t="n" s="36">
+        <v>93.89352603904901</v>
       </c>
       <c r="AC23" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>42.36554656071551</v>
       </c>
     </row>
     <row r="24">
+      <c r="B24" t="n" s="34">
+        <v>50.3458147365464</v>
+      </c>
       <c r="C24" t="s" s="84">
-        <v>310</v>
-      </c>
-      <c r="F24" t="n" s="76">
-        <v>95.20831079052127</v>
+        <v>268</v>
+      </c>
+      <c r="D24" t="s" s="75">
+        <v>312</v>
+      </c>
+      <c r="E24" t="n" s="76">
+        <v>90.0831785203403</v>
       </c>
       <c r="G24" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H24" t="n" s="78">
-        <v>73.25886900566303</v>
-      </c>
-      <c r="I24" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J24" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>79.40385205307615</v>
+      </c>
+      <c r="H24" t="s" s="78">
+        <v>410</v>
       </c>
       <c r="K24" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L24" t="s" s="36">
-        <v>268</v>
-      </c>
-      <c r="M24" t="n" s="36">
-        <v>61.32712163237277</v>
+        <v>72.38614137055093</v>
+      </c>
+      <c r="L24" t="n" s="36">
+        <v>96.10396973368594</v>
       </c>
       <c r="AC24" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>85.44573190177822</v>
       </c>
     </row>
     <row r="25">
+      <c r="B25" t="n" s="34">
+        <v>13.928813586938016</v>
+      </c>
       <c r="C25" t="s" s="84">
-        <v>311</v>
-      </c>
-      <c r="F25" t="n" s="76">
-        <v>51.79874451579217</v>
+        <v>269</v>
+      </c>
+      <c r="D25" t="s" s="75">
+        <v>313</v>
+      </c>
+      <c r="E25" t="n" s="76">
+        <v>38.89614674481512</v>
       </c>
       <c r="G25" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H25" t="n" s="78">
-        <v>50.57449142037219</v>
-      </c>
-      <c r="I25" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J25" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>14.888884412301252</v>
+      </c>
+      <c r="H25" t="s" s="78">
+        <v>411</v>
       </c>
       <c r="K25" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L25" t="s" s="36">
-        <v>269</v>
-      </c>
-      <c r="M25" t="n" s="36">
-        <v>45.095233427266415</v>
+        <v>99.26207609798423</v>
+      </c>
+      <c r="L25" t="n" s="36">
+        <v>16.34683696079451</v>
       </c>
       <c r="AC25" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>76.53510926432358</v>
       </c>
     </row>
     <row r="26">
+      <c r="B26" t="n" s="34">
+        <v>95.83973539526501</v>
+      </c>
       <c r="C26" t="s" s="84">
-        <v>312</v>
-      </c>
-      <c r="F26" t="n" s="76">
-        <v>25.39659228214396</v>
+        <v>270</v>
+      </c>
+      <c r="D26" t="s" s="75">
+        <v>314</v>
+      </c>
+      <c r="E26" t="n" s="76">
+        <v>95.94797113619117</v>
       </c>
       <c r="G26" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H26" t="n" s="78">
-        <v>41.859659320856416</v>
-      </c>
-      <c r="I26" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J26" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>5.785440773602701</v>
+      </c>
+      <c r="H26" t="s" s="78">
+        <v>412</v>
       </c>
       <c r="K26" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L26" t="s" s="36">
-        <v>270</v>
-      </c>
-      <c r="M26" t="n" s="36">
-        <v>21.635509452602307</v>
+        <v>63.888519761875806</v>
+      </c>
+      <c r="L26" t="n" s="36">
+        <v>24.563123817759024</v>
       </c>
       <c r="AC26" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>54.17885914556141</v>
       </c>
     </row>
     <row r="27">
+      <c r="B27" t="n" s="34">
+        <v>12.160883078183515</v>
+      </c>
       <c r="C27" t="s" s="84">
-        <v>313</v>
-      </c>
-      <c r="F27" t="n" s="76">
-        <v>16.092862003911623</v>
+        <v>271</v>
+      </c>
+      <c r="D27" t="s" s="75">
+        <v>315</v>
+      </c>
+      <c r="E27" t="n" s="76">
+        <v>6.502814471921303</v>
       </c>
       <c r="G27" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H27" t="n" s="78">
-        <v>11.919964886112</v>
-      </c>
-      <c r="I27" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J27" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>92.94093226204755</v>
+      </c>
+      <c r="H27" t="s" s="78">
+        <v>413</v>
       </c>
       <c r="K27" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L27" t="s" s="36">
-        <v>271</v>
-      </c>
-      <c r="M27" t="n" s="36">
-        <v>54.87751082238016</v>
+        <v>10.314483087844906</v>
+      </c>
+      <c r="L27" t="n" s="36">
+        <v>38.69001585614406</v>
       </c>
       <c r="AC27" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>9.373009947671829</v>
       </c>
     </row>
     <row r="28">
+      <c r="B28" t="n" s="34">
+        <v>20.193349340626987</v>
+      </c>
       <c r="C28" t="s" s="84">
-        <v>314</v>
-      </c>
-      <c r="F28" t="n" s="76">
-        <v>3.0554362463300233</v>
+        <v>272</v>
+      </c>
+      <c r="D28" t="s" s="75">
+        <v>316</v>
+      </c>
+      <c r="E28" t="n" s="76">
+        <v>12.29696516266321</v>
       </c>
       <c r="G28" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H28" t="n" s="78">
-        <v>23.809650189320553</v>
-      </c>
-      <c r="I28" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J28" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>57.08734926583973</v>
+      </c>
+      <c r="H28" t="s" s="78">
+        <v>414</v>
       </c>
       <c r="K28" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L28" t="s" s="36">
-        <v>272</v>
-      </c>
-      <c r="M28" t="n" s="36">
-        <v>27.541729924269585</v>
+        <v>56.42300518530684</v>
+      </c>
+      <c r="L28" t="n" s="36">
+        <v>55.74580984800117</v>
       </c>
       <c r="AC28" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>10.35447120475197</v>
       </c>
     </row>
     <row r="29">
+      <c r="B29" t="n" s="34">
+        <v>16.666589095965122</v>
+      </c>
       <c r="C29" t="s" s="84">
-        <v>315</v>
-      </c>
-      <c r="F29" t="n" s="76">
-        <v>59.57766384918393</v>
+        <v>273</v>
+      </c>
+      <c r="D29" t="s" s="75">
+        <v>317</v>
+      </c>
+      <c r="E29" t="n" s="76">
+        <v>99.36391076882013</v>
       </c>
       <c r="G29" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H29" t="n" s="78">
-        <v>46.546600781132156</v>
-      </c>
-      <c r="I29" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J29" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>93.64029970180223</v>
+      </c>
+      <c r="H29" t="s" s="78">
+        <v>415</v>
       </c>
       <c r="K29" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L29" t="s" s="36">
-        <v>273</v>
-      </c>
-      <c r="M29" t="n" s="36">
-        <v>46.82637253357424</v>
+        <v>40.222615585529574</v>
+      </c>
+      <c r="L29" t="n" s="36">
+        <v>66.30302013847978</v>
       </c>
       <c r="AC29" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>76.0233456122927</v>
       </c>
     </row>
     <row r="30">
+      <c r="B30" t="n" s="34">
+        <v>99.71704109112122</v>
+      </c>
       <c r="C30" t="s" s="84">
-        <v>316</v>
-      </c>
-      <c r="F30" t="n" s="76">
-        <v>45.53872533306029</v>
+        <v>274</v>
+      </c>
+      <c r="D30" t="s" s="75">
+        <v>318</v>
+      </c>
+      <c r="E30" t="n" s="76">
+        <v>86.631753633222</v>
       </c>
       <c r="G30" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H30" t="n" s="78">
-        <v>66.53832911842889</v>
-      </c>
-      <c r="I30" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J30" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>90.09366422789739</v>
+      </c>
+      <c r="H30" t="s" s="78">
+        <v>416</v>
       </c>
       <c r="K30" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L30" t="s" s="36">
-        <v>274</v>
-      </c>
-      <c r="M30" t="n" s="36">
-        <v>14.100825717722376</v>
+        <v>96.62081358168686</v>
+      </c>
+      <c r="L30" t="n" s="36">
+        <v>39.21363026665799</v>
       </c>
       <c r="AC30" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>70.97444516770126</v>
       </c>
     </row>
     <row r="31">
+      <c r="B31" t="n" s="34">
+        <v>92.75066563963655</v>
+      </c>
       <c r="C31" t="s" s="84">
-        <v>317</v>
+        <v>275</v>
+      </c>
+      <c r="D31" t="s" s="75">
+        <v>319</v>
+      </c>
+      <c r="E31" t="n" s="76">
+        <v>2.3193568538293796</v>
       </c>
       <c r="G31" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H31" t="n" s="78">
-        <v>43.922234567783356</v>
-      </c>
-      <c r="I31" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J31" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>5.320329759376097</v>
+      </c>
+      <c r="H31" t="s" s="78">
+        <v>417</v>
       </c>
       <c r="K31" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L31" t="s" s="36">
-        <v>275</v>
-      </c>
-      <c r="M31" t="n" s="36">
-        <v>59.321894098454266</v>
+        <v>18.464384510398414</v>
+      </c>
+      <c r="L31" t="n" s="36">
+        <v>84.32527477711366</v>
       </c>
       <c r="AC31" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>2.072998404698201</v>
       </c>
     </row>
     <row r="32">
+      <c r="B32" t="n" s="34">
+        <v>84.00051194117079</v>
+      </c>
       <c r="C32" t="s" s="84">
-        <v>318</v>
+        <v>276</v>
+      </c>
+      <c r="D32" t="s" s="75">
+        <v>320</v>
+      </c>
+      <c r="E32" t="n" s="76">
+        <v>10.468742793190932</v>
       </c>
       <c r="G32" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H32" t="n" s="78">
-        <v>39.125230268253695</v>
-      </c>
-      <c r="I32" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J32" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>78.24659663121443</v>
+      </c>
+      <c r="H32" t="s" s="78">
+        <v>418</v>
       </c>
       <c r="K32" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L32" t="s" s="36">
-        <v>276</v>
-      </c>
-      <c r="M32" t="n" s="36">
-        <v>57.47255593128011</v>
+        <v>88.1319816710034</v>
+      </c>
+      <c r="L32" t="n" s="36">
+        <v>16.643573038725044</v>
       </c>
       <c r="AC32" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>74.20171909975247</v>
       </c>
     </row>
     <row r="33">
+      <c r="B33" t="n" s="34">
+        <v>50.504767117609596</v>
+      </c>
       <c r="C33" t="s" s="84">
-        <v>319</v>
+        <v>277</v>
+      </c>
+      <c r="D33" t="s" s="75">
+        <v>321</v>
+      </c>
+      <c r="E33" t="n" s="76">
+        <v>13.597248746977353</v>
       </c>
       <c r="G33" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H33" t="n" s="78">
-        <v>75.2957535938529</v>
-      </c>
-      <c r="I33" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="J33" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>16.807833904955118</v>
+      </c>
+      <c r="H33" t="s" s="78">
+        <v>419</v>
       </c>
       <c r="K33" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L33" t="s" s="36">
-        <v>277</v>
-      </c>
-      <c r="M33" t="n" s="36">
-        <v>74.18027434187213</v>
-      </c>
-      <c r="AC33" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>39.25391321752796</v>
+      </c>
+      <c r="L33" t="n" s="36">
+        <v>89.0701297551135</v>
       </c>
     </row>
     <row r="34">
+      <c r="B34" t="n" s="34">
+        <v>41.34111720315781</v>
+      </c>
       <c r="C34" t="s" s="84">
-        <v>320</v>
+        <v>278</v>
+      </c>
+      <c r="D34" t="s" s="75">
+        <v>322</v>
+      </c>
+      <c r="E34" t="n" s="76">
+        <v>8.471325561757093</v>
       </c>
       <c r="G34" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H34" t="n" s="78">
-        <v>14.106089242386233</v>
-      </c>
-      <c r="I34" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>44.69961890563751</v>
+      </c>
+      <c r="H34" t="s" s="78">
+        <v>420</v>
       </c>
       <c r="K34" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L34" t="s" s="36">
-        <v>278</v>
-      </c>
-      <c r="M34" t="n" s="36">
-        <v>66.88713454709769</v>
-      </c>
-      <c r="AC34" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>59.09848679443913</v>
+      </c>
+      <c r="L34" t="n" s="36">
+        <v>87.27158261933978</v>
       </c>
     </row>
     <row r="35">
+      <c r="B35" t="n" s="34">
+        <v>13.46872122020989</v>
+      </c>
       <c r="C35" t="s" s="84">
-        <v>321</v>
+        <v>279</v>
+      </c>
+      <c r="D35" t="s" s="75">
+        <v>323</v>
+      </c>
+      <c r="E35" t="n" s="76">
+        <v>45.11425466614553</v>
       </c>
       <c r="G35" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H35" t="n" s="78">
-        <v>48.32602686486075</v>
-      </c>
-      <c r="I35" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>24.903070194239906</v>
+      </c>
+      <c r="H35" t="s" s="78">
+        <v>421</v>
       </c>
       <c r="K35" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L35" t="s" s="36">
-        <v>279</v>
-      </c>
-      <c r="M35" t="n" s="36">
-        <v>60.58933076252993</v>
-      </c>
-      <c r="AC35" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>71.80473372281939</v>
+      </c>
+      <c r="L35" t="n" s="36">
+        <v>14.473560420717712</v>
       </c>
     </row>
     <row r="36">
+      <c r="B36" t="n" s="34">
+        <v>66.5657324502926</v>
+      </c>
       <c r="C36" t="s" s="84">
-        <v>322</v>
+        <v>280</v>
+      </c>
+      <c r="D36" t="s" s="75">
+        <v>324</v>
+      </c>
+      <c r="E36" t="n" s="76">
+        <v>63.01362989762317</v>
       </c>
       <c r="G36" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H36" t="n" s="78">
-        <v>80.75637158136234</v>
-      </c>
-      <c r="I36" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>90.77807691653965</v>
+      </c>
+      <c r="H36" t="s" s="78">
+        <v>422</v>
       </c>
       <c r="K36" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L36" t="s" s="36">
-        <v>280</v>
-      </c>
-      <c r="M36" t="n" s="36">
-        <v>76.48796011887957</v>
-      </c>
-      <c r="AC36" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>18.814535659899988</v>
+      </c>
+      <c r="L36" t="n" s="36">
+        <v>23.93740018974394</v>
       </c>
     </row>
     <row r="37">
+      <c r="B37" t="n" s="34">
+        <v>50.43935055207817</v>
+      </c>
       <c r="C37" t="s" s="84">
-        <v>323</v>
+        <v>281</v>
+      </c>
+      <c r="D37" t="s" s="75">
+        <v>325</v>
+      </c>
+      <c r="E37" t="n" s="76">
+        <v>7.36794514075082</v>
       </c>
       <c r="G37" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H37" t="n" s="78">
-        <v>58.24346173231013</v>
-      </c>
-      <c r="I37" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>87.22054169361229</v>
+      </c>
+      <c r="H37" t="s" s="78">
+        <v>423</v>
       </c>
       <c r="K37" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L37" t="s" s="36">
-        <v>281</v>
-      </c>
-      <c r="M37" t="n" s="36">
-        <v>25.659377817007233</v>
-      </c>
-      <c r="AC37" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>13.65043497793591</v>
+      </c>
+      <c r="L37" t="n" s="36">
+        <v>70.30055458740291</v>
       </c>
     </row>
     <row r="38">
+      <c r="B38" t="n" s="34">
+        <v>36.50218865687576</v>
+      </c>
       <c r="C38" t="s" s="84">
-        <v>324</v>
+        <v>282</v>
+      </c>
+      <c r="D38" t="s" s="75">
+        <v>326</v>
+      </c>
+      <c r="E38" t="n" s="76">
+        <v>10.667315996393146</v>
       </c>
       <c r="G38" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H38" t="n" s="78">
-        <v>2.119842440341313</v>
-      </c>
-      <c r="I38" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>70.42394396398664</v>
+      </c>
+      <c r="H38" t="s" s="78">
+        <v>424</v>
       </c>
       <c r="K38" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L38" t="s" s="36">
-        <v>282</v>
-      </c>
-      <c r="M38" t="n" s="36">
-        <v>76.46809647382662</v>
-      </c>
-      <c r="AC38" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>96.94325755718651</v>
+      </c>
+      <c r="L38" t="n" s="36">
+        <v>57.76734018390067</v>
       </c>
     </row>
     <row r="39">
+      <c r="B39" t="n" s="34">
+        <v>27.74195821684462</v>
+      </c>
       <c r="C39" t="s" s="84">
-        <v>325</v>
+        <v>283</v>
+      </c>
+      <c r="D39" t="s" s="75">
+        <v>327</v>
+      </c>
+      <c r="E39" t="n" s="76">
+        <v>78.54976679768471</v>
       </c>
       <c r="G39" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H39" t="n" s="78">
-        <v>78.98802124593439</v>
-      </c>
-      <c r="I39" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>57.07048771867333</v>
+      </c>
+      <c r="H39" t="s" s="78">
+        <v>425</v>
       </c>
       <c r="K39" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L39" t="s" s="36">
-        <v>283</v>
-      </c>
-      <c r="M39" t="n" s="36">
-        <v>67.14418782489713</v>
-      </c>
-      <c r="AC39" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>66.25276348719044</v>
+      </c>
+      <c r="L39" t="n" s="36">
+        <v>9.849289813513117</v>
       </c>
     </row>
     <row r="40">
+      <c r="B40" t="n" s="34">
+        <v>7.80798327562342</v>
+      </c>
       <c r="C40" t="s" s="84">
-        <v>326</v>
+        <v>284</v>
+      </c>
+      <c r="D40" t="s" s="75">
+        <v>328</v>
+      </c>
+      <c r="E40" t="n" s="76">
+        <v>70.99842933579744</v>
       </c>
       <c r="G40" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H40" t="n" s="78">
-        <v>43.76077346504024</v>
-      </c>
-      <c r="I40" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>12.462038972494016</v>
+      </c>
+      <c r="H40" t="s" s="78">
+        <v>426</v>
       </c>
       <c r="K40" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L40" t="s" s="36">
-        <v>284</v>
-      </c>
-      <c r="M40" t="n" s="36">
-        <v>86.92818153163817</v>
-      </c>
-      <c r="AC40" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>63.10901595861391</v>
+      </c>
+      <c r="L40" t="n" s="36">
+        <v>58.81553378814487</v>
       </c>
     </row>
     <row r="41">
+      <c r="B41" t="n" s="34">
+        <v>27.994523943074125</v>
+      </c>
       <c r="C41" t="s" s="84">
-        <v>327</v>
+        <v>285</v>
+      </c>
+      <c r="D41" t="s" s="75">
+        <v>329</v>
+      </c>
+      <c r="E41" t="n" s="76">
+        <v>39.40155636202564</v>
       </c>
       <c r="G41" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H41" t="n" s="78">
-        <v>7.131429490982932</v>
-      </c>
-      <c r="I41" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>46.97953161824798</v>
+      </c>
+      <c r="H41" t="s" s="78">
+        <v>427</v>
       </c>
       <c r="K41" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L41" t="s" s="36">
-        <v>285</v>
-      </c>
-      <c r="M41" t="n" s="36">
-        <v>13.206075878385315</v>
-      </c>
-      <c r="AC41" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>70.96231539817384</v>
+      </c>
+      <c r="L41" t="n" s="36">
+        <v>86.29674311196493</v>
       </c>
     </row>
     <row r="42">
+      <c r="B42" t="n" s="34">
+        <v>77.28851091183984</v>
+      </c>
       <c r="C42" t="s" s="84">
-        <v>328</v>
+        <v>286</v>
+      </c>
+      <c r="D42" t="s" s="75">
+        <v>330</v>
+      </c>
+      <c r="E42" t="n" s="76">
+        <v>16.377235051078497</v>
       </c>
       <c r="G42" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H42" t="n" s="78">
-        <v>56.704724685840866</v>
-      </c>
-      <c r="I42" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>25.579089601483474</v>
+      </c>
+      <c r="H42" t="s" s="78">
+        <v>428</v>
       </c>
       <c r="K42" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L42" t="s" s="36">
-        <v>286</v>
-      </c>
-      <c r="M42" t="n" s="36">
-        <v>13.629166355531064</v>
-      </c>
-      <c r="AC42" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>20.54667601741359</v>
+      </c>
+      <c r="L42" t="n" s="36">
+        <v>80.52403395183907</v>
       </c>
     </row>
     <row r="43">
+      <c r="B43" t="n" s="34">
+        <v>37.88923092413988</v>
+      </c>
       <c r="C43" t="s" s="84">
-        <v>329</v>
+        <v>287</v>
+      </c>
+      <c r="D43" t="s" s="75">
+        <v>331</v>
+      </c>
+      <c r="E43" t="n" s="76">
+        <v>16.975362355107716</v>
       </c>
       <c r="G43" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H43" t="n" s="78">
-        <v>77.8216666891398</v>
+        <v>56.279882537708104</v>
+      </c>
+      <c r="H43" t="s" s="78">
+        <v>429</v>
       </c>
       <c r="K43" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L43" t="s" s="36">
-        <v>287</v>
-      </c>
-      <c r="M43" t="n" s="36">
-        <v>96.17828162696101</v>
-      </c>
-      <c r="AC43" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>16.154349081587462</v>
+      </c>
+      <c r="L43" t="n" s="36">
+        <v>95.74885428401576</v>
       </c>
     </row>
     <row r="44">
+      <c r="B44" t="n" s="34">
+        <v>82.73853722338134</v>
+      </c>
       <c r="C44" t="s" s="84">
-        <v>330</v>
+        <v>288</v>
+      </c>
+      <c r="D44" t="s" s="75">
+        <v>332</v>
+      </c>
+      <c r="E44" t="n" s="76">
+        <v>53.399991083918586</v>
       </c>
       <c r="G44" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H44" t="n" s="78">
-        <v>34.142735305213876</v>
+        <v>55.38305400931507</v>
+      </c>
+      <c r="H44" t="s" s="78">
+        <v>430</v>
       </c>
       <c r="K44" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L44" t="s" s="36">
-        <v>288</v>
-      </c>
-      <c r="M44" t="n" s="36">
-        <v>65.98478774317803</v>
+        <v>65.79889981095667</v>
+      </c>
+      <c r="L44" t="n" s="36">
+        <v>56.193461099447084</v>
       </c>
     </row>
     <row r="45">
+      <c r="B45" t="n" s="34">
+        <v>14.700110600705319</v>
+      </c>
       <c r="C45" t="s" s="84">
-        <v>331</v>
+        <v>289</v>
+      </c>
+      <c r="D45" t="s" s="75">
+        <v>333</v>
+      </c>
+      <c r="E45" t="n" s="76">
+        <v>33.65180440191422</v>
       </c>
       <c r="G45" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H45" t="n" s="78">
-        <v>69.48882808292946</v>
+        <v>76.97495908839261</v>
+      </c>
+      <c r="H45" t="s" s="78">
+        <v>431</v>
       </c>
       <c r="K45" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L45" t="s" s="36">
-        <v>289</v>
-      </c>
-      <c r="M45" t="n" s="36">
-        <v>29.714827498801842</v>
+        <v>21.733073816946767</v>
+      </c>
+      <c r="L45" t="n" s="36">
+        <v>87.68509826578325</v>
       </c>
     </row>
     <row r="46">
+      <c r="B46" t="n" s="34">
+        <v>68.28511916668467</v>
+      </c>
       <c r="C46" t="s" s="84">
-        <v>332</v>
+        <v>290</v>
+      </c>
+      <c r="D46" t="s" s="75">
+        <v>334</v>
+      </c>
+      <c r="E46" t="n" s="76">
+        <v>52.72082365337718</v>
       </c>
       <c r="G46" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H46" t="n" s="78">
-        <v>1.6168210289827067</v>
+        <v>7.499749195633509</v>
+      </c>
+      <c r="H46" t="s" s="78">
+        <v>432</v>
       </c>
       <c r="K46" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L46" t="s" s="36">
-        <v>290</v>
-      </c>
-      <c r="M46" t="n" s="36">
-        <v>11.990426865400728</v>
+        <v>69.80741692879886</v>
+      </c>
+      <c r="L46" t="n" s="36">
+        <v>35.875873709528605</v>
       </c>
     </row>
     <row r="47">
+      <c r="B47" t="n" s="34">
+        <v>83.5722054551965</v>
+      </c>
       <c r="C47" t="s" s="84">
-        <v>333</v>
+        <v>291</v>
+      </c>
+      <c r="D47" t="s" s="75">
+        <v>335</v>
+      </c>
+      <c r="E47" t="n" s="76">
+        <v>78.4055718104755</v>
       </c>
       <c r="G47" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H47" t="n" s="78">
-        <v>95.6894742986167</v>
+        <v>23.412918300105723</v>
+      </c>
+      <c r="H47" t="s" s="78">
+        <v>433</v>
       </c>
       <c r="K47" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="L47" t="s" s="36">
-        <v>291</v>
-      </c>
-      <c r="M47" t="n" s="36">
-        <v>5.6726678908190165</v>
+        <v>47.936096681401864</v>
+      </c>
+      <c r="L47" t="n" s="36">
+        <v>10.075156740764335</v>
       </c>
     </row>
     <row r="48">
+      <c r="B48" t="n" s="34">
+        <v>91.82695767792575</v>
+      </c>
       <c r="C48" t="s" s="84">
-        <v>334</v>
+        <v>292</v>
+      </c>
+      <c r="D48" t="s" s="75">
+        <v>336</v>
+      </c>
+      <c r="E48" t="n" s="76">
+        <v>51.8790420159433</v>
       </c>
       <c r="G48" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H48" t="n" s="78">
-        <v>65.55409896000722</v>
+        <v>28.12089397099321</v>
+      </c>
+      <c r="H48" t="s" s="78">
+        <v>434</v>
       </c>
       <c r="K48" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M48" t="n" s="36">
-        <v>79.13275893017475</v>
+        <v>3.3043797808555153</v>
+      </c>
+      <c r="L48" t="n" s="36">
+        <v>8.870822953322755</v>
       </c>
     </row>
     <row r="49">
+      <c r="B49" t="n" s="34">
+        <v>6.191694186936314</v>
+      </c>
       <c r="C49" t="s" s="84">
-        <v>335</v>
+        <v>293</v>
+      </c>
+      <c r="D49" t="s" s="75">
+        <v>337</v>
+      </c>
+      <c r="E49" t="n" s="76">
+        <v>70.31911390589396</v>
       </c>
       <c r="G49" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H49" t="n" s="78">
-        <v>5.370278311348575</v>
+        <v>54.32853188943431</v>
+      </c>
+      <c r="H49" t="s" s="78">
+        <v>435</v>
       </c>
       <c r="K49" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M49" t="n" s="36">
-        <v>64.26622119243567</v>
+        <v>23.29285723326725</v>
+      </c>
+      <c r="L49" t="n" s="36">
+        <v>46.31097997097046</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="s" s="84">
-        <v>336</v>
+      <c r="B50" t="n" s="34">
+        <v>22.145418646418445</v>
+      </c>
+      <c r="D50" t="s" s="75">
+        <v>338</v>
+      </c>
+      <c r="E50" t="n" s="76">
+        <v>33.930311886721064</v>
       </c>
       <c r="G50" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H50" t="n" s="78">
-        <v>83.70735384976437</v>
+        <v>5.558523516960134</v>
+      </c>
+      <c r="H50" t="s" s="78">
+        <v>436</v>
       </c>
       <c r="K50" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M50" t="n" s="36">
-        <v>35.5478955659087</v>
+        <v>41.89815993247913</v>
+      </c>
+      <c r="L50" t="n" s="36">
+        <v>48.54639393334635</v>
       </c>
     </row>
     <row r="51">
-      <c r="C51" t="s" s="84">
-        <v>337</v>
+      <c r="B51" t="n" s="34">
+        <v>58.77571617684947</v>
+      </c>
+      <c r="D51" t="s" s="75">
+        <v>339</v>
+      </c>
+      <c r="E51" t="n" s="76">
+        <v>48.74109808284619</v>
       </c>
       <c r="G51" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H51" t="n" s="78">
-        <v>23.193019274979232</v>
+        <v>11.270757666532782</v>
+      </c>
+      <c r="H51" t="s" s="78">
+        <v>437</v>
       </c>
       <c r="K51" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M51" t="n" s="36">
-        <v>10.75517840786543</v>
+        <v>67.57568386940976</v>
+      </c>
+      <c r="L51" t="n" s="36">
+        <v>57.61942645284586</v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="s" s="84">
-        <v>338</v>
+      <c r="B52" t="n" s="34">
+        <v>82.36006193279694</v>
+      </c>
+      <c r="D52" t="s" s="75">
+        <v>340</v>
+      </c>
+      <c r="E52" t="n" s="76">
+        <v>98.75906975618761</v>
       </c>
       <c r="G52" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H52" t="n" s="78">
-        <v>33.38937835605198</v>
+        <v>49.06439969866475</v>
+      </c>
+      <c r="H52" t="s" s="78">
+        <v>438</v>
       </c>
       <c r="K52" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M52" t="n" s="36">
-        <v>41.73541605180896</v>
+        <v>10.949164632960883</v>
+      </c>
+      <c r="L52" t="n" s="36">
+        <v>47.304858367180145</v>
       </c>
     </row>
     <row r="53">
+      <c r="B53" t="n" s="34">
+        <v>2.615162563860529</v>
+      </c>
+      <c r="D53" t="s" s="75">
+        <v>341</v>
+      </c>
+      <c r="E53" t="n" s="76">
+        <v>18.331193357968502</v>
+      </c>
       <c r="G53" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H53" t="n" s="78">
-        <v>19.63515192890466</v>
+        <v>52.603432875339905</v>
+      </c>
+      <c r="H53" t="s" s="78">
+        <v>439</v>
       </c>
       <c r="K53" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M53" t="n" s="36">
-        <v>98.02062324828292</v>
+        <v>14.571236498273377</v>
+      </c>
+      <c r="L53" t="n" s="36">
+        <v>20.24060610338969</v>
       </c>
     </row>
     <row r="54">
+      <c r="B54" t="n" s="34">
+        <v>6.433120696944727</v>
+      </c>
+      <c r="D54" t="s" s="75">
+        <v>342</v>
+      </c>
+      <c r="E54" t="n" s="76">
+        <v>40.837157807814194</v>
+      </c>
       <c r="G54" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H54" t="n" s="78">
-        <v>16.016957309637426</v>
+        <v>29.38080306631079</v>
+      </c>
+      <c r="H54" t="s" s="78">
+        <v>440</v>
       </c>
       <c r="K54" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M54" t="n" s="36">
-        <v>3.9961563241472597</v>
+        <v>86.09340881095466</v>
+      </c>
+      <c r="L54" t="n" s="36">
+        <v>36.51489727293308</v>
       </c>
     </row>
     <row r="55">
+      <c r="D55" t="s" s="75">
+        <v>343</v>
+      </c>
+      <c r="E55" t="n" s="76">
+        <v>82.6561149304178</v>
+      </c>
       <c r="G55" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H55" t="n" s="78">
-        <v>5.680095801059782</v>
+        <v>35.997347246360626</v>
+      </c>
+      <c r="H55" t="s" s="78">
+        <v>441</v>
       </c>
       <c r="K55" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M55" t="n" s="36">
-        <v>87.2620602461316</v>
+        <v>45.497104710298416</v>
+      </c>
+      <c r="L55" t="n" s="36">
+        <v>7.878731334713329</v>
       </c>
     </row>
     <row r="56">
+      <c r="D56" t="s" s="75">
+        <v>344</v>
+      </c>
+      <c r="E56" t="n" s="76">
+        <v>0.4349992708124639</v>
+      </c>
       <c r="G56" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H56" t="n" s="78">
-        <v>27.630677583283124</v>
+        <v>58.204907406749726</v>
+      </c>
+      <c r="H56" t="s" s="78">
+        <v>442</v>
       </c>
       <c r="K56" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M56" t="n" s="36">
-        <v>79.50885584634578</v>
+        <v>47.50462149942558</v>
+      </c>
+      <c r="L56" t="n" s="36">
+        <v>42.049366056119595</v>
       </c>
     </row>
     <row r="57">
+      <c r="D57" t="s" s="75">
+        <v>345</v>
+      </c>
       <c r="G57" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H57" t="n" s="78">
-        <v>62.41773949249285</v>
+        <v>90.03376207320399</v>
+      </c>
+      <c r="H57" t="s" s="78">
+        <v>443</v>
       </c>
       <c r="K57" t="n" s="36">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="M57" t="n" s="36">
-        <v>60.681690927868544</v>
+        <v>94.9599217003524</v>
+      </c>
+      <c r="L57" t="n" s="36">
+        <v>22.322188633485183</v>
       </c>
     </row>
     <row r="58">
+      <c r="D58" t="s" s="75">
+        <v>346</v>
+      </c>
       <c r="G58" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H58" t="n" s="78">
-        <v>49.51385269929354</v>
+        <v>9.03928160798374</v>
+      </c>
+      <c r="H58" t="s" s="78">
+        <v>444</v>
       </c>
       <c r="K58" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>91.66228476470829</v>
+      </c>
+      <c r="L58" t="n" s="36">
+        <v>45.17199030001525</v>
       </c>
     </row>
     <row r="59">
+      <c r="D59" t="s" s="75">
+        <v>347</v>
+      </c>
       <c r="G59" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H59" t="n" s="78">
-        <v>94.22992071536605</v>
+        <v>14.18485743023663</v>
+      </c>
+      <c r="H59" t="s" s="78">
+        <v>445</v>
       </c>
       <c r="K59" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>19.626245113055507</v>
+      </c>
+      <c r="L59" t="n" s="36">
+        <v>88.31656859318792</v>
       </c>
     </row>
     <row r="60">
+      <c r="D60" t="s" s="75">
+        <v>348</v>
+      </c>
       <c r="G60" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H60" t="n" s="78">
-        <v>27.145658295040054</v>
+        <v>71.89470045283062</v>
+      </c>
+      <c r="H60" t="s" s="78">
+        <v>446</v>
       </c>
       <c r="K60" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>57.04845257525283</v>
+      </c>
+      <c r="L60" t="n" s="36">
+        <v>61.943253487277275</v>
       </c>
     </row>
     <row r="61">
+      <c r="D61" t="s" s="75">
+        <v>349</v>
+      </c>
       <c r="G61" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H61" t="n" s="78">
-        <v>1.941715285786627</v>
+        <v>79.56070066211612</v>
+      </c>
+      <c r="H61" t="s" s="78">
+        <v>447</v>
       </c>
       <c r="K61" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>46.4472028951968</v>
+      </c>
+      <c r="L61" t="n" s="36">
+        <v>61.449950648303464</v>
       </c>
     </row>
     <row r="62">
+      <c r="D62" t="s" s="75">
+        <v>350</v>
+      </c>
       <c r="G62" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H62" t="n" s="78">
-        <v>42.399866755343375</v>
+        <v>10.199873802086346</v>
+      </c>
+      <c r="H62" t="s" s="78">
+        <v>448</v>
       </c>
       <c r="K62" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>94.92799336586606</v>
+      </c>
+      <c r="L62" t="n" s="36">
+        <v>34.662784029253835</v>
       </c>
     </row>
     <row r="63">
+      <c r="D63" t="s" s="75">
+        <v>351</v>
+      </c>
       <c r="G63" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H63" t="n" s="78">
-        <v>14.943632689273423</v>
+        <v>45.51298152250003</v>
+      </c>
+      <c r="H63" t="s" s="78">
+        <v>449</v>
       </c>
       <c r="K63" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>77.59617138196438</v>
+      </c>
+      <c r="L63" t="n" s="36">
+        <v>22.727737475160538</v>
       </c>
     </row>
     <row r="64">
+      <c r="D64" t="s" s="75">
+        <v>352</v>
+      </c>
       <c r="G64" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H64" t="n" s="78">
-        <v>77.61443670196935</v>
+        <v>85.30988224739866</v>
+      </c>
+      <c r="H64" t="s" s="78">
+        <v>450</v>
       </c>
       <c r="K64" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>64.83531403790498</v>
+      </c>
+      <c r="L64" t="n" s="36">
+        <v>35.29298373557616</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H65" t="n" s="78">
-        <v>68.4612609356489</v>
+      <c r="D65" t="s" s="75">
+        <v>353</v>
+      </c>
+      <c r="H65" t="s" s="78">
+        <v>451</v>
       </c>
       <c r="K65" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>97.56235503925726</v>
+      </c>
+      <c r="L65" t="n" s="36">
+        <v>62.491096523795854</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H66" t="n" s="78">
-        <v>81.94340062397507</v>
+      <c r="D66" t="s" s="75">
+        <v>354</v>
+      </c>
+      <c r="H66" t="s" s="78">
+        <v>452</v>
       </c>
       <c r="K66" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>9.818270075667247</v>
+      </c>
+      <c r="L66" t="n" s="36">
+        <v>4.038954645154014</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H67" t="n" s="78">
-        <v>22.558764794129914</v>
+      <c r="D67" t="s" s="75">
+        <v>355</v>
+      </c>
+      <c r="H67" t="s" s="78">
+        <v>453</v>
       </c>
       <c r="K67" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>42.47045177802051</v>
+      </c>
+      <c r="L67" t="n" s="36">
+        <v>65.24771803581723</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H68" t="n" s="78">
-        <v>92.85898764876973</v>
+      <c r="D68" t="s" s="75">
+        <v>356</v>
+      </c>
+      <c r="H68" t="s" s="78">
+        <v>454</v>
       </c>
       <c r="K68" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>48.66191240119836</v>
+      </c>
+      <c r="L68" t="n" s="36">
+        <v>3.5782817300503478</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H69" t="n" s="78">
-        <v>65.86508289305827</v>
+      <c r="D69" t="s" s="75">
+        <v>357</v>
+      </c>
+      <c r="H69" t="s" s="78">
+        <v>455</v>
       </c>
       <c r="K69" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>80.10957275394979</v>
+      </c>
+      <c r="L69" t="n" s="36">
+        <v>60.77725330841146</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H70" t="n" s="78">
-        <v>27.958622242878516</v>
+      <c r="D70" t="s" s="75">
+        <v>358</v>
+      </c>
+      <c r="H70" t="s" s="78">
+        <v>456</v>
       </c>
       <c r="K70" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>42.578857728930544</v>
+      </c>
+      <c r="L70" t="n" s="36">
+        <v>29.68856051550822</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H71" t="n" s="78">
-        <v>41.22277702316532</v>
+      <c r="D71" t="s" s="75">
+        <v>359</v>
+      </c>
+      <c r="H71" t="s" s="78">
+        <v>457</v>
       </c>
       <c r="K71" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>52.856650719842015</v>
+      </c>
+      <c r="L71" t="n" s="36">
+        <v>84.5505726461169</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H72" t="n" s="78">
-        <v>35.071257680505596</v>
+      <c r="D72" t="s" s="75">
+        <v>360</v>
+      </c>
+      <c r="H72" t="s" s="78">
+        <v>458</v>
       </c>
       <c r="K72" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>60.11927925863395</v>
+      </c>
+      <c r="L72" t="n" s="36">
+        <v>27.62072091608433</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H73" t="n" s="78">
-        <v>48.3585120752867</v>
+      <c r="D73" t="s" s="75">
+        <v>361</v>
+      </c>
+      <c r="H73" t="s" s="78">
+        <v>459</v>
       </c>
       <c r="K73" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>35.23749556029359</v>
+      </c>
+      <c r="L73" t="n" s="36">
+        <v>10.128265074824583</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H74" t="n" s="78">
-        <v>89.3352658495125</v>
+      <c r="D74" t="s" s="75">
+        <v>362</v>
+      </c>
+      <c r="H74" t="s" s="78">
+        <v>460</v>
       </c>
       <c r="K74" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>85.79459462053394</v>
+      </c>
+      <c r="L74" t="n" s="36">
+        <v>67.48512304414672</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H75" t="n" s="78">
-        <v>85.20216026339004</v>
+      <c r="D75" t="s" s="75">
+        <v>363</v>
+      </c>
+      <c r="H75" t="s" s="78">
+        <v>461</v>
       </c>
       <c r="K75" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>97.91115236109266</v>
+      </c>
+      <c r="L75" t="n" s="36">
+        <v>59.90835917644627</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H76" t="n" s="78">
-        <v>23.283874750492096</v>
+      <c r="D76" t="s" s="75">
+        <v>364</v>
+      </c>
+      <c r="H76" t="s" s="78">
+        <v>462</v>
       </c>
       <c r="K76" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>31.16009209432711</v>
+      </c>
+      <c r="L76" t="n" s="36">
+        <v>4.689904879967932</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H77" t="n" s="78">
-        <v>63.64273829054184</v>
+      <c r="D77" t="s" s="75">
+        <v>365</v>
+      </c>
+      <c r="H77" t="s" s="78">
+        <v>463</v>
       </c>
       <c r="K77" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>84.08172561431286</v>
+      </c>
+      <c r="L77" t="n" s="36">
+        <v>39.567630256259754</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H78" t="n" s="78">
-        <v>15.4336698390385</v>
+      <c r="D78" t="s" s="75">
+        <v>366</v>
+      </c>
+      <c r="H78" t="s" s="78">
+        <v>464</v>
       </c>
       <c r="K78" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>99.46049445518624</v>
+      </c>
+      <c r="L78" t="n" s="36">
+        <v>18.195169597056093</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H79" t="n" s="78">
-        <v>95.3699541259484</v>
+      <c r="D79" t="s" s="75">
+        <v>367</v>
+      </c>
+      <c r="H79" t="s" s="78">
+        <v>465</v>
       </c>
       <c r="K79" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>40.490267457555106</v>
+      </c>
+      <c r="L79" t="n" s="36">
+        <v>61.03895950240575</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H80" t="n" s="78">
-        <v>91.39996412486914</v>
+      <c r="D80" t="s" s="75">
+        <v>368</v>
+      </c>
+      <c r="H80" t="s" s="78">
+        <v>466</v>
       </c>
       <c r="K80" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>90.56903183711823</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H81" t="n" s="78">
-        <v>71.13913424902708</v>
+      <c r="D81" t="s" s="75">
+        <v>369</v>
+      </c>
+      <c r="H81" t="s" s="78">
+        <v>467</v>
       </c>
       <c r="K81" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>90.03418702274189</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="n" s="77">
-        <v>44964.71703053241</v>
-      </c>
-      <c r="H82" t="n" s="78">
-        <v>82.69473301282079</v>
+      <c r="D82" t="s" s="75">
+        <v>370</v>
+      </c>
+      <c r="H82" t="s" s="78">
+        <v>468</v>
       </c>
       <c r="K82" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>77.56774449076994</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="n" s="77">
-        <v>44964.71703053241</v>
+      <c r="D83" t="s" s="75">
+        <v>371</v>
+      </c>
+      <c r="H83" t="s" s="78">
+        <v>469</v>
       </c>
       <c r="K83" t="n" s="36">
-        <v>44964.71703053241</v>
+        <v>37.58156595333473</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="n" s="77">
-        <v>44964.71703053241</v>
+      <c r="D84" t="s" s="75">
+        <v>372</v>
+      </c>
+      <c r="H84" t="s" s="78">
+        <v>470</v>
+      </c>
+      <c r="K84" t="n" s="36">
+        <v>32.209370784907485</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="n" s="77">
-        <v>44964.71703053241</v>
+      <c r="D85" t="s" s="75">
+        <v>373</v>
+      </c>
+      <c r="H85" t="s" s="78">
+        <v>471</v>
+      </c>
+      <c r="K85" t="n" s="36">
+        <v>4.634560143201605</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="n" s="77">
-        <v>44964.71703053241</v>
+      <c r="D86" t="s" s="75">
+        <v>374</v>
+      </c>
+      <c r="H86" t="s" s="78">
+        <v>472</v>
+      </c>
+      <c r="K86" t="n" s="36">
+        <v>67.51724847944512</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="n" s="77">
-        <v>44964.71703053241</v>
+      <c r="D87" t="s" s="75">
+        <v>375</v>
+      </c>
+      <c r="H87" t="s" s="78">
+        <v>473</v>
+      </c>
+      <c r="K87" t="n" s="36">
+        <v>46.15323868738964</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="n" s="77">
-        <v>44964.71703053241</v>
+      <c r="D88" t="s" s="75">
+        <v>376</v>
+      </c>
+      <c r="H88" t="s" s="78">
+        <v>474</v>
+      </c>
+      <c r="K88" t="n" s="36">
+        <v>22.329087127711134</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="s" s="75">
+        <v>377</v>
+      </c>
+      <c r="H89" t="s" s="78">
+        <v>475</v>
+      </c>
+      <c r="K89" t="n" s="36">
+        <v>7.145426339339755</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="s" s="75">
+        <v>378</v>
+      </c>
+      <c r="H90" t="s" s="78">
+        <v>476</v>
+      </c>
+      <c r="K90" t="n" s="36">
+        <v>56.64599681395865</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="s" s="75">
+        <v>379</v>
+      </c>
+      <c r="H91" t="s" s="78">
+        <v>477</v>
+      </c>
+      <c r="K91" t="n" s="36">
+        <v>84.68822472423228</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="s" s="75">
+        <v>380</v>
+      </c>
+      <c r="H92" t="s" s="78">
+        <v>478</v>
+      </c>
+      <c r="K92" t="n" s="36">
+        <v>6.745031047033678</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="s" s="75">
+        <v>381</v>
+      </c>
+      <c r="H93" t="s" s="78">
+        <v>479</v>
+      </c>
+      <c r="K93" t="n" s="36">
+        <v>19.064190390376133</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="s" s="75">
+        <v>382</v>
+      </c>
+      <c r="H94" t="s" s="78">
+        <v>480</v>
+      </c>
+      <c r="K94" t="n" s="36">
+        <v>65.24920381280798</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="s" s="75">
+        <v>383</v>
+      </c>
+      <c r="K95" t="n" s="36">
+        <v>5.923714916011614</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="s" s="75">
+        <v>384</v>
+      </c>
+      <c r="K96" t="n" s="36">
+        <v>80.38372871301422</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="s" s="75">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="s" s="75">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="s" s="75">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" t="s" s="75">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="s" s="75">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="s" s="75">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="s" s="75">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -9238,7 +9979,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
-  <dimension ref="A2:G54"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -9248,45 +9989,35 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>61.62893314646563</v>
+        <v>5.960507509959811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>6.442140441255228</v>
+        <v>57.30158822341417</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="A4" t="n" s="0">
-        <v>89.34026198256646</v>
+        <v>93.80816071451198</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>4.3248472661971675</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>6.677976306260372</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>3.660870520851189</v>
-      </c>
+        <v>0.15321380318431999</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" spans="5:7">
       <c r="A5" t="n" s="0">
-        <v>40.3110546911858</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>5.7549165338685455</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>4.60084960817957</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>6.311987283978248</v>
-      </c>
+        <v>5.375094309750061</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
     </row>
     <row r="6" spans="5:7">
       <c r="A6" t="n" s="0">
-        <v>23.274365863470294</v>
+        <v>33.09096960503961</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -9294,242 +10025,77 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>25.857171497100428</v>
+        <v>75.68130333940954</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>53.70808245406824</v>
+        <v>22.840212733242858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>16.394957547261903</v>
+        <v>89.310875189177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>16.419157395488625</v>
+        <v>46.6184406082191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>2.8198863260423312</v>
+        <v>94.0974083352657</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>0.04028071807258282</v>
+        <v>47.78438629125702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>70.52690353100985</v>
+        <v>25.909658169082185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>65.5756296351826</v>
+        <v>1.9880874510478042</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>53.787888572976286</v>
+        <v>22.76331011679027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>53.548219744188465</v>
+        <v>63.11403269229976</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>60.54880251872925</v>
+        <v>62.365014457852155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>69.00802288462171</v>
+        <v>15.625865857852938</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>80.62837019981735</v>
+        <v>94.10467752339153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>90.95149347542113</v>
+        <v>40.83004371157507</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>84.62419185130649</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n" s="0">
-        <v>26.461358811895085</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n" s="0">
-        <v>86.74448442611282</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n" s="0">
-        <v>86.0130636748329</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>51.1316750185583</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>73.91475463351931</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>13.43801851500136</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>84.81767482755455</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>14.42606666254813</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>55.7822056786414</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n" s="0">
-        <v>73.73309799412269</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n" s="0">
-        <v>14.702896626123152</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n" s="0">
-        <v>94.75642639458445</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n" s="0">
-        <v>75.23769518437464</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n" s="0">
-        <v>87.54582141571913</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="0">
-        <v>80.06841757659264</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="0">
-        <v>28.852844403914634</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="0">
-        <v>76.7204263476188</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="0">
-        <v>76.8698530195615</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="0">
-        <v>0.7308030372524477</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n" s="0">
-        <v>4.041436125528208</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n" s="0">
-        <v>31.17985628602532</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n" s="0">
-        <v>62.55817460309531</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="0">
-        <v>4.057148107450592</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n" s="0">
-        <v>13.219745278209716</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n" s="0">
-        <v>14.24915341784957</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n" s="0">
-        <v>15.316366861390286</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n" s="0">
-        <v>90.80261100633969</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n" s="0">
-        <v>30.622329967533503</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n" s="0">
-        <v>90.28954835555756</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n" s="0">
-        <v>52.68292165253429</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n" s="0">
-        <v>56.39313669598893</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n" s="0">
-        <v>49.02901180497761</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n" s="0">
-        <v>41.12704661015193</v>
+        <v>49.51890522457061</v>
       </c>
     </row>
   </sheetData>
@@ -9547,22 +10113,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>481</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>346</v>
+        <v>488</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>356</v>
+        <v>498</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>366</v>
+        <v>508</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>376</v>
+        <v>518</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>386</v>
+        <v>528</v>
       </c>
       <c r="G1" t="n" s="0">
         <v>0.021</v>
@@ -9570,22 +10136,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>347</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>357</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>377</v>
+        <v>519</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>387</v>
+        <v>529</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>100.3</v>
@@ -9593,22 +10159,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>341</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>348</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>358</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>368</v>
+        <v>510</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>378</v>
+        <v>520</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>388</v>
+        <v>530</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>9.275</v>
@@ -9616,19 +10182,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>342</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>349</v>
+        <v>491</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>359</v>
+        <v>501</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>369</v>
+        <v>511</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>379</v>
+        <v>521</v>
       </c>
       <c r="G4" t="n" s="0">
         <v>100000.734</v>
@@ -9636,95 +10202,95 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>343</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>350</v>
+        <v>492</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>360</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>380</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>344</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>351</v>
+        <v>493</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>361</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>381</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>345</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>362</v>
+        <v>504</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>372</v>
+        <v>514</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>382</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="0">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>363</v>
+        <v>505</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>373</v>
+        <v>515</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>383</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="0">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>364</v>
+        <v>506</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>374</v>
+        <v>516</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>384</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="0">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>365</v>
+        <v>507</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>375</v>
+        <v>517</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>385</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/W-Domestic Standard Upload Template.xlsx
+++ b/W-Domestic Standard Upload Template.xlsx
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="458">
   <si>
     <t>#</t>
   </si>
@@ -1160,6 +1160,360 @@
     <t xml:space="preserve">Shape </t>
   </si>
   <si>
+    <t>dep:0</t>
+  </si>
+  <si>
+    <t>dep:1</t>
+  </si>
+  <si>
+    <t>dep:2</t>
+  </si>
+  <si>
+    <t>dep:3</t>
+  </si>
+  <si>
+    <t>dep:4</t>
+  </si>
+  <si>
+    <t>dep:5</t>
+  </si>
+  <si>
+    <t>dep:6</t>
+  </si>
+  <si>
+    <t>dep:7</t>
+  </si>
+  <si>
+    <t>dep:8</t>
+  </si>
+  <si>
+    <t>dep:9</t>
+  </si>
+  <si>
+    <t>dep:10</t>
+  </si>
+  <si>
+    <t>dep:11</t>
+  </si>
+  <si>
+    <t>dep:12</t>
+  </si>
+  <si>
+    <t>dep:13</t>
+  </si>
+  <si>
+    <t>dep:14</t>
+  </si>
+  <si>
+    <t>dep:15</t>
+  </si>
+  <si>
+    <t>dep:16</t>
+  </si>
+  <si>
+    <t>dep:17</t>
+  </si>
+  <si>
+    <t>typ:0</t>
+  </si>
+  <si>
+    <t>typ:1</t>
+  </si>
+  <si>
+    <t>typ:2</t>
+  </si>
+  <si>
+    <t>typ:3</t>
+  </si>
+  <si>
+    <t>typ:4</t>
+  </si>
+  <si>
+    <t>typ:5</t>
+  </si>
+  <si>
+    <t>typ:6</t>
+  </si>
+  <si>
+    <t>typ:7</t>
+  </si>
+  <si>
+    <t>typ:8</t>
+  </si>
+  <si>
+    <t>typ:9</t>
+  </si>
+  <si>
+    <t>typ:10</t>
+  </si>
+  <si>
+    <t>typ:11</t>
+  </si>
+  <si>
+    <t>typ:12</t>
+  </si>
+  <si>
+    <t>typ:13</t>
+  </si>
+  <si>
+    <t>typ:14</t>
+  </si>
+  <si>
+    <t>typ:15</t>
+  </si>
+  <si>
+    <t>typ:16</t>
+  </si>
+  <si>
+    <t>typ:17</t>
+  </si>
+  <si>
+    <t>typ:18</t>
+  </si>
+  <si>
+    <t>typ:19</t>
+  </si>
+  <si>
+    <t>typ:20</t>
+  </si>
+  <si>
+    <t>typ:21</t>
+  </si>
+  <si>
+    <t>typ:22</t>
+  </si>
+  <si>
+    <t>typ:23</t>
+  </si>
+  <si>
+    <t>typ:24</t>
+  </si>
+  <si>
+    <t>typ:25</t>
+  </si>
+  <si>
+    <t>typ:26</t>
+  </si>
+  <si>
+    <t>typ:27</t>
+  </si>
+  <si>
+    <t>typ:28</t>
+  </si>
+  <si>
+    <t>typ:29</t>
+  </si>
+  <si>
+    <t>typ:30</t>
+  </si>
+  <si>
+    <t>typ:31</t>
+  </si>
+  <si>
+    <t>typ:32</t>
+  </si>
+  <si>
+    <t>typ:33</t>
+  </si>
+  <si>
+    <t>typ:34</t>
+  </si>
+  <si>
+    <t>typ:35</t>
+  </si>
+  <si>
+    <t>typ:36</t>
+  </si>
+  <si>
+    <t>typ:37</t>
+  </si>
+  <si>
+    <t>typ:38</t>
+  </si>
+  <si>
+    <t>typ:39</t>
+  </si>
+  <si>
+    <t>typ:40</t>
+  </si>
+  <si>
+    <t>typ:41</t>
+  </si>
+  <si>
+    <t>typ:42</t>
+  </si>
+  <si>
+    <t>typ:43</t>
+  </si>
+  <si>
+    <t>typ:44</t>
+  </si>
+  <si>
+    <t>typ:45</t>
+  </si>
+  <si>
+    <t>typ:46</t>
+  </si>
+  <si>
+    <t>typ:47</t>
+  </si>
+  <si>
+    <t>typ:48</t>
+  </si>
+  <si>
+    <t>typ:49</t>
+  </si>
+  <si>
+    <t>typ:50</t>
+  </si>
+  <si>
+    <t>typ:51</t>
+  </si>
+  <si>
+    <t>typ:52</t>
+  </si>
+  <si>
+    <t>typ:53</t>
+  </si>
+  <si>
+    <t>typ:54</t>
+  </si>
+  <si>
+    <t>typ:55</t>
+  </si>
+  <si>
+    <t>typ:56</t>
+  </si>
+  <si>
+    <t>typ:57</t>
+  </si>
+  <si>
+    <t>typ:58</t>
+  </si>
+  <si>
+    <t>typ:59</t>
+  </si>
+  <si>
+    <t>typ:60</t>
+  </si>
+  <si>
+    <t>typ:61</t>
+  </si>
+  <si>
+    <t>typ:62</t>
+  </si>
+  <si>
+    <t>typ:63</t>
+  </si>
+  <si>
+    <t>typ:64</t>
+  </si>
+  <si>
+    <t>typ:65</t>
+  </si>
+  <si>
+    <t>typ:66</t>
+  </si>
+  <si>
+    <t>typ:67</t>
+  </si>
+  <si>
+    <t>typ:68</t>
+  </si>
+  <si>
+    <t>typ:69</t>
+  </si>
+  <si>
+    <t>typ:70</t>
+  </si>
+  <si>
+    <t>typ:71</t>
+  </si>
+  <si>
+    <t>typ:72</t>
+  </si>
+  <si>
+    <t>typ:73</t>
+  </si>
+  <si>
+    <t>typ:74</t>
+  </si>
+  <si>
+    <t>typ:75</t>
+  </si>
+  <si>
+    <t>typ:76</t>
+  </si>
+  <si>
+    <t>typ:77</t>
+  </si>
+  <si>
+    <t>typ:78</t>
+  </si>
+  <si>
+    <t>typ:79</t>
+  </si>
+  <si>
+    <t>typ:80</t>
+  </si>
+  <si>
+    <t>typ:81</t>
+  </si>
+  <si>
+    <t>typ:82</t>
+  </si>
+  <si>
+    <t>mat:0</t>
+  </si>
+  <si>
+    <t>mat:1</t>
+  </si>
+  <si>
+    <t>mat:2</t>
+  </si>
+  <si>
+    <t>mat:3</t>
+  </si>
+  <si>
+    <t>mat:4</t>
+  </si>
+  <si>
+    <t>mat:5</t>
+  </si>
+  <si>
+    <t>mat:6</t>
+  </si>
+  <si>
+    <t>mat:7</t>
+  </si>
+  <si>
+    <t>mat:8</t>
+  </si>
+  <si>
+    <t>mat:9</t>
+  </si>
+  <si>
+    <t>mat:10</t>
+  </si>
+  <si>
+    <t>mat:11</t>
+  </si>
+  <si>
+    <t>mat:12</t>
+  </si>
+  <si>
+    <t>mat:13</t>
+  </si>
+  <si>
+    <t>mat:14</t>
+  </si>
+  <si>
+    <t>mat:15</t>
+  </si>
+  <si>
+    <t>mat:16</t>
+  </si>
+  <si>
     <t>ven:0</t>
   </si>
   <si>
@@ -1292,715 +1646,142 @@
     <t>ven:43</t>
   </si>
   <si>
-    <t>lab:0</t>
-  </si>
-  <si>
-    <t>lab:1</t>
-  </si>
-  <si>
-    <t>lab:2</t>
-  </si>
-  <si>
-    <t>lab:3</t>
-  </si>
-  <si>
-    <t>lab:4</t>
-  </si>
-  <si>
-    <t>lab:5</t>
-  </si>
-  <si>
-    <t>lab:6</t>
-  </si>
-  <si>
-    <t>lab:7</t>
-  </si>
-  <si>
-    <t>lab:8</t>
-  </si>
-  <si>
-    <t>lab:9</t>
-  </si>
-  <si>
-    <t>lab:10</t>
-  </si>
-  <si>
-    <t>lab:11</t>
-  </si>
-  <si>
-    <t>lab:12</t>
-  </si>
-  <si>
-    <t>lab:13</t>
-  </si>
-  <si>
-    <t>lab:14</t>
-  </si>
-  <si>
-    <t>lab:15</t>
-  </si>
-  <si>
-    <t>lab:16</t>
-  </si>
-  <si>
-    <t>lab:17</t>
-  </si>
-  <si>
-    <t>lab:18</t>
-  </si>
-  <si>
-    <t>lab:19</t>
-  </si>
-  <si>
-    <t>lab:20</t>
-  </si>
-  <si>
-    <t>lab:21</t>
-  </si>
-  <si>
-    <t>lab:22</t>
-  </si>
-  <si>
-    <t>lab:23</t>
-  </si>
-  <si>
-    <t>lab:24</t>
-  </si>
-  <si>
-    <t>lab:25</t>
-  </si>
-  <si>
-    <t>lab:26</t>
-  </si>
-  <si>
-    <t>lab:27</t>
-  </si>
-  <si>
-    <t>lab:28</t>
-  </si>
-  <si>
-    <t>lab:29</t>
-  </si>
-  <si>
-    <t>lab:30</t>
-  </si>
-  <si>
-    <t>lab:31</t>
-  </si>
-  <si>
-    <t>lab:32</t>
-  </si>
-  <si>
-    <t>lab:33</t>
-  </si>
-  <si>
-    <t>lab:34</t>
-  </si>
-  <si>
-    <t>lab:35</t>
-  </si>
-  <si>
-    <t>lab:36</t>
-  </si>
-  <si>
-    <t>lab:37</t>
-  </si>
-  <si>
-    <t>lab:38</t>
-  </si>
-  <si>
-    <t>lab:39</t>
-  </si>
-  <si>
-    <t>lab:40</t>
-  </si>
-  <si>
-    <t>lab:41</t>
-  </si>
-  <si>
-    <t>lab:42</t>
-  </si>
-  <si>
-    <t>lab:43</t>
-  </si>
-  <si>
-    <t>lab:44</t>
-  </si>
-  <si>
-    <t>lab:45</t>
-  </si>
-  <si>
-    <t>lab:46</t>
-  </si>
-  <si>
-    <t>lab:47</t>
-  </si>
-  <si>
-    <t>lab:48</t>
-  </si>
-  <si>
-    <t>lab:49</t>
-  </si>
-  <si>
-    <t>lab:50</t>
-  </si>
-  <si>
-    <t>lab:51</t>
-  </si>
-  <si>
-    <t>lab:52</t>
-  </si>
-  <si>
-    <t>lab:53</t>
-  </si>
-  <si>
-    <t>lab:54</t>
-  </si>
-  <si>
-    <t>lab:55</t>
-  </si>
-  <si>
-    <t>lab:56</t>
-  </si>
-  <si>
-    <t>lab:57</t>
-  </si>
-  <si>
-    <t>lab:58</t>
-  </si>
-  <si>
-    <t>lab:59</t>
-  </si>
-  <si>
-    <t>lab:60</t>
-  </si>
-  <si>
-    <t>lab:61</t>
-  </si>
-  <si>
-    <t>lab:62</t>
-  </si>
-  <si>
-    <t>lab:63</t>
-  </si>
-  <si>
-    <t>lab:64</t>
-  </si>
-  <si>
-    <t>lab:65</t>
-  </si>
-  <si>
-    <t>lab:66</t>
-  </si>
-  <si>
-    <t>lab:67</t>
-  </si>
-  <si>
-    <t>lab:68</t>
-  </si>
-  <si>
-    <t>lab:69</t>
-  </si>
-  <si>
-    <t>lab:70</t>
-  </si>
-  <si>
-    <t>lab:71</t>
-  </si>
-  <si>
-    <t>lab:72</t>
-  </si>
-  <si>
-    <t>lab:73</t>
-  </si>
-  <si>
-    <t>lab:74</t>
-  </si>
-  <si>
-    <t>lab:75</t>
-  </si>
-  <si>
-    <t>lab:76</t>
-  </si>
-  <si>
-    <t>lab:77</t>
-  </si>
-  <si>
-    <t>lab:78</t>
-  </si>
-  <si>
-    <t>lab:79</t>
-  </si>
-  <si>
-    <t>lab:80</t>
-  </si>
-  <si>
-    <t>lab:81</t>
-  </si>
-  <si>
-    <t>lab:82</t>
-  </si>
-  <si>
-    <t>lab:83</t>
-  </si>
-  <si>
-    <t>lab:84</t>
-  </si>
-  <si>
-    <t>lab:85</t>
-  </si>
-  <si>
-    <t>lab:86</t>
-  </si>
-  <si>
-    <t>lab:87</t>
-  </si>
-  <si>
-    <t>lab:88</t>
-  </si>
-  <si>
-    <t>lab:89</t>
-  </si>
-  <si>
-    <t>lab:90</t>
-  </si>
-  <si>
-    <t>lab:91</t>
-  </si>
-  <si>
-    <t>lab:92</t>
-  </si>
-  <si>
-    <t>lab:93</t>
-  </si>
-  <si>
-    <t>lab:94</t>
-  </si>
-  <si>
-    <t>lab:95</t>
-  </si>
-  <si>
-    <t>lab:96</t>
-  </si>
-  <si>
-    <t>lab:97</t>
-  </si>
-  <si>
-    <t>pon:0</t>
-  </si>
-  <si>
-    <t>pon:1</t>
-  </si>
-  <si>
-    <t>pon:2</t>
-  </si>
-  <si>
-    <t>pon:3</t>
-  </si>
-  <si>
-    <t>pon:4</t>
-  </si>
-  <si>
-    <t>pon:5</t>
-  </si>
-  <si>
-    <t>pon:6</t>
-  </si>
-  <si>
-    <t>pon:7</t>
-  </si>
-  <si>
-    <t>pon:8</t>
-  </si>
-  <si>
-    <t>pon:9</t>
-  </si>
-  <si>
-    <t>pon:10</t>
-  </si>
-  <si>
-    <t>pon:11</t>
-  </si>
-  <si>
-    <t>pon:12</t>
-  </si>
-  <si>
-    <t>pon:13</t>
-  </si>
-  <si>
-    <t>pon:14</t>
-  </si>
-  <si>
-    <t>pon:15</t>
-  </si>
-  <si>
-    <t>pon:16</t>
-  </si>
-  <si>
-    <t>pon:17</t>
-  </si>
-  <si>
-    <t>pon:18</t>
-  </si>
-  <si>
-    <t>pon:19</t>
-  </si>
-  <si>
-    <t>pon:20</t>
-  </si>
-  <si>
-    <t>pon:21</t>
-  </si>
-  <si>
-    <t>pon:22</t>
-  </si>
-  <si>
-    <t>pon:23</t>
-  </si>
-  <si>
-    <t>pon:24</t>
-  </si>
-  <si>
-    <t>pon:25</t>
-  </si>
-  <si>
-    <t>pon:26</t>
-  </si>
-  <si>
-    <t>pon:27</t>
-  </si>
-  <si>
-    <t>pon:28</t>
-  </si>
-  <si>
-    <t>pon:29</t>
-  </si>
-  <si>
-    <t>pon:30</t>
-  </si>
-  <si>
-    <t>pon:31</t>
-  </si>
-  <si>
-    <t>pon:32</t>
-  </si>
-  <si>
-    <t>pon:33</t>
-  </si>
-  <si>
-    <t>pon:34</t>
-  </si>
-  <si>
-    <t>pon:35</t>
-  </si>
-  <si>
-    <t>pon:36</t>
-  </si>
-  <si>
-    <t>pon:37</t>
-  </si>
-  <si>
-    <t>pon:38</t>
-  </si>
-  <si>
-    <t>pon:39</t>
-  </si>
-  <si>
-    <t>pon:40</t>
-  </si>
-  <si>
-    <t>pon:41</t>
-  </si>
-  <si>
-    <t>pon:42</t>
-  </si>
-  <si>
-    <t>pon:43</t>
-  </si>
-  <si>
-    <t>pon:44</t>
-  </si>
-  <si>
-    <t>pon:45</t>
-  </si>
-  <si>
-    <t>pon:46</t>
-  </si>
-  <si>
-    <t>pon:47</t>
-  </si>
-  <si>
-    <t>pon:48</t>
-  </si>
-  <si>
-    <t>pon:49</t>
-  </si>
-  <si>
-    <t>pon:50</t>
-  </si>
-  <si>
-    <t>pon:51</t>
-  </si>
-  <si>
-    <t>pon:52</t>
-  </si>
-  <si>
-    <t>pon:53</t>
-  </si>
-  <si>
-    <t>pon:54</t>
-  </si>
-  <si>
-    <t>pon:55</t>
-  </si>
-  <si>
-    <t>pon:56</t>
-  </si>
-  <si>
-    <t>pon:57</t>
-  </si>
-  <si>
-    <t>pon:58</t>
-  </si>
-  <si>
-    <t>pon:59</t>
-  </si>
-  <si>
-    <t>pon:60</t>
-  </si>
-  <si>
-    <t>pon:61</t>
-  </si>
-  <si>
-    <t>pon:62</t>
-  </si>
-  <si>
-    <t>pon:63</t>
-  </si>
-  <si>
-    <t>pon:64</t>
-  </si>
-  <si>
-    <t>pon:65</t>
-  </si>
-  <si>
-    <t>pon:66</t>
-  </si>
-  <si>
-    <t>pon:67</t>
-  </si>
-  <si>
-    <t>pon:68</t>
-  </si>
-  <si>
-    <t>pon:69</t>
-  </si>
-  <si>
-    <t>pon:70</t>
-  </si>
-  <si>
-    <t>pon:71</t>
-  </si>
-  <si>
-    <t>pon:72</t>
-  </si>
-  <si>
-    <t>pon:73</t>
-  </si>
-  <si>
-    <t>pon:74</t>
-  </si>
-  <si>
-    <t>pon:75</t>
-  </si>
-  <si>
-    <t>pon:76</t>
-  </si>
-  <si>
-    <t>pon:77</t>
-  </si>
-  <si>
-    <t>pon:78</t>
-  </si>
-  <si>
-    <t>pon:79</t>
-  </si>
-  <si>
-    <t>pon:80</t>
-  </si>
-  <si>
-    <t>pon:81</t>
-  </si>
-  <si>
-    <t>pon:82</t>
-  </si>
-  <si>
-    <t>pon:83</t>
-  </si>
-  <si>
-    <t>pon:84</t>
-  </si>
-  <si>
-    <t>pon:85</t>
-  </si>
-  <si>
-    <t>pon:86</t>
-  </si>
-  <si>
-    <t>pon:87</t>
-  </si>
-  <si>
-    <t>pon:88</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>201650 - Enchante Accessories, Inc</t>
-  </si>
-  <si>
-    <t>326461 - NIKE INC</t>
-  </si>
-  <si>
-    <t>326852 - NIKE SHOES</t>
-  </si>
-  <si>
-    <t>43391058 - White Mountain</t>
-  </si>
-  <si>
-    <t>496464 - POLO BY RALPH LAUREN HOSIERY</t>
-  </si>
-  <si>
-    <t>43432102 - Conair LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43391270 - ADIDAS </t>
-  </si>
-  <si>
-    <t>43423298 - UNDER ARMOUR</t>
-  </si>
-  <si>
-    <t>43405653 - Revman International Inc.</t>
-  </si>
-  <si>
-    <t>43397382 - POLO RALPH LAUREN</t>
-  </si>
-  <si>
-    <t>LADIES HOSIERY</t>
-  </si>
-  <si>
-    <t>MISSY HVYWT</t>
-  </si>
-  <si>
-    <t>PLUS MS LTWT SLPWR</t>
-  </si>
-  <si>
-    <t>Mens Slippers</t>
-  </si>
-  <si>
-    <t>Boys Shoes</t>
-  </si>
-  <si>
-    <t>BEAUTY</t>
-  </si>
-  <si>
-    <t>FRAGRANCES</t>
-  </si>
-  <si>
-    <t>WELLNESS</t>
-  </si>
-  <si>
-    <t>Ladies Athletic</t>
-  </si>
-  <si>
-    <t>WINDOW TREATMENTS</t>
-  </si>
-  <si>
-    <t>Lauren Ralph Lauren</t>
-  </si>
-  <si>
-    <t>Polo Ralph Lauren</t>
-  </si>
-  <si>
-    <t>Ralph Lauren</t>
-  </si>
-  <si>
-    <t>Nike Golf</t>
-  </si>
-  <si>
-    <t>Nike Swim</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nike Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jordan/Nike Air</t>
-  </si>
-  <si>
-    <t>Home Essentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Madden</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Madden Girl</t>
-  </si>
-  <si>
-    <t>No Size</t>
-  </si>
-  <si>
-    <t>6.75</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>.5OZ</t>
-  </si>
-  <si>
-    <t>0-12M</t>
-  </si>
-  <si>
-    <t>15mm</t>
-  </si>
-  <si>
-    <t>16"-18"</t>
-  </si>
-  <si>
-    <t>XS</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>37/38</t>
-  </si>
-  <si>
-    <t>Upfront</t>
-  </si>
-  <si>
-    <t>Closeout</t>
-  </si>
-  <si>
-    <t>Piece Goods​</t>
+    <t>ven:44</t>
+  </si>
+  <si>
+    <t>ven:45</t>
+  </si>
+  <si>
+    <t>ven:46</t>
+  </si>
+  <si>
+    <t>ven:47</t>
+  </si>
+  <si>
+    <t>ven:48</t>
+  </si>
+  <si>
+    <t>ven:49</t>
+  </si>
+  <si>
+    <t>ven:50</t>
+  </si>
+  <si>
+    <t>ven:51</t>
+  </si>
+  <si>
+    <t>ven:52</t>
+  </si>
+  <si>
+    <t>ven:53</t>
+  </si>
+  <si>
+    <t>ven:54</t>
+  </si>
+  <si>
+    <t>ven:55</t>
+  </si>
+  <si>
+    <t>ven:56</t>
+  </si>
+  <si>
+    <t>ven:57</t>
+  </si>
+  <si>
+    <t>ven:58</t>
+  </si>
+  <si>
+    <t>ven:59</t>
+  </si>
+  <si>
+    <t>ven:60</t>
+  </si>
+  <si>
+    <t>ven:61</t>
+  </si>
+  <si>
+    <t>ven:62</t>
+  </si>
+  <si>
+    <t>ven:63</t>
+  </si>
+  <si>
+    <t>ven:64</t>
+  </si>
+  <si>
+    <t>ven:65</t>
+  </si>
+  <si>
+    <t>ven:66</t>
+  </si>
+  <si>
+    <t>ven:67</t>
+  </si>
+  <si>
+    <t>ven:68</t>
+  </si>
+  <si>
+    <t>ven:69</t>
+  </si>
+  <si>
+    <t>ven:70</t>
+  </si>
+  <si>
+    <t>ven:71</t>
+  </si>
+  <si>
+    <t>ven:72</t>
+  </si>
+  <si>
+    <t>ven:73</t>
+  </si>
+  <si>
+    <t>ven:74</t>
+  </si>
+  <si>
+    <t>ven:75</t>
+  </si>
+  <si>
+    <t>ven:76</t>
+  </si>
+  <si>
+    <t>ven:77</t>
+  </si>
+  <si>
+    <t>ven:78</t>
+  </si>
+  <si>
+    <t>ven:79</t>
+  </si>
+  <si>
+    <t>ven:80</t>
+  </si>
+  <si>
+    <t>ven:81</t>
+  </si>
+  <si>
+    <t>ven:82</t>
+  </si>
+  <si>
+    <t>ven:83</t>
+  </si>
+  <si>
+    <t>ven:84</t>
+  </si>
+  <si>
+    <t>ven:85</t>
+  </si>
+  <si>
+    <t>ven:86</t>
+  </si>
+  <si>
+    <t>ven:87</t>
+  </si>
+  <si>
+    <t>ven:88</t>
+  </si>
+  <si>
+    <t>ven:89</t>
   </si>
 </sst>
 </file>
@@ -6493,7 +6274,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
-  <dimension ref="A1:CV103"/>
+  <dimension ref="A1:CV97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -7799,7 +7580,7 @@
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
       <c r="AC5" t="n" s="36">
-        <v>99.38821754547749</v>
+        <v>37.49605362357789</v>
       </c>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -7875,2094 +7656,2007 @@
     </row>
     <row r="6">
       <c r="B6" t="n" s="34">
-        <v>98.52292277781774</v>
+        <v>71.80033584831301</v>
       </c>
       <c r="C6" t="s" s="84">
+        <v>368</v>
+      </c>
+      <c r="D6" t="n" s="75">
+        <v>15.848560676255785</v>
+      </c>
+      <c r="E6" t="n" s="76">
+        <v>13.266144832930959</v>
+      </c>
+      <c r="F6" t="n" s="76">
+        <v>43.01798234476074</v>
+      </c>
+      <c r="G6" t="s" s="77">
+        <v>268</v>
+      </c>
+      <c r="H6" t="n" s="78">
+        <v>64.54611475997552</v>
+      </c>
+      <c r="I6" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J6" t="s" s="36">
         <v>250</v>
       </c>
-      <c r="D6" t="s" s="75">
-        <v>294</v>
-      </c>
-      <c r="E6" t="n" s="76">
-        <v>30.34952270748129</v>
-      </c>
-      <c r="F6" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G6" t="n" s="77">
-        <v>31.359052698722202</v>
-      </c>
-      <c r="H6" t="s" s="78">
-        <v>392</v>
-      </c>
-      <c r="I6" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J6" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K6" t="n" s="36">
-        <v>49.583684046730056</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L6" t="n" s="36">
-        <v>47.20510775277603</v>
-      </c>
-      <c r="M6" t="n" s="36">
-        <v>38.99640828030358</v>
+        <v>81.1844892764332</v>
+      </c>
+      <c r="M6" t="s" s="36">
+        <v>351</v>
       </c>
       <c r="AC6" t="n" s="36">
-        <v>36.26618920447227</v>
+        <v>74.038869464633</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n" s="34">
-        <v>25.841479092038565</v>
+        <v>69.86149281996916</v>
       </c>
       <c r="C7" t="s" s="84">
+        <v>369</v>
+      </c>
+      <c r="D7" t="n" s="75">
+        <v>10.63128953634248</v>
+      </c>
+      <c r="E7" t="n" s="76">
+        <v>20.988066662526716</v>
+      </c>
+      <c r="F7" t="n" s="76">
+        <v>91.50608945774047</v>
+      </c>
+      <c r="G7" t="s" s="77">
+        <v>269</v>
+      </c>
+      <c r="H7" t="n" s="78">
+        <v>73.16261024905758</v>
+      </c>
+      <c r="I7" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J7" t="s" s="36">
         <v>251</v>
       </c>
-      <c r="D7" t="s" s="75">
-        <v>295</v>
-      </c>
-      <c r="E7" t="n" s="76">
-        <v>9.613815982851037</v>
-      </c>
-      <c r="F7" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G7" t="n" s="77">
-        <v>80.22660618553962</v>
-      </c>
-      <c r="H7" t="s" s="78">
-        <v>393</v>
-      </c>
-      <c r="I7" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J7" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K7" t="n" s="36">
-        <v>36.27505553976415</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L7" t="n" s="36">
-        <v>21.923765380326355</v>
-      </c>
-      <c r="M7" t="n" s="36">
-        <v>90.73593899567362</v>
+        <v>41.39332163882198</v>
+      </c>
+      <c r="M7" t="s" s="36">
+        <v>352</v>
       </c>
       <c r="AC7" t="n" s="36">
-        <v>58.73373702714265</v>
+        <v>25.954233324990582</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n" s="34">
-        <v>74.16849160472458</v>
+        <v>49.50940106311009</v>
       </c>
       <c r="C8" t="s" s="84">
+        <v>370</v>
+      </c>
+      <c r="D8" t="n" s="75">
+        <v>15.702678609337262</v>
+      </c>
+      <c r="E8" t="n" s="76">
+        <v>4.43863353157089</v>
+      </c>
+      <c r="F8" t="n" s="76">
+        <v>79.07078553158684</v>
+      </c>
+      <c r="G8" t="s" s="77">
+        <v>270</v>
+      </c>
+      <c r="H8" t="n" s="78">
+        <v>21.468151070581186</v>
+      </c>
+      <c r="I8" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J8" t="s" s="36">
         <v>252</v>
       </c>
-      <c r="D8" t="s" s="75">
-        <v>296</v>
-      </c>
-      <c r="E8" t="n" s="76">
-        <v>78.19827728710564</v>
-      </c>
-      <c r="F8" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G8" t="n" s="77">
-        <v>77.4117139933034</v>
-      </c>
-      <c r="H8" t="s" s="78">
-        <v>394</v>
-      </c>
-      <c r="I8" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J8" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K8" t="n" s="36">
-        <v>25.00411039997753</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L8" t="n" s="36">
-        <v>74.09643843022836</v>
-      </c>
-      <c r="M8" t="n" s="36">
-        <v>1.4330109914957534</v>
+        <v>51.98360314751245</v>
+      </c>
+      <c r="M8" t="s" s="36">
+        <v>353</v>
       </c>
       <c r="AC8" t="n" s="36">
-        <v>42.34759859954411</v>
+        <v>67.40637358047829</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n" s="34">
-        <v>67.85179904337268</v>
+        <v>6.855215310232044</v>
       </c>
       <c r="C9" t="s" s="84">
+        <v>371</v>
+      </c>
+      <c r="D9" t="n" s="75">
+        <v>19.60145400938137</v>
+      </c>
+      <c r="E9" t="n" s="76">
+        <v>30.295014538284228</v>
+      </c>
+      <c r="F9" t="n" s="76">
+        <v>60.22751481919143</v>
+      </c>
+      <c r="G9" t="s" s="77">
+        <v>271</v>
+      </c>
+      <c r="H9" t="n" s="78">
+        <v>44.73678055000342</v>
+      </c>
+      <c r="I9" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J9" t="s" s="36">
         <v>253</v>
       </c>
-      <c r="D9" t="s" s="75">
-        <v>297</v>
-      </c>
-      <c r="E9" t="n" s="76">
-        <v>57.7040413260709</v>
-      </c>
-      <c r="F9" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G9" t="n" s="77">
-        <v>53.92225544207607</v>
-      </c>
-      <c r="H9" t="s" s="78">
-        <v>395</v>
-      </c>
-      <c r="I9" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J9" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K9" t="n" s="36">
-        <v>97.31945632865006</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L9" t="n" s="36">
-        <v>98.81998451954772</v>
-      </c>
-      <c r="M9" t="n" s="36">
-        <v>3.939720236328581</v>
+        <v>94.0707039346918</v>
+      </c>
+      <c r="M9" t="s" s="36">
+        <v>354</v>
       </c>
       <c r="AC9" t="n" s="36">
-        <v>41.79133315543272</v>
+        <v>82.76063411867507</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="n" s="34">
-        <v>47.731858342633025</v>
+        <v>55.92628840530529</v>
       </c>
       <c r="C10" t="s" s="84">
+        <v>372</v>
+      </c>
+      <c r="D10" t="n" s="75">
+        <v>21.739470520309755</v>
+      </c>
+      <c r="E10" t="n" s="76">
+        <v>41.401529361204425</v>
+      </c>
+      <c r="F10" t="n" s="76">
+        <v>3.053470933985647</v>
+      </c>
+      <c r="G10" t="s" s="77">
+        <v>272</v>
+      </c>
+      <c r="H10" t="n" s="78">
+        <v>9.939881176489362</v>
+      </c>
+      <c r="I10" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J10" t="s" s="36">
         <v>254</v>
       </c>
-      <c r="D10" t="s" s="75">
-        <v>298</v>
-      </c>
-      <c r="E10" t="n" s="76">
-        <v>28.75442646926786</v>
-      </c>
-      <c r="F10" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G10" t="n" s="77">
-        <v>29.16425887782321</v>
-      </c>
-      <c r="H10" t="s" s="78">
-        <v>396</v>
-      </c>
-      <c r="I10" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J10" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K10" t="n" s="36">
-        <v>8.341918162587426</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L10" t="n" s="36">
-        <v>98.48479922256216</v>
-      </c>
-      <c r="M10" t="n" s="36">
-        <v>37.262499190282675</v>
+        <v>43.45031668577957</v>
+      </c>
+      <c r="M10" t="s" s="36">
+        <v>355</v>
       </c>
       <c r="AC10" t="n" s="36">
-        <v>59.117803219132036</v>
+        <v>89.71107134204728</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="n" s="34">
-        <v>77.30567042828375</v>
+        <v>22.43249965976296</v>
       </c>
       <c r="C11" t="s" s="84">
+        <v>373</v>
+      </c>
+      <c r="D11" t="n" s="75">
+        <v>20.102387129127642</v>
+      </c>
+      <c r="E11" t="n" s="76">
+        <v>12.245927416036405</v>
+      </c>
+      <c r="F11" t="n" s="76">
+        <v>77.78082995886425</v>
+      </c>
+      <c r="G11" t="s" s="77">
+        <v>273</v>
+      </c>
+      <c r="H11" t="n" s="78">
+        <v>82.8623400452004</v>
+      </c>
+      <c r="I11" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J11" t="s" s="36">
         <v>255</v>
       </c>
-      <c r="D11" t="s" s="75">
-        <v>299</v>
-      </c>
-      <c r="E11" t="n" s="76">
-        <v>25.13505043559272</v>
-      </c>
-      <c r="F11" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G11" t="n" s="77">
-        <v>62.53146692022361</v>
-      </c>
-      <c r="H11" t="s" s="78">
-        <v>397</v>
-      </c>
-      <c r="I11" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J11" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K11" t="n" s="36">
-        <v>18.481330579845423</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L11" t="n" s="36">
-        <v>36.452360339172515</v>
-      </c>
-      <c r="M11" t="n" s="36">
-        <v>46.298185079089016</v>
-      </c>
-      <c r="AC11" t="n" s="36">
-        <v>6.367463199821599</v>
+        <v>0.9618618589472216</v>
+      </c>
+      <c r="M11" t="s" s="36">
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="n" s="34">
-        <v>71.13708524039319</v>
+        <v>19.892480957519044</v>
       </c>
       <c r="C12" t="s" s="84">
+        <v>374</v>
+      </c>
+      <c r="D12" t="n" s="75">
+        <v>43.144341365101916</v>
+      </c>
+      <c r="E12" t="n" s="76">
+        <v>85.79015778653239</v>
+      </c>
+      <c r="F12" t="n" s="76">
+        <v>90.05716869829831</v>
+      </c>
+      <c r="G12" t="s" s="77">
+        <v>274</v>
+      </c>
+      <c r="H12" t="n" s="78">
+        <v>88.20493613038867</v>
+      </c>
+      <c r="I12" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J12" t="s" s="36">
         <v>256</v>
       </c>
-      <c r="D12" t="s" s="75">
-        <v>300</v>
-      </c>
-      <c r="E12" t="n" s="76">
-        <v>55.20400241300085</v>
-      </c>
-      <c r="F12" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G12" t="n" s="77">
-        <v>98.84224703698649</v>
-      </c>
-      <c r="H12" t="s" s="78">
-        <v>398</v>
-      </c>
-      <c r="I12" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J12" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K12" t="n" s="36">
-        <v>3.779599592453542</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L12" t="n" s="36">
-        <v>14.234660685231038</v>
-      </c>
-      <c r="M12" t="n" s="36">
-        <v>79.38486644665062</v>
-      </c>
-      <c r="AC12" t="n" s="36">
-        <v>37.60790608431851</v>
+        <v>52.6720401801776</v>
+      </c>
+      <c r="M12" t="s" s="36">
+        <v>357</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="n" s="34">
-        <v>56.101550413418444</v>
+        <v>40.797169453684724</v>
       </c>
       <c r="C13" t="s" s="84">
+        <v>375</v>
+      </c>
+      <c r="D13" t="n" s="75">
+        <v>37.693368335858764</v>
+      </c>
+      <c r="E13" t="n" s="76">
+        <v>1.7955373849345535</v>
+      </c>
+      <c r="F13" t="n" s="76">
+        <v>17.593874946301057</v>
+      </c>
+      <c r="G13" t="s" s="77">
+        <v>275</v>
+      </c>
+      <c r="H13" t="n" s="78">
+        <v>94.47741319946536</v>
+      </c>
+      <c r="I13" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J13" t="s" s="36">
         <v>257</v>
       </c>
-      <c r="D13" t="s" s="75">
-        <v>301</v>
-      </c>
-      <c r="E13" t="n" s="76">
-        <v>12.642951927722802</v>
-      </c>
-      <c r="F13" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G13" t="n" s="77">
-        <v>55.252120947710424</v>
-      </c>
-      <c r="H13" t="s" s="78">
-        <v>399</v>
-      </c>
-      <c r="I13" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J13" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K13" t="n" s="36">
-        <v>15.168611588762182</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L13" t="n" s="36">
-        <v>97.33086715418904</v>
-      </c>
-      <c r="AC13" t="n" s="36">
-        <v>49.398873790524945</v>
+        <v>1.3507904859204722</v>
+      </c>
+      <c r="M13" t="s" s="36">
+        <v>358</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="n" s="34">
-        <v>66.69649447011837</v>
+        <v>19.707869068774198</v>
       </c>
       <c r="C14" t="s" s="84">
+        <v>376</v>
+      </c>
+      <c r="D14" t="n" s="75">
+        <v>1.0420688462368988</v>
+      </c>
+      <c r="E14" t="n" s="76">
+        <v>20.307036588195835</v>
+      </c>
+      <c r="F14" t="n" s="76">
+        <v>15.842497065916383</v>
+      </c>
+      <c r="G14" t="s" s="77">
+        <v>276</v>
+      </c>
+      <c r="H14" t="n" s="78">
+        <v>79.14712153562944</v>
+      </c>
+      <c r="I14" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J14" t="s" s="36">
         <v>258</v>
       </c>
-      <c r="D14" t="s" s="75">
-        <v>302</v>
-      </c>
-      <c r="E14" t="n" s="76">
-        <v>88.7488915673344</v>
-      </c>
-      <c r="F14" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G14" t="n" s="77">
-        <v>50.67508581262303</v>
-      </c>
-      <c r="H14" t="s" s="78">
-        <v>400</v>
-      </c>
-      <c r="I14" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J14" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K14" t="n" s="36">
-        <v>11.60409057032844</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L14" t="n" s="36">
-        <v>84.61614896888857</v>
-      </c>
-      <c r="AC14" t="n" s="36">
-        <v>82.86075096166591</v>
+        <v>23.553014566353113</v>
+      </c>
+      <c r="M14" t="s" s="36">
+        <v>359</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="n" s="34">
-        <v>73.78286790253156</v>
+        <v>5.043438419072843</v>
       </c>
       <c r="C15" t="s" s="84">
+        <v>377</v>
+      </c>
+      <c r="D15" t="n" s="75">
+        <v>73.13866264289369</v>
+      </c>
+      <c r="E15" t="n" s="76">
+        <v>97.15949220080473</v>
+      </c>
+      <c r="F15" t="n" s="76">
+        <v>57.050238859088665</v>
+      </c>
+      <c r="G15" t="s" s="77">
+        <v>277</v>
+      </c>
+      <c r="H15" t="n" s="78">
+        <v>18.751163725509823</v>
+      </c>
+      <c r="I15" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J15" t="s" s="36">
         <v>259</v>
       </c>
-      <c r="D15" t="s" s="75">
-        <v>303</v>
-      </c>
-      <c r="E15" t="n" s="76">
-        <v>1.2075102557199013</v>
-      </c>
-      <c r="F15" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G15" t="n" s="77">
-        <v>36.90753298878473</v>
-      </c>
-      <c r="H15" t="s" s="78">
-        <v>401</v>
-      </c>
-      <c r="I15" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J15" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K15" t="n" s="36">
-        <v>3.573642218823714</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L15" t="n" s="36">
-        <v>81.5377220866923</v>
-      </c>
-      <c r="AC15" t="n" s="36">
-        <v>93.33087984659136</v>
+        <v>37.73512445422709</v>
+      </c>
+      <c r="M15" t="s" s="36">
+        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="n" s="34">
-        <v>83.73784899127087</v>
+        <v>5.907581600659972</v>
       </c>
       <c r="C16" t="s" s="84">
+        <v>378</v>
+      </c>
+      <c r="D16" t="n" s="75">
+        <v>42.92900279401076</v>
+      </c>
+      <c r="E16" t="n" s="76">
+        <v>25.33215239585499</v>
+      </c>
+      <c r="F16" t="n" s="76">
+        <v>67.13439897593895</v>
+      </c>
+      <c r="G16" t="s" s="77">
+        <v>278</v>
+      </c>
+      <c r="H16" t="n" s="78">
+        <v>90.86241014724827</v>
+      </c>
+      <c r="I16" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J16" t="s" s="36">
         <v>260</v>
       </c>
-      <c r="D16" t="s" s="75">
-        <v>304</v>
-      </c>
-      <c r="E16" t="n" s="76">
-        <v>44.23552052269589</v>
-      </c>
-      <c r="F16" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G16" t="n" s="77">
-        <v>98.12990937626664</v>
-      </c>
-      <c r="H16" t="s" s="78">
-        <v>402</v>
-      </c>
-      <c r="I16" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J16" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K16" t="n" s="36">
-        <v>74.44714286792272</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L16" t="n" s="36">
-        <v>6.3684752303799</v>
-      </c>
-      <c r="AC16" t="n" s="36">
-        <v>16.731743474138494</v>
+        <v>76.39289938569014</v>
+      </c>
+      <c r="M16" t="s" s="36">
+        <v>361</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="n" s="34">
-        <v>71.76740189440076</v>
+        <v>38.934067699078426</v>
       </c>
       <c r="C17" t="s" s="84">
+        <v>379</v>
+      </c>
+      <c r="D17" t="n" s="75">
+        <v>38.24033410435398</v>
+      </c>
+      <c r="E17" t="n" s="76">
+        <v>23.633543720593863</v>
+      </c>
+      <c r="G17" t="s" s="77">
+        <v>279</v>
+      </c>
+      <c r="H17" t="n" s="78">
+        <v>75.4279097849667</v>
+      </c>
+      <c r="I17" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J17" t="s" s="36">
         <v>261</v>
       </c>
-      <c r="D17" t="s" s="75">
-        <v>305</v>
-      </c>
-      <c r="E17" t="n" s="76">
-        <v>31.23123932401096</v>
-      </c>
-      <c r="F17" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G17" t="n" s="77">
-        <v>7.76117260875937</v>
-      </c>
-      <c r="H17" t="s" s="78">
-        <v>403</v>
-      </c>
-      <c r="I17" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J17" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K17" t="n" s="36">
-        <v>41.252118302579134</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L17" t="n" s="36">
-        <v>90.77275369940618</v>
-      </c>
-      <c r="AC17" t="n" s="36">
-        <v>38.39328825774319</v>
+        <v>55.2267474511263</v>
+      </c>
+      <c r="M17" t="s" s="36">
+        <v>362</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="n" s="34">
-        <v>11.113747224337867</v>
+        <v>99.9783575411836</v>
       </c>
       <c r="C18" t="s" s="84">
+        <v>380</v>
+      </c>
+      <c r="D18" t="n" s="75">
+        <v>9.633540158449383</v>
+      </c>
+      <c r="E18" t="n" s="76">
+        <v>90.49506208274167</v>
+      </c>
+      <c r="G18" t="s" s="77">
+        <v>280</v>
+      </c>
+      <c r="H18" t="n" s="78">
+        <v>76.1731340749763</v>
+      </c>
+      <c r="I18" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J18" t="s" s="36">
         <v>262</v>
       </c>
-      <c r="D18" t="s" s="75">
-        <v>306</v>
-      </c>
-      <c r="E18" t="n" s="76">
-        <v>97.1088776258087</v>
-      </c>
-      <c r="F18" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G18" t="n" s="77">
-        <v>20.08847738244739</v>
-      </c>
-      <c r="H18" t="s" s="78">
-        <v>404</v>
-      </c>
-      <c r="I18" t="n" s="36">
-        <v>44964.93705337963</v>
-      </c>
-      <c r="J18" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
       <c r="K18" t="n" s="36">
-        <v>66.05848726556482</v>
+        <v>44965.70028851852</v>
       </c>
       <c r="L18" t="n" s="36">
-        <v>61.51464658614631</v>
-      </c>
-      <c r="AC18" t="n" s="36">
-        <v>42.22521446990783</v>
+        <v>18.916345340042017</v>
+      </c>
+      <c r="M18" t="s" s="36">
+        <v>363</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="n" s="34">
-        <v>28.028180032093875</v>
+        <v>21.952928368935677</v>
       </c>
       <c r="C19" t="s" s="84">
+        <v>381</v>
+      </c>
+      <c r="D19" t="n" s="75">
+        <v>13.90042859598486</v>
+      </c>
+      <c r="E19" t="n" s="76">
+        <v>80.10462772919973</v>
+      </c>
+      <c r="G19" t="s" s="77">
+        <v>281</v>
+      </c>
+      <c r="H19" t="n" s="78">
+        <v>28.592479513236356</v>
+      </c>
+      <c r="I19" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J19" t="s" s="36">
         <v>263</v>
       </c>
-      <c r="D19" t="s" s="75">
-        <v>307</v>
-      </c>
-      <c r="E19" t="n" s="76">
-        <v>73.07847021478554</v>
-      </c>
-      <c r="F19" t="n" s="76">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="G19" t="n" s="77">
-        <v>20.836676992228544</v>
-      </c>
-      <c r="H19" t="s" s="78">
-        <v>405</v>
-      </c>
-      <c r="J19" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="K19" t="n" s="36">
-        <v>26.933793593610268</v>
-      </c>
       <c r="L19" t="n" s="36">
-        <v>58.84699230929799</v>
-      </c>
-      <c r="AC19" t="n" s="36">
-        <v>66.45567595829098</v>
+        <v>77.21136164808867</v>
+      </c>
+      <c r="M19" t="s" s="36">
+        <v>364</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="n" s="34">
-        <v>2.357655322458785</v>
+        <v>78.81312975457739</v>
       </c>
       <c r="C20" t="s" s="84">
+        <v>382</v>
+      </c>
+      <c r="D20" t="n" s="75">
+        <v>52.84051876406497</v>
+      </c>
+      <c r="E20" t="n" s="76">
+        <v>84.46518551520829</v>
+      </c>
+      <c r="G20" t="s" s="77">
+        <v>282</v>
+      </c>
+      <c r="H20" t="n" s="78">
+        <v>99.14571473889167</v>
+      </c>
+      <c r="I20" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J20" t="s" s="36">
         <v>264</v>
       </c>
-      <c r="D20" t="s" s="75">
-        <v>308</v>
-      </c>
-      <c r="E20" t="n" s="76">
-        <v>19.041647969655706</v>
-      </c>
-      <c r="G20" t="n" s="77">
-        <v>38.05942093908739</v>
-      </c>
-      <c r="H20" t="s" s="78">
-        <v>406</v>
-      </c>
-      <c r="J20" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="K20" t="n" s="36">
-        <v>17.12512656870604</v>
-      </c>
       <c r="L20" t="n" s="36">
-        <v>38.07098605925937</v>
-      </c>
-      <c r="AC20" t="n" s="36">
-        <v>1.2257701246430885</v>
+        <v>71.8029831950575</v>
+      </c>
+      <c r="M20" t="s" s="36">
+        <v>365</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="n" s="34">
-        <v>9.4471900079522</v>
+        <v>41.023538019103015</v>
       </c>
       <c r="C21" t="s" s="84">
+        <v>383</v>
+      </c>
+      <c r="D21" t="n" s="75">
+        <v>45.4077018313208</v>
+      </c>
+      <c r="E21" t="n" s="76">
+        <v>96.36186548414769</v>
+      </c>
+      <c r="G21" t="s" s="77">
+        <v>283</v>
+      </c>
+      <c r="H21" t="n" s="78">
+        <v>99.16868207013091</v>
+      </c>
+      <c r="I21" t="n" s="36">
+        <v>44965.700288472224</v>
+      </c>
+      <c r="J21" t="s" s="36">
         <v>265</v>
       </c>
-      <c r="D21" t="s" s="75">
-        <v>309</v>
-      </c>
-      <c r="E21" t="n" s="76">
-        <v>26.194213638999564</v>
-      </c>
-      <c r="G21" t="n" s="77">
-        <v>82.84835109435481</v>
-      </c>
-      <c r="H21" t="s" s="78">
-        <v>407</v>
-      </c>
-      <c r="J21" t="n" s="36">
-        <v>44964.937053368056</v>
-      </c>
-      <c r="K21" t="n" s="36">
-        <v>87.62876320595274</v>
-      </c>
       <c r="L21" t="n" s="36">
-        <v>46.30194845691216</v>
-      </c>
-      <c r="AC21" t="n" s="36">
-        <v>51.922622686490314</v>
+        <v>83.9621126131608</v>
+      </c>
+      <c r="M21" t="s" s="36">
+        <v>366</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="n" s="34">
-        <v>8.309872660193385</v>
+        <v>33.300848006826</v>
       </c>
       <c r="C22" t="s" s="84">
+        <v>384</v>
+      </c>
+      <c r="D22" t="n" s="75">
+        <v>15.433697619371213</v>
+      </c>
+      <c r="E22" t="n" s="76">
+        <v>40.90933238909871</v>
+      </c>
+      <c r="G22" t="s" s="77">
+        <v>284</v>
+      </c>
+      <c r="H22" t="n" s="78">
+        <v>34.73935468889565</v>
+      </c>
+      <c r="I22" t="n" s="36">
+        <v>44965.70028849537</v>
+      </c>
+      <c r="J22" t="s" s="36">
         <v>266</v>
       </c>
-      <c r="D22" t="s" s="75">
-        <v>310</v>
-      </c>
-      <c r="E22" t="n" s="76">
-        <v>13.096962504732002</v>
-      </c>
-      <c r="G22" t="n" s="77">
-        <v>74.6283391327624</v>
-      </c>
-      <c r="H22" t="s" s="78">
-        <v>408</v>
-      </c>
-      <c r="K22" t="n" s="36">
-        <v>18.15827042516196</v>
-      </c>
       <c r="L22" t="n" s="36">
-        <v>80.04353929007333</v>
-      </c>
-      <c r="AC22" t="n" s="36">
-        <v>78.04966861496592</v>
+        <v>1.1181947274403026</v>
+      </c>
+      <c r="M22" t="s" s="36">
+        <v>367</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="n" s="34">
-        <v>65.90689897880512</v>
+        <v>47.03153691881192</v>
       </c>
       <c r="C23" t="s" s="84">
+        <v>385</v>
+      </c>
+      <c r="D23" t="n" s="75">
+        <v>82.30289541217964</v>
+      </c>
+      <c r="E23" t="n" s="76">
+        <v>85.53234096387564</v>
+      </c>
+      <c r="G23" t="s" s="77">
+        <v>285</v>
+      </c>
+      <c r="H23" t="n" s="78">
+        <v>5.825458384297832</v>
+      </c>
+      <c r="I23" t="n" s="36">
+        <v>44965.70028849537</v>
+      </c>
+      <c r="J23" t="s" s="36">
         <v>267</v>
       </c>
-      <c r="D23" t="s" s="75">
-        <v>311</v>
-      </c>
-      <c r="E23" t="n" s="76">
-        <v>84.66084770323553</v>
-      </c>
-      <c r="G23" t="n" s="77">
-        <v>88.32418231349449</v>
-      </c>
-      <c r="H23" t="s" s="78">
-        <v>409</v>
-      </c>
-      <c r="K23" t="n" s="36">
-        <v>60.430048048433925</v>
-      </c>
       <c r="L23" t="n" s="36">
-        <v>93.89352603904901</v>
-      </c>
-      <c r="AC23" t="n" s="36">
-        <v>42.36554656071551</v>
+        <v>91.23045909220998</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="n" s="34">
-        <v>50.3458147365464</v>
+        <v>38.80504221396328</v>
       </c>
       <c r="C24" t="s" s="84">
-        <v>268</v>
-      </c>
-      <c r="D24" t="s" s="75">
-        <v>312</v>
+        <v>386</v>
+      </c>
+      <c r="D24" t="n" s="75">
+        <v>23.05895716299362</v>
       </c>
       <c r="E24" t="n" s="76">
-        <v>90.0831785203403</v>
-      </c>
-      <c r="G24" t="n" s="77">
-        <v>79.40385205307615</v>
-      </c>
-      <c r="H24" t="s" s="78">
-        <v>410</v>
-      </c>
-      <c r="K24" t="n" s="36">
-        <v>72.38614137055093</v>
+        <v>36.36994912506001</v>
+      </c>
+      <c r="G24" t="s" s="77">
+        <v>286</v>
+      </c>
+      <c r="H24" t="n" s="78">
+        <v>84.27175474356883</v>
+      </c>
+      <c r="I24" t="n" s="36">
+        <v>44965.70028849537</v>
       </c>
       <c r="L24" t="n" s="36">
-        <v>96.10396973368594</v>
-      </c>
-      <c r="AC24" t="n" s="36">
-        <v>85.44573190177822</v>
+        <v>74.53883843165409</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="n" s="34">
-        <v>13.928813586938016</v>
+        <v>79.256516990562</v>
       </c>
       <c r="C25" t="s" s="84">
-        <v>269</v>
-      </c>
-      <c r="D25" t="s" s="75">
-        <v>313</v>
+        <v>387</v>
+      </c>
+      <c r="D25" t="n" s="75">
+        <v>5.803181943342118</v>
       </c>
       <c r="E25" t="n" s="76">
-        <v>38.89614674481512</v>
-      </c>
-      <c r="G25" t="n" s="77">
-        <v>14.888884412301252</v>
-      </c>
-      <c r="H25" t="s" s="78">
-        <v>411</v>
-      </c>
-      <c r="K25" t="n" s="36">
-        <v>99.26207609798423</v>
+        <v>24.523420093094362</v>
+      </c>
+      <c r="G25" t="s" s="77">
+        <v>287</v>
+      </c>
+      <c r="H25" t="n" s="78">
+        <v>42.65826290151733</v>
+      </c>
+      <c r="I25" t="n" s="36">
+        <v>44965.70028849537</v>
       </c>
       <c r="L25" t="n" s="36">
-        <v>16.34683696079451</v>
-      </c>
-      <c r="AC25" t="n" s="36">
-        <v>76.53510926432358</v>
+        <v>1.7870324446867647</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="n" s="34">
-        <v>95.83973539526501</v>
+        <v>63.46561446406278</v>
       </c>
       <c r="C26" t="s" s="84">
-        <v>270</v>
-      </c>
-      <c r="D26" t="s" s="75">
-        <v>314</v>
+        <v>388</v>
+      </c>
+      <c r="D26" t="n" s="75">
+        <v>80.20559130576387</v>
       </c>
       <c r="E26" t="n" s="76">
-        <v>95.94797113619117</v>
-      </c>
-      <c r="G26" t="n" s="77">
-        <v>5.785440773602701</v>
-      </c>
-      <c r="H26" t="s" s="78">
-        <v>412</v>
-      </c>
-      <c r="K26" t="n" s="36">
-        <v>63.888519761875806</v>
+        <v>39.95601213290867</v>
+      </c>
+      <c r="G26" t="s" s="77">
+        <v>288</v>
+      </c>
+      <c r="H26" t="n" s="78">
+        <v>56.25539576862945</v>
+      </c>
+      <c r="I26" t="n" s="36">
+        <v>44965.70028849537</v>
       </c>
       <c r="L26" t="n" s="36">
-        <v>24.563123817759024</v>
-      </c>
-      <c r="AC26" t="n" s="36">
-        <v>54.17885914556141</v>
+        <v>63.62739678635935</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="n" s="34">
-        <v>12.160883078183515</v>
+        <v>22.97966036220863</v>
       </c>
       <c r="C27" t="s" s="84">
-        <v>271</v>
-      </c>
-      <c r="D27" t="s" s="75">
-        <v>315</v>
+        <v>389</v>
+      </c>
+      <c r="D27" t="n" s="75">
+        <v>31.38342455825116</v>
       </c>
       <c r="E27" t="n" s="76">
-        <v>6.502814471921303</v>
-      </c>
-      <c r="G27" t="n" s="77">
-        <v>92.94093226204755</v>
-      </c>
-      <c r="H27" t="s" s="78">
-        <v>413</v>
-      </c>
-      <c r="K27" t="n" s="36">
-        <v>10.314483087844906</v>
+        <v>24.629282154731413</v>
+      </c>
+      <c r="G27" t="s" s="77">
+        <v>289</v>
+      </c>
+      <c r="H27" t="n" s="78">
+        <v>3.7592189667365106</v>
+      </c>
+      <c r="I27" t="n" s="36">
+        <v>44965.70028849537</v>
       </c>
       <c r="L27" t="n" s="36">
-        <v>38.69001585614406</v>
-      </c>
-      <c r="AC27" t="n" s="36">
-        <v>9.373009947671829</v>
+        <v>85.33489062209216</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="n" s="34">
-        <v>20.193349340626987</v>
+        <v>99.3924915492577</v>
       </c>
       <c r="C28" t="s" s="84">
-        <v>272</v>
-      </c>
-      <c r="D28" t="s" s="75">
-        <v>316</v>
+        <v>390</v>
+      </c>
+      <c r="D28" t="n" s="75">
+        <v>68.62319078721352</v>
       </c>
       <c r="E28" t="n" s="76">
-        <v>12.29696516266321</v>
-      </c>
-      <c r="G28" t="n" s="77">
-        <v>57.08734926583973</v>
-      </c>
-      <c r="H28" t="s" s="78">
-        <v>414</v>
-      </c>
-      <c r="K28" t="n" s="36">
-        <v>56.42300518530684</v>
+        <v>34.99656571719928</v>
+      </c>
+      <c r="G28" t="s" s="77">
+        <v>290</v>
+      </c>
+      <c r="H28" t="n" s="78">
+        <v>15.213062893856355</v>
+      </c>
+      <c r="I28" t="n" s="36">
+        <v>44965.70028849537</v>
       </c>
       <c r="L28" t="n" s="36">
-        <v>55.74580984800117</v>
-      </c>
-      <c r="AC28" t="n" s="36">
-        <v>10.35447120475197</v>
+        <v>42.917857773438385</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="n" s="34">
-        <v>16.666589095965122</v>
+        <v>58.423422215314424</v>
       </c>
       <c r="C29" t="s" s="84">
-        <v>273</v>
-      </c>
-      <c r="D29" t="s" s="75">
-        <v>317</v>
+        <v>391</v>
+      </c>
+      <c r="D29" t="n" s="75">
+        <v>20.004676706075543</v>
       </c>
       <c r="E29" t="n" s="76">
-        <v>99.36391076882013</v>
-      </c>
-      <c r="G29" t="n" s="77">
-        <v>93.64029970180223</v>
-      </c>
-      <c r="H29" t="s" s="78">
-        <v>415</v>
-      </c>
-      <c r="K29" t="n" s="36">
-        <v>40.222615585529574</v>
+        <v>41.89558165574364</v>
+      </c>
+      <c r="G29" t="s" s="77">
+        <v>291</v>
+      </c>
+      <c r="H29" t="n" s="78">
+        <v>56.873741234872014</v>
+      </c>
+      <c r="I29" t="n" s="36">
+        <v>44965.70028849537</v>
       </c>
       <c r="L29" t="n" s="36">
-        <v>66.30302013847978</v>
-      </c>
-      <c r="AC29" t="n" s="36">
-        <v>76.0233456122927</v>
+        <v>21.108958014499855</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="n" s="34">
-        <v>99.71704109112122</v>
+        <v>53.09904636758166</v>
       </c>
       <c r="C30" t="s" s="84">
-        <v>274</v>
-      </c>
-      <c r="D30" t="s" s="75">
-        <v>318</v>
+        <v>392</v>
+      </c>
+      <c r="D30" t="n" s="75">
+        <v>49.978188841820106</v>
       </c>
       <c r="E30" t="n" s="76">
-        <v>86.631753633222</v>
-      </c>
-      <c r="G30" t="n" s="77">
-        <v>90.09366422789739</v>
-      </c>
-      <c r="H30" t="s" s="78">
-        <v>416</v>
-      </c>
-      <c r="K30" t="n" s="36">
-        <v>96.62081358168686</v>
+        <v>30.531798067741722</v>
+      </c>
+      <c r="G30" t="s" s="77">
+        <v>292</v>
+      </c>
+      <c r="H30" t="n" s="78">
+        <v>5.2656750601445035</v>
+      </c>
+      <c r="I30" t="n" s="36">
+        <v>44965.70028849537</v>
       </c>
       <c r="L30" t="n" s="36">
-        <v>39.21363026665799</v>
-      </c>
-      <c r="AC30" t="n" s="36">
-        <v>70.97444516770126</v>
+        <v>82.08489070087643</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="n" s="34">
-        <v>92.75066563963655</v>
+        <v>17.89563944577778</v>
       </c>
       <c r="C31" t="s" s="84">
-        <v>275</v>
-      </c>
-      <c r="D31" t="s" s="75">
-        <v>319</v>
+        <v>393</v>
+      </c>
+      <c r="D31" t="n" s="75">
+        <v>22.49631493088812</v>
       </c>
       <c r="E31" t="n" s="76">
-        <v>2.3193568538293796</v>
-      </c>
-      <c r="G31" t="n" s="77">
-        <v>5.320329759376097</v>
-      </c>
-      <c r="H31" t="s" s="78">
-        <v>417</v>
-      </c>
-      <c r="K31" t="n" s="36">
-        <v>18.464384510398414</v>
+        <v>13.936814162306765</v>
+      </c>
+      <c r="G31" t="s" s="77">
+        <v>293</v>
+      </c>
+      <c r="H31" t="n" s="78">
+        <v>19.611169547466133</v>
       </c>
       <c r="L31" t="n" s="36">
-        <v>84.32527477711366</v>
-      </c>
-      <c r="AC31" t="n" s="36">
-        <v>2.072998404698201</v>
+        <v>16.812391274533066</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="n" s="34">
-        <v>84.00051194117079</v>
+        <v>10.200730445818284</v>
       </c>
       <c r="C32" t="s" s="84">
-        <v>276</v>
-      </c>
-      <c r="D32" t="s" s="75">
-        <v>320</v>
+        <v>394</v>
+      </c>
+      <c r="D32" t="n" s="75">
+        <v>32.31150035213469</v>
       </c>
       <c r="E32" t="n" s="76">
-        <v>10.468742793190932</v>
-      </c>
-      <c r="G32" t="n" s="77">
-        <v>78.24659663121443</v>
-      </c>
-      <c r="H32" t="s" s="78">
-        <v>418</v>
-      </c>
-      <c r="K32" t="n" s="36">
-        <v>88.1319816710034</v>
+        <v>53.61879686595644</v>
+      </c>
+      <c r="G32" t="s" s="77">
+        <v>294</v>
+      </c>
+      <c r="H32" t="n" s="78">
+        <v>89.60285774787081</v>
       </c>
       <c r="L32" t="n" s="36">
-        <v>16.643573038725044</v>
-      </c>
-      <c r="AC32" t="n" s="36">
-        <v>74.20171909975247</v>
+        <v>60.384486617975995</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="n" s="34">
-        <v>50.504767117609596</v>
+        <v>44.21335817034772</v>
       </c>
       <c r="C33" t="s" s="84">
-        <v>277</v>
-      </c>
-      <c r="D33" t="s" s="75">
-        <v>321</v>
+        <v>395</v>
+      </c>
+      <c r="D33" t="n" s="75">
+        <v>38.14764955526253</v>
       </c>
       <c r="E33" t="n" s="76">
-        <v>13.597248746977353</v>
-      </c>
-      <c r="G33" t="n" s="77">
-        <v>16.807833904955118</v>
-      </c>
-      <c r="H33" t="s" s="78">
-        <v>419</v>
-      </c>
-      <c r="K33" t="n" s="36">
-        <v>39.25391321752796</v>
+        <v>27.232252202740902</v>
+      </c>
+      <c r="G33" t="s" s="77">
+        <v>295</v>
+      </c>
+      <c r="H33" t="n" s="78">
+        <v>47.54292555705919</v>
       </c>
       <c r="L33" t="n" s="36">
-        <v>89.0701297551135</v>
+        <v>40.38949350554587</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="n" s="34">
-        <v>41.34111720315781</v>
+        <v>69.7973715996215</v>
       </c>
       <c r="C34" t="s" s="84">
-        <v>278</v>
-      </c>
-      <c r="D34" t="s" s="75">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="E34" t="n" s="76">
-        <v>8.471325561757093</v>
-      </c>
-      <c r="G34" t="n" s="77">
-        <v>44.69961890563751</v>
-      </c>
-      <c r="H34" t="s" s="78">
-        <v>420</v>
-      </c>
-      <c r="K34" t="n" s="36">
-        <v>59.09848679443913</v>
+        <v>1.3811468467660015</v>
+      </c>
+      <c r="G34" t="s" s="77">
+        <v>296</v>
+      </c>
+      <c r="H34" t="n" s="78">
+        <v>29.463561977954654</v>
       </c>
       <c r="L34" t="n" s="36">
-        <v>87.27158261933978</v>
+        <v>24.852002974085963</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="n" s="34">
-        <v>13.46872122020989</v>
+        <v>90.39348184358181</v>
       </c>
       <c r="C35" t="s" s="84">
-        <v>279</v>
-      </c>
-      <c r="D35" t="s" s="75">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="E35" t="n" s="76">
-        <v>45.11425466614553</v>
-      </c>
-      <c r="G35" t="n" s="77">
-        <v>24.903070194239906</v>
-      </c>
-      <c r="H35" t="s" s="78">
-        <v>421</v>
-      </c>
-      <c r="K35" t="n" s="36">
-        <v>71.80473372281939</v>
+        <v>11.117228971693127</v>
+      </c>
+      <c r="G35" t="s" s="77">
+        <v>297</v>
+      </c>
+      <c r="H35" t="n" s="78">
+        <v>50.95600820810717</v>
       </c>
       <c r="L35" t="n" s="36">
-        <v>14.473560420717712</v>
+        <v>74.6245380157743</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="n" s="34">
-        <v>66.5657324502926</v>
+        <v>64.44429869849199</v>
       </c>
       <c r="C36" t="s" s="84">
-        <v>280</v>
-      </c>
-      <c r="D36" t="s" s="75">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="E36" t="n" s="76">
-        <v>63.01362989762317</v>
-      </c>
-      <c r="G36" t="n" s="77">
-        <v>90.77807691653965</v>
-      </c>
-      <c r="H36" t="s" s="78">
-        <v>422</v>
-      </c>
-      <c r="K36" t="n" s="36">
-        <v>18.814535659899988</v>
+        <v>20.568547416031556</v>
+      </c>
+      <c r="G36" t="s" s="77">
+        <v>298</v>
+      </c>
+      <c r="H36" t="n" s="78">
+        <v>39.09927063659805</v>
       </c>
       <c r="L36" t="n" s="36">
-        <v>23.93740018974394</v>
+        <v>63.957499675480975</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="n" s="34">
-        <v>50.43935055207817</v>
+        <v>98.00390946315636</v>
       </c>
       <c r="C37" t="s" s="84">
-        <v>281</v>
-      </c>
-      <c r="D37" t="s" s="75">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="E37" t="n" s="76">
-        <v>7.36794514075082</v>
-      </c>
-      <c r="G37" t="n" s="77">
-        <v>87.22054169361229</v>
-      </c>
-      <c r="H37" t="s" s="78">
-        <v>423</v>
-      </c>
-      <c r="K37" t="n" s="36">
-        <v>13.65043497793591</v>
+        <v>5.428545189516331</v>
+      </c>
+      <c r="G37" t="s" s="77">
+        <v>299</v>
+      </c>
+      <c r="H37" t="n" s="78">
+        <v>89.56804175251743</v>
       </c>
       <c r="L37" t="n" s="36">
-        <v>70.30055458740291</v>
+        <v>24.877940958330523</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="n" s="34">
-        <v>36.50218865687576</v>
+        <v>69.63977761323311</v>
       </c>
       <c r="C38" t="s" s="84">
-        <v>282</v>
-      </c>
-      <c r="D38" t="s" s="75">
-        <v>326</v>
+        <v>400</v>
       </c>
       <c r="E38" t="n" s="76">
-        <v>10.667315996393146</v>
-      </c>
-      <c r="G38" t="n" s="77">
-        <v>70.42394396398664</v>
-      </c>
-      <c r="H38" t="s" s="78">
-        <v>424</v>
-      </c>
-      <c r="K38" t="n" s="36">
-        <v>96.94325755718651</v>
+        <v>9.712454055073927</v>
+      </c>
+      <c r="G38" t="s" s="77">
+        <v>300</v>
+      </c>
+      <c r="H38" t="n" s="78">
+        <v>67.55733236926855</v>
       </c>
       <c r="L38" t="n" s="36">
-        <v>57.76734018390067</v>
+        <v>26.64629204781833</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="n" s="34">
-        <v>27.74195821684462</v>
+        <v>70.81717057360541</v>
       </c>
       <c r="C39" t="s" s="84">
-        <v>283</v>
-      </c>
-      <c r="D39" t="s" s="75">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="E39" t="n" s="76">
-        <v>78.54976679768471</v>
-      </c>
-      <c r="G39" t="n" s="77">
-        <v>57.07048771867333</v>
-      </c>
-      <c r="H39" t="s" s="78">
-        <v>425</v>
-      </c>
-      <c r="K39" t="n" s="36">
-        <v>66.25276348719044</v>
+        <v>55.8096422140589</v>
+      </c>
+      <c r="G39" t="s" s="77">
+        <v>301</v>
+      </c>
+      <c r="H39" t="n" s="78">
+        <v>77.24959855578234</v>
       </c>
       <c r="L39" t="n" s="36">
-        <v>9.849289813513117</v>
+        <v>87.67940678564405</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="n" s="34">
-        <v>7.80798327562342</v>
+        <v>3.8177284159731317</v>
       </c>
       <c r="C40" t="s" s="84">
-        <v>284</v>
-      </c>
-      <c r="D40" t="s" s="75">
-        <v>328</v>
+        <v>402</v>
       </c>
       <c r="E40" t="n" s="76">
-        <v>70.99842933579744</v>
-      </c>
-      <c r="G40" t="n" s="77">
-        <v>12.462038972494016</v>
-      </c>
-      <c r="H40" t="s" s="78">
-        <v>426</v>
-      </c>
-      <c r="K40" t="n" s="36">
-        <v>63.10901595861391</v>
+        <v>18.926124646791752</v>
+      </c>
+      <c r="G40" t="s" s="77">
+        <v>302</v>
+      </c>
+      <c r="H40" t="n" s="78">
+        <v>59.26063656542575</v>
       </c>
       <c r="L40" t="n" s="36">
-        <v>58.81553378814487</v>
+        <v>9.59447205167252</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="n" s="34">
-        <v>27.994523943074125</v>
+        <v>29.409174158500896</v>
       </c>
       <c r="C41" t="s" s="84">
-        <v>285</v>
-      </c>
-      <c r="D41" t="s" s="75">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="E41" t="n" s="76">
-        <v>39.40155636202564</v>
-      </c>
-      <c r="G41" t="n" s="77">
-        <v>46.97953161824798</v>
-      </c>
-      <c r="H41" t="s" s="78">
-        <v>427</v>
-      </c>
-      <c r="K41" t="n" s="36">
-        <v>70.96231539817384</v>
+        <v>90.84940108238592</v>
+      </c>
+      <c r="G41" t="s" s="77">
+        <v>303</v>
+      </c>
+      <c r="H41" t="n" s="78">
+        <v>63.400792946341745</v>
       </c>
       <c r="L41" t="n" s="36">
-        <v>86.29674311196493</v>
+        <v>71.70848738540401</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="n" s="34">
-        <v>77.28851091183984</v>
+        <v>6.501945705879741</v>
       </c>
       <c r="C42" t="s" s="84">
-        <v>286</v>
-      </c>
-      <c r="D42" t="s" s="75">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="E42" t="n" s="76">
-        <v>16.377235051078497</v>
-      </c>
-      <c r="G42" t="n" s="77">
-        <v>25.579089601483474</v>
-      </c>
-      <c r="H42" t="s" s="78">
-        <v>428</v>
-      </c>
-      <c r="K42" t="n" s="36">
-        <v>20.54667601741359</v>
+        <v>70.72563874933924</v>
+      </c>
+      <c r="G42" t="s" s="77">
+        <v>304</v>
+      </c>
+      <c r="H42" t="n" s="78">
+        <v>57.588653194477814</v>
       </c>
       <c r="L42" t="n" s="36">
-        <v>80.52403395183907</v>
+        <v>91.3080464063351</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="n" s="34">
-        <v>37.88923092413988</v>
+        <v>0.5712324986610562</v>
       </c>
       <c r="C43" t="s" s="84">
-        <v>287</v>
-      </c>
-      <c r="D43" t="s" s="75">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="E43" t="n" s="76">
-        <v>16.975362355107716</v>
-      </c>
-      <c r="G43" t="n" s="77">
-        <v>56.279882537708104</v>
-      </c>
-      <c r="H43" t="s" s="78">
-        <v>429</v>
-      </c>
-      <c r="K43" t="n" s="36">
-        <v>16.154349081587462</v>
+        <v>29.396948683606105</v>
+      </c>
+      <c r="G43" t="s" s="77">
+        <v>305</v>
+      </c>
+      <c r="H43" t="n" s="78">
+        <v>47.3145579032875</v>
       </c>
       <c r="L43" t="n" s="36">
-        <v>95.74885428401576</v>
+        <v>66.28531415401329</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="n" s="34">
-        <v>82.73853722338134</v>
+        <v>3.17994119203846</v>
       </c>
       <c r="C44" t="s" s="84">
-        <v>288</v>
-      </c>
-      <c r="D44" t="s" s="75">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="E44" t="n" s="76">
-        <v>53.399991083918586</v>
-      </c>
-      <c r="G44" t="n" s="77">
-        <v>55.38305400931507</v>
-      </c>
-      <c r="H44" t="s" s="78">
-        <v>430</v>
-      </c>
-      <c r="K44" t="n" s="36">
-        <v>65.79889981095667</v>
+        <v>84.22697358394593</v>
+      </c>
+      <c r="G44" t="s" s="77">
+        <v>306</v>
+      </c>
+      <c r="H44" t="n" s="78">
+        <v>27.362599717710236</v>
       </c>
       <c r="L44" t="n" s="36">
-        <v>56.193461099447084</v>
+        <v>65.17478315078395</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="n" s="34">
-        <v>14.700110600705319</v>
+        <v>98.88896385399558</v>
       </c>
       <c r="C45" t="s" s="84">
-        <v>289</v>
-      </c>
-      <c r="D45" t="s" s="75">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="E45" t="n" s="76">
-        <v>33.65180440191422</v>
-      </c>
-      <c r="G45" t="n" s="77">
-        <v>76.97495908839261</v>
-      </c>
-      <c r="H45" t="s" s="78">
-        <v>431</v>
-      </c>
-      <c r="K45" t="n" s="36">
-        <v>21.733073816946767</v>
+        <v>44.50489355489915</v>
+      </c>
+      <c r="G45" t="s" s="77">
+        <v>307</v>
+      </c>
+      <c r="H45" t="n" s="78">
+        <v>56.4138727160512</v>
       </c>
       <c r="L45" t="n" s="36">
-        <v>87.68509826578325</v>
+        <v>78.30941557744467</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="n" s="34">
-        <v>68.28511916668467</v>
+        <v>54.282433748493</v>
       </c>
       <c r="C46" t="s" s="84">
-        <v>290</v>
-      </c>
-      <c r="D46" t="s" s="75">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="E46" t="n" s="76">
-        <v>52.72082365337718</v>
-      </c>
-      <c r="G46" t="n" s="77">
-        <v>7.499749195633509</v>
-      </c>
-      <c r="H46" t="s" s="78">
-        <v>432</v>
-      </c>
-      <c r="K46" t="n" s="36">
-        <v>69.80741692879886</v>
+        <v>48.55126045823993</v>
+      </c>
+      <c r="G46" t="s" s="77">
+        <v>308</v>
+      </c>
+      <c r="H46" t="n" s="78">
+        <v>60.745674416159105</v>
       </c>
       <c r="L46" t="n" s="36">
-        <v>35.875873709528605</v>
+        <v>21.088165096305435</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="n" s="34">
-        <v>83.5722054551965</v>
+        <v>84.18483804407188</v>
       </c>
       <c r="C47" t="s" s="84">
-        <v>291</v>
-      </c>
-      <c r="D47" t="s" s="75">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="E47" t="n" s="76">
-        <v>78.4055718104755</v>
-      </c>
-      <c r="G47" t="n" s="77">
-        <v>23.412918300105723</v>
-      </c>
-      <c r="H47" t="s" s="78">
-        <v>433</v>
-      </c>
-      <c r="K47" t="n" s="36">
-        <v>47.936096681401864</v>
+        <v>76.50918637256102</v>
+      </c>
+      <c r="G47" t="s" s="77">
+        <v>309</v>
+      </c>
+      <c r="H47" t="n" s="78">
+        <v>60.02202629535671</v>
       </c>
       <c r="L47" t="n" s="36">
-        <v>10.075156740764335</v>
+        <v>23.12660841129478</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="n" s="34">
-        <v>91.82695767792575</v>
+        <v>90.16225814141208</v>
       </c>
       <c r="C48" t="s" s="84">
-        <v>292</v>
-      </c>
-      <c r="D48" t="s" s="75">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="E48" t="n" s="76">
-        <v>51.8790420159433</v>
-      </c>
-      <c r="G48" t="n" s="77">
-        <v>28.12089397099321</v>
-      </c>
-      <c r="H48" t="s" s="78">
-        <v>434</v>
-      </c>
-      <c r="K48" t="n" s="36">
-        <v>3.3043797808555153</v>
+        <v>29.65567572311436</v>
+      </c>
+      <c r="G48" t="s" s="77">
+        <v>310</v>
+      </c>
+      <c r="H48" t="n" s="78">
+        <v>88.09177314364572</v>
       </c>
       <c r="L48" t="n" s="36">
-        <v>8.870822953322755</v>
+        <v>29.71253938248235</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="n" s="34">
-        <v>6.191694186936314</v>
+        <v>91.88212332184357</v>
       </c>
       <c r="C49" t="s" s="84">
-        <v>293</v>
-      </c>
-      <c r="D49" t="s" s="75">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="E49" t="n" s="76">
-        <v>70.31911390589396</v>
-      </c>
-      <c r="G49" t="n" s="77">
-        <v>54.32853188943431</v>
-      </c>
-      <c r="H49" t="s" s="78">
-        <v>435</v>
-      </c>
-      <c r="K49" t="n" s="36">
-        <v>23.29285723326725</v>
+        <v>84.82136528066823</v>
+      </c>
+      <c r="G49" t="s" s="77">
+        <v>311</v>
+      </c>
+      <c r="H49" t="n" s="78">
+        <v>55.22410610778179</v>
       </c>
       <c r="L49" t="n" s="36">
-        <v>46.31097997097046</v>
+        <v>13.639099822313172</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="n" s="34">
-        <v>22.145418646418445</v>
-      </c>
-      <c r="D50" t="s" s="75">
-        <v>338</v>
+        <v>40.97075100128627</v>
+      </c>
+      <c r="C50" t="s" s="84">
+        <v>412</v>
       </c>
       <c r="E50" t="n" s="76">
-        <v>33.930311886721064</v>
-      </c>
-      <c r="G50" t="n" s="77">
-        <v>5.558523516960134</v>
-      </c>
-      <c r="H50" t="s" s="78">
-        <v>436</v>
-      </c>
-      <c r="K50" t="n" s="36">
-        <v>41.89815993247913</v>
+        <v>80.07395214539632</v>
+      </c>
+      <c r="G50" t="s" s="77">
+        <v>312</v>
+      </c>
+      <c r="H50" t="n" s="78">
+        <v>71.27930561648716</v>
       </c>
       <c r="L50" t="n" s="36">
-        <v>48.54639393334635</v>
+        <v>79.3208577389541</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="n" s="34">
-        <v>58.77571617684947</v>
-      </c>
-      <c r="D51" t="s" s="75">
-        <v>339</v>
+        <v>99.44943757826454</v>
+      </c>
+      <c r="C51" t="s" s="84">
+        <v>413</v>
       </c>
       <c r="E51" t="n" s="76">
-        <v>48.74109808284619</v>
-      </c>
-      <c r="G51" t="n" s="77">
-        <v>11.270757666532782</v>
-      </c>
-      <c r="H51" t="s" s="78">
-        <v>437</v>
-      </c>
-      <c r="K51" t="n" s="36">
-        <v>67.57568386940976</v>
+        <v>63.217500987541996</v>
+      </c>
+      <c r="G51" t="s" s="77">
+        <v>313</v>
+      </c>
+      <c r="H51" t="n" s="78">
+        <v>9.876807449956736</v>
       </c>
       <c r="L51" t="n" s="36">
-        <v>57.61942645284586</v>
+        <v>64.73133220770548</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="n" s="34">
-        <v>82.36006193279694</v>
-      </c>
-      <c r="D52" t="s" s="75">
-        <v>340</v>
+        <v>30.708985858535144</v>
+      </c>
+      <c r="C52" t="s" s="84">
+        <v>414</v>
       </c>
       <c r="E52" t="n" s="76">
-        <v>98.75906975618761</v>
-      </c>
-      <c r="G52" t="n" s="77">
-        <v>49.06439969866475</v>
-      </c>
-      <c r="H52" t="s" s="78">
-        <v>438</v>
-      </c>
-      <c r="K52" t="n" s="36">
-        <v>10.949164632960883</v>
+        <v>51.73321898326918</v>
+      </c>
+      <c r="G52" t="s" s="77">
+        <v>314</v>
+      </c>
+      <c r="H52" t="n" s="78">
+        <v>6.679513375380141</v>
       </c>
       <c r="L52" t="n" s="36">
-        <v>47.304858367180145</v>
+        <v>13.446085726115719</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="n" s="34">
-        <v>2.615162563860529</v>
-      </c>
-      <c r="D53" t="s" s="75">
-        <v>341</v>
+        <v>3.2121761494487977</v>
+      </c>
+      <c r="C53" t="s" s="84">
+        <v>415</v>
       </c>
       <c r="E53" t="n" s="76">
-        <v>18.331193357968502</v>
-      </c>
-      <c r="G53" t="n" s="77">
-        <v>52.603432875339905</v>
-      </c>
-      <c r="H53" t="s" s="78">
-        <v>439</v>
-      </c>
-      <c r="K53" t="n" s="36">
-        <v>14.571236498273377</v>
+        <v>12.948937960830985</v>
+      </c>
+      <c r="G53" t="s" s="77">
+        <v>315</v>
+      </c>
+      <c r="H53" t="n" s="78">
+        <v>65.95757079152793</v>
       </c>
       <c r="L53" t="n" s="36">
-        <v>20.24060610338969</v>
+        <v>25.45494987133906</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="n" s="34">
-        <v>6.433120696944727</v>
-      </c>
-      <c r="D54" t="s" s="75">
+        <v>58.42732466005035</v>
+      </c>
+      <c r="C54" t="s" s="84">
+        <v>416</v>
+      </c>
+      <c r="E54" t="n" s="76">
+        <v>38.21059749678945</v>
+      </c>
+      <c r="G54" t="s" s="77">
+        <v>316</v>
+      </c>
+      <c r="H54" t="n" s="78">
+        <v>91.82254633472469</v>
+      </c>
+      <c r="L54" t="n" s="36">
+        <v>80.94218282681615</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="n" s="34">
+        <v>79.81753586818532</v>
+      </c>
+      <c r="C55" t="s" s="84">
+        <v>417</v>
+      </c>
+      <c r="E55" t="n" s="76">
+        <v>82.1268716363849</v>
+      </c>
+      <c r="G55" t="s" s="77">
+        <v>317</v>
+      </c>
+      <c r="H55" t="n" s="78">
+        <v>31.810665948492133</v>
+      </c>
+      <c r="L55" t="n" s="36">
+        <v>92.15453063168052</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="n" s="34">
+        <v>90.56338295772166</v>
+      </c>
+      <c r="C56" t="s" s="84">
+        <v>418</v>
+      </c>
+      <c r="E56" t="n" s="76">
+        <v>21.163650520194942</v>
+      </c>
+      <c r="G56" t="s" s="77">
+        <v>318</v>
+      </c>
+      <c r="H56" t="n" s="78">
+        <v>11.793320622343085</v>
+      </c>
+      <c r="L56" t="n" s="36">
+        <v>77.61082730501965</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="n" s="34">
+        <v>15.923592002041664</v>
+      </c>
+      <c r="C57" t="s" s="84">
+        <v>419</v>
+      </c>
+      <c r="E57" t="n" s="76">
+        <v>87.86238100918696</v>
+      </c>
+      <c r="G57" t="s" s="77">
+        <v>319</v>
+      </c>
+      <c r="H57" t="n" s="78">
+        <v>38.60723850752665</v>
+      </c>
+      <c r="L57" t="n" s="36">
+        <v>3.637928064938367</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="n" s="34">
+        <v>29.81205223018003</v>
+      </c>
+      <c r="C58" t="s" s="84">
+        <v>420</v>
+      </c>
+      <c r="E58" t="n" s="76">
+        <v>94.43634237894902</v>
+      </c>
+      <c r="G58" t="s" s="77">
+        <v>320</v>
+      </c>
+      <c r="H58" t="n" s="78">
+        <v>15.229242045013935</v>
+      </c>
+      <c r="L58" t="n" s="36">
+        <v>71.03817852887022</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="n" s="34">
+        <v>30.222893117147887</v>
+      </c>
+      <c r="C59" t="s" s="84">
+        <v>421</v>
+      </c>
+      <c r="E59" t="n" s="76">
+        <v>52.95460849631475</v>
+      </c>
+      <c r="G59" t="s" s="77">
+        <v>321</v>
+      </c>
+      <c r="H59" t="n" s="78">
+        <v>20.211255364125424</v>
+      </c>
+      <c r="L59" t="n" s="36">
+        <v>0.4798758645563006</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="n" s="34">
+        <v>64.84071515350897</v>
+      </c>
+      <c r="C60" t="s" s="84">
+        <v>422</v>
+      </c>
+      <c r="E60" t="n" s="76">
+        <v>43.29143461842523</v>
+      </c>
+      <c r="G60" t="s" s="77">
+        <v>322</v>
+      </c>
+      <c r="H60" t="n" s="78">
+        <v>76.38230634762336</v>
+      </c>
+      <c r="L60" t="n" s="36">
+        <v>24.987295133361354</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="n" s="34">
+        <v>32.242195409205365</v>
+      </c>
+      <c r="C61" t="s" s="84">
+        <v>423</v>
+      </c>
+      <c r="E61" t="n" s="76">
+        <v>13.953651204528839</v>
+      </c>
+      <c r="G61" t="s" s="77">
+        <v>323</v>
+      </c>
+      <c r="H61" t="n" s="78">
+        <v>38.91876889368816</v>
+      </c>
+      <c r="L61" t="n" s="36">
+        <v>59.53658440676829</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="n" s="34">
+        <v>87.78945975638389</v>
+      </c>
+      <c r="C62" t="s" s="84">
+        <v>424</v>
+      </c>
+      <c r="E62" t="n" s="76">
+        <v>71.69920246216746</v>
+      </c>
+      <c r="G62" t="s" s="77">
+        <v>324</v>
+      </c>
+      <c r="H62" t="n" s="78">
+        <v>68.98999445217632</v>
+      </c>
+      <c r="L62" t="n" s="36">
+        <v>95.4539373111901</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="n" s="34">
+        <v>62.58007328694934</v>
+      </c>
+      <c r="C63" t="s" s="84">
+        <v>425</v>
+      </c>
+      <c r="E63" t="n" s="76">
+        <v>8.685583839299127</v>
+      </c>
+      <c r="G63" t="s" s="77">
+        <v>325</v>
+      </c>
+      <c r="H63" t="n" s="78">
+        <v>16.061797902087715</v>
+      </c>
+      <c r="L63" t="n" s="36">
+        <v>20.746138657711267</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="n" s="34">
+        <v>53.08405693929679</v>
+      </c>
+      <c r="C64" t="s" s="84">
+        <v>426</v>
+      </c>
+      <c r="E64" t="n" s="76">
+        <v>80.53094364806228</v>
+      </c>
+      <c r="G64" t="s" s="77">
+        <v>326</v>
+      </c>
+      <c r="H64" t="n" s="78">
+        <v>13.677006411033243</v>
+      </c>
+      <c r="L64" t="n" s="36">
+        <v>52.72652073912989</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="n" s="34">
+        <v>16.013312222213983</v>
+      </c>
+      <c r="C65" t="s" s="84">
+        <v>427</v>
+      </c>
+      <c r="E65" t="n" s="76">
+        <v>84.3809311211041</v>
+      </c>
+      <c r="G65" t="s" s="77">
+        <v>327</v>
+      </c>
+      <c r="H65" t="n" s="78">
+        <v>6.650319280475747</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="n" s="34">
+        <v>40.95493093632528</v>
+      </c>
+      <c r="C66" t="s" s="84">
+        <v>428</v>
+      </c>
+      <c r="E66" t="n" s="76">
+        <v>88.33664028903358</v>
+      </c>
+      <c r="G66" t="s" s="77">
+        <v>328</v>
+      </c>
+      <c r="H66" t="n" s="78">
+        <v>46.349360574840595</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="n" s="34">
+        <v>40.44393604651919</v>
+      </c>
+      <c r="C67" t="s" s="84">
+        <v>429</v>
+      </c>
+      <c r="E67" t="n" s="76">
+        <v>2.024028494456187</v>
+      </c>
+      <c r="G67" t="s" s="77">
+        <v>329</v>
+      </c>
+      <c r="H67" t="n" s="78">
+        <v>53.03930310498232</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="n" s="34">
+        <v>45.577338358422494</v>
+      </c>
+      <c r="C68" t="s" s="84">
+        <v>430</v>
+      </c>
+      <c r="E68" t="n" s="76">
+        <v>65.16469877511247</v>
+      </c>
+      <c r="G68" t="s" s="77">
+        <v>330</v>
+      </c>
+      <c r="H68" t="n" s="78">
+        <v>97.67277267382991</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="n" s="34">
+        <v>35.75646420269106</v>
+      </c>
+      <c r="C69" t="s" s="84">
+        <v>431</v>
+      </c>
+      <c r="E69" t="n" s="76">
+        <v>57.13031579476293</v>
+      </c>
+      <c r="G69" t="s" s="77">
+        <v>331</v>
+      </c>
+      <c r="H69" t="n" s="78">
+        <v>62.58731154194829</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="n" s="34">
+        <v>83.36787826401921</v>
+      </c>
+      <c r="C70" t="s" s="84">
+        <v>432</v>
+      </c>
+      <c r="E70" t="n" s="76">
+        <v>81.20519940545981</v>
+      </c>
+      <c r="G70" t="s" s="77">
+        <v>332</v>
+      </c>
+      <c r="H70" t="n" s="78">
+        <v>69.43990606911086</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="n" s="34">
+        <v>3.6573445626225554</v>
+      </c>
+      <c r="C71" t="s" s="84">
+        <v>433</v>
+      </c>
+      <c r="E71" t="n" s="76">
+        <v>14.615662701895015</v>
+      </c>
+      <c r="G71" t="s" s="77">
+        <v>333</v>
+      </c>
+      <c r="H71" t="n" s="78">
+        <v>28.516731214209656</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="n" s="34">
+        <v>78.1941283950766</v>
+      </c>
+      <c r="C72" t="s" s="84">
+        <v>434</v>
+      </c>
+      <c r="E72" t="n" s="76">
+        <v>95.06712209060217</v>
+      </c>
+      <c r="G72" t="s" s="77">
+        <v>334</v>
+      </c>
+      <c r="H72" t="n" s="78">
+        <v>52.67990296254985</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="n" s="34">
+        <v>55.385586830634516</v>
+      </c>
+      <c r="C73" t="s" s="84">
+        <v>435</v>
+      </c>
+      <c r="E73" t="n" s="76">
+        <v>27.56271246658464</v>
+      </c>
+      <c r="G73" t="s" s="77">
+        <v>335</v>
+      </c>
+      <c r="H73" t="n" s="78">
+        <v>78.35333799453508</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="n" s="34">
+        <v>32.644128856341446</v>
+      </c>
+      <c r="C74" t="s" s="84">
+        <v>436</v>
+      </c>
+      <c r="E74" t="n" s="76">
+        <v>61.956900883539234</v>
+      </c>
+      <c r="G74" t="s" s="77">
+        <v>336</v>
+      </c>
+      <c r="H74" t="n" s="78">
+        <v>4.065071837274337</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="n" s="34">
+        <v>3.287934636215817</v>
+      </c>
+      <c r="C75" t="s" s="84">
+        <v>437</v>
+      </c>
+      <c r="E75" t="n" s="76">
+        <v>2.3928156381679</v>
+      </c>
+      <c r="G75" t="s" s="77">
+        <v>337</v>
+      </c>
+      <c r="H75" t="n" s="78">
+        <v>18.637241278655424</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="n" s="34">
+        <v>7.689455376680499</v>
+      </c>
+      <c r="C76" t="s" s="84">
+        <v>438</v>
+      </c>
+      <c r="E76" t="n" s="76">
+        <v>97.19571373872225</v>
+      </c>
+      <c r="G76" t="s" s="77">
+        <v>338</v>
+      </c>
+      <c r="H76" t="n" s="78">
+        <v>94.90249854959546</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="n" s="34">
+        <v>5.678836519474384</v>
+      </c>
+      <c r="C77" t="s" s="84">
+        <v>439</v>
+      </c>
+      <c r="E77" t="n" s="76">
+        <v>1.1599916048430359</v>
+      </c>
+      <c r="G77" t="s" s="77">
+        <v>339</v>
+      </c>
+      <c r="H77" t="n" s="78">
+        <v>2.843460342620663</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="n" s="34">
+        <v>65.75117216174799</v>
+      </c>
+      <c r="C78" t="s" s="84">
+        <v>440</v>
+      </c>
+      <c r="E78" t="n" s="76">
+        <v>4.243782134975616</v>
+      </c>
+      <c r="G78" t="s" s="77">
+        <v>340</v>
+      </c>
+      <c r="H78" t="n" s="78">
+        <v>73.20419747694294</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="n" s="34">
+        <v>14.75257729556424</v>
+      </c>
+      <c r="C79" t="s" s="84">
+        <v>441</v>
+      </c>
+      <c r="E79" t="n" s="76">
+        <v>64.39909766653203</v>
+      </c>
+      <c r="G79" t="s" s="77">
+        <v>341</v>
+      </c>
+      <c r="H79" t="n" s="78">
+        <v>87.97621107999758</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="n" s="34">
+        <v>57.095944122163274</v>
+      </c>
+      <c r="C80" t="s" s="84">
+        <v>442</v>
+      </c>
+      <c r="E80" t="n" s="76">
+        <v>64.10174435898169</v>
+      </c>
+      <c r="G80" t="s" s="77">
         <v>342</v>
       </c>
-      <c r="E54" t="n" s="76">
-        <v>40.837157807814194</v>
-      </c>
-      <c r="G54" t="n" s="77">
-        <v>29.38080306631079</v>
-      </c>
-      <c r="H54" t="s" s="78">
-        <v>440</v>
-      </c>
-      <c r="K54" t="n" s="36">
-        <v>86.09340881095466</v>
-      </c>
-      <c r="L54" t="n" s="36">
-        <v>36.51489727293308</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" t="s" s="75">
+      <c r="H80" t="n" s="78">
+        <v>50.51203357664289</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="n" s="34">
+        <v>83.74225726204789</v>
+      </c>
+      <c r="C81" t="s" s="84">
+        <v>443</v>
+      </c>
+      <c r="E81" t="n" s="76">
+        <v>63.25073671276673</v>
+      </c>
+      <c r="G81" t="s" s="77">
         <v>343</v>
       </c>
-      <c r="E55" t="n" s="76">
-        <v>82.6561149304178</v>
-      </c>
-      <c r="G55" t="n" s="77">
-        <v>35.997347246360626</v>
-      </c>
-      <c r="H55" t="s" s="78">
-        <v>441</v>
-      </c>
-      <c r="K55" t="n" s="36">
-        <v>45.497104710298416</v>
-      </c>
-      <c r="L55" t="n" s="36">
-        <v>7.878731334713329</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="D56" t="s" s="75">
+      <c r="H81" t="n" s="78">
+        <v>47.016370216444145</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="n" s="34">
+        <v>58.46640142493974</v>
+      </c>
+      <c r="C82" t="s" s="84">
+        <v>444</v>
+      </c>
+      <c r="E82" t="n" s="76">
+        <v>81.60457758176874</v>
+      </c>
+      <c r="G82" t="s" s="77">
         <v>344</v>
       </c>
-      <c r="E56" t="n" s="76">
-        <v>0.4349992708124639</v>
-      </c>
-      <c r="G56" t="n" s="77">
-        <v>58.204907406749726</v>
-      </c>
-      <c r="H56" t="s" s="78">
-        <v>442</v>
-      </c>
-      <c r="K56" t="n" s="36">
-        <v>47.50462149942558</v>
-      </c>
-      <c r="L56" t="n" s="36">
-        <v>42.049366056119595</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" t="s" s="75">
+      <c r="H82" t="n" s="78">
+        <v>96.87950698325582</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="n" s="34">
+        <v>12.750684086556186</v>
+      </c>
+      <c r="C83" t="s" s="84">
+        <v>445</v>
+      </c>
+      <c r="E83" t="n" s="76">
+        <v>79.57910868429376</v>
+      </c>
+      <c r="G83" t="s" s="77">
         <v>345</v>
       </c>
-      <c r="G57" t="n" s="77">
-        <v>90.03376207320399</v>
-      </c>
-      <c r="H57" t="s" s="78">
-        <v>443</v>
-      </c>
-      <c r="K57" t="n" s="36">
-        <v>94.9599217003524</v>
-      </c>
-      <c r="L57" t="n" s="36">
-        <v>22.322188633485183</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" t="s" s="75">
+      <c r="H83" t="n" s="78">
+        <v>53.7794896526815</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="n" s="34">
+        <v>81.76443713154981</v>
+      </c>
+      <c r="C84" t="s" s="84">
+        <v>446</v>
+      </c>
+      <c r="E84" t="n" s="76">
+        <v>17.247666794976134</v>
+      </c>
+      <c r="G84" t="s" s="77">
         <v>346</v>
       </c>
-      <c r="G58" t="n" s="77">
-        <v>9.03928160798374</v>
-      </c>
-      <c r="H58" t="s" s="78">
-        <v>444</v>
-      </c>
-      <c r="K58" t="n" s="36">
-        <v>91.66228476470829</v>
-      </c>
-      <c r="L58" t="n" s="36">
-        <v>45.17199030001525</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="D59" t="s" s="75">
+      <c r="H84" t="n" s="78">
+        <v>19.31045429807463</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="n" s="34">
+        <v>69.99677260478595</v>
+      </c>
+      <c r="C85" t="s" s="84">
+        <v>447</v>
+      </c>
+      <c r="E85" t="n" s="76">
+        <v>88.68741201910511</v>
+      </c>
+      <c r="G85" t="s" s="77">
         <v>347</v>
       </c>
-      <c r="G59" t="n" s="77">
-        <v>14.18485743023663</v>
-      </c>
-      <c r="H59" t="s" s="78">
-        <v>445</v>
-      </c>
-      <c r="K59" t="n" s="36">
-        <v>19.626245113055507</v>
-      </c>
-      <c r="L59" t="n" s="36">
-        <v>88.31656859318792</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="D60" t="s" s="75">
+      <c r="H85" t="n" s="78">
+        <v>64.81702086632892</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="n" s="34">
+        <v>24.399796933024675</v>
+      </c>
+      <c r="C86" t="s" s="84">
+        <v>448</v>
+      </c>
+      <c r="E86" t="n" s="76">
+        <v>75.88526644985406</v>
+      </c>
+      <c r="G86" t="s" s="77">
         <v>348</v>
       </c>
-      <c r="G60" t="n" s="77">
-        <v>71.89470045283062</v>
-      </c>
-      <c r="H60" t="s" s="78">
-        <v>446</v>
-      </c>
-      <c r="K60" t="n" s="36">
-        <v>57.04845257525283</v>
-      </c>
-      <c r="L60" t="n" s="36">
-        <v>61.943253487277275</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" t="s" s="75">
+      <c r="H86" t="n" s="78">
+        <v>19.71619419420394</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="n" s="34">
+        <v>85.47527647266028</v>
+      </c>
+      <c r="C87" t="s" s="84">
+        <v>449</v>
+      </c>
+      <c r="E87" t="n" s="76">
+        <v>16.272557551736956</v>
+      </c>
+      <c r="G87" t="s" s="77">
         <v>349</v>
       </c>
-      <c r="G61" t="n" s="77">
-        <v>79.56070066211612</v>
-      </c>
-      <c r="H61" t="s" s="78">
-        <v>447</v>
-      </c>
-      <c r="K61" t="n" s="36">
-        <v>46.4472028951968</v>
-      </c>
-      <c r="L61" t="n" s="36">
-        <v>61.449950648303464</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" t="s" s="75">
+    </row>
+    <row r="88">
+      <c r="B88" t="n" s="34">
+        <v>10.593143357678258</v>
+      </c>
+      <c r="C88" t="s" s="84">
+        <v>450</v>
+      </c>
+      <c r="E88" t="n" s="76">
+        <v>27.578665475673414</v>
+      </c>
+      <c r="G88" t="s" s="77">
         <v>350</v>
       </c>
-      <c r="G62" t="n" s="77">
-        <v>10.199873802086346</v>
-      </c>
-      <c r="H62" t="s" s="78">
-        <v>448</v>
-      </c>
-      <c r="K62" t="n" s="36">
-        <v>94.92799336586606</v>
-      </c>
-      <c r="L62" t="n" s="36">
-        <v>34.662784029253835</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="D63" t="s" s="75">
-        <v>351</v>
-      </c>
-      <c r="G63" t="n" s="77">
-        <v>45.51298152250003</v>
-      </c>
-      <c r="H63" t="s" s="78">
-        <v>449</v>
-      </c>
-      <c r="K63" t="n" s="36">
-        <v>77.59617138196438</v>
-      </c>
-      <c r="L63" t="n" s="36">
-        <v>22.727737475160538</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="D64" t="s" s="75">
-        <v>352</v>
-      </c>
-      <c r="G64" t="n" s="77">
-        <v>85.30988224739866</v>
-      </c>
-      <c r="H64" t="s" s="78">
-        <v>450</v>
-      </c>
-      <c r="K64" t="n" s="36">
-        <v>64.83531403790498</v>
-      </c>
-      <c r="L64" t="n" s="36">
-        <v>35.29298373557616</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="D65" t="s" s="75">
-        <v>353</v>
-      </c>
-      <c r="H65" t="s" s="78">
+    </row>
+    <row r="89">
+      <c r="B89" t="n" s="34">
+        <v>22.627995825466762</v>
+      </c>
+      <c r="C89" t="s" s="84">
         <v>451</v>
       </c>
-      <c r="K65" t="n" s="36">
-        <v>97.56235503925726</v>
-      </c>
-      <c r="L65" t="n" s="36">
-        <v>62.491096523795854</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="s" s="75">
-        <v>354</v>
-      </c>
-      <c r="H66" t="s" s="78">
+      <c r="E89" t="n" s="76">
+        <v>33.763176013489726</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="n" s="34">
+        <v>92.54896409245927</v>
+      </c>
+      <c r="C90" t="s" s="84">
         <v>452</v>
       </c>
-      <c r="K66" t="n" s="36">
-        <v>9.818270075667247</v>
-      </c>
-      <c r="L66" t="n" s="36">
-        <v>4.038954645154014</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="s" s="75">
-        <v>355</v>
-      </c>
-      <c r="H67" t="s" s="78">
+      <c r="E90" t="n" s="76">
+        <v>54.26781222337065</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="s" s="84">
         <v>453</v>
       </c>
-      <c r="K67" t="n" s="36">
-        <v>42.47045177802051</v>
-      </c>
-      <c r="L67" t="n" s="36">
-        <v>65.24771803581723</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" t="s" s="75">
-        <v>356</v>
-      </c>
-      <c r="H68" t="s" s="78">
+      <c r="E91" t="n" s="76">
+        <v>82.53107321576971</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="s" s="84">
         <v>454</v>
       </c>
-      <c r="K68" t="n" s="36">
-        <v>48.66191240119836</v>
-      </c>
-      <c r="L68" t="n" s="36">
-        <v>3.5782817300503478</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="s" s="75">
-        <v>357</v>
-      </c>
-      <c r="H69" t="s" s="78">
+      <c r="E92" t="n" s="76">
+        <v>28.580874488289666</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="s" s="84">
         <v>455</v>
       </c>
-      <c r="K69" t="n" s="36">
-        <v>80.10957275394979</v>
-      </c>
-      <c r="L69" t="n" s="36">
-        <v>60.77725330841146</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="s" s="75">
-        <v>358</v>
-      </c>
-      <c r="H70" t="s" s="78">
+      <c r="E93" t="n" s="76">
+        <v>5.097922379565379</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="s" s="84">
         <v>456</v>
       </c>
-      <c r="K70" t="n" s="36">
-        <v>42.578857728930544</v>
-      </c>
-      <c r="L70" t="n" s="36">
-        <v>29.68856051550822</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" t="s" s="75">
-        <v>359</v>
-      </c>
-      <c r="H71" t="s" s="78">
+      <c r="E94" t="n" s="76">
+        <v>69.32906101540588</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="s" s="84">
         <v>457</v>
       </c>
-      <c r="K71" t="n" s="36">
-        <v>52.856650719842015</v>
-      </c>
-      <c r="L71" t="n" s="36">
-        <v>84.5505726461169</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="s" s="75">
-        <v>360</v>
-      </c>
-      <c r="H72" t="s" s="78">
-        <v>458</v>
-      </c>
-      <c r="K72" t="n" s="36">
-        <v>60.11927925863395</v>
-      </c>
-      <c r="L72" t="n" s="36">
-        <v>27.62072091608433</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="s" s="75">
-        <v>361</v>
-      </c>
-      <c r="H73" t="s" s="78">
-        <v>459</v>
-      </c>
-      <c r="K73" t="n" s="36">
-        <v>35.23749556029359</v>
-      </c>
-      <c r="L73" t="n" s="36">
-        <v>10.128265074824583</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="s" s="75">
-        <v>362</v>
-      </c>
-      <c r="H74" t="s" s="78">
-        <v>460</v>
-      </c>
-      <c r="K74" t="n" s="36">
-        <v>85.79459462053394</v>
-      </c>
-      <c r="L74" t="n" s="36">
-        <v>67.48512304414672</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="s" s="75">
-        <v>363</v>
-      </c>
-      <c r="H75" t="s" s="78">
-        <v>461</v>
-      </c>
-      <c r="K75" t="n" s="36">
-        <v>97.91115236109266</v>
-      </c>
-      <c r="L75" t="n" s="36">
-        <v>59.90835917644627</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="s" s="75">
-        <v>364</v>
-      </c>
-      <c r="H76" t="s" s="78">
-        <v>462</v>
-      </c>
-      <c r="K76" t="n" s="36">
-        <v>31.16009209432711</v>
-      </c>
-      <c r="L76" t="n" s="36">
-        <v>4.689904879967932</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" t="s" s="75">
-        <v>365</v>
-      </c>
-      <c r="H77" t="s" s="78">
-        <v>463</v>
-      </c>
-      <c r="K77" t="n" s="36">
-        <v>84.08172561431286</v>
-      </c>
-      <c r="L77" t="n" s="36">
-        <v>39.567630256259754</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="D78" t="s" s="75">
-        <v>366</v>
-      </c>
-      <c r="H78" t="s" s="78">
-        <v>464</v>
-      </c>
-      <c r="K78" t="n" s="36">
-        <v>99.46049445518624</v>
-      </c>
-      <c r="L78" t="n" s="36">
-        <v>18.195169597056093</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="D79" t="s" s="75">
-        <v>367</v>
-      </c>
-      <c r="H79" t="s" s="78">
-        <v>465</v>
-      </c>
-      <c r="K79" t="n" s="36">
-        <v>40.490267457555106</v>
-      </c>
-      <c r="L79" t="n" s="36">
-        <v>61.03895950240575</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="D80" t="s" s="75">
-        <v>368</v>
-      </c>
-      <c r="H80" t="s" s="78">
-        <v>466</v>
-      </c>
-      <c r="K80" t="n" s="36">
-        <v>90.56903183711823</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="s" s="75">
-        <v>369</v>
-      </c>
-      <c r="H81" t="s" s="78">
-        <v>467</v>
-      </c>
-      <c r="K81" t="n" s="36">
-        <v>90.03418702274189</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="s" s="75">
-        <v>370</v>
-      </c>
-      <c r="H82" t="s" s="78">
-        <v>468</v>
-      </c>
-      <c r="K82" t="n" s="36">
-        <v>77.56774449076994</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="s" s="75">
-        <v>371</v>
-      </c>
-      <c r="H83" t="s" s="78">
-        <v>469</v>
-      </c>
-      <c r="K83" t="n" s="36">
-        <v>37.58156595333473</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="s" s="75">
-        <v>372</v>
-      </c>
-      <c r="H84" t="s" s="78">
-        <v>470</v>
-      </c>
-      <c r="K84" t="n" s="36">
-        <v>32.209370784907485</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="D85" t="s" s="75">
-        <v>373</v>
-      </c>
-      <c r="H85" t="s" s="78">
-        <v>471</v>
-      </c>
-      <c r="K85" t="n" s="36">
-        <v>4.634560143201605</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="D86" t="s" s="75">
-        <v>374</v>
-      </c>
-      <c r="H86" t="s" s="78">
-        <v>472</v>
-      </c>
-      <c r="K86" t="n" s="36">
-        <v>67.51724847944512</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="s" s="75">
-        <v>375</v>
-      </c>
-      <c r="H87" t="s" s="78">
-        <v>473</v>
-      </c>
-      <c r="K87" t="n" s="36">
-        <v>46.15323868738964</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="s" s="75">
-        <v>376</v>
-      </c>
-      <c r="H88" t="s" s="78">
-        <v>474</v>
-      </c>
-      <c r="K88" t="n" s="36">
-        <v>22.329087127711134</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="s" s="75">
-        <v>377</v>
-      </c>
-      <c r="H89" t="s" s="78">
-        <v>475</v>
-      </c>
-      <c r="K89" t="n" s="36">
-        <v>7.145426339339755</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="D90" t="s" s="75">
-        <v>378</v>
-      </c>
-      <c r="H90" t="s" s="78">
-        <v>476</v>
-      </c>
-      <c r="K90" t="n" s="36">
-        <v>56.64599681395865</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="D91" t="s" s="75">
-        <v>379</v>
-      </c>
-      <c r="H91" t="s" s="78">
-        <v>477</v>
-      </c>
-      <c r="K91" t="n" s="36">
-        <v>84.68822472423228</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="D92" t="s" s="75">
-        <v>380</v>
-      </c>
-      <c r="H92" t="s" s="78">
-        <v>478</v>
-      </c>
-      <c r="K92" t="n" s="36">
-        <v>6.745031047033678</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="D93" t="s" s="75">
-        <v>381</v>
-      </c>
-      <c r="H93" t="s" s="78">
-        <v>479</v>
-      </c>
-      <c r="K93" t="n" s="36">
-        <v>19.064190390376133</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="D94" t="s" s="75">
-        <v>382</v>
-      </c>
-      <c r="H94" t="s" s="78">
-        <v>480</v>
-      </c>
-      <c r="K94" t="n" s="36">
-        <v>65.24920381280798</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="D95" t="s" s="75">
-        <v>383</v>
-      </c>
-      <c r="K95" t="n" s="36">
-        <v>5.923714916011614</v>
+      <c r="E95" t="n" s="76">
+        <v>51.87990480623014</v>
       </c>
     </row>
     <row r="96">
-      <c r="D96" t="s" s="75">
-        <v>384</v>
-      </c>
-      <c r="K96" t="n" s="36">
-        <v>80.38372871301422</v>
+      <c r="E96" t="n" s="76">
+        <v>89.96894769590912</v>
       </c>
     </row>
     <row r="97">
-      <c r="D97" t="s" s="75">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="D98" t="s" s="75">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="D99" t="s" s="75">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="D100" t="s" s="75">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="D101" t="s" s="75">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="D102" t="s" s="75">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="D103" t="s" s="75">
-        <v>391</v>
+      <c r="E97" t="n" s="76">
+        <v>5.789583167930967</v>
       </c>
     </row>
   </sheetData>
@@ -9979,7 +9673,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -9989,27 +9683,25 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>5.960507509959811</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>57.30158822341417</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="A4" t="n" s="0">
-        <v>93.80816071451198</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>0.15321380318431999</v>
-      </c>
+        <v>44965.70028844907</v>
+      </c>
+      <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
     </row>
     <row r="5" spans="5:7">
       <c r="A5" t="n" s="0">
-        <v>5.375094309750061</v>
+        <v>44965.70028844907</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
@@ -10017,7 +9709,7 @@
     </row>
     <row r="6" spans="5:7">
       <c r="A6" t="n" s="0">
-        <v>33.09096960503961</v>
+        <v>44965.70028844907</v>
       </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -10025,77 +9717,327 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>75.68130333940954</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>22.840212733242858</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>89.310875189177</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>46.6184406082191</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>94.0974083352657</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>47.78438629125702</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>25.909658169082185</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>1.9880874510478042</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n" s="0">
-        <v>22.76331011679027</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n" s="0">
-        <v>63.11403269229976</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n" s="0">
-        <v>62.365014457852155</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n" s="0">
-        <v>15.625865857852938</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n" s="0">
-        <v>94.10467752339153</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n" s="0">
-        <v>40.83004371157507</v>
+        <v>44965.70028844907</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n" s="0">
-        <v>49.51890522457061</v>
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>44965.70028844907</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>44965.70028846065</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>44965.70028846065</v>
       </c>
     </row>
   </sheetData>
@@ -10112,186 +10054,78 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>481</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>488</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>498</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>508</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>518</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>528</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>0.021</v>
-      </c>
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>482</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>489</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>499</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>509</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>519</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>529</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>100.3</v>
-      </c>
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>483</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>490</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>500</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>510</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>520</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>530</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>9.275</v>
-      </c>
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>484</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>491</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>501</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>511</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>521</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>100000.734</v>
-      </c>
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="G4" s="0"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>485</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>492</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>502</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>512</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>522</v>
-      </c>
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>486</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>493</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>503</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>513</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>523</v>
-      </c>
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>487</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>494</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>504</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>514</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>524</v>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
     </row>
     <row r="8">
-      <c r="B8" t="s" s="0">
-        <v>495</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>505</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>515</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>525</v>
-      </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="0">
-        <v>496</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>506</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>516</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>526</v>
-      </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="0">
-        <v>497</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>507</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>517</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>527</v>
-      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/W-Domestic Standard Upload Template.xlsx
+++ b/W-Domestic Standard Upload Template.xlsx
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="735">
   <si>
     <t>#</t>
   </si>
@@ -1160,628 +1160,1459 @@
     <t xml:space="preserve">Shape </t>
   </si>
   <si>
-    <t>dep:0</t>
-  </si>
-  <si>
-    <t>dep:1</t>
-  </si>
-  <si>
-    <t>dep:2</t>
-  </si>
-  <si>
-    <t>dep:3</t>
-  </si>
-  <si>
-    <t>dep:4</t>
-  </si>
-  <si>
-    <t>dep:5</t>
-  </si>
-  <si>
-    <t>dep:6</t>
-  </si>
-  <si>
-    <t>dep:7</t>
-  </si>
-  <si>
-    <t>dep:8</t>
-  </si>
-  <si>
-    <t>dep:9</t>
-  </si>
-  <si>
-    <t>dep:10</t>
-  </si>
-  <si>
-    <t>dep:11</t>
-  </si>
-  <si>
-    <t>dep:12</t>
-  </si>
-  <si>
-    <t>dep:13</t>
-  </si>
-  <si>
-    <t>dep:14</t>
-  </si>
-  <si>
-    <t>dep:15</t>
-  </si>
-  <si>
-    <t>dep:16</t>
-  </si>
-  <si>
-    <t>dep:17</t>
-  </si>
-  <si>
-    <t>typ:0</t>
-  </si>
-  <si>
-    <t>typ:1</t>
-  </si>
-  <si>
-    <t>typ:2</t>
-  </si>
-  <si>
-    <t>typ:3</t>
-  </si>
-  <si>
-    <t>typ:4</t>
-  </si>
-  <si>
-    <t>typ:5</t>
-  </si>
-  <si>
-    <t>typ:6</t>
-  </si>
-  <si>
-    <t>typ:7</t>
-  </si>
-  <si>
-    <t>typ:8</t>
-  </si>
-  <si>
-    <t>typ:9</t>
-  </si>
-  <si>
-    <t>typ:10</t>
-  </si>
-  <si>
-    <t>typ:11</t>
-  </si>
-  <si>
-    <t>typ:12</t>
-  </si>
-  <si>
-    <t>typ:13</t>
-  </si>
-  <si>
-    <t>typ:14</t>
-  </si>
-  <si>
-    <t>typ:15</t>
-  </si>
-  <si>
-    <t>typ:16</t>
-  </si>
-  <si>
-    <t>typ:17</t>
-  </si>
-  <si>
-    <t>typ:18</t>
-  </si>
-  <si>
-    <t>typ:19</t>
-  </si>
-  <si>
-    <t>typ:20</t>
-  </si>
-  <si>
-    <t>typ:21</t>
-  </si>
-  <si>
-    <t>typ:22</t>
-  </si>
-  <si>
-    <t>typ:23</t>
-  </si>
-  <si>
-    <t>typ:24</t>
-  </si>
-  <si>
-    <t>typ:25</t>
-  </si>
-  <si>
-    <t>typ:26</t>
-  </si>
-  <si>
-    <t>typ:27</t>
-  </si>
-  <si>
-    <t>typ:28</t>
-  </si>
-  <si>
-    <t>typ:29</t>
-  </si>
-  <si>
-    <t>typ:30</t>
-  </si>
-  <si>
-    <t>typ:31</t>
-  </si>
-  <si>
-    <t>typ:32</t>
-  </si>
-  <si>
-    <t>typ:33</t>
-  </si>
-  <si>
-    <t>typ:34</t>
-  </si>
-  <si>
-    <t>typ:35</t>
-  </si>
-  <si>
-    <t>typ:36</t>
-  </si>
-  <si>
-    <t>typ:37</t>
-  </si>
-  <si>
-    <t>typ:38</t>
-  </si>
-  <si>
-    <t>typ:39</t>
-  </si>
-  <si>
-    <t>typ:40</t>
-  </si>
-  <si>
-    <t>typ:41</t>
-  </si>
-  <si>
-    <t>typ:42</t>
-  </si>
-  <si>
-    <t>typ:43</t>
-  </si>
-  <si>
-    <t>typ:44</t>
-  </si>
-  <si>
-    <t>typ:45</t>
-  </si>
-  <si>
-    <t>typ:46</t>
-  </si>
-  <si>
-    <t>typ:47</t>
-  </si>
-  <si>
-    <t>typ:48</t>
-  </si>
-  <si>
-    <t>typ:49</t>
-  </si>
-  <si>
-    <t>typ:50</t>
-  </si>
-  <si>
-    <t>typ:51</t>
-  </si>
-  <si>
-    <t>typ:52</t>
-  </si>
-  <si>
-    <t>typ:53</t>
-  </si>
-  <si>
-    <t>typ:54</t>
-  </si>
-  <si>
-    <t>typ:55</t>
-  </si>
-  <si>
-    <t>typ:56</t>
-  </si>
-  <si>
-    <t>typ:57</t>
-  </si>
-  <si>
-    <t>typ:58</t>
-  </si>
-  <si>
-    <t>typ:59</t>
-  </si>
-  <si>
-    <t>typ:60</t>
-  </si>
-  <si>
-    <t>typ:61</t>
-  </si>
-  <si>
-    <t>typ:62</t>
-  </si>
-  <si>
-    <t>typ:63</t>
-  </si>
-  <si>
-    <t>typ:64</t>
-  </si>
-  <si>
-    <t>typ:65</t>
-  </si>
-  <si>
-    <t>typ:66</t>
-  </si>
-  <si>
-    <t>typ:67</t>
-  </si>
-  <si>
-    <t>typ:68</t>
-  </si>
-  <si>
-    <t>typ:69</t>
-  </si>
-  <si>
-    <t>typ:70</t>
-  </si>
-  <si>
-    <t>typ:71</t>
-  </si>
-  <si>
-    <t>typ:72</t>
-  </si>
-  <si>
-    <t>typ:73</t>
-  </si>
-  <si>
-    <t>typ:74</t>
-  </si>
-  <si>
-    <t>typ:75</t>
-  </si>
-  <si>
-    <t>typ:76</t>
-  </si>
-  <si>
-    <t>typ:77</t>
-  </si>
-  <si>
-    <t>typ:78</t>
-  </si>
-  <si>
-    <t>typ:79</t>
-  </si>
-  <si>
-    <t>typ:80</t>
-  </si>
-  <si>
-    <t>typ:81</t>
-  </si>
-  <si>
-    <t>typ:82</t>
-  </si>
-  <si>
-    <t>mat:0</t>
-  </si>
-  <si>
-    <t>mat:1</t>
-  </si>
-  <si>
-    <t>mat:2</t>
-  </si>
-  <si>
-    <t>mat:3</t>
-  </si>
-  <si>
-    <t>mat:4</t>
-  </si>
-  <si>
-    <t>mat:5</t>
-  </si>
-  <si>
-    <t>mat:6</t>
-  </si>
-  <si>
-    <t>mat:7</t>
-  </si>
-  <si>
-    <t>mat:8</t>
-  </si>
-  <si>
-    <t>mat:9</t>
-  </si>
-  <si>
-    <t>mat:10</t>
-  </si>
-  <si>
-    <t>mat:11</t>
-  </si>
-  <si>
-    <t>mat:12</t>
-  </si>
-  <si>
-    <t>mat:13</t>
-  </si>
-  <si>
-    <t>mat:14</t>
-  </si>
-  <si>
-    <t>mat:15</t>
-  </si>
-  <si>
-    <t>mat:16</t>
-  </si>
-  <si>
-    <t>ven:0</t>
-  </si>
-  <si>
-    <t>ven:1</t>
-  </si>
-  <si>
-    <t>ven:2</t>
-  </si>
-  <si>
-    <t>ven:3</t>
-  </si>
-  <si>
-    <t>ven:4</t>
-  </si>
-  <si>
-    <t>ven:5</t>
-  </si>
-  <si>
-    <t>ven:6</t>
-  </si>
-  <si>
-    <t>ven:7</t>
-  </si>
-  <si>
-    <t>ven:8</t>
-  </si>
-  <si>
-    <t>ven:9</t>
-  </si>
-  <si>
-    <t>ven:10</t>
-  </si>
-  <si>
-    <t>ven:11</t>
-  </si>
-  <si>
-    <t>ven:12</t>
-  </si>
-  <si>
-    <t>ven:13</t>
-  </si>
-  <si>
-    <t>ven:14</t>
-  </si>
-  <si>
-    <t>ven:15</t>
-  </si>
-  <si>
-    <t>ven:16</t>
-  </si>
-  <si>
-    <t>ven:17</t>
-  </si>
-  <si>
-    <t>ven:18</t>
-  </si>
-  <si>
-    <t>ven:19</t>
-  </si>
-  <si>
-    <t>ven:20</t>
-  </si>
-  <si>
-    <t>ven:21</t>
-  </si>
-  <si>
-    <t>ven:22</t>
-  </si>
-  <si>
-    <t>ven:23</t>
-  </si>
-  <si>
-    <t>ven:24</t>
-  </si>
-  <si>
-    <t>ven:25</t>
-  </si>
-  <si>
-    <t>ven:26</t>
-  </si>
-  <si>
-    <t>ven:27</t>
-  </si>
-  <si>
-    <t>ven:28</t>
-  </si>
-  <si>
-    <t>ven:29</t>
-  </si>
-  <si>
-    <t>ven:30</t>
-  </si>
-  <si>
-    <t>ven:31</t>
-  </si>
-  <si>
-    <t>ven:32</t>
-  </si>
-  <si>
-    <t>ven:33</t>
-  </si>
-  <si>
-    <t>ven:34</t>
-  </si>
-  <si>
-    <t>ven:35</t>
-  </si>
-  <si>
-    <t>ven:36</t>
-  </si>
-  <si>
-    <t>ven:37</t>
-  </si>
-  <si>
-    <t>ven:38</t>
-  </si>
-  <si>
-    <t>ven:39</t>
-  </si>
-  <si>
-    <t>ven:40</t>
-  </si>
-  <si>
-    <t>ven:41</t>
-  </si>
-  <si>
-    <t>ven:42</t>
-  </si>
-  <si>
-    <t>ven:43</t>
-  </si>
-  <si>
-    <t>ven:44</t>
-  </si>
-  <si>
-    <t>ven:45</t>
-  </si>
-  <si>
-    <t>ven:46</t>
-  </si>
-  <si>
-    <t>ven:47</t>
-  </si>
-  <si>
-    <t>ven:48</t>
-  </si>
-  <si>
-    <t>ven:49</t>
-  </si>
-  <si>
-    <t>ven:50</t>
-  </si>
-  <si>
-    <t>ven:51</t>
-  </si>
-  <si>
-    <t>ven:52</t>
-  </si>
-  <si>
-    <t>ven:53</t>
-  </si>
-  <si>
-    <t>ven:54</t>
-  </si>
-  <si>
-    <t>ven:55</t>
-  </si>
-  <si>
-    <t>ven:56</t>
-  </si>
-  <si>
-    <t>ven:57</t>
-  </si>
-  <si>
-    <t>ven:58</t>
-  </si>
-  <si>
-    <t>ven:59</t>
-  </si>
-  <si>
-    <t>ven:60</t>
-  </si>
-  <si>
-    <t>ven:61</t>
-  </si>
-  <si>
-    <t>ven:62</t>
-  </si>
-  <si>
-    <t>ven:63</t>
-  </si>
-  <si>
-    <t>ven:64</t>
-  </si>
-  <si>
-    <t>ven:65</t>
-  </si>
-  <si>
-    <t>ven:66</t>
-  </si>
-  <si>
-    <t>ven:67</t>
-  </si>
-  <si>
-    <t>ven:68</t>
-  </si>
-  <si>
-    <t>ven:69</t>
-  </si>
-  <si>
-    <t>ven:70</t>
-  </si>
-  <si>
-    <t>ven:71</t>
-  </si>
-  <si>
-    <t>ven:72</t>
-  </si>
-  <si>
-    <t>ven:73</t>
-  </si>
-  <si>
-    <t>ven:74</t>
-  </si>
-  <si>
-    <t>ven:75</t>
-  </si>
-  <si>
-    <t>ven:76</t>
-  </si>
-  <si>
-    <t>ven:77</t>
-  </si>
-  <si>
-    <t>ven:78</t>
-  </si>
-  <si>
-    <t>ven:79</t>
-  </si>
-  <si>
-    <t>ven:80</t>
-  </si>
-  <si>
-    <t>ven:81</t>
-  </si>
-  <si>
-    <t>ven:82</t>
-  </si>
-  <si>
-    <t>ven:83</t>
-  </si>
-  <si>
-    <t>ven:84</t>
-  </si>
-  <si>
-    <t>ven:85</t>
-  </si>
-  <si>
-    <t>ven:86</t>
-  </si>
-  <si>
-    <t>ven:87</t>
-  </si>
-  <si>
-    <t>ven:88</t>
-  </si>
-  <si>
-    <t>ven:89</t>
+    <t>siz:0</t>
+  </si>
+  <si>
+    <t>siz:1</t>
+  </si>
+  <si>
+    <t>siz:2</t>
+  </si>
+  <si>
+    <t>siz:3</t>
+  </si>
+  <si>
+    <t>siz:4</t>
+  </si>
+  <si>
+    <t>siz:5</t>
+  </si>
+  <si>
+    <t>siz:6</t>
+  </si>
+  <si>
+    <t>siz:7</t>
+  </si>
+  <si>
+    <t>siz:8</t>
+  </si>
+  <si>
+    <t>siz:9</t>
+  </si>
+  <si>
+    <t>siz:10</t>
+  </si>
+  <si>
+    <t>siz:11</t>
+  </si>
+  <si>
+    <t>siz:12</t>
+  </si>
+  <si>
+    <t>siz:13</t>
+  </si>
+  <si>
+    <t>siz:14</t>
+  </si>
+  <si>
+    <t>siz:15</t>
+  </si>
+  <si>
+    <t>siz:16</t>
+  </si>
+  <si>
+    <t>siz:17</t>
+  </si>
+  <si>
+    <t>siz:18</t>
+  </si>
+  <si>
+    <t>siz:19</t>
+  </si>
+  <si>
+    <t>siz:20</t>
+  </si>
+  <si>
+    <t>siz:21</t>
+  </si>
+  <si>
+    <t>siz:22</t>
+  </si>
+  <si>
+    <t>siz:23</t>
+  </si>
+  <si>
+    <t>siz:24</t>
+  </si>
+  <si>
+    <t>siz:25</t>
+  </si>
+  <si>
+    <t>siz:26</t>
+  </si>
+  <si>
+    <t>siz:27</t>
+  </si>
+  <si>
+    <t>siz:28</t>
+  </si>
+  <si>
+    <t>siz:29</t>
+  </si>
+  <si>
+    <t>siz:30</t>
+  </si>
+  <si>
+    <t>siz:31</t>
+  </si>
+  <si>
+    <t>siz:32</t>
+  </si>
+  <si>
+    <t>siz:33</t>
+  </si>
+  <si>
+    <t>siz:34</t>
+  </si>
+  <si>
+    <t>siz:35</t>
+  </si>
+  <si>
+    <t>siz:36</t>
+  </si>
+  <si>
+    <t>siz:37</t>
+  </si>
+  <si>
+    <t>siz:38</t>
+  </si>
+  <si>
+    <t>siz:39</t>
+  </si>
+  <si>
+    <t>siz:40</t>
+  </si>
+  <si>
+    <t>siz:41</t>
+  </si>
+  <si>
+    <t>siz:42</t>
+  </si>
+  <si>
+    <t>siz:43</t>
+  </si>
+  <si>
+    <t>siz:44</t>
+  </si>
+  <si>
+    <t>siz:45</t>
+  </si>
+  <si>
+    <t>siz:46</t>
+  </si>
+  <si>
+    <t>siz:47</t>
+  </si>
+  <si>
+    <t>siz:48</t>
+  </si>
+  <si>
+    <t>siz:49</t>
+  </si>
+  <si>
+    <t>siz:50</t>
+  </si>
+  <si>
+    <t>siz:51</t>
+  </si>
+  <si>
+    <t>siz:52</t>
+  </si>
+  <si>
+    <t>siz:53</t>
+  </si>
+  <si>
+    <t>siz:54</t>
+  </si>
+  <si>
+    <t>siz:55</t>
+  </si>
+  <si>
+    <t>siz:56</t>
+  </si>
+  <si>
+    <t>siz:57</t>
+  </si>
+  <si>
+    <t>siz:58</t>
+  </si>
+  <si>
+    <t>siz:59</t>
+  </si>
+  <si>
+    <t>siz:60</t>
+  </si>
+  <si>
+    <t>siz:61</t>
+  </si>
+  <si>
+    <t>siz:62</t>
+  </si>
+  <si>
+    <t>siz:63</t>
+  </si>
+  <si>
+    <t>siz:64</t>
+  </si>
+  <si>
+    <t>siz:65</t>
+  </si>
+  <si>
+    <t>siz:66</t>
+  </si>
+  <si>
+    <t>siz:67</t>
+  </si>
+  <si>
+    <t>siz:68</t>
+  </si>
+  <si>
+    <t>siz:69</t>
+  </si>
+  <si>
+    <t>siz:70</t>
+  </si>
+  <si>
+    <t>siz:71</t>
+  </si>
+  <si>
+    <t>siz:72</t>
+  </si>
+  <si>
+    <t>siz:73</t>
+  </si>
+  <si>
+    <t>siz:74</t>
+  </si>
+  <si>
+    <t>siz:75</t>
+  </si>
+  <si>
+    <t>siz:76</t>
+  </si>
+  <si>
+    <t>siz:77</t>
+  </si>
+  <si>
+    <t>siz:78</t>
+  </si>
+  <si>
+    <t>siz:79</t>
+  </si>
+  <si>
+    <t>siz:80</t>
+  </si>
+  <si>
+    <t>siz:81</t>
+  </si>
+  <si>
+    <t>siz:82</t>
+  </si>
+  <si>
+    <t>siz:83</t>
+  </si>
+  <si>
+    <t>siz:84</t>
+  </si>
+  <si>
+    <t>vpn:0</t>
+  </si>
+  <si>
+    <t>vpn:1</t>
+  </si>
+  <si>
+    <t>vpn:2</t>
+  </si>
+  <si>
+    <t>vpn:3</t>
+  </si>
+  <si>
+    <t>vpn:4</t>
+  </si>
+  <si>
+    <t>vpn:5</t>
+  </si>
+  <si>
+    <t>vpn:6</t>
+  </si>
+  <si>
+    <t>vpn:7</t>
+  </si>
+  <si>
+    <t>vpn:8</t>
+  </si>
+  <si>
+    <t>vpn:9</t>
+  </si>
+  <si>
+    <t>vpn:10</t>
+  </si>
+  <si>
+    <t>vpn:11</t>
+  </si>
+  <si>
+    <t>vpn:12</t>
+  </si>
+  <si>
+    <t>vpn:13</t>
+  </si>
+  <si>
+    <t>vpn:14</t>
+  </si>
+  <si>
+    <t>vpn:15</t>
+  </si>
+  <si>
+    <t>vpn:16</t>
+  </si>
+  <si>
+    <t>vpn:17</t>
+  </si>
+  <si>
+    <t>vpn:18</t>
+  </si>
+  <si>
+    <t>vpn:19</t>
+  </si>
+  <si>
+    <t>vpn:20</t>
+  </si>
+  <si>
+    <t>vpn:21</t>
+  </si>
+  <si>
+    <t>vpn:22</t>
+  </si>
+  <si>
+    <t>vpn:23</t>
+  </si>
+  <si>
+    <t>vpn:24</t>
+  </si>
+  <si>
+    <t>vpn:25</t>
+  </si>
+  <si>
+    <t>vpn:26</t>
+  </si>
+  <si>
+    <t>vpn:27</t>
+  </si>
+  <si>
+    <t>vpn:28</t>
+  </si>
+  <si>
+    <t>vpn:29</t>
+  </si>
+  <si>
+    <t>sup:0</t>
+  </si>
+  <si>
+    <t>sup:1</t>
+  </si>
+  <si>
+    <t>sup:2</t>
+  </si>
+  <si>
+    <t>sup:3</t>
+  </si>
+  <si>
+    <t>sup:4</t>
+  </si>
+  <si>
+    <t>sup:5</t>
+  </si>
+  <si>
+    <t>sup:6</t>
+  </si>
+  <si>
+    <t>sup:7</t>
+  </si>
+  <si>
+    <t>sup:8</t>
+  </si>
+  <si>
+    <t>sup:9</t>
+  </si>
+  <si>
+    <t>sup:10</t>
+  </si>
+  <si>
+    <t>sup:11</t>
+  </si>
+  <si>
+    <t>sup:12</t>
+  </si>
+  <si>
+    <t>cat:0</t>
+  </si>
+  <si>
+    <t>cat:1</t>
+  </si>
+  <si>
+    <t>cat:2</t>
+  </si>
+  <si>
+    <t>cat:3</t>
+  </si>
+  <si>
+    <t>cat:4</t>
+  </si>
+  <si>
+    <t>cat:5</t>
+  </si>
+  <si>
+    <t>cat:6</t>
+  </si>
+  <si>
+    <t>cat:7</t>
+  </si>
+  <si>
+    <t>cat:8</t>
+  </si>
+  <si>
+    <t>cat:9</t>
+  </si>
+  <si>
+    <t>cat:10</t>
+  </si>
+  <si>
+    <t>cat:11</t>
+  </si>
+  <si>
+    <t>cat:12</t>
+  </si>
+  <si>
+    <t>cat:13</t>
+  </si>
+  <si>
+    <t>cat:14</t>
+  </si>
+  <si>
+    <t>cat:15</t>
+  </si>
+  <si>
+    <t>cat:16</t>
+  </si>
+  <si>
+    <t>cat:17</t>
+  </si>
+  <si>
+    <t>cat:18</t>
+  </si>
+  <si>
+    <t>cat:19</t>
+  </si>
+  <si>
+    <t>cat:20</t>
+  </si>
+  <si>
+    <t>cat:21</t>
+  </si>
+  <si>
+    <t>cat:22</t>
+  </si>
+  <si>
+    <t>cat:23</t>
+  </si>
+  <si>
+    <t>cat:24</t>
+  </si>
+  <si>
+    <t>cat:25</t>
+  </si>
+  <si>
+    <t>cat:26</t>
+  </si>
+  <si>
+    <t>cat:27</t>
+  </si>
+  <si>
+    <t>cat:28</t>
+  </si>
+  <si>
+    <t>cat:29</t>
+  </si>
+  <si>
+    <t>cat:30</t>
+  </si>
+  <si>
+    <t>cat:31</t>
+  </si>
+  <si>
+    <t>cat:32</t>
+  </si>
+  <si>
+    <t>cat:33</t>
+  </si>
+  <si>
+    <t>cat:34</t>
+  </si>
+  <si>
+    <t>cat:35</t>
+  </si>
+  <si>
+    <t>cat:36</t>
+  </si>
+  <si>
+    <t>cat:37</t>
+  </si>
+  <si>
+    <t>cat:38</t>
+  </si>
+  <si>
+    <t>cat:39</t>
+  </si>
+  <si>
+    <t>cat:40</t>
+  </si>
+  <si>
+    <t>cat:41</t>
+  </si>
+  <si>
+    <t>cat:42</t>
+  </si>
+  <si>
+    <t>cat:43</t>
+  </si>
+  <si>
+    <t>cat:44</t>
+  </si>
+  <si>
+    <t>cat:45</t>
+  </si>
+  <si>
+    <t>cat:46</t>
+  </si>
+  <si>
+    <t>cat:47</t>
+  </si>
+  <si>
+    <t>cat:48</t>
+  </si>
+  <si>
+    <t>cat:49</t>
+  </si>
+  <si>
+    <t>cat:50</t>
+  </si>
+  <si>
+    <t>cat:51</t>
+  </si>
+  <si>
+    <t>cat:52</t>
+  </si>
+  <si>
+    <t>cat:53</t>
+  </si>
+  <si>
+    <t>cat:54</t>
+  </si>
+  <si>
+    <t>cat:55</t>
+  </si>
+  <si>
+    <t>cat:56</t>
+  </si>
+  <si>
+    <t>cat:57</t>
+  </si>
+  <si>
+    <t>cat:58</t>
+  </si>
+  <si>
+    <t>cat:59</t>
+  </si>
+  <si>
+    <t>cat:60</t>
+  </si>
+  <si>
+    <t>cat:61</t>
+  </si>
+  <si>
+    <t>cat:62</t>
+  </si>
+  <si>
+    <t>cat:63</t>
+  </si>
+  <si>
+    <t>cat:64</t>
+  </si>
+  <si>
+    <t>cat:65</t>
+  </si>
+  <si>
+    <t>cat:66</t>
+  </si>
+  <si>
+    <t>cat:67</t>
+  </si>
+  <si>
+    <t>cat:68</t>
+  </si>
+  <si>
+    <t>cat:69</t>
+  </si>
+  <si>
+    <t>cat:70</t>
+  </si>
+  <si>
+    <t>cat:71</t>
+  </si>
+  <si>
+    <t>cat:72</t>
+  </si>
+  <si>
+    <t>cat:73</t>
+  </si>
+  <si>
+    <t>cat:74</t>
+  </si>
+  <si>
+    <t>cat:75</t>
+  </si>
+  <si>
+    <t>cat:76</t>
+  </si>
+  <si>
+    <t>cat:77</t>
+  </si>
+  <si>
+    <t>cat:78</t>
+  </si>
+  <si>
+    <t>cat:79</t>
+  </si>
+  <si>
+    <t>cat:80</t>
+  </si>
+  <si>
+    <t>cat:81</t>
+  </si>
+  <si>
+    <t>lab:0</t>
+  </si>
+  <si>
+    <t>lab:1</t>
+  </si>
+  <si>
+    <t>lab:2</t>
+  </si>
+  <si>
+    <t>lab:3</t>
+  </si>
+  <si>
+    <t>lab:4</t>
+  </si>
+  <si>
+    <t>lab:5</t>
+  </si>
+  <si>
+    <t>lab:6</t>
+  </si>
+  <si>
+    <t>lab:7</t>
+  </si>
+  <si>
+    <t>lab:8</t>
+  </si>
+  <si>
+    <t>lab:9</t>
+  </si>
+  <si>
+    <t>lab:10</t>
+  </si>
+  <si>
+    <t>lab:11</t>
+  </si>
+  <si>
+    <t>lab:12</t>
+  </si>
+  <si>
+    <t>lab:13</t>
+  </si>
+  <si>
+    <t>lab:14</t>
+  </si>
+  <si>
+    <t>lab:15</t>
+  </si>
+  <si>
+    <t>lab:16</t>
+  </si>
+  <si>
+    <t>lab:17</t>
+  </si>
+  <si>
+    <t>lab:18</t>
+  </si>
+  <si>
+    <t>lab:19</t>
+  </si>
+  <si>
+    <t>lab:20</t>
+  </si>
+  <si>
+    <t>lab:21</t>
+  </si>
+  <si>
+    <t>lab:22</t>
+  </si>
+  <si>
+    <t>lab:23</t>
+  </si>
+  <si>
+    <t>lab:24</t>
+  </si>
+  <si>
+    <t>lab:25</t>
+  </si>
+  <si>
+    <t>lab:26</t>
+  </si>
+  <si>
+    <t>lab:27</t>
+  </si>
+  <si>
+    <t>lab:28</t>
+  </si>
+  <si>
+    <t>lab:29</t>
+  </si>
+  <si>
+    <t>lab:30</t>
+  </si>
+  <si>
+    <t>lab:31</t>
+  </si>
+  <si>
+    <t>lab:32</t>
+  </si>
+  <si>
+    <t>lab:33</t>
+  </si>
+  <si>
+    <t>lab:34</t>
+  </si>
+  <si>
+    <t>lab:35</t>
+  </si>
+  <si>
+    <t>lab:36</t>
+  </si>
+  <si>
+    <t>lab:37</t>
+  </si>
+  <si>
+    <t>lab:38</t>
+  </si>
+  <si>
+    <t>lab:39</t>
+  </si>
+  <si>
+    <t>lab:40</t>
+  </si>
+  <si>
+    <t>lab:41</t>
+  </si>
+  <si>
+    <t>lab:42</t>
+  </si>
+  <si>
+    <t>lab:43</t>
+  </si>
+  <si>
+    <t>lab:44</t>
+  </si>
+  <si>
+    <t>lab:45</t>
+  </si>
+  <si>
+    <t>lab:46</t>
+  </si>
+  <si>
+    <t>lab:47</t>
+  </si>
+  <si>
+    <t>lab:48</t>
+  </si>
+  <si>
+    <t>lab:49</t>
+  </si>
+  <si>
+    <t>lab:50</t>
+  </si>
+  <si>
+    <t>lab:51</t>
+  </si>
+  <si>
+    <t>lab:52</t>
+  </si>
+  <si>
+    <t>lab:53</t>
+  </si>
+  <si>
+    <t>lab:54</t>
+  </si>
+  <si>
+    <t>lab:55</t>
+  </si>
+  <si>
+    <t>lab:56</t>
+  </si>
+  <si>
+    <t>lab:57</t>
+  </si>
+  <si>
+    <t>lab:58</t>
+  </si>
+  <si>
+    <t>lab:59</t>
+  </si>
+  <si>
+    <t>lab:60</t>
+  </si>
+  <si>
+    <t>lab:61</t>
+  </si>
+  <si>
+    <t>lab:62</t>
+  </si>
+  <si>
+    <t>lab:63</t>
+  </si>
+  <si>
+    <t>lab:64</t>
+  </si>
+  <si>
+    <t>lab:65</t>
+  </si>
+  <si>
+    <t>lab:66</t>
+  </si>
+  <si>
+    <t>lab:67</t>
+  </si>
+  <si>
+    <t>lab:68</t>
+  </si>
+  <si>
+    <t>lab:69</t>
+  </si>
+  <si>
+    <t>lab:70</t>
+  </si>
+  <si>
+    <t>lab:71</t>
+  </si>
+  <si>
+    <t>cla:0</t>
+  </si>
+  <si>
+    <t>cla:1</t>
+  </si>
+  <si>
+    <t>cla:2</t>
+  </si>
+  <si>
+    <t>cla:3</t>
+  </si>
+  <si>
+    <t>cla:4</t>
+  </si>
+  <si>
+    <t>cla:5</t>
+  </si>
+  <si>
+    <t>cla:6</t>
+  </si>
+  <si>
+    <t>cla:7</t>
+  </si>
+  <si>
+    <t>cla:8</t>
+  </si>
+  <si>
+    <t>cla:9</t>
+  </si>
+  <si>
+    <t>cla:10</t>
+  </si>
+  <si>
+    <t>cla:11</t>
+  </si>
+  <si>
+    <t>cla:12</t>
+  </si>
+  <si>
+    <t>cla:13</t>
+  </si>
+  <si>
+    <t>cla:14</t>
+  </si>
+  <si>
+    <t>cla:15</t>
+  </si>
+  <si>
+    <t>cla:16</t>
+  </si>
+  <si>
+    <t>cla:17</t>
+  </si>
+  <si>
+    <t>cla:18</t>
+  </si>
+  <si>
+    <t>cla:19</t>
+  </si>
+  <si>
+    <t>cla:20</t>
+  </si>
+  <si>
+    <t>cla:21</t>
+  </si>
+  <si>
+    <t>cla:22</t>
+  </si>
+  <si>
+    <t>cla:23</t>
+  </si>
+  <si>
+    <t>cla:24</t>
+  </si>
+  <si>
+    <t>cla:25</t>
+  </si>
+  <si>
+    <t>cla:26</t>
+  </si>
+  <si>
+    <t>cla:27</t>
+  </si>
+  <si>
+    <t>cla:28</t>
+  </si>
+  <si>
+    <t>cla:29</t>
+  </si>
+  <si>
+    <t>cla:30</t>
+  </si>
+  <si>
+    <t>cla:31</t>
+  </si>
+  <si>
+    <t>cla:32</t>
+  </si>
+  <si>
+    <t>cla:33</t>
+  </si>
+  <si>
+    <t>cla:34</t>
+  </si>
+  <si>
+    <t>cla:35</t>
+  </si>
+  <si>
+    <t>cla:36</t>
+  </si>
+  <si>
+    <t>cla:37</t>
+  </si>
+  <si>
+    <t>cla:38</t>
+  </si>
+  <si>
+    <t>cla:39</t>
+  </si>
+  <si>
+    <t>cla:40</t>
+  </si>
+  <si>
+    <t>cla:41</t>
+  </si>
+  <si>
+    <t>cla:42</t>
+  </si>
+  <si>
+    <t>cla:43</t>
+  </si>
+  <si>
+    <t>cla:44</t>
+  </si>
+  <si>
+    <t>cla:45</t>
+  </si>
+  <si>
+    <t>cla:46</t>
+  </si>
+  <si>
+    <t>cla:47</t>
+  </si>
+  <si>
+    <t>cla:48</t>
+  </si>
+  <si>
+    <t>cla:49</t>
+  </si>
+  <si>
+    <t>cla:50</t>
+  </si>
+  <si>
+    <t>cla:51</t>
+  </si>
+  <si>
+    <t>cla:52</t>
+  </si>
+  <si>
+    <t>cla:53</t>
+  </si>
+  <si>
+    <t>cla:54</t>
+  </si>
+  <si>
+    <t>cla:55</t>
+  </si>
+  <si>
+    <t>cla:56</t>
+  </si>
+  <si>
+    <t>cla:57</t>
+  </si>
+  <si>
+    <t>cla:58</t>
+  </si>
+  <si>
+    <t>cla:59</t>
+  </si>
+  <si>
+    <t>cla:60</t>
+  </si>
+  <si>
+    <t>cla:61</t>
+  </si>
+  <si>
+    <t>cla:62</t>
+  </si>
+  <si>
+    <t>cla:63</t>
+  </si>
+  <si>
+    <t>cla:64</t>
+  </si>
+  <si>
+    <t>cla:65</t>
+  </si>
+  <si>
+    <t>cla:66</t>
+  </si>
+  <si>
+    <t>cla:67</t>
+  </si>
+  <si>
+    <t>pon:0</t>
+  </si>
+  <si>
+    <t>pon:1</t>
+  </si>
+  <si>
+    <t>pon:2</t>
+  </si>
+  <si>
+    <t>pon:3</t>
+  </si>
+  <si>
+    <t>pon:4</t>
+  </si>
+  <si>
+    <t>pon:5</t>
+  </si>
+  <si>
+    <t>pon:6</t>
+  </si>
+  <si>
+    <t>pon:7</t>
+  </si>
+  <si>
+    <t>pon:8</t>
+  </si>
+  <si>
+    <t>pon:9</t>
+  </si>
+  <si>
+    <t>pon:10</t>
+  </si>
+  <si>
+    <t>pon:11</t>
+  </si>
+  <si>
+    <t>pon:12</t>
+  </si>
+  <si>
+    <t>pon:13</t>
+  </si>
+  <si>
+    <t>pon:14</t>
+  </si>
+  <si>
+    <t>pon:15</t>
+  </si>
+  <si>
+    <t>pon:16</t>
+  </si>
+  <si>
+    <t>pon:17</t>
+  </si>
+  <si>
+    <t>pon:18</t>
+  </si>
+  <si>
+    <t>pon:19</t>
+  </si>
+  <si>
+    <t>pon:20</t>
+  </si>
+  <si>
+    <t>pon:21</t>
+  </si>
+  <si>
+    <t>pon:22</t>
+  </si>
+  <si>
+    <t>pon:23</t>
+  </si>
+  <si>
+    <t>pon:24</t>
+  </si>
+  <si>
+    <t>pon:25</t>
+  </si>
+  <si>
+    <t>pon:26</t>
+  </si>
+  <si>
+    <t>pon:27</t>
+  </si>
+  <si>
+    <t>pon:28</t>
+  </si>
+  <si>
+    <t>pon:29</t>
+  </si>
+  <si>
+    <t>pon:30</t>
+  </si>
+  <si>
+    <t>pon:31</t>
+  </si>
+  <si>
+    <t>pon:32</t>
+  </si>
+  <si>
+    <t>pon:33</t>
+  </si>
+  <si>
+    <t>pon:34</t>
+  </si>
+  <si>
+    <t>pon:35</t>
+  </si>
+  <si>
+    <t>pon:36</t>
+  </si>
+  <si>
+    <t>pon:37</t>
+  </si>
+  <si>
+    <t>pon:38</t>
+  </si>
+  <si>
+    <t>pon:39</t>
+  </si>
+  <si>
+    <t>pon:40</t>
+  </si>
+  <si>
+    <t>pon:41</t>
+  </si>
+  <si>
+    <t>pon:42</t>
+  </si>
+  <si>
+    <t>pon:43</t>
+  </si>
+  <si>
+    <t>pon:44</t>
+  </si>
+  <si>
+    <t>pon:45</t>
+  </si>
+  <si>
+    <t>pon:46</t>
+  </si>
+  <si>
+    <t>pon:47</t>
+  </si>
+  <si>
+    <t>pon:48</t>
+  </si>
+  <si>
+    <t>pon:49</t>
+  </si>
+  <si>
+    <t>pon:50</t>
+  </si>
+  <si>
+    <t>pon:51</t>
+  </si>
+  <si>
+    <t>pon:52</t>
+  </si>
+  <si>
+    <t>pon:53</t>
+  </si>
+  <si>
+    <t>pon:54</t>
+  </si>
+  <si>
+    <t>pon:55</t>
+  </si>
+  <si>
+    <t>pon:56</t>
+  </si>
+  <si>
+    <t>pon:57</t>
+  </si>
+  <si>
+    <t>pon:58</t>
+  </si>
+  <si>
+    <t>pon:59</t>
+  </si>
+  <si>
+    <t>pon:60</t>
+  </si>
+  <si>
+    <t>pon:61</t>
+  </si>
+  <si>
+    <t>pon:62</t>
+  </si>
+  <si>
+    <t>pon:63</t>
+  </si>
+  <si>
+    <t>pon:64</t>
+  </si>
+  <si>
+    <t>pon:65</t>
+  </si>
+  <si>
+    <t>pon:66</t>
+  </si>
+  <si>
+    <t>pon:67</t>
+  </si>
+  <si>
+    <t>pon:68</t>
+  </si>
+  <si>
+    <t>pon:69</t>
+  </si>
+  <si>
+    <t>pon:70</t>
+  </si>
+  <si>
+    <t>pon:71</t>
+  </si>
+  <si>
+    <t>pon:72</t>
+  </si>
+  <si>
+    <t>pon:73</t>
+  </si>
+  <si>
+    <t>pon:74</t>
+  </si>
+  <si>
+    <t>pon:75</t>
+  </si>
+  <si>
+    <t>pon:76</t>
+  </si>
+  <si>
+    <t>pon:77</t>
+  </si>
+  <si>
+    <t>pon:78</t>
+  </si>
+  <si>
+    <t>pon:79</t>
+  </si>
+  <si>
+    <t>pon:80</t>
+  </si>
+  <si>
+    <t>pon:81</t>
+  </si>
+  <si>
+    <t>pon:82</t>
+  </si>
+  <si>
+    <t>pon:83</t>
+  </si>
+  <si>
+    <t>pon:84</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>201650 - Enchante Accessories, Inc</t>
+  </si>
+  <si>
+    <t>326461 - NIKE INC</t>
+  </si>
+  <si>
+    <t>326852 - NIKE SHOES</t>
+  </si>
+  <si>
+    <t>43391058 - White Mountain</t>
+  </si>
+  <si>
+    <t>496464 - POLO BY RALPH LAUREN HOSIERY</t>
+  </si>
+  <si>
+    <t>43432102 - Conair LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43391270 - ADIDAS </t>
+  </si>
+  <si>
+    <t>43423298 - UNDER ARMOUR</t>
+  </si>
+  <si>
+    <t>43405653 - Revman International Inc.</t>
+  </si>
+  <si>
+    <t>43397382 - POLO RALPH LAUREN</t>
+  </si>
+  <si>
+    <t>LADIES HOSIERY</t>
+  </si>
+  <si>
+    <t>MISSY HVYWT</t>
+  </si>
+  <si>
+    <t>PLUS MS LTWT SLPWR</t>
+  </si>
+  <si>
+    <t>Mens Slippers</t>
+  </si>
+  <si>
+    <t>Boys Shoes</t>
+  </si>
+  <si>
+    <t>BEAUTY</t>
+  </si>
+  <si>
+    <t>FRAGRANCES</t>
+  </si>
+  <si>
+    <t>WELLNESS</t>
+  </si>
+  <si>
+    <t>Ladies Athletic</t>
+  </si>
+  <si>
+    <t>WINDOW TREATMENTS</t>
+  </si>
+  <si>
+    <t>Lauren Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Polo Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Nike Golf</t>
+  </si>
+  <si>
+    <t>Nike Swim</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nike Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jordan/Nike Air</t>
+  </si>
+  <si>
+    <t>Home Essentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madden Girl</t>
+  </si>
+  <si>
+    <t>No Size</t>
+  </si>
+  <si>
+    <t>6.75</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>.5OZ</t>
+  </si>
+  <si>
+    <t>0-12M</t>
+  </si>
+  <si>
+    <t>15mm</t>
+  </si>
+  <si>
+    <t>16"-18"</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>37/38</t>
+  </si>
+  <si>
+    <t>Upfront</t>
+  </si>
+  <si>
+    <t>Closeout</t>
+  </si>
+  <si>
+    <t>Piece Goods​</t>
   </si>
 </sst>
 </file>
@@ -6274,7 +7105,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
-  <dimension ref="A1:CV97"/>
+  <dimension ref="A1:CV90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -7579,8 +8410,8 @@
       <c r="Z5" s="43"/>
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
-      <c r="AC5" t="n" s="36">
-        <v>37.49605362357789</v>
+      <c r="AC5" s="36" t="n">
+        <v>76.78665267281535</v>
       </c>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -7655,2008 +8486,2165 @@
       <c r="CV5" s="42"/>
     </row>
     <row r="6">
-      <c r="B6" t="n" s="34">
-        <v>71.80033584831301</v>
-      </c>
-      <c r="C6" t="s" s="84">
+      <c r="B6" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="76" t="n">
+        <v>44965.855127118055</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="77" t="n">
+        <v>39.61143270712601</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>600</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="J6" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" s="36" t="n">
+        <v>9.916876635139204</v>
+      </c>
+      <c r="AC6" s="36" t="n">
+        <v>45.58418348756971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" s="76" t="n">
+        <v>44965.855127118055</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="77" t="n">
+        <v>82.94730940813432</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>601</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="J7" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="M7" s="36" t="n">
+        <v>79.12507650653983</v>
+      </c>
+      <c r="AC7" s="36" t="n">
+        <v>70.4900834120886</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="77" t="n">
+        <v>10.892607062039229</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="J8" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="M8" s="36" t="n">
+        <v>76.4779966606258</v>
+      </c>
+      <c r="AC8" s="36" t="n">
+        <v>23.565985455439765</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="E9" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="77" t="n">
+        <v>2.2586116126411815</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>603</v>
+      </c>
+      <c r="I9" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="D6" t="n" s="75">
-        <v>15.848560676255785</v>
-      </c>
-      <c r="E6" t="n" s="76">
-        <v>13.266144832930959</v>
-      </c>
-      <c r="F6" t="n" s="76">
-        <v>43.01798234476074</v>
-      </c>
-      <c r="G6" t="s" s="77">
+      <c r="J9" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="M9" s="36" t="n">
+        <v>86.36008922492407</v>
+      </c>
+      <c r="AC9" s="36" t="n">
+        <v>71.95706459757668</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="77" t="n">
+        <v>19.537186209845125</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>604</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="J10" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="M10" s="36" t="n">
+        <v>50.95694738315658</v>
+      </c>
+      <c r="AC10" s="36" t="n">
+        <v>88.8743972249383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="77" t="n">
+        <v>29.6759643197506</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>605</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="J11" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="M11" s="36" t="n">
+        <v>72.89403069214192</v>
+      </c>
+      <c r="AC11" s="36" t="n">
+        <v>49.89710662178774</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="77" t="n">
+        <v>10.519197675195768</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>606</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="J12" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="M12" s="36" t="n">
+        <v>61.13314328700482</v>
+      </c>
+      <c r="AC12" s="36" t="n">
+        <v>35.537514543077776</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>467</v>
+      </c>
+      <c r="E13" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>607</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="J13" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="M13" s="36" t="n">
+        <v>94.51775792596897</v>
+      </c>
+      <c r="AC13" s="36" t="n">
+        <v>50.292972597919615</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="J14" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="M14" s="36" t="n">
+        <v>42.248810998390226</v>
+      </c>
+      <c r="AC14" s="36" t="n">
+        <v>35.060048970525294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>469</v>
+      </c>
+      <c r="E15" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>609</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="J15" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="M15" s="36" t="n">
+        <v>73.39864004304903</v>
+      </c>
+      <c r="AC15" s="36" t="n">
+        <v>86.90450913086245</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="E16" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>610</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="J16" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="M16" s="36" t="n">
+        <v>3.167758293192402</v>
+      </c>
+      <c r="AC16" s="36" t="n">
+        <v>3.1869532949857504</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>611</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="J17" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="M17" s="36" t="n">
+        <v>99.25312474160822</v>
+      </c>
+      <c r="AC17" s="36" t="n">
+        <v>38.825003472468275</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>612</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="J18" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="M18" s="36" t="n">
+        <v>0.2746410291034618</v>
+      </c>
+      <c r="AC18" s="36" t="n">
+        <v>95.97190745800683</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>613</v>
+      </c>
+      <c r="J19" s="36" t="n">
+        <v>44965.85512714121</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="M19" s="36" t="n">
+        <v>18.387876715505268</v>
+      </c>
+      <c r="AC19" s="36" t="n">
+        <v>54.81025178302937</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>614</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="M20" s="36" t="n">
+        <v>15.527457570700609</v>
+      </c>
+      <c r="AC20" s="36" t="n">
+        <v>39.525730136107754</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>615</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="M21" s="36" t="n">
+        <v>0.40846849017442954</v>
+      </c>
+      <c r="AC21" s="36" t="n">
+        <v>74.02221356546251</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>476</v>
+      </c>
+      <c r="E22" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>616</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="M22" s="36" t="n">
+        <v>2.8680491761666427</v>
+      </c>
+      <c r="AC22" s="36" t="n">
+        <v>39.006751207009685</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="E23" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>617</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="M23" s="36" t="n">
+        <v>38.41970121730232</v>
+      </c>
+      <c r="AC23" s="36" t="n">
+        <v>35.93069316121412</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F24" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="H6" t="n" s="78">
-        <v>64.54611475997552</v>
-      </c>
-      <c r="I6" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J6" t="s" s="36">
-        <v>250</v>
-      </c>
-      <c r="K6" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L6" t="n" s="36">
-        <v>81.1844892764332</v>
-      </c>
-      <c r="M6" t="s" s="36">
-        <v>351</v>
-      </c>
-      <c r="AC6" t="n" s="36">
-        <v>74.038869464633</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n" s="34">
-        <v>69.86149281996916</v>
-      </c>
-      <c r="C7" t="s" s="84">
-        <v>369</v>
-      </c>
-      <c r="D7" t="n" s="75">
-        <v>10.63128953634248</v>
-      </c>
-      <c r="E7" t="n" s="76">
-        <v>20.988066662526716</v>
-      </c>
-      <c r="F7" t="n" s="76">
-        <v>91.50608945774047</v>
-      </c>
-      <c r="G7" t="s" s="77">
+      <c r="H24" s="78" t="s">
+        <v>618</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="M24" s="36" t="n">
+        <v>24.25147622833046</v>
+      </c>
+      <c r="AC24" s="36" t="n">
+        <v>78.1198368157414</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="E25" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F25" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="H7" t="n" s="78">
-        <v>73.16261024905758</v>
-      </c>
-      <c r="I7" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J7" t="s" s="36">
-        <v>251</v>
-      </c>
-      <c r="K7" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L7" t="n" s="36">
-        <v>41.39332163882198</v>
-      </c>
-      <c r="M7" t="s" s="36">
-        <v>352</v>
-      </c>
-      <c r="AC7" t="n" s="36">
-        <v>25.954233324990582</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="n" s="34">
-        <v>49.50940106311009</v>
-      </c>
-      <c r="C8" t="s" s="84">
-        <v>370</v>
-      </c>
-      <c r="D8" t="n" s="75">
-        <v>15.702678609337262</v>
-      </c>
-      <c r="E8" t="n" s="76">
-        <v>4.43863353157089</v>
-      </c>
-      <c r="F8" t="n" s="76">
-        <v>79.07078553158684</v>
-      </c>
-      <c r="G8" t="s" s="77">
+      <c r="H25" s="78" t="s">
+        <v>619</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="M25" s="36" t="n">
+        <v>92.90304670149715</v>
+      </c>
+      <c r="AC25" s="36" t="n">
+        <v>55.21440101591598</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>480</v>
+      </c>
+      <c r="E26" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F26" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="H8" t="n" s="78">
-        <v>21.468151070581186</v>
-      </c>
-      <c r="I8" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J8" t="s" s="36">
-        <v>252</v>
-      </c>
-      <c r="K8" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L8" t="n" s="36">
-        <v>51.98360314751245</v>
-      </c>
-      <c r="M8" t="s" s="36">
-        <v>353</v>
-      </c>
-      <c r="AC8" t="n" s="36">
-        <v>67.40637358047829</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n" s="34">
-        <v>6.855215310232044</v>
-      </c>
-      <c r="C9" t="s" s="84">
-        <v>371</v>
-      </c>
-      <c r="D9" t="n" s="75">
-        <v>19.60145400938137</v>
-      </c>
-      <c r="E9" t="n" s="76">
-        <v>30.295014538284228</v>
-      </c>
-      <c r="F9" t="n" s="76">
-        <v>60.22751481919143</v>
-      </c>
-      <c r="G9" t="s" s="77">
+      <c r="H26" s="78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="M26" s="36" t="n">
+        <v>69.53524642976424</v>
+      </c>
+      <c r="AC26" s="36" t="n">
+        <v>76.33605611191565</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F27" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="H9" t="n" s="78">
-        <v>44.73678055000342</v>
-      </c>
-      <c r="I9" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J9" t="s" s="36">
-        <v>253</v>
-      </c>
-      <c r="K9" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L9" t="n" s="36">
-        <v>94.0707039346918</v>
-      </c>
-      <c r="M9" t="s" s="36">
-        <v>354</v>
-      </c>
-      <c r="AC9" t="n" s="36">
-        <v>82.76063411867507</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="n" s="34">
-        <v>55.92628840530529</v>
-      </c>
-      <c r="C10" t="s" s="84">
-        <v>372</v>
-      </c>
-      <c r="D10" t="n" s="75">
-        <v>21.739470520309755</v>
-      </c>
-      <c r="E10" t="n" s="76">
-        <v>41.401529361204425</v>
-      </c>
-      <c r="F10" t="n" s="76">
-        <v>3.053470933985647</v>
-      </c>
-      <c r="G10" t="s" s="77">
+      <c r="H27" s="78" t="s">
+        <v>621</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="M27" s="36" t="n">
+        <v>81.47057523800515</v>
+      </c>
+      <c r="AC27" s="36" t="n">
+        <v>31.475896524597914</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>482</v>
+      </c>
+      <c r="E28" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F28" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="H10" t="n" s="78">
-        <v>9.939881176489362</v>
-      </c>
-      <c r="I10" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J10" t="s" s="36">
-        <v>254</v>
-      </c>
-      <c r="K10" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L10" t="n" s="36">
-        <v>43.45031668577957</v>
-      </c>
-      <c r="M10" t="s" s="36">
-        <v>355</v>
-      </c>
-      <c r="AC10" t="n" s="36">
-        <v>89.71107134204728</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="n" s="34">
-        <v>22.43249965976296</v>
-      </c>
-      <c r="C11" t="s" s="84">
-        <v>373</v>
-      </c>
-      <c r="D11" t="n" s="75">
-        <v>20.102387129127642</v>
-      </c>
-      <c r="E11" t="n" s="76">
-        <v>12.245927416036405</v>
-      </c>
-      <c r="F11" t="n" s="76">
-        <v>77.78082995886425</v>
-      </c>
-      <c r="G11" t="s" s="77">
+      <c r="H28" s="78" t="s">
+        <v>622</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="M28" s="36" t="n">
+        <v>71.59621285830198</v>
+      </c>
+      <c r="AC28" s="36" t="n">
+        <v>9.515726146795533</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>483</v>
+      </c>
+      <c r="E29" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F29" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="H11" t="n" s="78">
-        <v>82.8623400452004</v>
-      </c>
-      <c r="I11" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J11" t="s" s="36">
-        <v>255</v>
-      </c>
-      <c r="K11" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L11" t="n" s="36">
-        <v>0.9618618589472216</v>
-      </c>
-      <c r="M11" t="s" s="36">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n" s="34">
-        <v>19.892480957519044</v>
-      </c>
-      <c r="C12" t="s" s="84">
-        <v>374</v>
-      </c>
-      <c r="D12" t="n" s="75">
-        <v>43.144341365101916</v>
-      </c>
-      <c r="E12" t="n" s="76">
-        <v>85.79015778653239</v>
-      </c>
-      <c r="F12" t="n" s="76">
-        <v>90.05716869829831</v>
-      </c>
-      <c r="G12" t="s" s="77">
+      <c r="H29" s="78" t="s">
+        <v>623</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="M29" s="36" t="n">
+        <v>59.740186176002894</v>
+      </c>
+      <c r="AC29" s="36" t="n">
+        <v>88.37477102963784</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F30" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="H12" t="n" s="78">
-        <v>88.20493613038867</v>
-      </c>
-      <c r="I12" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J12" t="s" s="36">
-        <v>256</v>
-      </c>
-      <c r="K12" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L12" t="n" s="36">
-        <v>52.6720401801776</v>
-      </c>
-      <c r="M12" t="s" s="36">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="n" s="34">
-        <v>40.797169453684724</v>
-      </c>
-      <c r="C13" t="s" s="84">
-        <v>375</v>
-      </c>
-      <c r="D13" t="n" s="75">
-        <v>37.693368335858764</v>
-      </c>
-      <c r="E13" t="n" s="76">
-        <v>1.7955373849345535</v>
-      </c>
-      <c r="F13" t="n" s="76">
-        <v>17.593874946301057</v>
-      </c>
-      <c r="G13" t="s" s="77">
+      <c r="H30" s="78" t="s">
+        <v>624</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="M30" s="36" t="n">
+        <v>44.101711548522815</v>
+      </c>
+      <c r="AC30" s="36" t="n">
+        <v>64.46175341045529</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>485</v>
+      </c>
+      <c r="E31" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F31" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="H13" t="n" s="78">
-        <v>94.47741319946536</v>
-      </c>
-      <c r="I13" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J13" t="s" s="36">
-        <v>257</v>
-      </c>
-      <c r="K13" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L13" t="n" s="36">
-        <v>1.3507904859204722</v>
-      </c>
-      <c r="M13" t="s" s="36">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="n" s="34">
-        <v>19.707869068774198</v>
-      </c>
-      <c r="C14" t="s" s="84">
-        <v>376</v>
-      </c>
-      <c r="D14" t="n" s="75">
-        <v>1.0420688462368988</v>
-      </c>
-      <c r="E14" t="n" s="76">
-        <v>20.307036588195835</v>
-      </c>
-      <c r="F14" t="n" s="76">
-        <v>15.842497065916383</v>
-      </c>
-      <c r="G14" t="s" s="77">
+      <c r="H31" s="78" t="s">
+        <v>625</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="M31" s="36" t="n">
+        <v>35.09528719877552</v>
+      </c>
+      <c r="AC31" s="36" t="n">
+        <v>46.393729399033624</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>486</v>
+      </c>
+      <c r="E32" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F32" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="H14" t="n" s="78">
-        <v>79.14712153562944</v>
-      </c>
-      <c r="I14" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J14" t="s" s="36">
-        <v>258</v>
-      </c>
-      <c r="K14" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L14" t="n" s="36">
-        <v>23.553014566353113</v>
-      </c>
-      <c r="M14" t="s" s="36">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="n" s="34">
-        <v>5.043438419072843</v>
-      </c>
-      <c r="C15" t="s" s="84">
-        <v>377</v>
-      </c>
-      <c r="D15" t="n" s="75">
-        <v>73.13866264289369</v>
-      </c>
-      <c r="E15" t="n" s="76">
-        <v>97.15949220080473</v>
-      </c>
-      <c r="F15" t="n" s="76">
-        <v>57.050238859088665</v>
-      </c>
-      <c r="G15" t="s" s="77">
+      <c r="H32" s="78" t="s">
+        <v>626</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="M32" s="36" t="n">
+        <v>90.69971365192676</v>
+      </c>
+      <c r="AC32" s="36" t="n">
+        <v>9.55779156513924</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>487</v>
+      </c>
+      <c r="E33" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F33" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="H15" t="n" s="78">
-        <v>18.751163725509823</v>
-      </c>
-      <c r="I15" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J15" t="s" s="36">
-        <v>259</v>
-      </c>
-      <c r="K15" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L15" t="n" s="36">
-        <v>37.73512445422709</v>
-      </c>
-      <c r="M15" t="s" s="36">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n" s="34">
-        <v>5.907581600659972</v>
-      </c>
-      <c r="C16" t="s" s="84">
-        <v>378</v>
-      </c>
-      <c r="D16" t="n" s="75">
-        <v>42.92900279401076</v>
-      </c>
-      <c r="E16" t="n" s="76">
-        <v>25.33215239585499</v>
-      </c>
-      <c r="F16" t="n" s="76">
-        <v>67.13439897593895</v>
-      </c>
-      <c r="G16" t="s" s="77">
+      <c r="H33" s="78" t="s">
+        <v>627</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="M33" s="36" t="n">
+        <v>21.587190049926907</v>
+      </c>
+      <c r="AC33" s="36" t="n">
+        <v>20.949604219809014</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>488</v>
+      </c>
+      <c r="E34" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F34" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="H16" t="n" s="78">
-        <v>90.86241014724827</v>
-      </c>
-      <c r="I16" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J16" t="s" s="36">
-        <v>260</v>
-      </c>
-      <c r="K16" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L16" t="n" s="36">
-        <v>76.39289938569014</v>
-      </c>
-      <c r="M16" t="s" s="36">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n" s="34">
-        <v>38.934067699078426</v>
-      </c>
-      <c r="C17" t="s" s="84">
-        <v>379</v>
-      </c>
-      <c r="D17" t="n" s="75">
-        <v>38.24033410435398</v>
-      </c>
-      <c r="E17" t="n" s="76">
-        <v>23.633543720593863</v>
-      </c>
-      <c r="G17" t="s" s="77">
+      <c r="H34" s="78" t="s">
+        <v>628</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="M34" s="36" t="n">
+        <v>43.92086988550026</v>
+      </c>
+      <c r="AC34" s="36" t="n">
+        <v>44.02933303552224</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>489</v>
+      </c>
+      <c r="E35" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F35" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="H17" t="n" s="78">
-        <v>75.4279097849667</v>
-      </c>
-      <c r="I17" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J17" t="s" s="36">
-        <v>261</v>
-      </c>
-      <c r="K17" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L17" t="n" s="36">
-        <v>55.2267474511263</v>
-      </c>
-      <c r="M17" t="s" s="36">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="n" s="34">
-        <v>99.9783575411836</v>
-      </c>
-      <c r="C18" t="s" s="84">
-        <v>380</v>
-      </c>
-      <c r="D18" t="n" s="75">
-        <v>9.633540158449383</v>
-      </c>
-      <c r="E18" t="n" s="76">
-        <v>90.49506208274167</v>
-      </c>
-      <c r="G18" t="s" s="77">
+      <c r="H35" s="78" t="s">
+        <v>629</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="M35" s="36" t="n">
+        <v>36.2768365160404</v>
+      </c>
+      <c r="AC35" s="36" t="n">
+        <v>60.07453297690707</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>490</v>
+      </c>
+      <c r="E36" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F36" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="H18" t="n" s="78">
-        <v>76.1731340749763</v>
-      </c>
-      <c r="I18" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J18" t="s" s="36">
-        <v>262</v>
-      </c>
-      <c r="K18" t="n" s="36">
-        <v>44965.70028851852</v>
-      </c>
-      <c r="L18" t="n" s="36">
-        <v>18.916345340042017</v>
-      </c>
-      <c r="M18" t="s" s="36">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n" s="34">
-        <v>21.952928368935677</v>
-      </c>
-      <c r="C19" t="s" s="84">
-        <v>381</v>
-      </c>
-      <c r="D19" t="n" s="75">
-        <v>13.90042859598486</v>
-      </c>
-      <c r="E19" t="n" s="76">
-        <v>80.10462772919973</v>
-      </c>
-      <c r="G19" t="s" s="77">
+      <c r="H36" s="78" t="s">
+        <v>630</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="M36" s="36" t="n">
+        <v>74.27547090240192</v>
+      </c>
+      <c r="AC36" s="36" t="n">
+        <v>86.0409021241968</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>491</v>
+      </c>
+      <c r="E37" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F37" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="H19" t="n" s="78">
-        <v>28.592479513236356</v>
-      </c>
-      <c r="I19" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J19" t="s" s="36">
-        <v>263</v>
-      </c>
-      <c r="L19" t="n" s="36">
-        <v>77.21136164808867</v>
-      </c>
-      <c r="M19" t="s" s="36">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n" s="34">
-        <v>78.81312975457739</v>
-      </c>
-      <c r="C20" t="s" s="84">
-        <v>382</v>
-      </c>
-      <c r="D20" t="n" s="75">
-        <v>52.84051876406497</v>
-      </c>
-      <c r="E20" t="n" s="76">
-        <v>84.46518551520829</v>
-      </c>
-      <c r="G20" t="s" s="77">
+      <c r="H37" s="78" t="s">
+        <v>631</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="M37" s="36" t="n">
+        <v>74.52292562370401</v>
+      </c>
+      <c r="AC37" s="36" t="n">
+        <v>39.612977008197426</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>492</v>
+      </c>
+      <c r="E38" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F38" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="H20" t="n" s="78">
-        <v>99.14571473889167</v>
-      </c>
-      <c r="I20" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J20" t="s" s="36">
-        <v>264</v>
-      </c>
-      <c r="L20" t="n" s="36">
-        <v>71.8029831950575</v>
-      </c>
-      <c r="M20" t="s" s="36">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="n" s="34">
-        <v>41.023538019103015</v>
-      </c>
-      <c r="C21" t="s" s="84">
-        <v>383</v>
-      </c>
-      <c r="D21" t="n" s="75">
-        <v>45.4077018313208</v>
-      </c>
-      <c r="E21" t="n" s="76">
-        <v>96.36186548414769</v>
-      </c>
-      <c r="G21" t="s" s="77">
+      <c r="H38" s="78" t="s">
+        <v>632</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="M38" s="36" t="n">
+        <v>75.91634909794853</v>
+      </c>
+      <c r="AC38" s="36" t="n">
+        <v>74.90626809320912</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="84" t="n">
+        <v>44965.85512724537</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>493</v>
+      </c>
+      <c r="E39" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F39" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="H21" t="n" s="78">
-        <v>99.16868207013091</v>
-      </c>
-      <c r="I21" t="n" s="36">
-        <v>44965.700288472224</v>
-      </c>
-      <c r="J21" t="s" s="36">
-        <v>265</v>
-      </c>
-      <c r="L21" t="n" s="36">
-        <v>83.9621126131608</v>
-      </c>
-      <c r="M21" t="s" s="36">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="n" s="34">
-        <v>33.300848006826</v>
-      </c>
-      <c r="C22" t="s" s="84">
-        <v>384</v>
-      </c>
-      <c r="D22" t="n" s="75">
-        <v>15.433697619371213</v>
-      </c>
-      <c r="E22" t="n" s="76">
-        <v>40.90933238909871</v>
-      </c>
-      <c r="G22" t="s" s="77">
+      <c r="H39" s="78" t="s">
+        <v>633</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="M39" s="36" t="n">
+        <v>92.79755448846589</v>
+      </c>
+      <c r="AC39" s="36" t="n">
+        <v>79.06193808007676</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="75" t="s">
+        <v>494</v>
+      </c>
+      <c r="E40" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F40" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="H22" t="n" s="78">
-        <v>34.73935468889565</v>
-      </c>
-      <c r="I22" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="J22" t="s" s="36">
-        <v>266</v>
-      </c>
-      <c r="L22" t="n" s="36">
-        <v>1.1181947274403026</v>
-      </c>
-      <c r="M22" t="s" s="36">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="n" s="34">
-        <v>47.03153691881192</v>
-      </c>
-      <c r="C23" t="s" s="84">
-        <v>385</v>
-      </c>
-      <c r="D23" t="n" s="75">
-        <v>82.30289541217964</v>
-      </c>
-      <c r="E23" t="n" s="76">
-        <v>85.53234096387564</v>
-      </c>
-      <c r="G23" t="s" s="77">
+      <c r="H40" s="78" t="s">
+        <v>634</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="M40" s="36" t="n">
+        <v>47.421626259301185</v>
+      </c>
+      <c r="AC40" s="36" t="n">
+        <v>71.80162921170283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="75" t="s">
+        <v>495</v>
+      </c>
+      <c r="E41" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F41" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="H23" t="n" s="78">
-        <v>5.825458384297832</v>
-      </c>
-      <c r="I23" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="J23" t="s" s="36">
-        <v>267</v>
-      </c>
-      <c r="L23" t="n" s="36">
-        <v>91.23045909220998</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="n" s="34">
-        <v>38.80504221396328</v>
-      </c>
-      <c r="C24" t="s" s="84">
-        <v>386</v>
-      </c>
-      <c r="D24" t="n" s="75">
-        <v>23.05895716299362</v>
-      </c>
-      <c r="E24" t="n" s="76">
-        <v>36.36994912506001</v>
-      </c>
-      <c r="G24" t="s" s="77">
+      <c r="H41" s="78" t="s">
+        <v>635</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="M41" s="36" t="n">
+        <v>95.30180467814452</v>
+      </c>
+      <c r="AC41" s="36" t="n">
+        <v>27.140987846256827</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" s="75" t="s">
+        <v>496</v>
+      </c>
+      <c r="E42" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F42" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="H24" t="n" s="78">
-        <v>84.27175474356883</v>
-      </c>
-      <c r="I24" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="L24" t="n" s="36">
-        <v>74.53883843165409</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="n" s="34">
-        <v>79.256516990562</v>
-      </c>
-      <c r="C25" t="s" s="84">
-        <v>387</v>
-      </c>
-      <c r="D25" t="n" s="75">
-        <v>5.803181943342118</v>
-      </c>
-      <c r="E25" t="n" s="76">
-        <v>24.523420093094362</v>
-      </c>
-      <c r="G25" t="s" s="77">
+      <c r="H42" s="78" t="s">
+        <v>636</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="M42" s="36" t="n">
+        <v>83.88959030961898</v>
+      </c>
+      <c r="AC42" s="36" t="n">
+        <v>24.75629562143602</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" s="75" t="s">
+        <v>497</v>
+      </c>
+      <c r="E43" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F43" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="H25" t="n" s="78">
-        <v>42.65826290151733</v>
-      </c>
-      <c r="I25" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="L25" t="n" s="36">
-        <v>1.7870324446867647</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="n" s="34">
-        <v>63.46561446406278</v>
-      </c>
-      <c r="C26" t="s" s="84">
-        <v>388</v>
-      </c>
-      <c r="D26" t="n" s="75">
-        <v>80.20559130576387</v>
-      </c>
-      <c r="E26" t="n" s="76">
-        <v>39.95601213290867</v>
-      </c>
-      <c r="G26" t="s" s="77">
+      <c r="H43" s="78" t="s">
+        <v>637</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="M43" s="36" t="n">
+        <v>26.779072982327</v>
+      </c>
+      <c r="AC43" s="36" t="n">
+        <v>56.29439388719092</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" s="75" t="s">
+        <v>498</v>
+      </c>
+      <c r="E44" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F44" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="H26" t="n" s="78">
-        <v>56.25539576862945</v>
-      </c>
-      <c r="I26" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="L26" t="n" s="36">
-        <v>63.62739678635935</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="n" s="34">
-        <v>22.97966036220863</v>
-      </c>
-      <c r="C27" t="s" s="84">
-        <v>389</v>
-      </c>
-      <c r="D27" t="n" s="75">
-        <v>31.38342455825116</v>
-      </c>
-      <c r="E27" t="n" s="76">
-        <v>24.629282154731413</v>
-      </c>
-      <c r="G27" t="s" s="77">
+      <c r="H44" s="78" t="s">
+        <v>638</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="M44" s="36" t="n">
+        <v>20.35427787080415</v>
+      </c>
+      <c r="AC44" s="36" t="n">
+        <v>22.136969395529515</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="E45" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F45" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="H27" t="n" s="78">
-        <v>3.7592189667365106</v>
-      </c>
-      <c r="I27" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="L27" t="n" s="36">
-        <v>85.33489062209216</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="n" s="34">
-        <v>99.3924915492577</v>
-      </c>
-      <c r="C28" t="s" s="84">
-        <v>390</v>
-      </c>
-      <c r="D28" t="n" s="75">
-        <v>68.62319078721352</v>
-      </c>
-      <c r="E28" t="n" s="76">
-        <v>34.99656571719928</v>
-      </c>
-      <c r="G28" t="s" s="77">
+      <c r="H45" s="78" t="s">
+        <v>639</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="M45" s="36" t="n">
+        <v>44.361884459020665</v>
+      </c>
+      <c r="AC45" s="36" t="n">
+        <v>52.04137148467284</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="E46" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F46" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="H28" t="n" s="78">
-        <v>15.213062893856355</v>
-      </c>
-      <c r="I28" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="L28" t="n" s="36">
-        <v>42.917857773438385</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="n" s="34">
-        <v>58.423422215314424</v>
-      </c>
-      <c r="C29" t="s" s="84">
-        <v>391</v>
-      </c>
-      <c r="D29" t="n" s="75">
-        <v>20.004676706075543</v>
-      </c>
-      <c r="E29" t="n" s="76">
-        <v>41.89558165574364</v>
-      </c>
-      <c r="G29" t="s" s="77">
+      <c r="H46" s="78" t="s">
+        <v>640</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="M46" s="36" t="n">
+        <v>83.80974222913149</v>
+      </c>
+      <c r="AC46" s="36" t="n">
+        <v>50.68784959341907</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="75" t="s">
+        <v>501</v>
+      </c>
+      <c r="E47" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F47" s="76" t="s">
         <v>291</v>
       </c>
-      <c r="H29" t="n" s="78">
-        <v>56.873741234872014</v>
-      </c>
-      <c r="I29" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="L29" t="n" s="36">
-        <v>21.108958014499855</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="n" s="34">
-        <v>53.09904636758166</v>
-      </c>
-      <c r="C30" t="s" s="84">
-        <v>392</v>
-      </c>
-      <c r="D30" t="n" s="75">
-        <v>49.978188841820106</v>
-      </c>
-      <c r="E30" t="n" s="76">
-        <v>30.531798067741722</v>
-      </c>
-      <c r="G30" t="s" s="77">
+      <c r="H47" s="78" t="s">
+        <v>641</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="M47" s="36" t="n">
+        <v>90.98008984886489</v>
+      </c>
+      <c r="AC47" s="36" t="n">
+        <v>52.90583603960233</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" s="75" t="s">
+        <v>502</v>
+      </c>
+      <c r="E48" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F48" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="H30" t="n" s="78">
-        <v>5.2656750601445035</v>
-      </c>
-      <c r="I30" t="n" s="36">
-        <v>44965.70028849537</v>
-      </c>
-      <c r="L30" t="n" s="36">
-        <v>82.08489070087643</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="n" s="34">
-        <v>17.89563944577778</v>
-      </c>
-      <c r="C31" t="s" s="84">
-        <v>393</v>
-      </c>
-      <c r="D31" t="n" s="75">
-        <v>22.49631493088812</v>
-      </c>
-      <c r="E31" t="n" s="76">
-        <v>13.936814162306765</v>
-      </c>
-      <c r="G31" t="s" s="77">
+      <c r="H48" s="78" t="s">
+        <v>642</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="M48" s="36" t="n">
+        <v>40.72126064876311</v>
+      </c>
+      <c r="AC48" s="36" t="n">
+        <v>32.34948921966764</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" s="75" t="s">
+        <v>503</v>
+      </c>
+      <c r="E49" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F49" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="H31" t="n" s="78">
-        <v>19.611169547466133</v>
-      </c>
-      <c r="L31" t="n" s="36">
-        <v>16.812391274533066</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="n" s="34">
-        <v>10.200730445818284</v>
-      </c>
-      <c r="C32" t="s" s="84">
-        <v>394</v>
-      </c>
-      <c r="D32" t="n" s="75">
-        <v>32.31150035213469</v>
-      </c>
-      <c r="E32" t="n" s="76">
-        <v>53.61879686595644</v>
-      </c>
-      <c r="G32" t="s" s="77">
+      <c r="H49" s="78" t="s">
+        <v>643</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="M49" s="36" t="n">
+        <v>50.80858870290859</v>
+      </c>
+      <c r="AC49" s="36" t="n">
+        <v>95.14074181408351</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" s="75" t="s">
+        <v>504</v>
+      </c>
+      <c r="E50" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F50" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="H32" t="n" s="78">
-        <v>89.60285774787081</v>
-      </c>
-      <c r="L32" t="n" s="36">
-        <v>60.384486617975995</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="n" s="34">
-        <v>44.21335817034772</v>
-      </c>
-      <c r="C33" t="s" s="84">
-        <v>395</v>
-      </c>
-      <c r="D33" t="n" s="75">
-        <v>38.14764955526253</v>
-      </c>
-      <c r="E33" t="n" s="76">
-        <v>27.232252202740902</v>
-      </c>
-      <c r="G33" t="s" s="77">
+      <c r="H50" s="78" t="s">
+        <v>644</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="M50" s="36" t="n">
+        <v>64.21287838766654</v>
+      </c>
+      <c r="AC50" s="36" t="n">
+        <v>73.02751988865086</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" s="75" t="s">
+        <v>505</v>
+      </c>
+      <c r="E51" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F51" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="H33" t="n" s="78">
-        <v>47.54292555705919</v>
-      </c>
-      <c r="L33" t="n" s="36">
-        <v>40.38949350554587</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="n" s="34">
-        <v>69.7973715996215</v>
-      </c>
-      <c r="C34" t="s" s="84">
-        <v>396</v>
-      </c>
-      <c r="E34" t="n" s="76">
-        <v>1.3811468467660015</v>
-      </c>
-      <c r="G34" t="s" s="77">
+      <c r="H51" s="78" t="s">
+        <v>645</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="M51" s="36" t="n">
+        <v>1.5073502463597177</v>
+      </c>
+      <c r="AC51" s="36" t="n">
+        <v>13.242863714770204</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="75" t="s">
+        <v>506</v>
+      </c>
+      <c r="E52" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F52" s="76" t="s">
         <v>296</v>
       </c>
-      <c r="H34" t="n" s="78">
-        <v>29.463561977954654</v>
-      </c>
-      <c r="L34" t="n" s="36">
-        <v>24.852002974085963</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="n" s="34">
-        <v>90.39348184358181</v>
-      </c>
-      <c r="C35" t="s" s="84">
-        <v>397</v>
-      </c>
-      <c r="E35" t="n" s="76">
-        <v>11.117228971693127</v>
-      </c>
-      <c r="G35" t="s" s="77">
+      <c r="H52" s="78" t="s">
+        <v>646</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" s="36" t="n">
+        <v>87.12543773347889</v>
+      </c>
+      <c r="AC52" s="36" t="n">
+        <v>77.25303106058561</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="E53" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F53" s="76" t="s">
         <v>297</v>
       </c>
-      <c r="H35" t="n" s="78">
-        <v>50.95600820810717</v>
-      </c>
-      <c r="L35" t="n" s="36">
-        <v>74.6245380157743</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="n" s="34">
-        <v>64.44429869849199</v>
-      </c>
-      <c r="C36" t="s" s="84">
-        <v>398</v>
-      </c>
-      <c r="E36" t="n" s="76">
-        <v>20.568547416031556</v>
-      </c>
-      <c r="G36" t="s" s="77">
+      <c r="H53" s="78" t="s">
+        <v>647</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC53" s="36" t="n">
+        <v>1.0231662622947613</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" s="75" t="s">
+        <v>508</v>
+      </c>
+      <c r="E54" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F54" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="H36" t="n" s="78">
-        <v>39.09927063659805</v>
-      </c>
-      <c r="L36" t="n" s="36">
-        <v>63.957499675480975</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="n" s="34">
-        <v>98.00390946315636</v>
-      </c>
-      <c r="C37" t="s" s="84">
-        <v>399</v>
-      </c>
-      <c r="E37" t="n" s="76">
-        <v>5.428545189516331</v>
-      </c>
-      <c r="G37" t="s" s="77">
+      <c r="H54" s="78" t="s">
+        <v>648</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC54" s="36" t="n">
+        <v>77.86709772379659</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" s="75" t="s">
+        <v>509</v>
+      </c>
+      <c r="E55" s="76" t="n">
+        <v>44965.85512712963</v>
+      </c>
+      <c r="F55" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="H37" t="n" s="78">
-        <v>89.56804175251743</v>
-      </c>
-      <c r="L37" t="n" s="36">
-        <v>24.877940958330523</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="n" s="34">
-        <v>69.63977761323311</v>
-      </c>
-      <c r="C38" t="s" s="84">
-        <v>400</v>
-      </c>
-      <c r="E38" t="n" s="76">
-        <v>9.712454055073927</v>
-      </c>
-      <c r="G38" t="s" s="77">
+      <c r="H55" s="78" t="s">
+        <v>649</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC55" s="36" t="n">
+        <v>21.509652409331636</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" s="75" t="s">
+        <v>510</v>
+      </c>
+      <c r="F56" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="H38" t="n" s="78">
-        <v>67.55733236926855</v>
-      </c>
-      <c r="L38" t="n" s="36">
-        <v>26.64629204781833</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="n" s="34">
-        <v>70.81717057360541</v>
-      </c>
-      <c r="C39" t="s" s="84">
-        <v>401</v>
-      </c>
-      <c r="E39" t="n" s="76">
-        <v>55.8096422140589</v>
-      </c>
-      <c r="G39" t="s" s="77">
+      <c r="H56" s="78" t="s">
+        <v>650</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC56" s="36" t="n">
+        <v>88.63322017239597</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" s="75" t="s">
+        <v>511</v>
+      </c>
+      <c r="F57" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="H39" t="n" s="78">
-        <v>77.24959855578234</v>
-      </c>
-      <c r="L39" t="n" s="36">
-        <v>87.67940678564405</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="n" s="34">
-        <v>3.8177284159731317</v>
-      </c>
-      <c r="C40" t="s" s="84">
-        <v>402</v>
-      </c>
-      <c r="E40" t="n" s="76">
-        <v>18.926124646791752</v>
-      </c>
-      <c r="G40" t="s" s="77">
+      <c r="H57" s="78" t="s">
+        <v>651</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC57" s="36" t="n">
+        <v>79.0301446690067</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" s="75" t="s">
+        <v>512</v>
+      </c>
+      <c r="F58" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="H40" t="n" s="78">
-        <v>59.26063656542575</v>
-      </c>
-      <c r="L40" t="n" s="36">
-        <v>9.59447205167252</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="n" s="34">
-        <v>29.409174158500896</v>
-      </c>
-      <c r="C41" t="s" s="84">
-        <v>403</v>
-      </c>
-      <c r="E41" t="n" s="76">
-        <v>90.84940108238592</v>
-      </c>
-      <c r="G41" t="s" s="77">
+      <c r="H58" s="78" t="s">
+        <v>652</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC58" s="36" t="n">
+        <v>0.7554401373106812</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" s="75" t="s">
+        <v>513</v>
+      </c>
+      <c r="F59" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="H41" t="n" s="78">
-        <v>63.400792946341745</v>
-      </c>
-      <c r="L41" t="n" s="36">
-        <v>71.70848738540401</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="n" s="34">
-        <v>6.501945705879741</v>
-      </c>
-      <c r="C42" t="s" s="84">
-        <v>404</v>
-      </c>
-      <c r="E42" t="n" s="76">
-        <v>70.72563874933924</v>
-      </c>
-      <c r="G42" t="s" s="77">
+      <c r="H59" s="78" t="s">
+        <v>653</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC59" s="36" t="n">
+        <v>9.330788260573886</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" s="75" t="s">
+        <v>514</v>
+      </c>
+      <c r="F60" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="H42" t="n" s="78">
-        <v>57.588653194477814</v>
-      </c>
-      <c r="L42" t="n" s="36">
-        <v>91.3080464063351</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="n" s="34">
-        <v>0.5712324986610562</v>
-      </c>
-      <c r="C43" t="s" s="84">
-        <v>405</v>
-      </c>
-      <c r="E43" t="n" s="76">
-        <v>29.396948683606105</v>
-      </c>
-      <c r="G43" t="s" s="77">
+      <c r="H60" s="78" t="s">
+        <v>654</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC60" s="36" t="n">
+        <v>28.942195511624202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="75" t="s">
+        <v>515</v>
+      </c>
+      <c r="F61" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="H43" t="n" s="78">
-        <v>47.3145579032875</v>
-      </c>
-      <c r="L43" t="n" s="36">
-        <v>66.28531415401329</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="n" s="34">
-        <v>3.17994119203846</v>
-      </c>
-      <c r="C44" t="s" s="84">
-        <v>406</v>
-      </c>
-      <c r="E44" t="n" s="76">
-        <v>84.22697358394593</v>
-      </c>
-      <c r="G44" t="s" s="77">
+      <c r="H61" s="78" t="s">
+        <v>655</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC61" s="36" t="n">
+        <v>68.47348750912847</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" s="75" t="s">
+        <v>516</v>
+      </c>
+      <c r="F62" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="H44" t="n" s="78">
-        <v>27.362599717710236</v>
-      </c>
-      <c r="L44" t="n" s="36">
-        <v>65.17478315078395</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="n" s="34">
-        <v>98.88896385399558</v>
-      </c>
-      <c r="C45" t="s" s="84">
-        <v>407</v>
-      </c>
-      <c r="E45" t="n" s="76">
-        <v>44.50489355489915</v>
-      </c>
-      <c r="G45" t="s" s="77">
+      <c r="H62" s="78" t="s">
+        <v>656</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC62" s="36" t="n">
+        <v>37.754019712791944</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="F63" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="H45" t="n" s="78">
-        <v>56.4138727160512</v>
-      </c>
-      <c r="L45" t="n" s="36">
-        <v>78.30941557744467</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="n" s="34">
-        <v>54.282433748493</v>
-      </c>
-      <c r="C46" t="s" s="84">
-        <v>408</v>
-      </c>
-      <c r="E46" t="n" s="76">
-        <v>48.55126045823993</v>
-      </c>
-      <c r="G46" t="s" s="77">
+      <c r="H63" s="78" t="s">
+        <v>657</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC63" s="36" t="n">
+        <v>87.52607852986432</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" s="75" t="s">
+        <v>518</v>
+      </c>
+      <c r="F64" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="H46" t="n" s="78">
-        <v>60.745674416159105</v>
-      </c>
-      <c r="L46" t="n" s="36">
-        <v>21.088165096305435</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="n" s="34">
-        <v>84.18483804407188</v>
-      </c>
-      <c r="C47" t="s" s="84">
-        <v>409</v>
-      </c>
-      <c r="E47" t="n" s="76">
-        <v>76.50918637256102</v>
-      </c>
-      <c r="G47" t="s" s="77">
+      <c r="H64" s="78" t="s">
+        <v>658</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC64" s="36" t="n">
+        <v>89.91714057030565</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" s="75" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" s="76" t="s">
         <v>309</v>
       </c>
-      <c r="H47" t="n" s="78">
-        <v>60.02202629535671</v>
-      </c>
-      <c r="L47" t="n" s="36">
-        <v>23.12660841129478</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="n" s="34">
-        <v>90.16225814141208</v>
-      </c>
-      <c r="C48" t="s" s="84">
-        <v>410</v>
-      </c>
-      <c r="E48" t="n" s="76">
-        <v>29.65567572311436</v>
-      </c>
-      <c r="G48" t="s" s="77">
+      <c r="H65" s="78" t="s">
+        <v>659</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC65" s="36" t="n">
+        <v>25.778966932754145</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" s="75" t="s">
+        <v>520</v>
+      </c>
+      <c r="F66" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="H48" t="n" s="78">
-        <v>88.09177314364572</v>
-      </c>
-      <c r="L48" t="n" s="36">
-        <v>29.71253938248235</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="n" s="34">
-        <v>91.88212332184357</v>
-      </c>
-      <c r="C49" t="s" s="84">
-        <v>411</v>
-      </c>
-      <c r="E49" t="n" s="76">
-        <v>84.82136528066823</v>
-      </c>
-      <c r="G49" t="s" s="77">
+      <c r="H66" s="78" t="s">
+        <v>660</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC66" s="36" t="n">
+        <v>2.047669980950928</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" s="75" t="s">
+        <v>521</v>
+      </c>
+      <c r="F67" s="76" t="s">
         <v>311</v>
       </c>
-      <c r="H49" t="n" s="78">
-        <v>55.22410610778179</v>
-      </c>
-      <c r="L49" t="n" s="36">
-        <v>13.639099822313172</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="n" s="34">
-        <v>40.97075100128627</v>
-      </c>
-      <c r="C50" t="s" s="84">
-        <v>412</v>
-      </c>
-      <c r="E50" t="n" s="76">
-        <v>80.07395214539632</v>
-      </c>
-      <c r="G50" t="s" s="77">
+      <c r="H67" s="78" t="s">
+        <v>661</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC67" s="36" t="n">
+        <v>82.5203144258442</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" s="75" t="s">
+        <v>522</v>
+      </c>
+      <c r="F68" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="H50" t="n" s="78">
-        <v>71.27930561648716</v>
-      </c>
-      <c r="L50" t="n" s="36">
-        <v>79.3208577389541</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="n" s="34">
-        <v>99.44943757826454</v>
-      </c>
-      <c r="C51" t="s" s="84">
-        <v>413</v>
-      </c>
-      <c r="E51" t="n" s="76">
-        <v>63.217500987541996</v>
-      </c>
-      <c r="G51" t="s" s="77">
+      <c r="H68" s="78" t="s">
+        <v>662</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC68" s="36" t="n">
+        <v>43.347359963117505</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" s="75" t="s">
+        <v>523</v>
+      </c>
+      <c r="F69" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="H51" t="n" s="78">
-        <v>9.876807449956736</v>
-      </c>
-      <c r="L51" t="n" s="36">
-        <v>64.73133220770548</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="n" s="34">
-        <v>30.708985858535144</v>
-      </c>
-      <c r="C52" t="s" s="84">
-        <v>414</v>
-      </c>
-      <c r="E52" t="n" s="76">
-        <v>51.73321898326918</v>
-      </c>
-      <c r="G52" t="s" s="77">
+      <c r="H69" s="78" t="s">
+        <v>663</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC69" s="36" t="n">
+        <v>87.47007897390478</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="75" t="s">
+        <v>524</v>
+      </c>
+      <c r="F70" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="H52" t="n" s="78">
-        <v>6.679513375380141</v>
-      </c>
-      <c r="L52" t="n" s="36">
-        <v>13.446085726115719</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="n" s="34">
-        <v>3.2121761494487977</v>
-      </c>
-      <c r="C53" t="s" s="84">
-        <v>415</v>
-      </c>
-      <c r="E53" t="n" s="76">
-        <v>12.948937960830985</v>
-      </c>
-      <c r="G53" t="s" s="77">
+      <c r="H70" s="78" t="s">
+        <v>664</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="L70" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC70" s="36" t="n">
+        <v>94.39974550274388</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="75" t="s">
+        <v>525</v>
+      </c>
+      <c r="F71" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="H53" t="n" s="78">
-        <v>65.95757079152793</v>
-      </c>
-      <c r="L53" t="n" s="36">
-        <v>25.45494987133906</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="n" s="34">
-        <v>58.42732466005035</v>
-      </c>
-      <c r="C54" t="s" s="84">
-        <v>416</v>
-      </c>
-      <c r="E54" t="n" s="76">
-        <v>38.21059749678945</v>
-      </c>
-      <c r="G54" t="s" s="77">
+      <c r="H71" s="78" t="s">
+        <v>665</v>
+      </c>
+      <c r="K71" s="36" t="s">
+        <v>597</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC71" s="36" t="n">
+        <v>68.06486225305927</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="75" t="s">
+        <v>526</v>
+      </c>
+      <c r="F72" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="H54" t="n" s="78">
-        <v>91.82254633472469</v>
-      </c>
-      <c r="L54" t="n" s="36">
-        <v>80.94218282681615</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="n" s="34">
-        <v>79.81753586818532</v>
-      </c>
-      <c r="C55" t="s" s="84">
-        <v>417</v>
-      </c>
-      <c r="E55" t="n" s="76">
-        <v>82.1268716363849</v>
-      </c>
-      <c r="G55" t="s" s="77">
+      <c r="H72" s="78" t="s">
+        <v>666</v>
+      </c>
+      <c r="K72" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="AC72" s="36" t="n">
+        <v>97.8747539341295</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="F73" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="H55" t="n" s="78">
-        <v>31.810665948492133</v>
-      </c>
-      <c r="L55" t="n" s="36">
-        <v>92.15453063168052</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="n" s="34">
-        <v>90.56338295772166</v>
-      </c>
-      <c r="C56" t="s" s="84">
-        <v>418</v>
-      </c>
-      <c r="E56" t="n" s="76">
-        <v>21.163650520194942</v>
-      </c>
-      <c r="G56" t="s" s="77">
+      <c r="H73" s="78" t="s">
+        <v>667</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>599</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC73" s="36" t="n">
+        <v>12.217597834953297</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" s="75" t="s">
+        <v>528</v>
+      </c>
+      <c r="F74" s="76" t="s">
         <v>318</v>
       </c>
-      <c r="H56" t="n" s="78">
-        <v>11.793320622343085</v>
-      </c>
-      <c r="L56" t="n" s="36">
-        <v>77.61082730501965</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="n" s="34">
-        <v>15.923592002041664</v>
-      </c>
-      <c r="C57" t="s" s="84">
-        <v>419</v>
-      </c>
-      <c r="E57" t="n" s="76">
-        <v>87.86238100918696</v>
-      </c>
-      <c r="G57" t="s" s="77">
+      <c r="H74" s="78" t="s">
+        <v>668</v>
+      </c>
+      <c r="L74" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC74" s="36" t="n">
+        <v>83.96349032128724</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="F75" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="H57" t="n" s="78">
-        <v>38.60723850752665</v>
-      </c>
-      <c r="L57" t="n" s="36">
-        <v>3.637928064938367</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="n" s="34">
-        <v>29.81205223018003</v>
-      </c>
-      <c r="C58" t="s" s="84">
-        <v>420</v>
-      </c>
-      <c r="E58" t="n" s="76">
-        <v>94.43634237894902</v>
-      </c>
-      <c r="G58" t="s" s="77">
+      <c r="H75" s="78" t="s">
+        <v>669</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC75" s="36" t="n">
+        <v>96.32687865643689</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="F76" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="H58" t="n" s="78">
-        <v>15.229242045013935</v>
-      </c>
-      <c r="L58" t="n" s="36">
-        <v>71.03817852887022</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="n" s="34">
-        <v>30.222893117147887</v>
-      </c>
-      <c r="C59" t="s" s="84">
-        <v>421</v>
-      </c>
-      <c r="E59" t="n" s="76">
-        <v>52.95460849631475</v>
-      </c>
-      <c r="G59" t="s" s="77">
+      <c r="H76" s="78" t="s">
+        <v>670</v>
+      </c>
+      <c r="L76" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC76" s="36" t="n">
+        <v>70.49778445697306</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="F77" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="H59" t="n" s="78">
-        <v>20.211255364125424</v>
-      </c>
-      <c r="L59" t="n" s="36">
-        <v>0.4798758645563006</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="n" s="34">
-        <v>64.84071515350897</v>
-      </c>
-      <c r="C60" t="s" s="84">
-        <v>422</v>
-      </c>
-      <c r="E60" t="n" s="76">
-        <v>43.29143461842523</v>
-      </c>
-      <c r="G60" t="s" s="77">
+      <c r="H77" s="78" t="s">
+        <v>671</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC77" s="36" t="n">
+        <v>7.622043916426346</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="H60" t="n" s="78">
-        <v>76.38230634762336</v>
-      </c>
-      <c r="L60" t="n" s="36">
-        <v>24.987295133361354</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="n" s="34">
-        <v>32.242195409205365</v>
-      </c>
-      <c r="C61" t="s" s="84">
-        <v>423</v>
-      </c>
-      <c r="E61" t="n" s="76">
-        <v>13.953651204528839</v>
-      </c>
-      <c r="G61" t="s" s="77">
+      <c r="H78" s="78" t="s">
+        <v>672</v>
+      </c>
+      <c r="L78" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC78" s="36" t="n">
+        <v>2.309172632804335</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" s="76" t="s">
         <v>323</v>
       </c>
-      <c r="H61" t="n" s="78">
-        <v>38.91876889368816</v>
-      </c>
-      <c r="L61" t="n" s="36">
-        <v>59.53658440676829</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="n" s="34">
-        <v>87.78945975638389</v>
-      </c>
-      <c r="C62" t="s" s="84">
-        <v>424</v>
-      </c>
-      <c r="E62" t="n" s="76">
-        <v>71.69920246216746</v>
-      </c>
-      <c r="G62" t="s" s="77">
+      <c r="H79" s="78" t="s">
+        <v>673</v>
+      </c>
+      <c r="L79" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC79" s="36" t="n">
+        <v>48.905836319792705</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="F80" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="H62" t="n" s="78">
-        <v>68.98999445217632</v>
-      </c>
-      <c r="L62" t="n" s="36">
-        <v>95.4539373111901</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="n" s="34">
-        <v>62.58007328694934</v>
-      </c>
-      <c r="C63" t="s" s="84">
-        <v>425</v>
-      </c>
-      <c r="E63" t="n" s="76">
-        <v>8.685583839299127</v>
-      </c>
-      <c r="G63" t="s" s="77">
+      <c r="H80" s="78" t="s">
+        <v>674</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="AC80" s="36" t="n">
+        <v>64.35907984358657</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" s="76" t="s">
         <v>325</v>
       </c>
-      <c r="H63" t="n" s="78">
-        <v>16.061797902087715</v>
-      </c>
-      <c r="L63" t="n" s="36">
-        <v>20.746138657711267</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="n" s="34">
-        <v>53.08405693929679</v>
-      </c>
-      <c r="C64" t="s" s="84">
-        <v>426</v>
-      </c>
-      <c r="E64" t="n" s="76">
-        <v>80.53094364806228</v>
-      </c>
-      <c r="G64" t="s" s="77">
+      <c r="H81" s="78" t="s">
+        <v>675</v>
+      </c>
+      <c r="L81" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC81" s="36" t="n">
+        <v>2.9625816913564584</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="F82" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="H64" t="n" s="78">
-        <v>13.677006411033243</v>
-      </c>
-      <c r="L64" t="n" s="36">
-        <v>52.72652073912989</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="n" s="34">
-        <v>16.013312222213983</v>
-      </c>
-      <c r="C65" t="s" s="84">
-        <v>427</v>
-      </c>
-      <c r="E65" t="n" s="76">
-        <v>84.3809311211041</v>
-      </c>
-      <c r="G65" t="s" s="77">
+      <c r="H82" s="78" t="s">
+        <v>676</v>
+      </c>
+      <c r="L82" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="AC82" s="36" t="n">
+        <v>37.999075464210186</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="F83" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="H65" t="n" s="78">
-        <v>6.650319280475747</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="n" s="34">
-        <v>40.95493093632528</v>
-      </c>
-      <c r="C66" t="s" s="84">
-        <v>428</v>
-      </c>
-      <c r="E66" t="n" s="76">
-        <v>88.33664028903358</v>
-      </c>
-      <c r="G66" t="s" s="77">
+      <c r="H83" s="78" t="s">
+        <v>677</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="F84" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="H66" t="n" s="78">
-        <v>46.349360574840595</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="n" s="34">
-        <v>40.44393604651919</v>
-      </c>
-      <c r="C67" t="s" s="84">
-        <v>429</v>
-      </c>
-      <c r="E67" t="n" s="76">
-        <v>2.024028494456187</v>
-      </c>
-      <c r="G67" t="s" s="77">
+      <c r="H84" s="78" t="s">
+        <v>678</v>
+      </c>
+      <c r="L84" s="36" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="F85" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="H67" t="n" s="78">
-        <v>53.03930310498232</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="n" s="34">
-        <v>45.577338358422494</v>
-      </c>
-      <c r="C68" t="s" s="84">
-        <v>430</v>
-      </c>
-      <c r="E68" t="n" s="76">
-        <v>65.16469877511247</v>
-      </c>
-      <c r="G68" t="s" s="77">
+      <c r="H85" s="78" t="s">
+        <v>679</v>
+      </c>
+      <c r="L85" s="36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="F86" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="H68" t="n" s="78">
-        <v>97.67277267382991</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="n" s="34">
-        <v>35.75646420269106</v>
-      </c>
-      <c r="C69" t="s" s="84">
-        <v>431</v>
-      </c>
-      <c r="E69" t="n" s="76">
-        <v>57.13031579476293</v>
-      </c>
-      <c r="G69" t="s" s="77">
+      <c r="H86" s="78" t="s">
+        <v>680</v>
+      </c>
+      <c r="L86" s="36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="F87" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="H69" t="n" s="78">
-        <v>62.58731154194829</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="n" s="34">
-        <v>83.36787826401921</v>
-      </c>
-      <c r="C70" t="s" s="84">
-        <v>432</v>
-      </c>
-      <c r="E70" t="n" s="76">
-        <v>81.20519940545981</v>
-      </c>
-      <c r="G70" t="s" s="77">
+      <c r="H87" s="78" t="s">
+        <v>681</v>
+      </c>
+      <c r="L87" s="36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="F88" s="76" t="s">
         <v>332</v>
       </c>
-      <c r="H70" t="n" s="78">
-        <v>69.43990606911086</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="n" s="34">
-        <v>3.6573445626225554</v>
-      </c>
-      <c r="C71" t="s" s="84">
-        <v>433</v>
-      </c>
-      <c r="E71" t="n" s="76">
-        <v>14.615662701895015</v>
-      </c>
-      <c r="G71" t="s" s="77">
+      <c r="H88" s="78" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="F89" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="H71" t="n" s="78">
-        <v>28.516731214209656</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="n" s="34">
-        <v>78.1941283950766</v>
-      </c>
-      <c r="C72" t="s" s="84">
-        <v>434</v>
-      </c>
-      <c r="E72" t="n" s="76">
-        <v>95.06712209060217</v>
-      </c>
-      <c r="G72" t="s" s="77">
+      <c r="H89" s="78" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="F90" s="76" t="s">
         <v>334</v>
       </c>
-      <c r="H72" t="n" s="78">
-        <v>52.67990296254985</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="n" s="34">
-        <v>55.385586830634516</v>
-      </c>
-      <c r="C73" t="s" s="84">
-        <v>435</v>
-      </c>
-      <c r="E73" t="n" s="76">
-        <v>27.56271246658464</v>
-      </c>
-      <c r="G73" t="s" s="77">
-        <v>335</v>
-      </c>
-      <c r="H73" t="n" s="78">
-        <v>78.35333799453508</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="n" s="34">
-        <v>32.644128856341446</v>
-      </c>
-      <c r="C74" t="s" s="84">
-        <v>436</v>
-      </c>
-      <c r="E74" t="n" s="76">
-        <v>61.956900883539234</v>
-      </c>
-      <c r="G74" t="s" s="77">
-        <v>336</v>
-      </c>
-      <c r="H74" t="n" s="78">
-        <v>4.065071837274337</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="n" s="34">
-        <v>3.287934636215817</v>
-      </c>
-      <c r="C75" t="s" s="84">
-        <v>437</v>
-      </c>
-      <c r="E75" t="n" s="76">
-        <v>2.3928156381679</v>
-      </c>
-      <c r="G75" t="s" s="77">
-        <v>337</v>
-      </c>
-      <c r="H75" t="n" s="78">
-        <v>18.637241278655424</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="n" s="34">
-        <v>7.689455376680499</v>
-      </c>
-      <c r="C76" t="s" s="84">
-        <v>438</v>
-      </c>
-      <c r="E76" t="n" s="76">
-        <v>97.19571373872225</v>
-      </c>
-      <c r="G76" t="s" s="77">
-        <v>338</v>
-      </c>
-      <c r="H76" t="n" s="78">
-        <v>94.90249854959546</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="n" s="34">
-        <v>5.678836519474384</v>
-      </c>
-      <c r="C77" t="s" s="84">
-        <v>439</v>
-      </c>
-      <c r="E77" t="n" s="76">
-        <v>1.1599916048430359</v>
-      </c>
-      <c r="G77" t="s" s="77">
-        <v>339</v>
-      </c>
-      <c r="H77" t="n" s="78">
-        <v>2.843460342620663</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="n" s="34">
-        <v>65.75117216174799</v>
-      </c>
-      <c r="C78" t="s" s="84">
-        <v>440</v>
-      </c>
-      <c r="E78" t="n" s="76">
-        <v>4.243782134975616</v>
-      </c>
-      <c r="G78" t="s" s="77">
-        <v>340</v>
-      </c>
-      <c r="H78" t="n" s="78">
-        <v>73.20419747694294</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="n" s="34">
-        <v>14.75257729556424</v>
-      </c>
-      <c r="C79" t="s" s="84">
-        <v>441</v>
-      </c>
-      <c r="E79" t="n" s="76">
-        <v>64.39909766653203</v>
-      </c>
-      <c r="G79" t="s" s="77">
-        <v>341</v>
-      </c>
-      <c r="H79" t="n" s="78">
-        <v>87.97621107999758</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="n" s="34">
-        <v>57.095944122163274</v>
-      </c>
-      <c r="C80" t="s" s="84">
-        <v>442</v>
-      </c>
-      <c r="E80" t="n" s="76">
-        <v>64.10174435898169</v>
-      </c>
-      <c r="G80" t="s" s="77">
-        <v>342</v>
-      </c>
-      <c r="H80" t="n" s="78">
-        <v>50.51203357664289</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="n" s="34">
-        <v>83.74225726204789</v>
-      </c>
-      <c r="C81" t="s" s="84">
-        <v>443</v>
-      </c>
-      <c r="E81" t="n" s="76">
-        <v>63.25073671276673</v>
-      </c>
-      <c r="G81" t="s" s="77">
-        <v>343</v>
-      </c>
-      <c r="H81" t="n" s="78">
-        <v>47.016370216444145</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="n" s="34">
-        <v>58.46640142493974</v>
-      </c>
-      <c r="C82" t="s" s="84">
-        <v>444</v>
-      </c>
-      <c r="E82" t="n" s="76">
-        <v>81.60457758176874</v>
-      </c>
-      <c r="G82" t="s" s="77">
-        <v>344</v>
-      </c>
-      <c r="H82" t="n" s="78">
-        <v>96.87950698325582</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="n" s="34">
-        <v>12.750684086556186</v>
-      </c>
-      <c r="C83" t="s" s="84">
-        <v>445</v>
-      </c>
-      <c r="E83" t="n" s="76">
-        <v>79.57910868429376</v>
-      </c>
-      <c r="G83" t="s" s="77">
-        <v>345</v>
-      </c>
-      <c r="H83" t="n" s="78">
-        <v>53.7794896526815</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="n" s="34">
-        <v>81.76443713154981</v>
-      </c>
-      <c r="C84" t="s" s="84">
-        <v>446</v>
-      </c>
-      <c r="E84" t="n" s="76">
-        <v>17.247666794976134</v>
-      </c>
-      <c r="G84" t="s" s="77">
-        <v>346</v>
-      </c>
-      <c r="H84" t="n" s="78">
-        <v>19.31045429807463</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" t="n" s="34">
-        <v>69.99677260478595</v>
-      </c>
-      <c r="C85" t="s" s="84">
-        <v>447</v>
-      </c>
-      <c r="E85" t="n" s="76">
-        <v>88.68741201910511</v>
-      </c>
-      <c r="G85" t="s" s="77">
-        <v>347</v>
-      </c>
-      <c r="H85" t="n" s="78">
-        <v>64.81702086632892</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="n" s="34">
-        <v>24.399796933024675</v>
-      </c>
-      <c r="C86" t="s" s="84">
-        <v>448</v>
-      </c>
-      <c r="E86" t="n" s="76">
-        <v>75.88526644985406</v>
-      </c>
-      <c r="G86" t="s" s="77">
-        <v>348</v>
-      </c>
-      <c r="H86" t="n" s="78">
-        <v>19.71619419420394</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="n" s="34">
-        <v>85.47527647266028</v>
-      </c>
-      <c r="C87" t="s" s="84">
-        <v>449</v>
-      </c>
-      <c r="E87" t="n" s="76">
-        <v>16.272557551736956</v>
-      </c>
-      <c r="G87" t="s" s="77">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" t="n" s="34">
-        <v>10.593143357678258</v>
-      </c>
-      <c r="C88" t="s" s="84">
-        <v>450</v>
-      </c>
-      <c r="E88" t="n" s="76">
-        <v>27.578665475673414</v>
-      </c>
-      <c r="G88" t="s" s="77">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="n" s="34">
-        <v>22.627995825466762</v>
-      </c>
-      <c r="C89" t="s" s="84">
-        <v>451</v>
-      </c>
-      <c r="E89" t="n" s="76">
-        <v>33.763176013489726</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" t="n" s="34">
-        <v>92.54896409245927</v>
-      </c>
-      <c r="C90" t="s" s="84">
-        <v>452</v>
-      </c>
-      <c r="E90" t="n" s="76">
-        <v>54.26781222337065</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="C91" t="s" s="84">
-        <v>453</v>
-      </c>
-      <c r="E91" t="n" s="76">
-        <v>82.53107321576971</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="C92" t="s" s="84">
-        <v>454</v>
-      </c>
-      <c r="E92" t="n" s="76">
-        <v>28.580874488289666</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="C93" t="s" s="84">
-        <v>455</v>
-      </c>
-      <c r="E93" t="n" s="76">
-        <v>5.097922379565379</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="C94" t="s" s="84">
-        <v>456</v>
-      </c>
-      <c r="E94" t="n" s="76">
-        <v>69.32906101540588</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="C95" t="s" s="84">
-        <v>457</v>
-      </c>
-      <c r="E95" t="n" s="76">
-        <v>51.87990480623014</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="E96" t="n" s="76">
-        <v>89.96894769590912</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="E97" t="n" s="76">
-        <v>5.789583167930967</v>
+      <c r="H90" s="78" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -9673,7 +10661,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
-  <dimension ref="A2:G71"/>
+  <dimension ref="A2:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -9682,362 +10670,308 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A2" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A3" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="A4" t="n" s="0">
-        <v>44965.70028844907</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
+      <c r="A4" s="0" t="n">
+        <v>44965.85512719907</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
     </row>
     <row r="5" spans="5:7">
-      <c r="A5" t="n" s="0">
-        <v>44965.70028844907</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
+      <c r="A5" s="0" t="n">
+        <v>44965.85512719907</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
     </row>
     <row r="6" spans="5:7">
-      <c r="A6" t="n" s="0">
-        <v>44965.70028844907</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
+      <c r="A6" s="0" t="n">
+        <v>44965.85512719907</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>44965.855146539354</v>
+      </c>
       <c r="G6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A7" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A8" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A9" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A10" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A11" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A12" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A13" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A14" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A15" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A16" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A17" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A18" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A19" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A20" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A21" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A22" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A23" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A24" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A25" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A26" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A27" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A28" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A29" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A30" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A31" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="0">
-        <v>44965.70028844907</v>
+      <c r="A32" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A33" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A34" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A35" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A36" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A37" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A38" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A39" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A40" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A41" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A42" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A43" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A44" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A45" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A46" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A47" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A48" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A49" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A50" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A51" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A52" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A53" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A54" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A55" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A56" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n" s="0">
-        <v>44965.70028846065</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n" s="0">
-        <v>44965.70028846065</v>
+      <c r="A57" s="0" t="n">
+        <v>44965.85512719907</v>
       </c>
     </row>
   </sheetData>
@@ -10054,78 +10988,186 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
+      <c r="A1" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>0.021</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
+      <c r="A2" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>100.3</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
+      <c r="A3" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>9.275</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="G4" s="0"/>
+      <c r="A4" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>100000.734</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+      <c r="A5" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
+      <c r="A6" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="A7" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
+      <c r="B8" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="B9" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
+      <c r="B10" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>731</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/W-Domestic Standard Upload Template.xlsx
+++ b/W-Domestic Standard Upload Template.xlsx
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="501">
   <si>
     <t>#</t>
   </si>
@@ -1160,388 +1160,64 @@
     <t xml:space="preserve">Shape </t>
   </si>
   <si>
-    <t>siz:0</t>
-  </si>
-  <si>
-    <t>siz:1</t>
-  </si>
-  <si>
-    <t>siz:2</t>
-  </si>
-  <si>
-    <t>siz:3</t>
-  </si>
-  <si>
-    <t>siz:4</t>
-  </si>
-  <si>
-    <t>siz:5</t>
-  </si>
-  <si>
-    <t>siz:6</t>
-  </si>
-  <si>
-    <t>siz:7</t>
-  </si>
-  <si>
-    <t>siz:8</t>
-  </si>
-  <si>
-    <t>siz:9</t>
-  </si>
-  <si>
-    <t>siz:10</t>
-  </si>
-  <si>
-    <t>siz:11</t>
-  </si>
-  <si>
-    <t>siz:12</t>
-  </si>
-  <si>
-    <t>siz:13</t>
-  </si>
-  <si>
-    <t>siz:14</t>
-  </si>
-  <si>
-    <t>siz:15</t>
-  </si>
-  <si>
-    <t>siz:16</t>
-  </si>
-  <si>
-    <t>siz:17</t>
-  </si>
-  <si>
-    <t>siz:18</t>
-  </si>
-  <si>
-    <t>siz:19</t>
-  </si>
-  <si>
-    <t>siz:20</t>
-  </si>
-  <si>
-    <t>siz:21</t>
-  </si>
-  <si>
-    <t>siz:22</t>
-  </si>
-  <si>
-    <t>siz:23</t>
-  </si>
-  <si>
-    <t>siz:24</t>
-  </si>
-  <si>
-    <t>siz:25</t>
-  </si>
-  <si>
-    <t>siz:26</t>
-  </si>
-  <si>
-    <t>siz:27</t>
-  </si>
-  <si>
-    <t>siz:28</t>
-  </si>
-  <si>
-    <t>siz:29</t>
-  </si>
-  <si>
-    <t>siz:30</t>
-  </si>
-  <si>
-    <t>siz:31</t>
-  </si>
-  <si>
-    <t>siz:32</t>
-  </si>
-  <si>
-    <t>siz:33</t>
-  </si>
-  <si>
-    <t>siz:34</t>
-  </si>
-  <si>
-    <t>siz:35</t>
-  </si>
-  <si>
-    <t>siz:36</t>
-  </si>
-  <si>
-    <t>siz:37</t>
-  </si>
-  <si>
-    <t>siz:38</t>
-  </si>
-  <si>
-    <t>siz:39</t>
-  </si>
-  <si>
-    <t>siz:40</t>
-  </si>
-  <si>
-    <t>siz:41</t>
-  </si>
-  <si>
-    <t>siz:42</t>
-  </si>
-  <si>
-    <t>siz:43</t>
-  </si>
-  <si>
-    <t>siz:44</t>
-  </si>
-  <si>
-    <t>siz:45</t>
-  </si>
-  <si>
-    <t>siz:46</t>
-  </si>
-  <si>
-    <t>siz:47</t>
-  </si>
-  <si>
-    <t>siz:48</t>
-  </si>
-  <si>
-    <t>siz:49</t>
-  </si>
-  <si>
-    <t>siz:50</t>
-  </si>
-  <si>
-    <t>siz:51</t>
-  </si>
-  <si>
-    <t>siz:52</t>
-  </si>
-  <si>
-    <t>siz:53</t>
-  </si>
-  <si>
-    <t>siz:54</t>
-  </si>
-  <si>
-    <t>siz:55</t>
-  </si>
-  <si>
-    <t>siz:56</t>
-  </si>
-  <si>
-    <t>siz:57</t>
-  </si>
-  <si>
-    <t>siz:58</t>
-  </si>
-  <si>
-    <t>siz:59</t>
-  </si>
-  <si>
-    <t>siz:60</t>
-  </si>
-  <si>
-    <t>siz:61</t>
-  </si>
-  <si>
-    <t>siz:62</t>
-  </si>
-  <si>
-    <t>siz:63</t>
-  </si>
-  <si>
-    <t>siz:64</t>
-  </si>
-  <si>
-    <t>siz:65</t>
-  </si>
-  <si>
-    <t>siz:66</t>
-  </si>
-  <si>
-    <t>siz:67</t>
-  </si>
-  <si>
-    <t>siz:68</t>
-  </si>
-  <si>
-    <t>siz:69</t>
-  </si>
-  <si>
-    <t>siz:70</t>
-  </si>
-  <si>
-    <t>siz:71</t>
-  </si>
-  <si>
-    <t>siz:72</t>
-  </si>
-  <si>
-    <t>siz:73</t>
-  </si>
-  <si>
-    <t>siz:74</t>
-  </si>
-  <si>
-    <t>siz:75</t>
-  </si>
-  <si>
-    <t>siz:76</t>
-  </si>
-  <si>
-    <t>siz:77</t>
-  </si>
-  <si>
-    <t>siz:78</t>
-  </si>
-  <si>
-    <t>siz:79</t>
-  </si>
-  <si>
-    <t>siz:80</t>
-  </si>
-  <si>
-    <t>siz:81</t>
-  </si>
-  <si>
-    <t>siz:82</t>
-  </si>
-  <si>
-    <t>siz:83</t>
-  </si>
-  <si>
-    <t>siz:84</t>
-  </si>
-  <si>
-    <t>vpn:0</t>
-  </si>
-  <si>
-    <t>vpn:1</t>
-  </si>
-  <si>
-    <t>vpn:2</t>
-  </si>
-  <si>
-    <t>vpn:3</t>
-  </si>
-  <si>
-    <t>vpn:4</t>
-  </si>
-  <si>
-    <t>vpn:5</t>
-  </si>
-  <si>
-    <t>vpn:6</t>
-  </si>
-  <si>
-    <t>vpn:7</t>
-  </si>
-  <si>
-    <t>vpn:8</t>
-  </si>
-  <si>
-    <t>vpn:9</t>
-  </si>
-  <si>
-    <t>vpn:10</t>
-  </si>
-  <si>
-    <t>vpn:11</t>
-  </si>
-  <si>
-    <t>vpn:12</t>
-  </si>
-  <si>
-    <t>vpn:13</t>
-  </si>
-  <si>
-    <t>vpn:14</t>
-  </si>
-  <si>
-    <t>vpn:15</t>
-  </si>
-  <si>
-    <t>vpn:16</t>
-  </si>
-  <si>
-    <t>vpn:17</t>
-  </si>
-  <si>
-    <t>vpn:18</t>
-  </si>
-  <si>
-    <t>vpn:19</t>
-  </si>
-  <si>
-    <t>vpn:20</t>
-  </si>
-  <si>
-    <t>vpn:21</t>
-  </si>
-  <si>
-    <t>vpn:22</t>
-  </si>
-  <si>
-    <t>vpn:23</t>
-  </si>
-  <si>
-    <t>vpn:24</t>
-  </si>
-  <si>
-    <t>vpn:25</t>
-  </si>
-  <si>
-    <t>vpn:26</t>
-  </si>
-  <si>
-    <t>vpn:27</t>
-  </si>
-  <si>
-    <t>vpn:28</t>
-  </si>
-  <si>
-    <t>vpn:29</t>
-  </si>
-  <si>
-    <t>sup:0</t>
-  </si>
-  <si>
-    <t>sup:1</t>
-  </si>
-  <si>
-    <t>sup:2</t>
-  </si>
-  <si>
-    <t>sup:3</t>
-  </si>
-  <si>
-    <t>sup:4</t>
-  </si>
-  <si>
-    <t>sup:5</t>
-  </si>
-  <si>
-    <t>sup:6</t>
-  </si>
-  <si>
-    <t>sup:7</t>
-  </si>
-  <si>
-    <t>sup:8</t>
-  </si>
-  <si>
-    <t>sup:9</t>
-  </si>
-  <si>
-    <t>sup:10</t>
-  </si>
-  <si>
-    <t>sup:11</t>
-  </si>
-  <si>
-    <t>sup:12</t>
+    <t>mat:0</t>
+  </si>
+  <si>
+    <t>mat:1</t>
+  </si>
+  <si>
+    <t>mat:2</t>
+  </si>
+  <si>
+    <t>mat:3</t>
+  </si>
+  <si>
+    <t>mat:4</t>
+  </si>
+  <si>
+    <t>mat:5</t>
+  </si>
+  <si>
+    <t>mat:6</t>
+  </si>
+  <si>
+    <t>mat:7</t>
+  </si>
+  <si>
+    <t>mat:8</t>
+  </si>
+  <si>
+    <t>mat:9</t>
+  </si>
+  <si>
+    <t>mat:10</t>
+  </si>
+  <si>
+    <t>mat:11</t>
+  </si>
+  <si>
+    <t>mat:12</t>
+  </si>
+  <si>
+    <t>mat:13</t>
+  </si>
+  <si>
+    <t>mat:14</t>
+  </si>
+  <si>
+    <t>mat:15</t>
+  </si>
+  <si>
+    <t>mat:16</t>
+  </si>
+  <si>
+    <t>mat:17</t>
+  </si>
+  <si>
+    <t>mat:18</t>
+  </si>
+  <si>
+    <t>mat:19</t>
   </si>
   <si>
     <t>cat:0</t>
@@ -1592,202 +1268,193 @@
     <t>cat:15</t>
   </si>
   <si>
-    <t>cat:16</t>
-  </si>
-  <si>
-    <t>cat:17</t>
-  </si>
-  <si>
-    <t>cat:18</t>
-  </si>
-  <si>
-    <t>cat:19</t>
-  </si>
-  <si>
-    <t>cat:20</t>
-  </si>
-  <si>
-    <t>cat:21</t>
-  </si>
-  <si>
-    <t>cat:22</t>
-  </si>
-  <si>
-    <t>cat:23</t>
-  </si>
-  <si>
-    <t>cat:24</t>
-  </si>
-  <si>
-    <t>cat:25</t>
-  </si>
-  <si>
-    <t>cat:26</t>
-  </si>
-  <si>
-    <t>cat:27</t>
-  </si>
-  <si>
-    <t>cat:28</t>
-  </si>
-  <si>
-    <t>cat:29</t>
-  </si>
-  <si>
-    <t>cat:30</t>
-  </si>
-  <si>
-    <t>cat:31</t>
-  </si>
-  <si>
-    <t>cat:32</t>
-  </si>
-  <si>
-    <t>cat:33</t>
-  </si>
-  <si>
-    <t>cat:34</t>
-  </si>
-  <si>
-    <t>cat:35</t>
-  </si>
-  <si>
-    <t>cat:36</t>
-  </si>
-  <si>
-    <t>cat:37</t>
-  </si>
-  <si>
-    <t>cat:38</t>
-  </si>
-  <si>
-    <t>cat:39</t>
-  </si>
-  <si>
-    <t>cat:40</t>
-  </si>
-  <si>
-    <t>cat:41</t>
-  </si>
-  <si>
-    <t>cat:42</t>
-  </si>
-  <si>
-    <t>cat:43</t>
-  </si>
-  <si>
-    <t>cat:44</t>
-  </si>
-  <si>
-    <t>cat:45</t>
-  </si>
-  <si>
-    <t>cat:46</t>
-  </si>
-  <si>
-    <t>cat:47</t>
-  </si>
-  <si>
-    <t>cat:48</t>
-  </si>
-  <si>
-    <t>cat:49</t>
-  </si>
-  <si>
-    <t>cat:50</t>
-  </si>
-  <si>
-    <t>cat:51</t>
-  </si>
-  <si>
-    <t>cat:52</t>
-  </si>
-  <si>
-    <t>cat:53</t>
-  </si>
-  <si>
-    <t>cat:54</t>
-  </si>
-  <si>
-    <t>cat:55</t>
-  </si>
-  <si>
-    <t>cat:56</t>
-  </si>
-  <si>
-    <t>cat:57</t>
-  </si>
-  <si>
-    <t>cat:58</t>
-  </si>
-  <si>
-    <t>cat:59</t>
-  </si>
-  <si>
-    <t>cat:60</t>
-  </si>
-  <si>
-    <t>cat:61</t>
-  </si>
-  <si>
-    <t>cat:62</t>
-  </si>
-  <si>
-    <t>cat:63</t>
-  </si>
-  <si>
-    <t>cat:64</t>
-  </si>
-  <si>
-    <t>cat:65</t>
-  </si>
-  <si>
-    <t>cat:66</t>
-  </si>
-  <si>
-    <t>cat:67</t>
-  </si>
-  <si>
-    <t>cat:68</t>
-  </si>
-  <si>
-    <t>cat:69</t>
-  </si>
-  <si>
-    <t>cat:70</t>
-  </si>
-  <si>
-    <t>cat:71</t>
-  </si>
-  <si>
-    <t>cat:72</t>
-  </si>
-  <si>
-    <t>cat:73</t>
-  </si>
-  <si>
-    <t>cat:74</t>
-  </si>
-  <si>
-    <t>cat:75</t>
-  </si>
-  <si>
-    <t>cat:76</t>
-  </si>
-  <si>
-    <t>cat:77</t>
-  </si>
-  <si>
-    <t>cat:78</t>
-  </si>
-  <si>
-    <t>cat:79</t>
-  </si>
-  <si>
-    <t>cat:80</t>
-  </si>
-  <si>
-    <t>cat:81</t>
+    <t>ven:0</t>
+  </si>
+  <si>
+    <t>ven:1</t>
+  </si>
+  <si>
+    <t>ven:2</t>
+  </si>
+  <si>
+    <t>ven:3</t>
+  </si>
+  <si>
+    <t>ven:4</t>
+  </si>
+  <si>
+    <t>ven:5</t>
+  </si>
+  <si>
+    <t>ven:6</t>
+  </si>
+  <si>
+    <t>ven:7</t>
+  </si>
+  <si>
+    <t>ven:8</t>
+  </si>
+  <si>
+    <t>ven:9</t>
+  </si>
+  <si>
+    <t>ven:10</t>
+  </si>
+  <si>
+    <t>ven:11</t>
+  </si>
+  <si>
+    <t>ven:12</t>
+  </si>
+  <si>
+    <t>ven:13</t>
+  </si>
+  <si>
+    <t>ven:14</t>
+  </si>
+  <si>
+    <t>ven:15</t>
+  </si>
+  <si>
+    <t>ven:16</t>
+  </si>
+  <si>
+    <t>ven:17</t>
+  </si>
+  <si>
+    <t>ven:18</t>
+  </si>
+  <si>
+    <t>ven:19</t>
+  </si>
+  <si>
+    <t>ven:20</t>
+  </si>
+  <si>
+    <t>ven:21</t>
+  </si>
+  <si>
+    <t>ven:22</t>
+  </si>
+  <si>
+    <t>ven:23</t>
+  </si>
+  <si>
+    <t>ven:24</t>
+  </si>
+  <si>
+    <t>ven:25</t>
+  </si>
+  <si>
+    <t>ven:26</t>
+  </si>
+  <si>
+    <t>ven:27</t>
+  </si>
+  <si>
+    <t>ven:28</t>
+  </si>
+  <si>
+    <t>ven:29</t>
+  </si>
+  <si>
+    <t>ven:30</t>
+  </si>
+  <si>
+    <t>ven:31</t>
+  </si>
+  <si>
+    <t>ven:32</t>
+  </si>
+  <si>
+    <t>ven:33</t>
+  </si>
+  <si>
+    <t>ven:34</t>
+  </si>
+  <si>
+    <t>ven:35</t>
+  </si>
+  <si>
+    <t>ven:36</t>
+  </si>
+  <si>
+    <t>ven:37</t>
+  </si>
+  <si>
+    <t>ven:38</t>
+  </si>
+  <si>
+    <t>ven:39</t>
+  </si>
+  <si>
+    <t>ven:40</t>
+  </si>
+  <si>
+    <t>ven:41</t>
+  </si>
+  <si>
+    <t>ven:42</t>
+  </si>
+  <si>
+    <t>ven:43</t>
+  </si>
+  <si>
+    <t>ven:44</t>
+  </si>
+  <si>
+    <t>ven:45</t>
+  </si>
+  <si>
+    <t>ven:46</t>
+  </si>
+  <si>
+    <t>ven:47</t>
+  </si>
+  <si>
+    <t>ven:48</t>
+  </si>
+  <si>
+    <t>ven:49</t>
+  </si>
+  <si>
+    <t>ven:50</t>
+  </si>
+  <si>
+    <t>ven:51</t>
+  </si>
+  <si>
+    <t>ven:52</t>
+  </si>
+  <si>
+    <t>ven:53</t>
+  </si>
+  <si>
+    <t>ven:54</t>
+  </si>
+  <si>
+    <t>ven:55</t>
+  </si>
+  <si>
+    <t>ven:56</t>
+  </si>
+  <si>
+    <t>ven:57</t>
+  </si>
+  <si>
+    <t>ven:58</t>
+  </si>
+  <si>
+    <t>ven:59</t>
+  </si>
+  <si>
+    <t>ven:60</t>
+  </si>
+  <si>
+    <t>ven:61</t>
+  </si>
+  <si>
+    <t>ven:62</t>
   </si>
   <si>
     <t>lab:0</t>
@@ -1868,348 +1535,6 @@
     <t>lab:25</t>
   </si>
   <si>
-    <t>lab:26</t>
-  </si>
-  <si>
-    <t>lab:27</t>
-  </si>
-  <si>
-    <t>lab:28</t>
-  </si>
-  <si>
-    <t>lab:29</t>
-  </si>
-  <si>
-    <t>lab:30</t>
-  </si>
-  <si>
-    <t>lab:31</t>
-  </si>
-  <si>
-    <t>lab:32</t>
-  </si>
-  <si>
-    <t>lab:33</t>
-  </si>
-  <si>
-    <t>lab:34</t>
-  </si>
-  <si>
-    <t>lab:35</t>
-  </si>
-  <si>
-    <t>lab:36</t>
-  </si>
-  <si>
-    <t>lab:37</t>
-  </si>
-  <si>
-    <t>lab:38</t>
-  </si>
-  <si>
-    <t>lab:39</t>
-  </si>
-  <si>
-    <t>lab:40</t>
-  </si>
-  <si>
-    <t>lab:41</t>
-  </si>
-  <si>
-    <t>lab:42</t>
-  </si>
-  <si>
-    <t>lab:43</t>
-  </si>
-  <si>
-    <t>lab:44</t>
-  </si>
-  <si>
-    <t>lab:45</t>
-  </si>
-  <si>
-    <t>lab:46</t>
-  </si>
-  <si>
-    <t>lab:47</t>
-  </si>
-  <si>
-    <t>lab:48</t>
-  </si>
-  <si>
-    <t>lab:49</t>
-  </si>
-  <si>
-    <t>lab:50</t>
-  </si>
-  <si>
-    <t>lab:51</t>
-  </si>
-  <si>
-    <t>lab:52</t>
-  </si>
-  <si>
-    <t>lab:53</t>
-  </si>
-  <si>
-    <t>lab:54</t>
-  </si>
-  <si>
-    <t>lab:55</t>
-  </si>
-  <si>
-    <t>lab:56</t>
-  </si>
-  <si>
-    <t>lab:57</t>
-  </si>
-  <si>
-    <t>lab:58</t>
-  </si>
-  <si>
-    <t>lab:59</t>
-  </si>
-  <si>
-    <t>lab:60</t>
-  </si>
-  <si>
-    <t>lab:61</t>
-  </si>
-  <si>
-    <t>lab:62</t>
-  </si>
-  <si>
-    <t>lab:63</t>
-  </si>
-  <si>
-    <t>lab:64</t>
-  </si>
-  <si>
-    <t>lab:65</t>
-  </si>
-  <si>
-    <t>lab:66</t>
-  </si>
-  <si>
-    <t>lab:67</t>
-  </si>
-  <si>
-    <t>lab:68</t>
-  </si>
-  <si>
-    <t>lab:69</t>
-  </si>
-  <si>
-    <t>lab:70</t>
-  </si>
-  <si>
-    <t>lab:71</t>
-  </si>
-  <si>
-    <t>cla:0</t>
-  </si>
-  <si>
-    <t>cla:1</t>
-  </si>
-  <si>
-    <t>cla:2</t>
-  </si>
-  <si>
-    <t>cla:3</t>
-  </si>
-  <si>
-    <t>cla:4</t>
-  </si>
-  <si>
-    <t>cla:5</t>
-  </si>
-  <si>
-    <t>cla:6</t>
-  </si>
-  <si>
-    <t>cla:7</t>
-  </si>
-  <si>
-    <t>cla:8</t>
-  </si>
-  <si>
-    <t>cla:9</t>
-  </si>
-  <si>
-    <t>cla:10</t>
-  </si>
-  <si>
-    <t>cla:11</t>
-  </si>
-  <si>
-    <t>cla:12</t>
-  </si>
-  <si>
-    <t>cla:13</t>
-  </si>
-  <si>
-    <t>cla:14</t>
-  </si>
-  <si>
-    <t>cla:15</t>
-  </si>
-  <si>
-    <t>cla:16</t>
-  </si>
-  <si>
-    <t>cla:17</t>
-  </si>
-  <si>
-    <t>cla:18</t>
-  </si>
-  <si>
-    <t>cla:19</t>
-  </si>
-  <si>
-    <t>cla:20</t>
-  </si>
-  <si>
-    <t>cla:21</t>
-  </si>
-  <si>
-    <t>cla:22</t>
-  </si>
-  <si>
-    <t>cla:23</t>
-  </si>
-  <si>
-    <t>cla:24</t>
-  </si>
-  <si>
-    <t>cla:25</t>
-  </si>
-  <si>
-    <t>cla:26</t>
-  </si>
-  <si>
-    <t>cla:27</t>
-  </si>
-  <si>
-    <t>cla:28</t>
-  </si>
-  <si>
-    <t>cla:29</t>
-  </si>
-  <si>
-    <t>cla:30</t>
-  </si>
-  <si>
-    <t>cla:31</t>
-  </si>
-  <si>
-    <t>cla:32</t>
-  </si>
-  <si>
-    <t>cla:33</t>
-  </si>
-  <si>
-    <t>cla:34</t>
-  </si>
-  <si>
-    <t>cla:35</t>
-  </si>
-  <si>
-    <t>cla:36</t>
-  </si>
-  <si>
-    <t>cla:37</t>
-  </si>
-  <si>
-    <t>cla:38</t>
-  </si>
-  <si>
-    <t>cla:39</t>
-  </si>
-  <si>
-    <t>cla:40</t>
-  </si>
-  <si>
-    <t>cla:41</t>
-  </si>
-  <si>
-    <t>cla:42</t>
-  </si>
-  <si>
-    <t>cla:43</t>
-  </si>
-  <si>
-    <t>cla:44</t>
-  </si>
-  <si>
-    <t>cla:45</t>
-  </si>
-  <si>
-    <t>cla:46</t>
-  </si>
-  <si>
-    <t>cla:47</t>
-  </si>
-  <si>
-    <t>cla:48</t>
-  </si>
-  <si>
-    <t>cla:49</t>
-  </si>
-  <si>
-    <t>cla:50</t>
-  </si>
-  <si>
-    <t>cla:51</t>
-  </si>
-  <si>
-    <t>cla:52</t>
-  </si>
-  <si>
-    <t>cla:53</t>
-  </si>
-  <si>
-    <t>cla:54</t>
-  </si>
-  <si>
-    <t>cla:55</t>
-  </si>
-  <si>
-    <t>cla:56</t>
-  </si>
-  <si>
-    <t>cla:57</t>
-  </si>
-  <si>
-    <t>cla:58</t>
-  </si>
-  <si>
-    <t>cla:59</t>
-  </si>
-  <si>
-    <t>cla:60</t>
-  </si>
-  <si>
-    <t>cla:61</t>
-  </si>
-  <si>
-    <t>cla:62</t>
-  </si>
-  <si>
-    <t>cla:63</t>
-  </si>
-  <si>
-    <t>cla:64</t>
-  </si>
-  <si>
-    <t>cla:65</t>
-  </si>
-  <si>
-    <t>cla:66</t>
-  </si>
-  <si>
-    <t>cla:67</t>
-  </si>
-  <si>
     <t>pon:0</t>
   </si>
   <si>
@@ -2436,33 +1761,6 @@
   </si>
   <si>
     <t>pon:75</t>
-  </si>
-  <si>
-    <t>pon:76</t>
-  </si>
-  <si>
-    <t>pon:77</t>
-  </si>
-  <si>
-    <t>pon:78</t>
-  </si>
-  <si>
-    <t>pon:79</t>
-  </si>
-  <si>
-    <t>pon:80</t>
-  </si>
-  <si>
-    <t>pon:81</t>
-  </si>
-  <si>
-    <t>pon:82</t>
-  </si>
-  <si>
-    <t>pon:83</t>
-  </si>
-  <si>
-    <t>pon:84</t>
   </si>
   <si>
     <t>red</t>
@@ -7105,7 +6403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
-  <dimension ref="A1:CV90"/>
+  <dimension ref="A1:CV97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -8411,7 +7709,7 @@
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
       <c r="AC5" s="36" t="n">
-        <v>76.78665267281535</v>
+        <v>55.53082074028727</v>
       </c>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -8486,2165 +7784,2134 @@
       <c r="CV5" s="42"/>
     </row>
     <row r="6">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="76" t="n">
+        <v>44966.747453703705</v>
+      </c>
+      <c r="F6" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G6" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="I6" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J6" s="36" t="n">
+        <v>57.969148568231496</v>
+      </c>
+      <c r="K6" s="36" t="n">
+        <v>44966.747453854165</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC6" s="36" t="n">
+        <v>78.80546668614596</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="76" t="n">
+        <v>44966.74745371528</v>
+      </c>
+      <c r="F7" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G7" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J7" s="36" t="n">
+        <v>57.23554921953829</v>
+      </c>
+      <c r="K7" s="36" t="n">
+        <v>44966.747453854165</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC7" s="36" t="n">
+        <v>34.150195967218025</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="76" t="n">
+        <v>44966.74745371528</v>
+      </c>
+      <c r="F8" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G8" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H8" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="I8" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J8" s="36" t="n">
+        <v>48.92611030972689</v>
+      </c>
+      <c r="K8" s="36" t="n">
+        <v>44966.747453854165</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC8" s="36" t="n">
+        <v>58.395672965793864</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="76" t="n">
+        <v>44966.74745371528</v>
+      </c>
+      <c r="F9" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G9" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H9" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="I9" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J9" s="36" t="n">
+        <v>45.067417343072755</v>
+      </c>
+      <c r="K9" s="36" t="n">
+        <v>44966.747453854165</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC9" s="36" t="n">
+        <v>6.285095735152835</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="76" t="n">
+        <v>44966.74745371528</v>
+      </c>
+      <c r="F10" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G10" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J10" s="36" t="n">
+        <v>97.29161551628374</v>
+      </c>
+      <c r="K10" s="36" t="n">
+        <v>44966.747453854165</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC10" s="36" t="n">
+        <v>96.79520565714677</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="76" t="n">
+        <v>44966.74745371528</v>
+      </c>
+      <c r="F11" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G11" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="I11" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J11" s="36" t="n">
+        <v>1.2751118084632695</v>
+      </c>
+      <c r="K11" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC11" s="36" t="n">
+        <v>43.404184290953886</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="76" t="n">
+        <v>44966.74745372685</v>
+      </c>
+      <c r="F12" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G12" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="I12" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J12" s="36" t="n">
+        <v>0.5861385432561761</v>
+      </c>
+      <c r="K12" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC12" s="36" t="n">
+        <v>32.34184015781676</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" s="76" t="n">
+        <v>44966.74745372685</v>
+      </c>
+      <c r="F13" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G13" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="I13" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J13" s="36" t="n">
+        <v>18.379351050142812</v>
+      </c>
+      <c r="K13" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC13" s="36" t="n">
+        <v>40.070334277432906</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="76" t="n">
+        <v>44966.74745372685</v>
+      </c>
+      <c r="F14" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G14" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="I14" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J14" s="36" t="n">
+        <v>20.025182868251747</v>
+      </c>
+      <c r="K14" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC14" s="36" t="n">
+        <v>63.3347464070804</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="76" t="n">
+        <v>44966.74745372685</v>
+      </c>
+      <c r="F15" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G15" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J15" s="36" t="n">
+        <v>34.901454914140096</v>
+      </c>
+      <c r="K15" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC15" s="36" t="n">
+        <v>41.59741341578875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="76" t="n">
+        <v>44966.74745372685</v>
+      </c>
+      <c r="F16" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G16" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>385</v>
+      </c>
+      <c r="I16" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J16" s="36" t="n">
+        <v>22.734451922357657</v>
+      </c>
+      <c r="K16" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC16" s="36" t="n">
+        <v>16.467650154709766</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="76" t="n">
+        <v>44966.74745372685</v>
+      </c>
+      <c r="F17" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G17" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="I17" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J17" s="36" t="n">
+        <v>34.72375187522271</v>
+      </c>
+      <c r="K17" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC17" s="36" t="n">
+        <v>42.4780318580739</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="76" t="n">
+        <v>44966.74745372685</v>
+      </c>
+      <c r="F18" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G18" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="I18" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J18" s="36" t="n">
+        <v>46.55320679702057</v>
+      </c>
+      <c r="K18" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC18" s="36" t="n">
+        <v>79.23628817943532</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G19" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="I19" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J19" s="36" t="n">
+        <v>28.30086785023862</v>
+      </c>
+      <c r="K19" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC19" s="36" t="n">
+        <v>10.628352367827443</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G20" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="I20" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J20" s="36" t="n">
+        <v>56.828705606104904</v>
+      </c>
+      <c r="K20" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC20" s="36" t="n">
+        <v>44.19097333545934</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="F21" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G21" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="I21" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J21" s="36" t="n">
+        <v>24.47512349773645</v>
+      </c>
+      <c r="K21" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC21" s="36" t="n">
+        <v>63.26671494378496</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G22" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="I22" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J22" s="36" t="n">
+        <v>72.55482799087218</v>
+      </c>
+      <c r="K22" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC22" s="36" t="n">
+        <v>16.674455434806767</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="F23" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G23" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="I23" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J23" s="36" t="n">
+        <v>88.96046618281606</v>
+      </c>
+      <c r="K23" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC23" s="36" t="n">
+        <v>65.43362615314187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G24" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>393</v>
+      </c>
+      <c r="I24" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J24" s="36" t="n">
+        <v>23.482712064282964</v>
+      </c>
+      <c r="K24" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC24" s="36" t="n">
+        <v>71.19692829945299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G25" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H25" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J25" s="36" t="n">
+        <v>77.56407426110893</v>
+      </c>
+      <c r="K25" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC25" s="36" t="n">
+        <v>30.931831142173372</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="F26" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G26" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>395</v>
+      </c>
+      <c r="I26" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J26" s="36" t="n">
+        <v>92.55920715250183</v>
+      </c>
+      <c r="K26" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC26" s="36" t="n">
+        <v>16.670669857309438</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="F27" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G27" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="I27" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J27" s="36" t="n">
+        <v>52.448382443276074</v>
+      </c>
+      <c r="K27" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC27" s="36" t="n">
+        <v>68.53925172082421</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="F28" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G28" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H28" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="I28" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J28" s="36" t="n">
+        <v>20.421815096049944</v>
+      </c>
+      <c r="K28" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC28" s="36" t="n">
+        <v>23.23508650223487</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G29" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H29" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="I29" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J29" s="36" t="n">
+        <v>13.296171831335911</v>
+      </c>
+      <c r="K29" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC29" s="36" t="n">
+        <v>51.00985625469486</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G30" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="I30" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J30" s="36" t="n">
+        <v>35.9502680464611</v>
+      </c>
+      <c r="K30" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC30" s="36" t="n">
+        <v>38.29038352535318</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G31" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H31" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="I31" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J31" s="36" t="n">
+        <v>53.78791433322016</v>
+      </c>
+      <c r="K31" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC31" s="36" t="n">
+        <v>59.47555823345595</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="F32" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G32" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="I32" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J32" s="36" t="n">
+        <v>3.361479966789227</v>
+      </c>
+      <c r="K32" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC32" s="36" t="n">
+        <v>55.628656592244816</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G33" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="I33" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J33" s="36" t="n">
+        <v>40.556329149445624</v>
+      </c>
+      <c r="K33" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC33" s="36" t="n">
+        <v>16.806198916493532</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="F34" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G34" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H34" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="I34" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J34" s="36" t="n">
+        <v>80.41521320164108</v>
+      </c>
+      <c r="K34" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC34" s="36" t="n">
+        <v>17.271122710776165</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="34" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G35" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="I35" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J35" s="36" t="n">
+        <v>86.53320069551154</v>
+      </c>
+      <c r="K35" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC35" s="36" t="n">
+        <v>17.247311025563384</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="F36" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G36" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="I36" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J36" s="36" t="n">
+        <v>91.41372903954064</v>
+      </c>
+      <c r="K36" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC36" s="36" t="n">
+        <v>4.918624626347013</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="G37" s="77" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H37" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="I37" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J37" s="36" t="n">
+        <v>84.69573638458539</v>
+      </c>
+      <c r="K37" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC37" s="36" t="n">
+        <v>59.771641118257456</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H38" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="I38" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J38" s="36" t="n">
+        <v>74.33405215474409</v>
+      </c>
+      <c r="K38" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC38" s="36" t="n">
+        <v>87.99061956367999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="I39" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J39" s="36" t="n">
+        <v>89.56409719600312</v>
+      </c>
+      <c r="K39" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC39" s="36" t="n">
+        <v>24.148240371220343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="F40" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>409</v>
+      </c>
+      <c r="I40" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J40" s="36" t="n">
+        <v>44.192423610078535</v>
+      </c>
+      <c r="K40" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC40" s="36" t="n">
+        <v>23.319721679472792</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="I41" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J41" s="36" t="n">
+        <v>91.87094737163964</v>
+      </c>
+      <c r="K41" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC41" s="36" t="n">
+        <v>93.41220998904127</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="I42" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J42" s="36" t="n">
+        <v>69.23617124087099</v>
+      </c>
+      <c r="K42" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC42" s="36" t="n">
+        <v>72.0007349416249</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="I43" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J43" s="36" t="n">
+        <v>62.65313061652985</v>
+      </c>
+      <c r="K43" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC43" s="36" t="n">
+        <v>27.431801530966737</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H44" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="I44" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J44" s="36" t="n">
+        <v>16.47983686337534</v>
+      </c>
+      <c r="K44" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC44" s="36" t="n">
+        <v>0.04401312867147178</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="F45" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H45" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="I45" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J45" s="36" t="n">
+        <v>34.202485449946096</v>
+      </c>
+      <c r="K45" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC45" s="36" t="n">
+        <v>59.402494047584874</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="84" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="I46" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J46" s="36" t="n">
+        <v>36.204030393675815</v>
+      </c>
+      <c r="K46" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC46" s="36" t="n">
+        <v>38.7943044836924</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="84" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H47" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="I47" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J47" s="36" t="n">
+        <v>1.0175202461390587</v>
+      </c>
+      <c r="K47" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC47" s="36" t="n">
+        <v>1.6976598533017362</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H48" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="I48" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J48" s="36" t="n">
+        <v>8.133338392820411</v>
+      </c>
+      <c r="K48" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC48" s="36" t="n">
+        <v>90.05179447963577</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F49" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H49" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="I49" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J49" s="36" t="n">
+        <v>29.842892099723585</v>
+      </c>
+      <c r="K49" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC49" s="36" t="n">
+        <v>67.48264322448529</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H50" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="I50" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="J50" s="36" t="n">
+        <v>15.98282847576662</v>
+      </c>
+      <c r="K50" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC50" s="36" t="n">
+        <v>0.03841806812375781</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="84" t="s">
+        <v>331</v>
+      </c>
+      <c r="F51" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H51" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="I51" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K51" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC51" s="36" t="n">
+        <v>99.32608012532414</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="F52" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H52" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="I52" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K52" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC52" s="36" t="n">
+        <v>90.41840853992159</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="I53" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K53" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC53" s="36" t="n">
+        <v>31.754381939611697</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="84" t="s">
+        <v>334</v>
+      </c>
+      <c r="F54" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H54" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="I54" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K54" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC54" s="36" t="n">
+        <v>7.199053473301797</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="84" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D6" s="75" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="76" t="n">
-        <v>44965.855127118055</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="77" t="n">
-        <v>39.61143270712601</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>600</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="J6" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="M6" s="36" t="n">
-        <v>9.916876635139204</v>
-      </c>
-      <c r="AC6" s="36" t="n">
-        <v>45.58418348756971</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="34" t="s">
+      <c r="F55" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H55" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="I55" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K55" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC55" s="36" t="n">
+        <v>38.88998667157361</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>461</v>
-      </c>
-      <c r="E7" s="76" t="n">
-        <v>44965.855127118055</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="77" t="n">
-        <v>82.94730940813432</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>601</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="J7" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="M7" s="36" t="n">
-        <v>79.12507650653983</v>
-      </c>
-      <c r="AC7" s="36" t="n">
-        <v>70.4900834120886</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="34" t="s">
+      <c r="F56" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="I56" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K56" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC56" s="36" t="n">
+        <v>27.259460739252184</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>462</v>
-      </c>
-      <c r="E8" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="77" t="n">
-        <v>10.892607062039229</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>602</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="J8" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="M8" s="36" t="n">
-        <v>76.4779966606258</v>
-      </c>
-      <c r="AC8" s="36" t="n">
-        <v>23.565985455439765</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="34" t="s">
+      <c r="F57" s="76" t="n">
+        <v>44966.747453738426</v>
+      </c>
+      <c r="H57" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="I57" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K57" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC57" s="36" t="n">
+        <v>45.15154488604291</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>463</v>
-      </c>
-      <c r="E9" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="77" t="n">
-        <v>2.2586116126411815</v>
-      </c>
-      <c r="H9" s="78" t="s">
-        <v>603</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>535</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="M9" s="36" t="n">
-        <v>86.36008922492407</v>
-      </c>
-      <c r="AC9" s="36" t="n">
-        <v>71.95706459757668</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="34" t="s">
+      <c r="F58" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="I58" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K58" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC58" s="36" t="n">
+        <v>84.29841795494445</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>464</v>
-      </c>
-      <c r="E10" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="77" t="n">
-        <v>19.537186209845125</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>604</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>369</v>
-      </c>
-      <c r="J10" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="M10" s="36" t="n">
-        <v>50.95694738315658</v>
-      </c>
-      <c r="AC10" s="36" t="n">
-        <v>88.8743972249383</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="34" t="s">
+      <c r="F59" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="I59" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K59" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC59" s="36" t="n">
+        <v>22.197206189746556</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>465</v>
-      </c>
-      <c r="E11" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" s="77" t="n">
-        <v>29.6759643197506</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>605</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="M11" s="36" t="n">
-        <v>72.89403069214192</v>
-      </c>
-      <c r="AC11" s="36" t="n">
-        <v>49.89710662178774</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="34" t="s">
+      <c r="F60" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="I60" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K60" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC60" s="36" t="n">
+        <v>42.035871836606944</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>466</v>
-      </c>
-      <c r="E12" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="77" t="n">
-        <v>10.519197675195768</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>606</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>371</v>
-      </c>
-      <c r="J12" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="M12" s="36" t="n">
-        <v>61.13314328700482</v>
-      </c>
-      <c r="AC12" s="36" t="n">
-        <v>35.537514543077776</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="34" t="s">
+      <c r="F61" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H61" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="I61" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K61" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC61" s="36" t="n">
+        <v>1.1458414177453524</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>467</v>
-      </c>
-      <c r="E13" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="H13" s="78" t="s">
-        <v>607</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>372</v>
-      </c>
-      <c r="J13" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="M13" s="36" t="n">
-        <v>94.51775792596897</v>
-      </c>
-      <c r="AC13" s="36" t="n">
-        <v>50.292972597919615</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="34" t="s">
+      <c r="F62" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="I62" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K62" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC62" s="36" t="n">
+        <v>42.48770075927938</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>468</v>
-      </c>
-      <c r="E14" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>608</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="J14" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="M14" s="36" t="n">
-        <v>42.248810998390226</v>
-      </c>
-      <c r="AC14" s="36" t="n">
-        <v>35.060048970525294</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="34" t="s">
+      <c r="F63" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H63" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="I63" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K63" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC63" s="36" t="n">
+        <v>89.46298265128956</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>469</v>
-      </c>
-      <c r="E15" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="H15" s="78" t="s">
-        <v>609</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="J15" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="M15" s="36" t="n">
-        <v>73.39864004304903</v>
-      </c>
-      <c r="AC15" s="36" t="n">
-        <v>86.90450913086245</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="34" t="s">
+      <c r="F64" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H64" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="I64" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K64" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC64" s="36" t="n">
+        <v>95.06407344091741</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="C16" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>470</v>
-      </c>
-      <c r="E16" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>610</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="J16" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>388</v>
-      </c>
-      <c r="M16" s="36" t="n">
-        <v>3.167758293192402</v>
-      </c>
-      <c r="AC16" s="36" t="n">
-        <v>3.1869532949857504</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="34" t="s">
+      <c r="F65" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H65" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="I65" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K65" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC65" s="36" t="n">
+        <v>67.15862351205136</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="C17" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>471</v>
-      </c>
-      <c r="E17" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>611</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="J17" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="M17" s="36" t="n">
-        <v>99.25312474160822</v>
-      </c>
-      <c r="AC17" s="36" t="n">
-        <v>38.825003472468275</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="34" t="s">
+      <c r="F66" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H66" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="I66" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K66" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC66" s="36" t="n">
+        <v>91.1844347905504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="84" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>472</v>
-      </c>
-      <c r="E18" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>612</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="J18" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="M18" s="36" t="n">
-        <v>0.2746410291034618</v>
-      </c>
-      <c r="AC18" s="36" t="n">
-        <v>95.97190745800683</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="34" t="s">
+      <c r="F67" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H67" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="I67" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K67" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC67" s="36" t="n">
+        <v>19.085560807135813</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="C19" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="E19" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>263</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>613</v>
-      </c>
-      <c r="J19" s="36" t="n">
-        <v>44965.85512714121</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>391</v>
-      </c>
-      <c r="M19" s="36" t="n">
-        <v>18.387876715505268</v>
-      </c>
-      <c r="AC19" s="36" t="n">
-        <v>54.81025178302937</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>474</v>
-      </c>
-      <c r="E20" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F20" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>546</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="M20" s="36" t="n">
-        <v>15.527457570700609</v>
-      </c>
-      <c r="AC20" s="36" t="n">
-        <v>39.525730136107754</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>475</v>
-      </c>
-      <c r="E21" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="H21" s="78" t="s">
-        <v>615</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="M21" s="36" t="n">
-        <v>0.40846849017442954</v>
-      </c>
-      <c r="AC21" s="36" t="n">
-        <v>74.02221356546251</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="C22" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="E22" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="H22" s="78" t="s">
-        <v>616</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>548</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="M22" s="36" t="n">
-        <v>2.8680491761666427</v>
-      </c>
-      <c r="AC22" s="36" t="n">
-        <v>39.006751207009685</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>477</v>
-      </c>
-      <c r="E23" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F23" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="H23" s="78" t="s">
-        <v>617</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="M23" s="36" t="n">
-        <v>38.41970121730232</v>
-      </c>
-      <c r="AC23" s="36" t="n">
-        <v>35.93069316121412</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>478</v>
-      </c>
-      <c r="E24" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>618</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="M24" s="36" t="n">
-        <v>24.25147622833046</v>
-      </c>
-      <c r="AC24" s="36" t="n">
-        <v>78.1198368157414</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="C25" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="E25" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="H25" s="78" t="s">
-        <v>619</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>551</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>397</v>
-      </c>
-      <c r="M25" s="36" t="n">
-        <v>92.90304670149715</v>
-      </c>
-      <c r="AC25" s="36" t="n">
-        <v>55.21440101591598</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="C26" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>480</v>
-      </c>
-      <c r="E26" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="H26" s="78" t="s">
-        <v>620</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="M26" s="36" t="n">
-        <v>69.53524642976424</v>
-      </c>
-      <c r="AC26" s="36" t="n">
-        <v>76.33605611191565</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>481</v>
-      </c>
-      <c r="E27" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="H27" s="78" t="s">
-        <v>621</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>399</v>
-      </c>
-      <c r="M27" s="36" t="n">
-        <v>81.47057523800515</v>
-      </c>
-      <c r="AC27" s="36" t="n">
-        <v>31.475896524597914</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="C28" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>482</v>
-      </c>
-      <c r="E28" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F28" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="H28" s="78" t="s">
-        <v>622</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>554</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="M28" s="36" t="n">
-        <v>71.59621285830198</v>
-      </c>
-      <c r="AC28" s="36" t="n">
-        <v>9.515726146795533</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>483</v>
-      </c>
-      <c r="E29" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="H29" s="78" t="s">
-        <v>623</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="L29" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="M29" s="36" t="n">
-        <v>59.740186176002894</v>
-      </c>
-      <c r="AC29" s="36" t="n">
-        <v>88.37477102963784</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="C30" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D30" s="75" t="s">
-        <v>484</v>
-      </c>
-      <c r="E30" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="H30" s="78" t="s">
-        <v>624</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>556</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="M30" s="36" t="n">
-        <v>44.101711548522815</v>
-      </c>
-      <c r="AC30" s="36" t="n">
-        <v>64.46175341045529</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="C31" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>485</v>
-      </c>
-      <c r="E31" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="78" t="s">
-        <v>625</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="M31" s="36" t="n">
-        <v>35.09528719877552</v>
-      </c>
-      <c r="AC31" s="36" t="n">
-        <v>46.393729399033624</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="C32" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>486</v>
-      </c>
-      <c r="E32" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="H32" s="78" t="s">
-        <v>626</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>558</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="M32" s="36" t="n">
-        <v>90.69971365192676</v>
-      </c>
-      <c r="AC32" s="36" t="n">
-        <v>9.55779156513924</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="C33" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D33" s="75" t="s">
-        <v>487</v>
-      </c>
-      <c r="E33" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F33" s="76" t="s">
-        <v>277</v>
-      </c>
-      <c r="H33" s="78" t="s">
-        <v>627</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="M33" s="36" t="n">
-        <v>21.587190049926907</v>
-      </c>
-      <c r="AC33" s="36" t="n">
-        <v>20.949604219809014</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="C34" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D34" s="75" t="s">
-        <v>488</v>
-      </c>
-      <c r="E34" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F34" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="H34" s="78" t="s">
-        <v>628</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>560</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="M34" s="36" t="n">
-        <v>43.92086988550026</v>
-      </c>
-      <c r="AC34" s="36" t="n">
-        <v>44.02933303552224</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C35" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D35" s="75" t="s">
-        <v>489</v>
-      </c>
-      <c r="E35" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="H35" s="78" t="s">
-        <v>629</v>
-      </c>
-      <c r="K35" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="L35" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="M35" s="36" t="n">
-        <v>36.2768365160404</v>
-      </c>
-      <c r="AC35" s="36" t="n">
-        <v>60.07453297690707</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D36" s="75" t="s">
-        <v>490</v>
-      </c>
-      <c r="E36" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="H36" s="78" t="s">
-        <v>630</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>562</v>
-      </c>
-      <c r="L36" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="M36" s="36" t="n">
-        <v>74.27547090240192</v>
-      </c>
-      <c r="AC36" s="36" t="n">
-        <v>86.0409021241968</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D37" s="75" t="s">
-        <v>491</v>
-      </c>
-      <c r="E37" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F37" s="76" t="s">
-        <v>281</v>
-      </c>
-      <c r="H37" s="78" t="s">
-        <v>631</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>563</v>
-      </c>
-      <c r="L37" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="M37" s="36" t="n">
-        <v>74.52292562370401</v>
-      </c>
-      <c r="AC37" s="36" t="n">
-        <v>39.612977008197426</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D38" s="75" t="s">
-        <v>492</v>
-      </c>
-      <c r="E38" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>282</v>
-      </c>
-      <c r="H38" s="78" t="s">
-        <v>632</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="L38" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="M38" s="36" t="n">
-        <v>75.91634909794853</v>
-      </c>
-      <c r="AC38" s="36" t="n">
-        <v>74.90626809320912</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="84" t="n">
-        <v>44965.85512724537</v>
-      </c>
-      <c r="D39" s="75" t="s">
-        <v>493</v>
-      </c>
-      <c r="E39" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F39" s="76" t="s">
-        <v>283</v>
-      </c>
-      <c r="H39" s="78" t="s">
-        <v>633</v>
-      </c>
-      <c r="K39" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="L39" s="36" t="s">
-        <v>411</v>
-      </c>
-      <c r="M39" s="36" t="n">
-        <v>92.79755448846589</v>
-      </c>
-      <c r="AC39" s="36" t="n">
-        <v>79.06193808007676</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" s="75" t="s">
-        <v>494</v>
-      </c>
-      <c r="E40" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="H40" s="78" t="s">
-        <v>634</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="M40" s="36" t="n">
-        <v>47.421626259301185</v>
-      </c>
-      <c r="AC40" s="36" t="n">
-        <v>71.80162921170283</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" s="75" t="s">
-        <v>495</v>
-      </c>
-      <c r="E41" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F41" s="76" t="s">
-        <v>285</v>
-      </c>
-      <c r="H41" s="78" t="s">
-        <v>635</v>
-      </c>
-      <c r="K41" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="L41" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="M41" s="36" t="n">
-        <v>95.30180467814452</v>
-      </c>
-      <c r="AC41" s="36" t="n">
-        <v>27.140987846256827</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" s="75" t="s">
-        <v>496</v>
-      </c>
-      <c r="E42" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>286</v>
-      </c>
-      <c r="H42" s="78" t="s">
-        <v>636</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>568</v>
-      </c>
-      <c r="L42" s="36" t="s">
-        <v>414</v>
-      </c>
-      <c r="M42" s="36" t="n">
-        <v>83.88959030961898</v>
-      </c>
-      <c r="AC42" s="36" t="n">
-        <v>24.75629562143602</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="D43" s="75" t="s">
-        <v>497</v>
-      </c>
-      <c r="E43" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F43" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="H43" s="78" t="s">
-        <v>637</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="L43" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="M43" s="36" t="n">
-        <v>26.779072982327</v>
-      </c>
-      <c r="AC43" s="36" t="n">
-        <v>56.29439388719092</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" s="75" t="s">
-        <v>498</v>
-      </c>
-      <c r="E44" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F44" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="H44" s="78" t="s">
-        <v>638</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="L44" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="M44" s="36" t="n">
-        <v>20.35427787080415</v>
-      </c>
-      <c r="AC44" s="36" t="n">
-        <v>22.136969395529515</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="D45" s="75" t="s">
-        <v>499</v>
-      </c>
-      <c r="E45" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F45" s="76" t="s">
-        <v>289</v>
-      </c>
-      <c r="H45" s="78" t="s">
-        <v>639</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>571</v>
-      </c>
-      <c r="L45" s="36" t="s">
-        <v>417</v>
-      </c>
-      <c r="M45" s="36" t="n">
-        <v>44.361884459020665</v>
-      </c>
-      <c r="AC45" s="36" t="n">
-        <v>52.04137148467284</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" s="75" t="s">
-        <v>500</v>
-      </c>
-      <c r="E46" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F46" s="76" t="s">
-        <v>290</v>
-      </c>
-      <c r="H46" s="78" t="s">
-        <v>640</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="L46" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="M46" s="36" t="n">
-        <v>83.80974222913149</v>
-      </c>
-      <c r="AC46" s="36" t="n">
-        <v>50.68784959341907</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="D47" s="75" t="s">
-        <v>501</v>
-      </c>
-      <c r="E47" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F47" s="76" t="s">
-        <v>291</v>
-      </c>
-      <c r="H47" s="78" t="s">
-        <v>641</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>419</v>
-      </c>
-      <c r="M47" s="36" t="n">
-        <v>90.98008984886489</v>
-      </c>
-      <c r="AC47" s="36" t="n">
-        <v>52.90583603960233</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="D48" s="75" t="s">
-        <v>502</v>
-      </c>
-      <c r="E48" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F48" s="76" t="s">
-        <v>292</v>
-      </c>
-      <c r="H48" s="78" t="s">
-        <v>642</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>574</v>
-      </c>
-      <c r="L48" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="M48" s="36" t="n">
-        <v>40.72126064876311</v>
-      </c>
-      <c r="AC48" s="36" t="n">
-        <v>32.34948921966764</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="D49" s="75" t="s">
-        <v>503</v>
-      </c>
-      <c r="E49" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F49" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="H49" s="78" t="s">
-        <v>643</v>
-      </c>
-      <c r="K49" s="36" t="s">
-        <v>575</v>
-      </c>
-      <c r="L49" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="M49" s="36" t="n">
-        <v>50.80858870290859</v>
-      </c>
-      <c r="AC49" s="36" t="n">
-        <v>95.14074181408351</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="D50" s="75" t="s">
-        <v>504</v>
-      </c>
-      <c r="E50" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F50" s="76" t="s">
-        <v>294</v>
-      </c>
-      <c r="H50" s="78" t="s">
-        <v>644</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>422</v>
-      </c>
-      <c r="M50" s="36" t="n">
-        <v>64.21287838766654</v>
-      </c>
-      <c r="AC50" s="36" t="n">
-        <v>73.02751988865086</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="D51" s="75" t="s">
-        <v>505</v>
-      </c>
-      <c r="E51" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F51" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="78" t="s">
-        <v>645</v>
-      </c>
-      <c r="K51" s="36" t="s">
-        <v>577</v>
-      </c>
-      <c r="L51" s="36" t="s">
-        <v>423</v>
-      </c>
-      <c r="M51" s="36" t="n">
-        <v>1.5073502463597177</v>
-      </c>
-      <c r="AC51" s="36" t="n">
-        <v>13.242863714770204</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="D52" s="75" t="s">
-        <v>506</v>
-      </c>
-      <c r="E52" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F52" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="H52" s="78" t="s">
-        <v>646</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="L52" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="M52" s="36" t="n">
-        <v>87.12543773347889</v>
-      </c>
-      <c r="AC52" s="36" t="n">
-        <v>77.25303106058561</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" s="75" t="s">
-        <v>507</v>
-      </c>
-      <c r="E53" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F53" s="76" t="s">
-        <v>297</v>
-      </c>
-      <c r="H53" s="78" t="s">
-        <v>647</v>
-      </c>
-      <c r="K53" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC53" s="36" t="n">
-        <v>1.0231662622947613</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="D54" s="75" t="s">
-        <v>508</v>
-      </c>
-      <c r="E54" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F54" s="76" t="s">
-        <v>298</v>
-      </c>
-      <c r="H54" s="78" t="s">
-        <v>648</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC54" s="36" t="n">
-        <v>77.86709772379659</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" s="75" t="s">
-        <v>509</v>
-      </c>
-      <c r="E55" s="76" t="n">
-        <v>44965.85512712963</v>
-      </c>
-      <c r="F55" s="76" t="s">
-        <v>299</v>
-      </c>
-      <c r="H55" s="78" t="s">
-        <v>649</v>
-      </c>
-      <c r="K55" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="L55" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC55" s="36" t="n">
-        <v>21.509652409331636</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="D56" s="75" t="s">
-        <v>510</v>
-      </c>
-      <c r="F56" s="76" t="s">
-        <v>300</v>
-      </c>
-      <c r="H56" s="78" t="s">
-        <v>650</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="L56" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="AC56" s="36" t="n">
-        <v>88.63322017239597</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" s="75" t="s">
-        <v>511</v>
-      </c>
-      <c r="F57" s="76" t="s">
-        <v>301</v>
-      </c>
-      <c r="H57" s="78" t="s">
-        <v>651</v>
-      </c>
-      <c r="K57" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="L57" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="AC57" s="36" t="n">
-        <v>79.0301446690067</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" s="75" t="s">
-        <v>512</v>
-      </c>
-      <c r="F58" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="H58" s="78" t="s">
-        <v>652</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="L58" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC58" s="36" t="n">
-        <v>0.7554401373106812</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="D59" s="75" t="s">
-        <v>513</v>
-      </c>
-      <c r="F59" s="76" t="s">
-        <v>303</v>
-      </c>
-      <c r="H59" s="78" t="s">
-        <v>653</v>
-      </c>
-      <c r="K59" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="L59" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="AC59" s="36" t="n">
-        <v>9.330788260573886</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="D60" s="75" t="s">
-        <v>514</v>
-      </c>
-      <c r="F60" s="76" t="s">
-        <v>304</v>
-      </c>
-      <c r="H60" s="78" t="s">
-        <v>654</v>
-      </c>
-      <c r="K60" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="L60" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC60" s="36" t="n">
-        <v>28.942195511624202</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="D61" s="75" t="s">
-        <v>515</v>
-      </c>
-      <c r="F61" s="76" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" s="78" t="s">
-        <v>655</v>
-      </c>
-      <c r="K61" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="L61" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC61" s="36" t="n">
-        <v>68.47348750912847</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" s="75" t="s">
-        <v>516</v>
-      </c>
-      <c r="F62" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="H62" s="78" t="s">
-        <v>656</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="L62" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="AC62" s="36" t="n">
-        <v>37.754019712791944</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="D63" s="75" t="s">
-        <v>517</v>
-      </c>
-      <c r="F63" s="76" t="s">
-        <v>307</v>
-      </c>
-      <c r="H63" s="78" t="s">
-        <v>657</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>589</v>
-      </c>
-      <c r="L63" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC63" s="36" t="n">
-        <v>87.52607852986432</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="D64" s="75" t="s">
-        <v>518</v>
-      </c>
-      <c r="F64" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="H64" s="78" t="s">
-        <v>658</v>
-      </c>
-      <c r="K64" s="36" t="s">
-        <v>590</v>
-      </c>
-      <c r="L64" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="AC64" s="36" t="n">
-        <v>89.91714057030565</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="D65" s="75" t="s">
-        <v>519</v>
-      </c>
-      <c r="F65" s="76" t="s">
-        <v>309</v>
-      </c>
-      <c r="H65" s="78" t="s">
-        <v>659</v>
-      </c>
-      <c r="K65" s="36" t="s">
-        <v>591</v>
-      </c>
-      <c r="L65" s="36" t="s">
+      <c r="F68" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H68" s="78" t="s">
         <v>437</v>
       </c>
-      <c r="AC65" s="36" t="n">
-        <v>25.778966932754145</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" s="75" t="s">
-        <v>520</v>
-      </c>
-      <c r="F66" s="76" t="s">
-        <v>310</v>
-      </c>
-      <c r="H66" s="78" t="s">
-        <v>660</v>
-      </c>
-      <c r="K66" s="36" t="s">
-        <v>592</v>
-      </c>
-      <c r="L66" s="36" t="s">
+      <c r="I68" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K68" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC68" s="36" t="n">
+        <v>36.18555730769408</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H69" s="78" t="s">
         <v>438</v>
       </c>
-      <c r="AC66" s="36" t="n">
-        <v>2.047669980950928</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" s="75" t="s">
-        <v>521</v>
-      </c>
-      <c r="F67" s="76" t="s">
-        <v>311</v>
-      </c>
-      <c r="H67" s="78" t="s">
-        <v>661</v>
-      </c>
-      <c r="K67" s="36" t="s">
-        <v>593</v>
-      </c>
-      <c r="L67" s="36" t="s">
+      <c r="I69" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K69" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC69" s="36" t="n">
+        <v>37.68467816342971</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H70" s="78" t="s">
         <v>439</v>
       </c>
-      <c r="AC67" s="36" t="n">
-        <v>82.5203144258442</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" s="75" t="s">
-        <v>522</v>
-      </c>
-      <c r="F68" s="76" t="s">
-        <v>312</v>
-      </c>
-      <c r="H68" s="78" t="s">
-        <v>662</v>
-      </c>
-      <c r="K68" s="36" t="s">
-        <v>594</v>
-      </c>
-      <c r="L68" s="36" t="s">
+      <c r="I70" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K70" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC70" s="36" t="n">
+        <v>81.71495954441453</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H71" s="78" t="s">
         <v>440</v>
       </c>
-      <c r="AC68" s="36" t="n">
-        <v>43.347359963117505</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" s="75" t="s">
-        <v>523</v>
-      </c>
-      <c r="F69" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="H69" s="78" t="s">
-        <v>663</v>
-      </c>
-      <c r="K69" s="36" t="s">
-        <v>595</v>
-      </c>
-      <c r="L69" s="36" t="s">
+      <c r="I71" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K71" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC71" s="36" t="n">
+        <v>53.595258837439964</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H72" s="78" t="s">
         <v>441</v>
       </c>
-      <c r="AC69" s="36" t="n">
-        <v>87.47007897390478</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" s="75" t="s">
-        <v>524</v>
-      </c>
-      <c r="F70" s="76" t="s">
-        <v>314</v>
-      </c>
-      <c r="H70" s="78" t="s">
-        <v>664</v>
-      </c>
-      <c r="K70" s="36" t="s">
-        <v>596</v>
-      </c>
-      <c r="L70" s="36" t="s">
+      <c r="I72" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K72" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC72" s="36" t="n">
+        <v>27.803937238019138</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H73" s="78" t="s">
         <v>442</v>
       </c>
-      <c r="AC70" s="36" t="n">
-        <v>94.39974550274388</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" s="75" t="s">
-        <v>525</v>
-      </c>
-      <c r="F71" s="76" t="s">
-        <v>315</v>
-      </c>
-      <c r="H71" s="78" t="s">
-        <v>665</v>
-      </c>
-      <c r="K71" s="36" t="s">
-        <v>597</v>
-      </c>
-      <c r="L71" s="36" t="s">
+      <c r="I73" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K73" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC73" s="36" t="n">
+        <v>46.794155466168405</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H74" s="78" t="s">
         <v>443</v>
       </c>
-      <c r="AC71" s="36" t="n">
-        <v>68.06486225305927</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="F72" s="76" t="s">
-        <v>316</v>
-      </c>
-      <c r="H72" s="78" t="s">
-        <v>666</v>
-      </c>
-      <c r="K72" s="36" t="s">
-        <v>598</v>
-      </c>
-      <c r="L72" s="36" t="s">
+      <c r="I74" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K74" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC74" s="36" t="n">
+        <v>93.71899468971436</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="F75" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H75" s="78" t="s">
         <v>444</v>
       </c>
-      <c r="AC72" s="36" t="n">
-        <v>97.8747539341295</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" s="75" t="s">
-        <v>527</v>
-      </c>
-      <c r="F73" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="H73" s="78" t="s">
-        <v>667</v>
-      </c>
-      <c r="K73" s="36" t="s">
-        <v>599</v>
-      </c>
-      <c r="L73" s="36" t="s">
+      <c r="I75" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K75" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC75" s="36" t="n">
+        <v>86.57012557953628</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="F76" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H76" s="78" t="s">
         <v>445</v>
       </c>
-      <c r="AC73" s="36" t="n">
-        <v>12.217597834953297</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="F74" s="76" t="s">
-        <v>318</v>
-      </c>
-      <c r="H74" s="78" t="s">
-        <v>668</v>
-      </c>
-      <c r="L74" s="36" t="s">
+      <c r="I76" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K76" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC76" s="36" t="n">
+        <v>43.87653997872947</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="F77" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H77" s="78" t="s">
         <v>446</v>
       </c>
-      <c r="AC74" s="36" t="n">
-        <v>83.96349032128724</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" s="75" t="s">
-        <v>529</v>
-      </c>
-      <c r="F75" s="76" t="s">
-        <v>319</v>
-      </c>
-      <c r="H75" s="78" t="s">
-        <v>669</v>
-      </c>
-      <c r="L75" s="36" t="s">
+      <c r="I77" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K77" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC77" s="36" t="n">
+        <v>99.46395274178093</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="F78" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H78" s="78" t="s">
         <v>447</v>
       </c>
-      <c r="AC75" s="36" t="n">
-        <v>96.32687865643689</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" s="75" t="s">
-        <v>530</v>
-      </c>
-      <c r="F76" s="76" t="s">
-        <v>320</v>
-      </c>
-      <c r="H76" s="78" t="s">
-        <v>670</v>
-      </c>
-      <c r="L76" s="36" t="s">
+      <c r="I78" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K78" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC78" s="36" t="n">
+        <v>2.0146511367797437</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="F79" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H79" s="78" t="s">
         <v>448</v>
       </c>
-      <c r="AC76" s="36" t="n">
-        <v>70.49778445697306</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" s="75" t="s">
-        <v>531</v>
-      </c>
-      <c r="F77" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="H77" s="78" t="s">
-        <v>671</v>
-      </c>
-      <c r="L77" s="36" t="s">
+      <c r="I79" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+      <c r="K79" s="36" t="n">
+        <v>44966.74745386574</v>
+      </c>
+      <c r="AC79" s="36" t="n">
+        <v>76.65894991631185</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="F80" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H80" s="78" t="s">
         <v>449</v>
       </c>
-      <c r="AC77" s="36" t="n">
-        <v>7.622043916426346</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" s="76" t="s">
-        <v>322</v>
-      </c>
-      <c r="H78" s="78" t="s">
-        <v>672</v>
-      </c>
-      <c r="L78" s="36" t="s">
+      <c r="I80" s="36" t="n">
+        <v>44966.7474537963</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="F81" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="H81" s="78" t="s">
         <v>450</v>
       </c>
-      <c r="AC78" s="36" t="n">
-        <v>2.309172632804335</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="H79" s="78" t="s">
-        <v>673</v>
-      </c>
-      <c r="L79" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC79" s="36" t="n">
-        <v>48.905836319792705</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="F80" s="76" t="s">
-        <v>324</v>
-      </c>
-      <c r="H80" s="78" t="s">
-        <v>674</v>
-      </c>
-      <c r="L80" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="AC80" s="36" t="n">
-        <v>64.35907984358657</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="F81" s="76" t="s">
-        <v>325</v>
-      </c>
-      <c r="H81" s="78" t="s">
-        <v>675</v>
-      </c>
-      <c r="L81" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC81" s="36" t="n">
-        <v>2.9625816913564584</v>
+      <c r="I81" s="36" t="n">
+        <v>44966.7474537963</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" s="76" t="s">
-        <v>326</v>
-      </c>
-      <c r="H82" s="78" t="s">
-        <v>676</v>
-      </c>
-      <c r="L82" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC82" s="36" t="n">
-        <v>37.999075464210186</v>
+      <c r="F82" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I82" s="36" t="n">
+        <v>44966.7474537963</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" s="76" t="s">
-        <v>327</v>
-      </c>
-      <c r="H83" s="78" t="s">
-        <v>677</v>
-      </c>
-      <c r="L83" s="36" t="s">
-        <v>455</v>
+      <c r="F83" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I83" s="36" t="n">
+        <v>44966.7474537963</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="H84" s="78" t="s">
-        <v>678</v>
-      </c>
-      <c r="L84" s="36" t="s">
-        <v>456</v>
+      <c r="F84" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I84" s="36" t="n">
+        <v>44966.74745380787</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="H85" s="78" t="s">
-        <v>679</v>
-      </c>
-      <c r="L85" s="36" t="s">
-        <v>457</v>
+      <c r="F85" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I85" s="36" t="n">
+        <v>44966.74745380787</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="H86" s="78" t="s">
-        <v>680</v>
-      </c>
-      <c r="L86" s="36" t="s">
-        <v>458</v>
+      <c r="F86" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I86" s="36" t="n">
+        <v>44966.74745380787</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="H87" s="78" t="s">
-        <v>681</v>
-      </c>
-      <c r="L87" s="36" t="s">
-        <v>459</v>
+      <c r="F87" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I87" s="36" t="n">
+        <v>44966.74745380787</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" s="76" t="s">
-        <v>332</v>
-      </c>
-      <c r="H88" s="78" t="s">
-        <v>682</v>
+      <c r="F88" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I88" s="36" t="n">
+        <v>44966.74745380787</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" s="76" t="s">
-        <v>333</v>
-      </c>
-      <c r="H89" s="78" t="s">
-        <v>683</v>
+      <c r="F89" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I89" s="36" t="n">
+        <v>44966.74745380787</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="H90" s="78" t="s">
-        <v>684</v>
+      <c r="F90" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I90" s="36" t="n">
+        <v>44966.74745380787</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="F91" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I91" s="36" t="n">
+        <v>44966.74745380787</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="F92" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I92" s="36" t="n">
+        <v>44966.74745380787</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="F93" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+      <c r="I93" s="36" t="n">
+        <v>44966.74745380787</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="F94" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="F95" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="F96" s="76" t="n">
+        <v>44966.74745375</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="F97" s="76" t="n">
+        <v>44966.74745375</v>
       </c>
     </row>
   </sheetData>
@@ -10661,7 +9928,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
-  <dimension ref="A2:G57"/>
+  <dimension ref="A2:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -10671,307 +9938,475 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>42.188678718458775</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>64.32498629206289</v>
       </c>
     </row>
     <row r="4" spans="5:7">
       <c r="A4" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>93.96994373573314</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>44965.855146539354</v>
+        <v>44966.74747255787</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>44965.855146539354</v>
+        <v>44966.74747255787</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>44965.855146539354</v>
+        <v>44966.74747255787</v>
       </c>
     </row>
     <row r="5" spans="5:7">
       <c r="A5" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>4.646878229795859</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>44965.855146539354</v>
+        <v>44966.74747255787</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>44965.855146539354</v>
+        <v>44966.74747255787</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>44965.855146539354</v>
+        <v>44966.74747255787</v>
       </c>
     </row>
     <row r="6" spans="5:7">
       <c r="A6" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>26.868107019485244</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>44965.855146539354</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>44965.855146539354</v>
-      </c>
+        <v>44966.74747255787</v>
+      </c>
+      <c r="F6" s="0"/>
       <c r="G6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>54.521488070827</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>5.3078730524293904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>94.84215928784594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>51.445864685071896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>94.23275518411536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>10.408949217197838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>49.45628066013694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>67.9743867248543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>17.662056222748724</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>27.366213054076326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>77.77118073397554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>99.00756886804135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>53.8204778111313</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>18.937335420863445</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>13.084194689871676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>9.36291451634429</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>91.36836506237152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>63.73307536478511</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>48.68488390179141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>53.09204227950025</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>73.7836936706718</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>48.69717209156244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>15.537268603970421</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>65.38919040813168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>54.27939118825481</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>92.49988404456958</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>44.81017958746655</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>74.73373620217583</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>74.36423669266013</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>79.09627585861301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>19.433587570785736</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>69.25416138935027</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>42.5396678584921</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>53.4542241446735</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>8.018920198540581</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>63.11726403128721</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>80.34744253239288</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>7.336095617829253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>91.76652890961378</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>73.68791806865596</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>71.83079175310968</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>62.02189268078534</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>40.39364353344309</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>38.270961493395426</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>99.44434504085365</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>36.9905872275031</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>66.65128883494182</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>70.43831229186206</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>74.54573948425974</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>78.83028670861893</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>44965.85512719907</v>
+        <v>90.65878797939997</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="n">
+        <v>80.26073262335534</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="n">
+        <v>73.82452661577462</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="n">
+        <v>13.026760149762694</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="n">
+        <v>75.06968922207588</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="n">
+        <v>60.205139341634684</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="n">
+        <v>74.37162968665413</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="n">
+        <v>72.78375693029137</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="n">
+        <v>49.99300648613324</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="n">
+        <v>69.02471577108872</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="n">
+        <v>39.565213003614886</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="n">
+        <v>53.65749857497101</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="n">
+        <v>32.62892546543592</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="n">
+        <v>29.660489957746872</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="n">
+        <v>45.54657285367741</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="n">
+        <v>40.54154818187769</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="n">
+        <v>60.738226416802945</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="n">
+        <v>93.98948309636056</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="n">
+        <v>53.78225117886855</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="n">
+        <v>54.417277820750876</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="n">
+        <v>1.349828956484389</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="n">
+        <v>17.19591653193927</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="n">
+        <v>29.056202283316026</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="n">
+        <v>70.28894554481876</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="n">
+        <v>66.52104761587286</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="n">
+        <v>27.608341350890488</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="n">
+        <v>74.20861973045828</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="n">
+        <v>64.85140462033206</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="n">
+        <v>66.5003000371687</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="n">
+        <v>74.0370403225697</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="n">
+        <v>3.0355305345165284</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="n">
+        <v>62.69227499871055</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="n">
+        <v>57.3021190898261</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="n">
+        <v>81.96237215511717</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="n">
+        <v>0.986053012156829</v>
       </c>
     </row>
   </sheetData>
@@ -10989,22 +10424,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>685</v>
+        <v>451</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>692</v>
+        <v>458</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>702</v>
+        <v>468</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>712</v>
+        <v>478</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>722</v>
+        <v>488</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>732</v>
+        <v>498</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>0.021</v>
@@ -11012,22 +10447,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>686</v>
+        <v>452</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>693</v>
+        <v>459</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>703</v>
+        <v>469</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>713</v>
+        <v>479</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>723</v>
+        <v>489</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>733</v>
+        <v>499</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>100.3</v>
@@ -11035,22 +10470,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>687</v>
+        <v>453</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>694</v>
+        <v>460</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>704</v>
+        <v>470</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>714</v>
+        <v>480</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>724</v>
+        <v>490</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>734</v>
+        <v>500</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>9.275</v>
@@ -11058,19 +10493,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>688</v>
+        <v>454</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>695</v>
+        <v>461</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>705</v>
+        <v>471</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>715</v>
+        <v>481</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>725</v>
+        <v>491</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>100000.734</v>
@@ -11078,95 +10513,95 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>689</v>
+        <v>455</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>696</v>
+        <v>462</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>706</v>
+        <v>472</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>716</v>
+        <v>482</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>726</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>690</v>
+        <v>456</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>697</v>
+        <v>463</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>707</v>
+        <v>473</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>717</v>
+        <v>483</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>727</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>691</v>
+        <v>457</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>698</v>
+        <v>464</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>708</v>
+        <v>474</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>718</v>
+        <v>484</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>728</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="s">
-        <v>699</v>
+        <v>465</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>709</v>
+        <v>475</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>719</v>
+        <v>485</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>729</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="0" t="s">
-        <v>700</v>
+        <v>466</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>710</v>
+        <v>476</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>720</v>
+        <v>486</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>730</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="s">
-        <v>701</v>
+        <v>467</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>711</v>
+        <v>477</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>721</v>
+        <v>487</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>731</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/W-Domestic Standard Upload Template.xlsx
+++ b/W-Domestic Standard Upload Template.xlsx
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="486">
   <si>
     <t>#</t>
   </si>
@@ -1160,6 +1160,117 @@
     <t xml:space="preserve">Shape </t>
   </si>
   <si>
+    <t>typ:0</t>
+  </si>
+  <si>
+    <t>typ:1</t>
+  </si>
+  <si>
+    <t>typ:2</t>
+  </si>
+  <si>
+    <t>typ:3</t>
+  </si>
+  <si>
+    <t>typ:4</t>
+  </si>
+  <si>
+    <t>typ:5</t>
+  </si>
+  <si>
+    <t>typ:6</t>
+  </si>
+  <si>
+    <t>typ:7</t>
+  </si>
+  <si>
+    <t>typ:8</t>
+  </si>
+  <si>
+    <t>typ:9</t>
+  </si>
+  <si>
+    <t>typ:10</t>
+  </si>
+  <si>
+    <t>typ:11</t>
+  </si>
+  <si>
+    <t>typ:12</t>
+  </si>
+  <si>
+    <t>typ:13</t>
+  </si>
+  <si>
+    <t>typ:14</t>
+  </si>
+  <si>
+    <t>typ:15</t>
+  </si>
+  <si>
+    <t>typ:16</t>
+  </si>
+  <si>
+    <t>typ:17</t>
+  </si>
+  <si>
+    <t>typ:18</t>
+  </si>
+  <si>
+    <t>typ:19</t>
+  </si>
+  <si>
+    <t>typ:20</t>
+  </si>
+  <si>
+    <t>typ:21</t>
+  </si>
+  <si>
+    <t>typ:22</t>
+  </si>
+  <si>
+    <t>typ:23</t>
+  </si>
+  <si>
+    <t>typ:24</t>
+  </si>
+  <si>
+    <t>typ:25</t>
+  </si>
+  <si>
+    <t>typ:26</t>
+  </si>
+  <si>
+    <t>typ:27</t>
+  </si>
+  <si>
+    <t>typ:28</t>
+  </si>
+  <si>
+    <t>typ:29</t>
+  </si>
+  <si>
+    <t>typ:30</t>
+  </si>
+  <si>
+    <t>typ:31</t>
+  </si>
+  <si>
+    <t>typ:32</t>
+  </si>
+  <si>
+    <t>typ:33</t>
+  </si>
+  <si>
+    <t>typ:34</t>
+  </si>
+  <si>
+    <t>typ:35</t>
+  </si>
+  <si>
+    <t>typ:36</t>
+  </si>
+  <si>
     <t>mat:0</t>
   </si>
   <si>
@@ -1220,6 +1331,360 @@
     <t>mat:19</t>
   </si>
   <si>
+    <t>mat:20</t>
+  </si>
+  <si>
+    <t>mat:21</t>
+  </si>
+  <si>
+    <t>mat:22</t>
+  </si>
+  <si>
+    <t>mat:23</t>
+  </si>
+  <si>
+    <t>mat:24</t>
+  </si>
+  <si>
+    <t>mat:25</t>
+  </si>
+  <si>
+    <t>mat:26</t>
+  </si>
+  <si>
+    <t>mat:27</t>
+  </si>
+  <si>
+    <t>mat:28</t>
+  </si>
+  <si>
+    <t>mat:29</t>
+  </si>
+  <si>
+    <t>mat:30</t>
+  </si>
+  <si>
+    <t>mat:31</t>
+  </si>
+  <si>
+    <t>mat:32</t>
+  </si>
+  <si>
+    <t>mat:33</t>
+  </si>
+  <si>
+    <t>mat:34</t>
+  </si>
+  <si>
+    <t>mat:35</t>
+  </si>
+  <si>
+    <t>mat:36</t>
+  </si>
+  <si>
+    <t>mat:37</t>
+  </si>
+  <si>
+    <t>mat:38</t>
+  </si>
+  <si>
+    <t>mat:39</t>
+  </si>
+  <si>
+    <t>mat:40</t>
+  </si>
+  <si>
+    <t>mat:41</t>
+  </si>
+  <si>
+    <t>mat:42</t>
+  </si>
+  <si>
+    <t>mat:43</t>
+  </si>
+  <si>
+    <t>mat:44</t>
+  </si>
+  <si>
+    <t>mat:45</t>
+  </si>
+  <si>
+    <t>mat:46</t>
+  </si>
+  <si>
+    <t>cor:0</t>
+  </si>
+  <si>
+    <t>cor:1</t>
+  </si>
+  <si>
+    <t>cor:2</t>
+  </si>
+  <si>
+    <t>cor:3</t>
+  </si>
+  <si>
+    <t>cor:4</t>
+  </si>
+  <si>
+    <t>cor:5</t>
+  </si>
+  <si>
+    <t>cor:6</t>
+  </si>
+  <si>
+    <t>vpn:0</t>
+  </si>
+  <si>
+    <t>vpn:1</t>
+  </si>
+  <si>
+    <t>vpn:2</t>
+  </si>
+  <si>
+    <t>vpn:3</t>
+  </si>
+  <si>
+    <t>vpn:4</t>
+  </si>
+  <si>
+    <t>vpn:5</t>
+  </si>
+  <si>
+    <t>vpn:6</t>
+  </si>
+  <si>
+    <t>vpn:7</t>
+  </si>
+  <si>
+    <t>vpn:8</t>
+  </si>
+  <si>
+    <t>vpn:9</t>
+  </si>
+  <si>
+    <t>vpn:10</t>
+  </si>
+  <si>
+    <t>vpn:11</t>
+  </si>
+  <si>
+    <t>vpn:12</t>
+  </si>
+  <si>
+    <t>vpn:13</t>
+  </si>
+  <si>
+    <t>vpn:14</t>
+  </si>
+  <si>
+    <t>vpn:15</t>
+  </si>
+  <si>
+    <t>vpn:16</t>
+  </si>
+  <si>
+    <t>vpn:17</t>
+  </si>
+  <si>
+    <t>vpn:18</t>
+  </si>
+  <si>
+    <t>vpn:19</t>
+  </si>
+  <si>
+    <t>vpn:20</t>
+  </si>
+  <si>
+    <t>vpn:21</t>
+  </si>
+  <si>
+    <t>vpn:22</t>
+  </si>
+  <si>
+    <t>vpn:23</t>
+  </si>
+  <si>
+    <t>vpn:24</t>
+  </si>
+  <si>
+    <t>vpn:25</t>
+  </si>
+  <si>
+    <t>vpn:26</t>
+  </si>
+  <si>
+    <t>vpn:27</t>
+  </si>
+  <si>
+    <t>vpn:28</t>
+  </si>
+  <si>
+    <t>vpn:29</t>
+  </si>
+  <si>
+    <t>vpn:30</t>
+  </si>
+  <si>
+    <t>vpn:31</t>
+  </si>
+  <si>
+    <t>vpn:32</t>
+  </si>
+  <si>
+    <t>vpn:33</t>
+  </si>
+  <si>
+    <t>vpn:34</t>
+  </si>
+  <si>
+    <t>vpn:35</t>
+  </si>
+  <si>
+    <t>vpn:36</t>
+  </si>
+  <si>
+    <t>vpn:37</t>
+  </si>
+  <si>
+    <t>vpn:38</t>
+  </si>
+  <si>
+    <t>vpn:39</t>
+  </si>
+  <si>
+    <t>vpn:40</t>
+  </si>
+  <si>
+    <t>vpn:41</t>
+  </si>
+  <si>
+    <t>vpn:42</t>
+  </si>
+  <si>
+    <t>vpn:43</t>
+  </si>
+  <si>
+    <t>vpn:44</t>
+  </si>
+  <si>
+    <t>vpn:45</t>
+  </si>
+  <si>
+    <t>vpn:46</t>
+  </si>
+  <si>
+    <t>vpn:47</t>
+  </si>
+  <si>
+    <t>vpn:48</t>
+  </si>
+  <si>
+    <t>vpn:49</t>
+  </si>
+  <si>
+    <t>vpn:50</t>
+  </si>
+  <si>
+    <t>vpn:51</t>
+  </si>
+  <si>
+    <t>vpn:52</t>
+  </si>
+  <si>
+    <t>vpn:53</t>
+  </si>
+  <si>
+    <t>vpn:54</t>
+  </si>
+  <si>
+    <t>vpn:55</t>
+  </si>
+  <si>
+    <t>vpn:56</t>
+  </si>
+  <si>
+    <t>vpn:57</t>
+  </si>
+  <si>
+    <t>vpn:58</t>
+  </si>
+  <si>
+    <t>vpn:59</t>
+  </si>
+  <si>
+    <t>vpn:60</t>
+  </si>
+  <si>
+    <t>vpn:61</t>
+  </si>
+  <si>
+    <t>vpn:62</t>
+  </si>
+  <si>
+    <t>vpn:63</t>
+  </si>
+  <si>
+    <t>vpn:64</t>
+  </si>
+  <si>
+    <t>vpn:65</t>
+  </si>
+  <si>
+    <t>vpn:66</t>
+  </si>
+  <si>
+    <t>vpn:67</t>
+  </si>
+  <si>
+    <t>vpn:68</t>
+  </si>
+  <si>
+    <t>vpn:69</t>
+  </si>
+  <si>
+    <t>vpn:70</t>
+  </si>
+  <si>
+    <t>vpn:71</t>
+  </si>
+  <si>
+    <t>vpn:72</t>
+  </si>
+  <si>
+    <t>vpn:73</t>
+  </si>
+  <si>
+    <t>vpn:74</t>
+  </si>
+  <si>
+    <t>vpn:75</t>
+  </si>
+  <si>
+    <t>vpn:76</t>
+  </si>
+  <si>
+    <t>vpn:77</t>
+  </si>
+  <si>
+    <t>vpn:78</t>
+  </si>
+  <si>
+    <t>vpn:79</t>
+  </si>
+  <si>
+    <t>vpn:80</t>
+  </si>
+  <si>
+    <t>vpn:81</t>
+  </si>
+  <si>
+    <t>vpn:82</t>
+  </si>
+  <si>
+    <t>vpn:83</t>
+  </si>
+  <si>
     <t>cat:0</t>
   </si>
   <si>
@@ -1241,526 +1706,16 @@
     <t>cat:6</t>
   </si>
   <si>
-    <t>cat:7</t>
-  </si>
-  <si>
-    <t>cat:8</t>
-  </si>
-  <si>
-    <t>cat:9</t>
-  </si>
-  <si>
-    <t>cat:10</t>
-  </si>
-  <si>
-    <t>cat:11</t>
-  </si>
-  <si>
-    <t>cat:12</t>
-  </si>
-  <si>
-    <t>cat:13</t>
-  </si>
-  <si>
-    <t>cat:14</t>
-  </si>
-  <si>
-    <t>cat:15</t>
-  </si>
-  <si>
-    <t>ven:0</t>
-  </si>
-  <si>
-    <t>ven:1</t>
-  </si>
-  <si>
-    <t>ven:2</t>
-  </si>
-  <si>
-    <t>ven:3</t>
-  </si>
-  <si>
-    <t>ven:4</t>
-  </si>
-  <si>
-    <t>ven:5</t>
-  </si>
-  <si>
-    <t>ven:6</t>
-  </si>
-  <si>
-    <t>ven:7</t>
-  </si>
-  <si>
-    <t>ven:8</t>
-  </si>
-  <si>
-    <t>ven:9</t>
-  </si>
-  <si>
-    <t>ven:10</t>
-  </si>
-  <si>
-    <t>ven:11</t>
-  </si>
-  <si>
-    <t>ven:12</t>
-  </si>
-  <si>
-    <t>ven:13</t>
-  </si>
-  <si>
-    <t>ven:14</t>
-  </si>
-  <si>
-    <t>ven:15</t>
-  </si>
-  <si>
-    <t>ven:16</t>
-  </si>
-  <si>
-    <t>ven:17</t>
-  </si>
-  <si>
-    <t>ven:18</t>
-  </si>
-  <si>
-    <t>ven:19</t>
-  </si>
-  <si>
-    <t>ven:20</t>
-  </si>
-  <si>
-    <t>ven:21</t>
-  </si>
-  <si>
-    <t>ven:22</t>
-  </si>
-  <si>
-    <t>ven:23</t>
-  </si>
-  <si>
-    <t>ven:24</t>
-  </si>
-  <si>
-    <t>ven:25</t>
-  </si>
-  <si>
-    <t>ven:26</t>
-  </si>
-  <si>
-    <t>ven:27</t>
-  </si>
-  <si>
-    <t>ven:28</t>
-  </si>
-  <si>
-    <t>ven:29</t>
-  </si>
-  <si>
-    <t>ven:30</t>
-  </si>
-  <si>
-    <t>ven:31</t>
-  </si>
-  <si>
-    <t>ven:32</t>
-  </si>
-  <si>
-    <t>ven:33</t>
-  </si>
-  <si>
-    <t>ven:34</t>
-  </si>
-  <si>
-    <t>ven:35</t>
-  </si>
-  <si>
-    <t>ven:36</t>
-  </si>
-  <si>
-    <t>ven:37</t>
-  </si>
-  <si>
-    <t>ven:38</t>
-  </si>
-  <si>
-    <t>ven:39</t>
-  </si>
-  <si>
-    <t>ven:40</t>
-  </si>
-  <si>
-    <t>ven:41</t>
-  </si>
-  <si>
-    <t>ven:42</t>
-  </si>
-  <si>
-    <t>ven:43</t>
-  </si>
-  <si>
-    <t>ven:44</t>
-  </si>
-  <si>
-    <t>ven:45</t>
-  </si>
-  <si>
-    <t>ven:46</t>
-  </si>
-  <si>
-    <t>ven:47</t>
-  </si>
-  <si>
-    <t>ven:48</t>
-  </si>
-  <si>
-    <t>ven:49</t>
-  </si>
-  <si>
-    <t>ven:50</t>
-  </si>
-  <si>
-    <t>ven:51</t>
-  </si>
-  <si>
-    <t>ven:52</t>
-  </si>
-  <si>
-    <t>ven:53</t>
-  </si>
-  <si>
-    <t>ven:54</t>
-  </si>
-  <si>
-    <t>ven:55</t>
-  </si>
-  <si>
-    <t>ven:56</t>
-  </si>
-  <si>
-    <t>ven:57</t>
-  </si>
-  <si>
-    <t>ven:58</t>
-  </si>
-  <si>
-    <t>ven:59</t>
-  </si>
-  <si>
-    <t>ven:60</t>
-  </si>
-  <si>
-    <t>ven:61</t>
-  </si>
-  <si>
-    <t>ven:62</t>
-  </si>
-  <si>
-    <t>lab:0</t>
-  </si>
-  <si>
-    <t>lab:1</t>
-  </si>
-  <si>
-    <t>lab:2</t>
-  </si>
-  <si>
-    <t>lab:3</t>
-  </si>
-  <si>
-    <t>lab:4</t>
-  </si>
-  <si>
-    <t>lab:5</t>
-  </si>
-  <si>
-    <t>lab:6</t>
-  </si>
-  <si>
-    <t>lab:7</t>
-  </si>
-  <si>
-    <t>lab:8</t>
-  </si>
-  <si>
-    <t>lab:9</t>
-  </si>
-  <si>
-    <t>lab:10</t>
-  </si>
-  <si>
-    <t>lab:11</t>
-  </si>
-  <si>
-    <t>lab:12</t>
-  </si>
-  <si>
-    <t>lab:13</t>
-  </si>
-  <si>
-    <t>lab:14</t>
-  </si>
-  <si>
-    <t>lab:15</t>
-  </si>
-  <si>
-    <t>lab:16</t>
-  </si>
-  <si>
-    <t>lab:17</t>
-  </si>
-  <si>
-    <t>lab:18</t>
-  </si>
-  <si>
-    <t>lab:19</t>
-  </si>
-  <si>
-    <t>lab:20</t>
-  </si>
-  <si>
-    <t>lab:21</t>
-  </si>
-  <si>
-    <t>lab:22</t>
-  </si>
-  <si>
-    <t>lab:23</t>
-  </si>
-  <si>
-    <t>lab:24</t>
-  </si>
-  <si>
-    <t>lab:25</t>
-  </si>
-  <si>
-    <t>pon:0</t>
-  </si>
-  <si>
-    <t>pon:1</t>
-  </si>
-  <si>
-    <t>pon:2</t>
-  </si>
-  <si>
-    <t>pon:3</t>
-  </si>
-  <si>
-    <t>pon:4</t>
-  </si>
-  <si>
-    <t>pon:5</t>
-  </si>
-  <si>
-    <t>pon:6</t>
-  </si>
-  <si>
-    <t>pon:7</t>
-  </si>
-  <si>
-    <t>pon:8</t>
-  </si>
-  <si>
-    <t>pon:9</t>
-  </si>
-  <si>
-    <t>pon:10</t>
-  </si>
-  <si>
-    <t>pon:11</t>
-  </si>
-  <si>
-    <t>pon:12</t>
-  </si>
-  <si>
-    <t>pon:13</t>
-  </si>
-  <si>
-    <t>pon:14</t>
-  </si>
-  <si>
-    <t>pon:15</t>
-  </si>
-  <si>
-    <t>pon:16</t>
-  </si>
-  <si>
-    <t>pon:17</t>
-  </si>
-  <si>
-    <t>pon:18</t>
-  </si>
-  <si>
-    <t>pon:19</t>
-  </si>
-  <si>
-    <t>pon:20</t>
-  </si>
-  <si>
-    <t>pon:21</t>
-  </si>
-  <si>
-    <t>pon:22</t>
-  </si>
-  <si>
-    <t>pon:23</t>
-  </si>
-  <si>
-    <t>pon:24</t>
-  </si>
-  <si>
-    <t>pon:25</t>
-  </si>
-  <si>
-    <t>pon:26</t>
-  </si>
-  <si>
-    <t>pon:27</t>
-  </si>
-  <si>
-    <t>pon:28</t>
-  </si>
-  <si>
-    <t>pon:29</t>
-  </si>
-  <si>
-    <t>pon:30</t>
-  </si>
-  <si>
-    <t>pon:31</t>
-  </si>
-  <si>
-    <t>pon:32</t>
-  </si>
-  <si>
-    <t>pon:33</t>
-  </si>
-  <si>
-    <t>pon:34</t>
-  </si>
-  <si>
-    <t>pon:35</t>
-  </si>
-  <si>
-    <t>pon:36</t>
-  </si>
-  <si>
-    <t>pon:37</t>
-  </si>
-  <si>
-    <t>pon:38</t>
-  </si>
-  <si>
-    <t>pon:39</t>
-  </si>
-  <si>
-    <t>pon:40</t>
-  </si>
-  <si>
-    <t>pon:41</t>
-  </si>
-  <si>
-    <t>pon:42</t>
-  </si>
-  <si>
-    <t>pon:43</t>
-  </si>
-  <si>
-    <t>pon:44</t>
-  </si>
-  <si>
-    <t>pon:45</t>
-  </si>
-  <si>
-    <t>pon:46</t>
-  </si>
-  <si>
-    <t>pon:47</t>
-  </si>
-  <si>
-    <t>pon:48</t>
-  </si>
-  <si>
-    <t>pon:49</t>
-  </si>
-  <si>
-    <t>pon:50</t>
-  </si>
-  <si>
-    <t>pon:51</t>
-  </si>
-  <si>
-    <t>pon:52</t>
-  </si>
-  <si>
-    <t>pon:53</t>
-  </si>
-  <si>
-    <t>pon:54</t>
-  </si>
-  <si>
-    <t>pon:55</t>
-  </si>
-  <si>
-    <t>pon:56</t>
-  </si>
-  <si>
-    <t>pon:57</t>
-  </si>
-  <si>
-    <t>pon:58</t>
-  </si>
-  <si>
-    <t>pon:59</t>
-  </si>
-  <si>
-    <t>pon:60</t>
-  </si>
-  <si>
-    <t>pon:61</t>
-  </si>
-  <si>
-    <t>pon:62</t>
-  </si>
-  <si>
-    <t>pon:63</t>
-  </si>
-  <si>
-    <t>pon:64</t>
-  </si>
-  <si>
-    <t>pon:65</t>
-  </si>
-  <si>
-    <t>pon:66</t>
-  </si>
-  <si>
-    <t>pon:67</t>
-  </si>
-  <si>
-    <t>pon:68</t>
-  </si>
-  <si>
-    <t>pon:69</t>
-  </si>
-  <si>
-    <t>pon:70</t>
-  </si>
-  <si>
-    <t>pon:71</t>
-  </si>
-  <si>
-    <t>pon:72</t>
-  </si>
-  <si>
-    <t>pon:73</t>
-  </si>
-  <si>
-    <t>pon:74</t>
-  </si>
-  <si>
-    <t>pon:75</t>
+    <t>tes:0</t>
+  </si>
+  <si>
+    <t>tes:1</t>
+  </si>
+  <si>
+    <t>tes:2</t>
+  </si>
+  <si>
+    <t>tes:3</t>
   </si>
   <si>
     <t>red</t>
@@ -6403,7 +6358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
-  <dimension ref="A1:CV97"/>
+  <dimension ref="A1:CV90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -7709,7 +7664,7 @@
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
       <c r="AC5" s="36" t="n">
-        <v>55.53082074028727</v>
+        <v>5.421189987735975</v>
       </c>
       <c r="AD5" s="43"/>
       <c r="AE5" s="43"/>
@@ -7784,2134 +7739,2426 @@
       <c r="CV5" s="42"/>
     </row>
     <row r="6">
-      <c r="B6" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="84" t="n">
+        <v>23.68021240983054</v>
+      </c>
+      <c r="D6" s="75" t="n">
+        <v>3.4045985482085817</v>
+      </c>
+      <c r="E6" s="76" t="n">
+        <v>44966.833050243054</v>
+      </c>
+      <c r="F6" s="76" t="n">
+        <v>17.008116056971634</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I6" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J6" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K6" s="36" t="n">
+        <v>97.38774679053809</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC6" s="36" t="n">
+        <v>91.06496473416344</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="84" t="n">
+        <v>26.498785450289887</v>
+      </c>
+      <c r="D7" s="75" t="n">
+        <v>46.06467191628787</v>
+      </c>
+      <c r="E7" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F7" s="76" t="n">
+        <v>76.51243167903739</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J7" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K7" s="36" t="n">
+        <v>42.853692655372036</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC7" s="36" t="n">
+        <v>70.50584142780562</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="84" t="n">
+        <v>2.4668360760257135</v>
+      </c>
+      <c r="D8" s="75" t="n">
+        <v>30.61458726734919</v>
+      </c>
+      <c r="E8" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F8" s="76" t="n">
+        <v>39.476353387283226</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I8" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J8" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K8" s="36" t="n">
+        <v>99.94366554710207</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC8" s="36" t="n">
+        <v>70.90023685104138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="84" t="n">
+        <v>10.315268825883772</v>
+      </c>
+      <c r="D9" s="75" t="n">
+        <v>20.931732855335138</v>
+      </c>
+      <c r="E9" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F9" s="76" t="n">
+        <v>9.501504051154807</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I9" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J9" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K9" s="36" t="n">
+        <v>30.120117919349298</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC9" s="36" t="n">
+        <v>60.63043082403827</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="84" t="n">
+        <v>20.574647911697774</v>
+      </c>
+      <c r="D10" s="75" t="n">
+        <v>15.26767992448631</v>
+      </c>
+      <c r="E10" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F10" s="76" t="n">
+        <v>41.98740357583387</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J10" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K10" s="36" t="n">
+        <v>78.64156750032413</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC10" s="36" t="n">
+        <v>33.11045893578246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="84" t="n">
+        <v>65.30183664380235</v>
+      </c>
+      <c r="D11" s="75" t="n">
+        <v>66.99838196503502</v>
+      </c>
+      <c r="E11" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F11" s="76" t="n">
+        <v>82.60802717657477</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I11" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J11" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K11" s="36" t="n">
+        <v>14.492880034324374</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC11" s="36" t="n">
+        <v>32.27239998553774</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="84" t="n">
+        <v>54.07897033383087</v>
+      </c>
+      <c r="D12" s="75" t="n">
+        <v>43.036527794715</v>
+      </c>
+      <c r="E12" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F12" s="76" t="n">
+        <v>21.64878290666181</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="H12" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I12" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J12" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K12" s="36" t="n">
+        <v>37.19328155846618</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC12" s="36" t="n">
+        <v>52.621749425461495</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="84" t="n">
+        <v>20.813575542556052</v>
+      </c>
+      <c r="D13" s="75" t="n">
+        <v>30.05969447593121</v>
+      </c>
+      <c r="E13" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F13" s="76" t="n">
+        <v>12.963666998804591</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I13" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J13" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K13" s="36" t="n">
+        <v>54.72506585395156</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC13" s="36" t="n">
+        <v>46.00398573283543</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="84" t="n">
+        <v>4.540435072011628</v>
+      </c>
+      <c r="D14" s="75" t="n">
+        <v>63.4186819478872</v>
+      </c>
+      <c r="E14" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F14" s="76" t="n">
+        <v>26.976388919869343</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I14" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J14" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K14" s="36" t="n">
+        <v>77.15045725273009</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC14" s="36" t="n">
+        <v>12.433958817144376</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="84" t="n">
+        <v>62.19277230586685</v>
+      </c>
+      <c r="D15" s="75" t="n">
+        <v>91.79555531572403</v>
+      </c>
+      <c r="E15" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F15" s="76" t="n">
+        <v>36.08959984675118</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I15" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J15" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K15" s="36" t="n">
+        <v>94.71171897104766</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC15" s="36" t="n">
+        <v>44.53616439882765</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="84" t="n">
+        <v>74.73981834981275</v>
+      </c>
+      <c r="D16" s="75" t="n">
+        <v>66.96674936048971</v>
+      </c>
+      <c r="E16" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F16" s="76" t="n">
+        <v>91.22988655688013</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I16" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J16" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K16" s="36" t="n">
+        <v>10.161870157908092</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC16" s="36" t="n">
+        <v>83.51407761297757</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="84" t="n">
+        <v>31.858311878036695</v>
+      </c>
+      <c r="D17" s="75" t="n">
+        <v>84.00785152649307</v>
+      </c>
+      <c r="E17" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F17" s="76" t="n">
+        <v>26.572711835105423</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I17" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J17" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K17" s="36" t="n">
+        <v>42.30917329992535</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC17" s="36" t="n">
+        <v>9.903778187237933</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="84" t="n">
+        <v>88.19197934434212</v>
+      </c>
+      <c r="D18" s="75" t="n">
+        <v>96.74991647981672</v>
+      </c>
+      <c r="E18" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F18" s="76" t="n">
+        <v>27.24177498902154</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I18" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J18" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K18" s="36" t="n">
+        <v>85.50966954050119</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC18" s="36" t="n">
+        <v>50.30201075051863</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="84" t="n">
+        <v>36.136440592671725</v>
+      </c>
+      <c r="D19" s="75" t="n">
+        <v>13.887171885294114</v>
+      </c>
+      <c r="E19" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F19" s="76" t="n">
+        <v>58.72203912551425</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="H19" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I19" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J19" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K19" s="36" t="n">
+        <v>25.89627676922178</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC19" s="36" t="n">
+        <v>86.90295908771094</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="84" t="n">
+        <v>18.630264934794926</v>
+      </c>
+      <c r="D20" s="75" t="n">
+        <v>12.827231946315877</v>
+      </c>
+      <c r="E20" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F20" s="76" t="n">
+        <v>4.009143392362258</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I20" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J20" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K20" s="36" t="n">
+        <v>34.180391137888854</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC20" s="36" t="n">
+        <v>82.95135702796838</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="84" t="n">
+        <v>7.688987197513109</v>
+      </c>
+      <c r="D21" s="75" t="n">
+        <v>99.94360168277734</v>
+      </c>
+      <c r="E21" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F21" s="76" t="n">
+        <v>74.18720876787648</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I21" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J21" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K21" s="36" t="n">
+        <v>25.443639552153062</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC21" s="36" t="n">
+        <v>14.74767012394519</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" s="84" t="n">
+        <v>46.260332586066696</v>
+      </c>
+      <c r="D22" s="75" t="n">
+        <v>85.87725157692286</v>
+      </c>
+      <c r="E22" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F22" s="76" t="n">
+        <v>61.33439014881456</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I22" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J22" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K22" s="36" t="n">
+        <v>61.16515313885969</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC22" s="36" t="n">
+        <v>47.94343098528218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="84" t="n">
+        <v>42.86596602493824</v>
+      </c>
+      <c r="D23" s="75" t="n">
+        <v>94.02388855237518</v>
+      </c>
+      <c r="E23" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F23" s="76" t="n">
+        <v>9.430979040235632</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I23" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J23" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K23" s="36" t="n">
+        <v>93.76301540009648</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC23" s="36" t="n">
+        <v>32.76821918148032</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="84" t="n">
+        <v>96.72158539792316</v>
+      </c>
+      <c r="D24" s="75" t="n">
+        <v>70.44239351006415</v>
+      </c>
+      <c r="E24" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F24" s="76" t="n">
+        <v>70.05886389822471</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I24" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J24" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K24" s="36" t="n">
+        <v>2.229775073821605</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC24" s="36" t="n">
+        <v>24.878873924260258</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="84" t="n">
+        <v>39.21176033433582</v>
+      </c>
+      <c r="D25" s="75" t="n">
+        <v>10.943679675628514</v>
+      </c>
+      <c r="E25" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F25" s="76" t="n">
+        <v>37.73369513108563</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I25" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J25" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K25" s="36" t="n">
+        <v>99.44492876875162</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC25" s="36" t="n">
+        <v>8.772157016818893</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="84" t="n">
+        <v>48.80647844552445</v>
+      </c>
+      <c r="D26" s="75" t="n">
+        <v>81.63850609004018</v>
+      </c>
+      <c r="E26" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F26" s="76" t="n">
+        <v>4.216754682568791</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="H26" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I26" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J26" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K26" s="36" t="n">
+        <v>64.20961233802045</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC26" s="36" t="n">
+        <v>52.91566990169807</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C27" s="84" t="n">
+        <v>7.036240114379622</v>
+      </c>
+      <c r="D27" s="75" t="n">
+        <v>77.22352697580003</v>
+      </c>
+      <c r="E27" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F27" s="76" t="n">
+        <v>38.009777287737414</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I27" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J27" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K27" s="36" t="n">
+        <v>22.5749236535812</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC27" s="36" t="n">
+        <v>84.43117636451105</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" s="84" t="n">
+        <v>34.57678926533433</v>
+      </c>
+      <c r="D28" s="75" t="n">
+        <v>42.84194767808726</v>
+      </c>
+      <c r="E28" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F28" s="76" t="n">
+        <v>1.5931595703985169</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I28" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J28" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K28" s="36" t="n">
+        <v>54.688533633382704</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC28" s="36" t="n">
+        <v>35.89524901838803</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="84" t="n">
+        <v>3.3338375286101063</v>
+      </c>
+      <c r="D29" s="75" t="n">
+        <v>69.32894914683399</v>
+      </c>
+      <c r="E29" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F29" s="76" t="n">
+        <v>70.13917333324258</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="H29" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I29" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J29" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K29" s="36" t="n">
+        <v>68.52631307601513</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC29" s="36" t="n">
+        <v>83.81279487543497</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" s="84" t="n">
+        <v>56.148126905488496</v>
+      </c>
+      <c r="D30" s="75" t="n">
+        <v>71.05211208800414</v>
+      </c>
+      <c r="E30" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F30" s="76" t="n">
+        <v>71.11034470973682</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I30" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J30" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K30" s="36" t="n">
+        <v>70.00163398335523</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC30" s="36" t="n">
+        <v>62.652371226075644</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" s="84" t="n">
+        <v>20.86767279178504</v>
+      </c>
+      <c r="D31" s="75" t="n">
+        <v>41.33791603835303</v>
+      </c>
+      <c r="E31" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F31" s="76" t="n">
+        <v>6.826632631242013</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I31" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J31" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K31" s="36" t="n">
+        <v>73.90160182912258</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC31" s="36" t="n">
+        <v>96.07155712458287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="84" t="n">
+        <v>26.718075041344193</v>
+      </c>
+      <c r="D32" s="75" t="n">
+        <v>45.65297359451408</v>
+      </c>
+      <c r="E32" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F32" s="76" t="n">
+        <v>81.16241757655847</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I32" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J32" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K32" s="36" t="n">
+        <v>93.70480765228841</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC32" s="36" t="n">
+        <v>46.87475803741581</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="84" t="n">
+        <v>70.96741038130462</v>
+      </c>
+      <c r="D33" s="75" t="n">
+        <v>45.31635916028204</v>
+      </c>
+      <c r="E33" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F33" s="76" t="n">
+        <v>2.327261804674241</v>
+      </c>
+      <c r="G33" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="H33" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I33" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J33" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K33" s="36" t="n">
+        <v>16.039324491042038</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC33" s="36" t="n">
+        <v>17.542858917017533</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="84" t="n">
+        <v>18.081181643181875</v>
+      </c>
+      <c r="D34" s="75" t="n">
+        <v>53.54180576588369</v>
+      </c>
+      <c r="E34" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F34" s="76" t="n">
+        <v>81.00603482235945</v>
+      </c>
+      <c r="G34" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="H34" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I34" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J34" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K34" s="36" t="n">
+        <v>81.39125932182526</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC34" s="36" t="n">
+        <v>9.262537991735432</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C35" s="84" t="n">
+        <v>88.11629490817138</v>
+      </c>
+      <c r="D35" s="75" t="n">
+        <v>54.65914524351982</v>
+      </c>
+      <c r="E35" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F35" s="76" t="n">
+        <v>14.909861482388553</v>
+      </c>
+      <c r="G35" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="H35" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I35" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J35" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K35" s="36" t="n">
+        <v>96.48494319129442</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC35" s="36" t="n">
+        <v>32.29688089082442</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="84" t="n">
+        <v>85.6591337206596</v>
+      </c>
+      <c r="D36" s="75" t="n">
+        <v>96.49836346257146</v>
+      </c>
+      <c r="E36" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F36" s="76" t="n">
+        <v>67.69117149050622</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I36" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J36" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K36" s="36" t="n">
+        <v>93.97810092504695</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC36" s="36" t="n">
+        <v>40.29593023752466</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" s="84" t="n">
+        <v>96.8848616355657</v>
+      </c>
+      <c r="D37" s="75" t="n">
+        <v>92.59756948136231</v>
+      </c>
+      <c r="E37" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F37" s="76" t="n">
+        <v>2.923657839966909</v>
+      </c>
+      <c r="G37" s="77" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I37" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J37" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K37" s="36" t="n">
+        <v>6.5718445290470555</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC37" s="36" t="n">
+        <v>72.92722857934339</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="84" t="n">
+        <v>6.793474152459722</v>
+      </c>
+      <c r="D38" s="75" t="n">
+        <v>76.73710537331534</v>
+      </c>
+      <c r="E38" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F38" s="76" t="n">
+        <v>90.44136038316852</v>
+      </c>
+      <c r="G38" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="H38" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I38" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J38" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K38" s="36" t="n">
+        <v>38.87043454892858</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC38" s="36" t="n">
+        <v>22.87442619824206</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="84" t="n">
+        <v>57.92887210889308</v>
+      </c>
+      <c r="D39" s="75" t="n">
+        <v>2.8954101599339754</v>
+      </c>
+      <c r="E39" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F39" s="76" t="n">
+        <v>83.1058278469598</v>
+      </c>
+      <c r="G39" s="77" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I39" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J39" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K39" s="36" t="n">
+        <v>45.96345685153449</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC39" s="36" t="n">
+        <v>48.347429780665195</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="C40" s="84" t="n">
+        <v>34.57998667079916</v>
+      </c>
+      <c r="D40" s="75" t="n">
+        <v>74.38512131566543</v>
+      </c>
+      <c r="E40" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F40" s="76" t="n">
+        <v>61.090003278423055</v>
+      </c>
+      <c r="G40" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="H40" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I40" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J40" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K40" s="36" t="n">
+        <v>86.83367373074086</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC40" s="36" t="n">
+        <v>15.227712652888014</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" s="84" t="n">
+        <v>16.892212389226223</v>
+      </c>
+      <c r="D41" s="75" t="n">
+        <v>36.926416275468334</v>
+      </c>
+      <c r="E41" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F41" s="76" t="n">
+        <v>37.6954071975647</v>
+      </c>
+      <c r="G41" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="I41" s="36" t="n">
+        <v>44966.833050347224</v>
+      </c>
+      <c r="J41" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K41" s="36" t="n">
+        <v>12.92345234711495</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC41" s="36" t="n">
+        <v>55.089839310080414</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="84" t="n">
+        <v>52.80975742704259</v>
+      </c>
+      <c r="D42" s="75" t="n">
+        <v>90.78810817258099</v>
+      </c>
+      <c r="E42" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F42" s="76" t="n">
+        <v>17.93339960816509</v>
+      </c>
+      <c r="G42" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" s="76" t="n">
-        <v>44966.747453703705</v>
-      </c>
-      <c r="F6" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G6" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="I6" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J6" s="36" t="n">
-        <v>57.969148568231496</v>
-      </c>
-      <c r="K6" s="36" t="n">
-        <v>44966.747453854165</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC6" s="36" t="n">
-        <v>78.80546668614596</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" s="76" t="n">
-        <v>44966.74745371528</v>
-      </c>
-      <c r="F7" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G7" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="I7" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J7" s="36" t="n">
-        <v>57.23554921953829</v>
-      </c>
-      <c r="K7" s="36" t="n">
-        <v>44966.747453854165</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="AC7" s="36" t="n">
-        <v>34.150195967218025</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>351</v>
-      </c>
-      <c r="E8" s="76" t="n">
-        <v>44966.74745371528</v>
-      </c>
-      <c r="F8" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G8" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="I8" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J8" s="36" t="n">
-        <v>48.92611030972689</v>
-      </c>
-      <c r="K8" s="36" t="n">
-        <v>44966.747453854165</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC8" s="36" t="n">
-        <v>58.395672965793864</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="76" t="n">
-        <v>44966.74745371528</v>
-      </c>
-      <c r="F9" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G9" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H9" s="78" t="s">
+      <c r="H42" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J42" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K42" s="36" t="n">
+        <v>28.6270155983231</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC42" s="36" t="n">
+        <v>2.1648802931814815</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="I9" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J9" s="36" t="n">
-        <v>45.067417343072755</v>
-      </c>
-      <c r="K9" s="36" t="n">
-        <v>44966.747453854165</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC9" s="36" t="n">
-        <v>6.285095735152835</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="E10" s="76" t="n">
-        <v>44966.74745371528</v>
-      </c>
-      <c r="F10" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G10" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H10" s="78" t="s">
+      <c r="C43" s="84" t="n">
+        <v>36.98946925813436</v>
+      </c>
+      <c r="D43" s="75" t="n">
+        <v>56.88181784779732</v>
+      </c>
+      <c r="E43" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F43" s="76" t="n">
+        <v>36.44535838519991</v>
+      </c>
+      <c r="H43" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J43" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K43" s="36" t="n">
+        <v>17.524687465087606</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC43" s="36" t="n">
+        <v>19.54982134304384</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="I10" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J10" s="36" t="n">
-        <v>97.29161551628374</v>
-      </c>
-      <c r="K10" s="36" t="n">
-        <v>44966.747453854165</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC10" s="36" t="n">
-        <v>96.79520565714677</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C11" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" s="76" t="n">
-        <v>44966.74745371528</v>
-      </c>
-      <c r="F11" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G11" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H11" s="78" t="s">
+      <c r="C44" s="84" t="n">
+        <v>46.625899632744364</v>
+      </c>
+      <c r="D44" s="75" t="n">
+        <v>37.75746727246931</v>
+      </c>
+      <c r="E44" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F44" s="76" t="n">
+        <v>27.51968328053682</v>
+      </c>
+      <c r="H44" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J44" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K44" s="36" t="n">
+        <v>97.69514591654048</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="I11" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J11" s="36" t="n">
-        <v>1.2751118084632695</v>
-      </c>
-      <c r="K11" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC11" s="36" t="n">
-        <v>43.404184290953886</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>355</v>
-      </c>
-      <c r="E12" s="76" t="n">
-        <v>44966.74745372685</v>
-      </c>
-      <c r="F12" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G12" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H12" s="78" t="s">
+      <c r="C45" s="84" t="n">
+        <v>98.1978239865454</v>
+      </c>
+      <c r="D45" s="75" t="n">
+        <v>6.394993572220498</v>
+      </c>
+      <c r="E45" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F45" s="76" t="n">
+        <v>67.25246537153801</v>
+      </c>
+      <c r="H45" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J45" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K45" s="36" t="n">
+        <v>49.35756870812913</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="I12" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J12" s="36" t="n">
-        <v>0.5861385432561761</v>
-      </c>
-      <c r="K12" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC12" s="36" t="n">
-        <v>32.34184015781676</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="76" t="n">
-        <v>44966.74745372685</v>
-      </c>
-      <c r="F13" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G13" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H13" s="78" t="s">
+      <c r="C46" s="84" t="n">
+        <v>46.37333879631953</v>
+      </c>
+      <c r="D46" s="75" t="n">
+        <v>2.887161364783586</v>
+      </c>
+      <c r="E46" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F46" s="76" t="n">
+        <v>37.3662074014834</v>
+      </c>
+      <c r="H46" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J46" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K46" s="36" t="n">
+        <v>18.26608589966483</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="I13" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J13" s="36" t="n">
-        <v>18.379351050142812</v>
-      </c>
-      <c r="K13" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC13" s="36" t="n">
-        <v>40.070334277432906</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="76" t="n">
-        <v>44966.74745372685</v>
-      </c>
-      <c r="F14" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G14" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H14" s="78" t="s">
+      <c r="C47" s="84" t="n">
+        <v>90.336422931253</v>
+      </c>
+      <c r="D47" s="75" t="n">
+        <v>91.5516707661181</v>
+      </c>
+      <c r="E47" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F47" s="76" t="n">
+        <v>50.4209429003594</v>
+      </c>
+      <c r="H47" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J47" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K47" s="36" t="n">
+        <v>11.996629012577653</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="I14" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J14" s="36" t="n">
-        <v>20.025182868251747</v>
-      </c>
-      <c r="K14" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC14" s="36" t="n">
-        <v>63.3347464070804</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="76" t="n">
-        <v>44966.74745372685</v>
-      </c>
-      <c r="F15" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G15" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H15" s="78" t="s">
+      <c r="C48" s="84" t="n">
+        <v>90.94086072900882</v>
+      </c>
+      <c r="D48" s="75" t="n">
+        <v>51.70608524953576</v>
+      </c>
+      <c r="E48" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F48" s="76" t="n">
+        <v>46.85847723143601</v>
+      </c>
+      <c r="H48" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J48" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K48" s="36" t="n">
+        <v>98.40857546804361</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="I15" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J15" s="36" t="n">
-        <v>34.901454914140096</v>
-      </c>
-      <c r="K15" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC15" s="36" t="n">
-        <v>41.59741341578875</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="E16" s="76" t="n">
-        <v>44966.74745372685</v>
-      </c>
-      <c r="F16" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G16" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H16" s="78" t="s">
+      <c r="C49" s="84" t="n">
+        <v>37.388646877732526</v>
+      </c>
+      <c r="D49" s="75" t="n">
+        <v>62.80083556886051</v>
+      </c>
+      <c r="E49" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F49" s="76" t="n">
+        <v>16.16886368626327</v>
+      </c>
+      <c r="H49" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J49" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K49" s="36" t="n">
+        <v>84.03384859582599</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="I16" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J16" s="36" t="n">
-        <v>22.734451922357657</v>
-      </c>
-      <c r="K16" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC16" s="36" t="n">
-        <v>16.467650154709766</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C17" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="E17" s="76" t="n">
-        <v>44966.74745372685</v>
-      </c>
-      <c r="F17" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G17" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H17" s="78" t="s">
+      <c r="C50" s="84" t="n">
+        <v>12.861174782588169</v>
+      </c>
+      <c r="D50" s="75" t="n">
+        <v>39.56876640947649</v>
+      </c>
+      <c r="E50" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F50" s="76" t="n">
+        <v>4.666932788448563</v>
+      </c>
+      <c r="H50" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J50" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K50" s="36" t="n">
+        <v>7.872579003079849</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="I17" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J17" s="36" t="n">
-        <v>34.72375187522271</v>
-      </c>
-      <c r="K17" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC17" s="36" t="n">
-        <v>42.4780318580739</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="E18" s="76" t="n">
-        <v>44966.74745372685</v>
-      </c>
-      <c r="F18" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G18" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H18" s="78" t="s">
+      <c r="C51" s="84" t="n">
+        <v>41.32648118738129</v>
+      </c>
+      <c r="D51" s="75" t="n">
+        <v>33.97888579102045</v>
+      </c>
+      <c r="E51" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F51" s="76" t="n">
+        <v>11.56836233229155</v>
+      </c>
+      <c r="H51" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J51" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K51" s="36" t="n">
+        <v>86.45534650654456</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="I18" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J18" s="36" t="n">
-        <v>46.55320679702057</v>
-      </c>
-      <c r="K18" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC18" s="36" t="n">
-        <v>79.23628817943532</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C19" s="84" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="F19" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G19" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H19" s="78" t="s">
+      <c r="C52" s="84" t="n">
+        <v>5.800013901470158</v>
+      </c>
+      <c r="D52" s="75" t="n">
+        <v>89.76621631301182</v>
+      </c>
+      <c r="E52" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F52" s="76" t="n">
+        <v>81.52117503723466</v>
+      </c>
+      <c r="H52" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J52" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K52" s="36" t="n">
+        <v>95.3439322498819</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="I19" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J19" s="36" t="n">
-        <v>28.30086785023862</v>
-      </c>
-      <c r="K19" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC19" s="36" t="n">
-        <v>10.628352367827443</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="F20" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G20" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H20" s="78" t="s">
+      <c r="C53" s="84" t="n">
+        <v>77.08635033463251</v>
+      </c>
+      <c r="D53" s="75" t="n">
+        <v>12.35532775070729</v>
+      </c>
+      <c r="E53" s="76" t="n">
+        <v>44966.83305025463</v>
+      </c>
+      <c r="F53" s="76" t="n">
+        <v>44.434759296524994</v>
+      </c>
+      <c r="H53" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J53" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K53" s="36" t="n">
+        <v>98.15315421160169</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="I20" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J20" s="36" t="n">
-        <v>56.828705606104904</v>
-      </c>
-      <c r="K20" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC20" s="36" t="n">
-        <v>44.19097333545934</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="F21" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G21" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H21" s="78" t="s">
+      <c r="C54" s="84" t="n">
+        <v>70.14561948044278</v>
+      </c>
+      <c r="D54" s="75" t="n">
+        <v>53.363097322300725</v>
+      </c>
+      <c r="E54" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F54" s="76" t="n">
+        <v>96.26484983070964</v>
+      </c>
+      <c r="H54" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J54" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K54" s="36" t="n">
+        <v>70.12427267703157</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="I21" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J21" s="36" t="n">
-        <v>24.47512349773645</v>
-      </c>
-      <c r="K21" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC21" s="36" t="n">
-        <v>63.26671494378496</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="F22" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G22" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H22" s="78" t="s">
+      <c r="C55" s="84" t="n">
+        <v>59.445385660164284</v>
+      </c>
+      <c r="D55" s="75" t="n">
+        <v>13.71237388700104</v>
+      </c>
+      <c r="E55" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F55" s="76" t="n">
+        <v>79.56287100756096</v>
+      </c>
+      <c r="H55" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J55" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K55" s="36" t="n">
+        <v>24.117535570054915</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="I22" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J22" s="36" t="n">
-        <v>72.55482799087218</v>
-      </c>
-      <c r="K22" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC22" s="36" t="n">
-        <v>16.674455434806767</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>303</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="F23" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G23" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H23" s="78" t="s">
+      <c r="C56" s="84" t="n">
+        <v>82.5842956561111</v>
+      </c>
+      <c r="D56" s="75" t="n">
+        <v>43.803798029849695</v>
+      </c>
+      <c r="E56" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F56" s="76" t="n">
+        <v>81.5010472675675</v>
+      </c>
+      <c r="H56" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J56" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="K56" s="36" t="n">
+        <v>11.797480982567476</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="I23" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J23" s="36" t="n">
-        <v>88.96046618281606</v>
-      </c>
-      <c r="K23" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC23" s="36" t="n">
-        <v>65.43362615314187</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>304</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>367</v>
-      </c>
-      <c r="F24" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G24" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H24" s="78" t="s">
+      <c r="C57" s="84" t="n">
+        <v>17.14091512469018</v>
+      </c>
+      <c r="D57" s="75" t="n">
+        <v>70.95611198336896</v>
+      </c>
+      <c r="E57" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F57" s="76" t="n">
+        <v>53.02952679582991</v>
+      </c>
+      <c r="H57" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J57" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="I24" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J24" s="36" t="n">
-        <v>23.482712064282964</v>
-      </c>
-      <c r="K24" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC24" s="36" t="n">
-        <v>71.19692829945299</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="F25" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G25" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H25" s="78" t="s">
+      <c r="C58" s="84" t="n">
+        <v>28.257440095347196</v>
+      </c>
+      <c r="D58" s="75" t="n">
+        <v>42.50729837127967</v>
+      </c>
+      <c r="E58" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F58" s="76" t="n">
+        <v>80.11276205341004</v>
+      </c>
+      <c r="H58" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J58" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="I25" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J25" s="36" t="n">
-        <v>77.56407426110893</v>
-      </c>
-      <c r="K25" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC25" s="36" t="n">
-        <v>30.931831142173372</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>369</v>
-      </c>
-      <c r="F26" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G26" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H26" s="78" t="s">
+      <c r="C59" s="84" t="n">
+        <v>81.01192697151346</v>
+      </c>
+      <c r="D59" s="75" t="n">
+        <v>12.158380332866535</v>
+      </c>
+      <c r="E59" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F59" s="76" t="n">
+        <v>27.981374559225912</v>
+      </c>
+      <c r="H59" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J59" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="I26" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J26" s="36" t="n">
-        <v>92.55920715250183</v>
-      </c>
-      <c r="K26" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC26" s="36" t="n">
-        <v>16.670669857309438</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>307</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>370</v>
-      </c>
-      <c r="F27" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G27" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H27" s="78" t="s">
+      <c r="C60" s="84" t="n">
+        <v>10.84451565254324</v>
+      </c>
+      <c r="D60" s="75" t="n">
+        <v>96.6801470523459</v>
+      </c>
+      <c r="E60" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F60" s="76" t="n">
+        <v>34.35360914474255</v>
+      </c>
+      <c r="H60" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J60" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I27" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J27" s="36" t="n">
-        <v>52.448382443276074</v>
-      </c>
-      <c r="K27" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC27" s="36" t="n">
-        <v>68.53925172082421</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>371</v>
-      </c>
-      <c r="F28" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G28" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H28" s="78" t="s">
+      <c r="C61" s="84" t="n">
+        <v>29.129368445093196</v>
+      </c>
+      <c r="D61" s="75" t="n">
+        <v>34.34392241371147</v>
+      </c>
+      <c r="E61" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F61" s="76" t="n">
+        <v>59.40993730205763</v>
+      </c>
+      <c r="H61" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J61" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="I28" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J28" s="36" t="n">
-        <v>20.421815096049944</v>
-      </c>
-      <c r="K28" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC28" s="36" t="n">
-        <v>23.23508650223487</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="F29" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G29" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H29" s="78" t="s">
+      <c r="C62" s="84" t="n">
+        <v>97.27114570586987</v>
+      </c>
+      <c r="D62" s="75" t="n">
+        <v>87.67273108094534</v>
+      </c>
+      <c r="E62" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F62" s="76" t="n">
+        <v>10.460309115669709</v>
+      </c>
+      <c r="H62" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J62" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="I29" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J29" s="36" t="n">
-        <v>13.296171831335911</v>
-      </c>
-      <c r="K29" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC29" s="36" t="n">
-        <v>51.00985625469486</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="D30" s="75" t="s">
-        <v>373</v>
-      </c>
-      <c r="F30" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G30" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H30" s="78" t="s">
+      <c r="C63" s="84" t="n">
+        <v>42.295128052749774</v>
+      </c>
+      <c r="D63" s="75" t="n">
+        <v>59.426892196491906</v>
+      </c>
+      <c r="E63" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F63" s="76" t="n">
+        <v>83.94854124562517</v>
+      </c>
+      <c r="H63" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J63" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="I30" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J30" s="36" t="n">
-        <v>35.9502680464611</v>
-      </c>
-      <c r="K30" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC30" s="36" t="n">
-        <v>38.29038352535318</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>374</v>
-      </c>
-      <c r="F31" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G31" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H31" s="78" t="s">
+      <c r="C64" s="84" t="n">
+        <v>4.330942088805578</v>
+      </c>
+      <c r="D64" s="75" t="n">
+        <v>86.70218155937462</v>
+      </c>
+      <c r="E64" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="F64" s="76" t="n">
+        <v>40.813729478279996</v>
+      </c>
+      <c r="H64" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J64" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="I31" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J31" s="36" t="n">
-        <v>53.78791433322016</v>
-      </c>
-      <c r="K31" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC31" s="36" t="n">
-        <v>59.47555823345595</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C32" s="84" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G32" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H32" s="78" t="s">
+      <c r="C65" s="84" t="n">
+        <v>43.96253098386501</v>
+      </c>
+      <c r="D65" s="75" t="n">
+        <v>56.686956461372986</v>
+      </c>
+      <c r="E65" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H65" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J65" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="I32" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J32" s="36" t="n">
-        <v>3.361479966789227</v>
-      </c>
-      <c r="K32" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC32" s="36" t="n">
-        <v>55.628656592244816</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="F33" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G33" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H33" s="78" t="s">
+      <c r="C66" s="84" t="n">
+        <v>28.025007764019925</v>
+      </c>
+      <c r="D66" s="75" t="n">
+        <v>48.04517865434927</v>
+      </c>
+      <c r="E66" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H66" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J66" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="I33" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J33" s="36" t="n">
-        <v>40.556329149445624</v>
-      </c>
-      <c r="K33" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC33" s="36" t="n">
-        <v>16.806198916493532</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>314</v>
-      </c>
-      <c r="F34" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G34" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H34" s="78" t="s">
+      <c r="C67" s="84" t="n">
+        <v>17.161848670996736</v>
+      </c>
+      <c r="D67" s="75" t="n">
+        <v>6.843442261774424</v>
+      </c>
+      <c r="E67" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H67" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J67" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="I34" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J34" s="36" t="n">
-        <v>80.41521320164108</v>
-      </c>
-      <c r="K34" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC34" s="36" t="n">
-        <v>17.271122710776165</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="34" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>315</v>
-      </c>
-      <c r="F35" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G35" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H35" s="78" t="s">
+      <c r="C68" s="84" t="n">
+        <v>0.6184198812859365</v>
+      </c>
+      <c r="D68" s="75" t="n">
+        <v>20.306531906020496</v>
+      </c>
+      <c r="E68" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H68" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J68" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="I35" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J35" s="36" t="n">
-        <v>86.53320069551154</v>
-      </c>
-      <c r="K35" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC35" s="36" t="n">
-        <v>17.247311025563384</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" s="84" t="s">
-        <v>316</v>
-      </c>
-      <c r="F36" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G36" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H36" s="78" t="s">
+      <c r="C69" s="84" t="n">
+        <v>71.56277344244592</v>
+      </c>
+      <c r="D69" s="75" t="n">
+        <v>72.48350368640017</v>
+      </c>
+      <c r="E69" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H69" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J69" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="I36" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J36" s="36" t="n">
-        <v>91.41372903954064</v>
-      </c>
-      <c r="K36" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC36" s="36" t="n">
-        <v>4.918624626347013</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" s="84" t="s">
-        <v>317</v>
-      </c>
-      <c r="F37" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="G37" s="77" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H37" s="78" t="s">
+      <c r="C70" s="84" t="n">
+        <v>22.10466793278615</v>
+      </c>
+      <c r="D70" s="75" t="n">
+        <v>0.5989754286548687</v>
+      </c>
+      <c r="E70" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H70" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J70" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="I37" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J37" s="36" t="n">
-        <v>84.69573638458539</v>
-      </c>
-      <c r="K37" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC37" s="36" t="n">
-        <v>59.771641118257456</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="F38" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H38" s="78" t="s">
+      <c r="C71" s="84" t="n">
+        <v>42.09479108871741</v>
+      </c>
+      <c r="D71" s="75" t="n">
+        <v>11.237727987832624</v>
+      </c>
+      <c r="E71" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H71" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J71" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="34" t="s">
         <v>407</v>
       </c>
-      <c r="I38" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J38" s="36" t="n">
-        <v>74.33405215474409</v>
-      </c>
-      <c r="K38" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC38" s="36" t="n">
-        <v>87.99061956367999</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="F39" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H39" s="78" t="s">
+      <c r="C72" s="84" t="n">
+        <v>2.835911496086463</v>
+      </c>
+      <c r="D72" s="75" t="n">
+        <v>69.99231094753038</v>
+      </c>
+      <c r="E72" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H72" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J72" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="I39" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J39" s="36" t="n">
-        <v>89.56409719600312</v>
-      </c>
-      <c r="K39" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC39" s="36" t="n">
-        <v>24.148240371220343</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="F40" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H40" s="78" t="s">
+      <c r="C73" s="84" t="n">
+        <v>28.86096790460072</v>
+      </c>
+      <c r="D73" s="75" t="n">
+        <v>6.146254521470629</v>
+      </c>
+      <c r="E73" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="H73" s="78" t="n">
+        <v>44966.83305037037</v>
+      </c>
+      <c r="J73" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="I40" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J40" s="36" t="n">
-        <v>44.192423610078535</v>
-      </c>
-      <c r="K40" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC40" s="36" t="n">
-        <v>23.319721679472792</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="F41" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H41" s="78" t="s">
+      <c r="C74" s="84" t="n">
+        <v>12.460502916016248</v>
+      </c>
+      <c r="D74" s="75" t="n">
+        <v>51.03488478288399</v>
+      </c>
+      <c r="E74" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="J74" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="I41" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J41" s="36" t="n">
-        <v>91.87094737163964</v>
-      </c>
-      <c r="K41" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC41" s="36" t="n">
-        <v>93.41220998904127</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" s="84" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H42" s="78" t="s">
+      <c r="C75" s="84" t="n">
+        <v>80.26852447332185</v>
+      </c>
+      <c r="D75" s="75" t="n">
+        <v>3.1556706641183263</v>
+      </c>
+      <c r="E75" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="J75" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="I42" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J42" s="36" t="n">
-        <v>69.23617124087099</v>
-      </c>
-      <c r="K42" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC42" s="36" t="n">
-        <v>72.0007349416249</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="84" t="s">
-        <v>323</v>
-      </c>
-      <c r="F43" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H43" s="78" t="s">
+      <c r="C76" s="84" t="n">
+        <v>11.013305137185181</v>
+      </c>
+      <c r="D76" s="75" t="n">
+        <v>28.20872506697508</v>
+      </c>
+      <c r="E76" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="J76" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="I43" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J43" s="36" t="n">
-        <v>62.65313061652985</v>
-      </c>
-      <c r="K43" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC43" s="36" t="n">
-        <v>27.431801530966737</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" s="84" t="s">
-        <v>324</v>
-      </c>
-      <c r="F44" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H44" s="78" t="s">
+      <c r="C77" s="84" t="n">
+        <v>97.7709473699198</v>
+      </c>
+      <c r="D77" s="75" t="n">
+        <v>1.2293611190529186</v>
+      </c>
+      <c r="E77" s="76" t="n">
+        <v>44966.83305026621</v>
+      </c>
+      <c r="J77" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="I44" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J44" s="36" t="n">
-        <v>16.47983686337534</v>
-      </c>
-      <c r="K44" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC44" s="36" t="n">
-        <v>0.04401312867147178</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" s="84" t="s">
-        <v>325</v>
-      </c>
-      <c r="F45" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H45" s="78" t="s">
+      <c r="C78" s="84" t="n">
+        <v>34.09546105324669</v>
+      </c>
+      <c r="D78" s="75" t="n">
+        <v>92.6055051624054</v>
+      </c>
+      <c r="J78" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="I45" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J45" s="36" t="n">
-        <v>34.202485449946096</v>
-      </c>
-      <c r="K45" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC45" s="36" t="n">
-        <v>59.402494047584874</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" s="84" t="s">
-        <v>326</v>
-      </c>
-      <c r="F46" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H46" s="78" t="s">
+      <c r="C79" s="84" t="n">
+        <v>23.343789556098226</v>
+      </c>
+      <c r="D79" s="75" t="n">
+        <v>75.30167447092883</v>
+      </c>
+      <c r="J79" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="I46" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J46" s="36" t="n">
-        <v>36.204030393675815</v>
-      </c>
-      <c r="K46" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC46" s="36" t="n">
-        <v>38.7943044836924</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H47" s="78" t="s">
+      <c r="C80" s="84" t="n">
+        <v>72.68718465289206</v>
+      </c>
+      <c r="D80" s="75" t="n">
+        <v>74.72009549815873</v>
+      </c>
+      <c r="J80" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="I47" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J47" s="36" t="n">
-        <v>1.0175202461390587</v>
-      </c>
-      <c r="K47" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC47" s="36" t="n">
-        <v>1.6976598533017362</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="C48" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="F48" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H48" s="78" t="s">
+      <c r="C81" s="84" t="n">
+        <v>8.334961875096536</v>
+      </c>
+      <c r="D81" s="75" t="n">
+        <v>66.98191196381161</v>
+      </c>
+      <c r="J81" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="I48" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J48" s="36" t="n">
-        <v>8.133338392820411</v>
-      </c>
-      <c r="K48" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC48" s="36" t="n">
-        <v>90.05179447963577</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="F49" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H49" s="78" t="s">
+      <c r="C82" s="84" t="n">
+        <v>75.45136518919675</v>
+      </c>
+      <c r="D82" s="75" t="n">
+        <v>39.930846858811975</v>
+      </c>
+      <c r="J82" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="I49" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J49" s="36" t="n">
-        <v>29.842892099723585</v>
-      </c>
-      <c r="K49" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC49" s="36" t="n">
-        <v>67.48264322448529</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="F50" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H50" s="78" t="s">
+      <c r="C83" s="84" t="n">
+        <v>54.738062170568924</v>
+      </c>
+      <c r="D83" s="75" t="n">
+        <v>19.80299855990658</v>
+      </c>
+      <c r="J83" s="36" t="n">
+        <v>44966.83305026621</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="I50" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="J50" s="36" t="n">
-        <v>15.98282847576662</v>
-      </c>
-      <c r="K50" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC50" s="36" t="n">
-        <v>0.03841806812375781</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="F51" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H51" s="78" t="s">
+      <c r="C84" s="84" t="n">
+        <v>67.66122350277807</v>
+      </c>
+      <c r="D84" s="75" t="n">
+        <v>54.91231203275547</v>
+      </c>
+      <c r="J84" s="36" t="n">
+        <v>44966.833050277775</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="I51" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K51" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC51" s="36" t="n">
-        <v>99.32608012532414</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" s="84" t="s">
-        <v>332</v>
-      </c>
-      <c r="F52" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H52" s="78" t="s">
+      <c r="C85" s="84" t="n">
+        <v>43.89376292641538</v>
+      </c>
+      <c r="D85" s="75" t="n">
+        <v>83.75926375833235</v>
+      </c>
+      <c r="J85" s="36" t="n">
+        <v>44966.833050277775</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="I52" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K52" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC52" s="36" t="n">
-        <v>90.41840853992159</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="C53" s="84" t="s">
-        <v>333</v>
-      </c>
-      <c r="F53" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H53" s="78" t="s">
+      <c r="C86" s="84" t="n">
+        <v>25.43818093258072</v>
+      </c>
+      <c r="D86" s="75" t="n">
+        <v>18.91064983824615</v>
+      </c>
+      <c r="J86" s="36" t="n">
+        <v>44966.833050277775</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="I53" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K53" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC53" s="36" t="n">
-        <v>31.754381939611697</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="F54" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H54" s="78" t="s">
+      <c r="C87" s="84" t="n">
+        <v>1.3529122216263678</v>
+      </c>
+      <c r="D87" s="75" t="n">
+        <v>63.29832604338031</v>
+      </c>
+      <c r="J87" s="36" t="n">
+        <v>44966.833050277775</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="I54" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K54" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC54" s="36" t="n">
-        <v>7.199053473301797</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="C55" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="F55" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H55" s="78" t="s">
+      <c r="C88" s="84" t="n">
+        <v>30.195696622611422</v>
+      </c>
+      <c r="D88" s="75" t="n">
+        <v>59.571060938061834</v>
+      </c>
+      <c r="J88" s="36" t="n">
+        <v>44966.833050277775</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="I55" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K55" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC55" s="36" t="n">
-        <v>38.88998667157361</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="F56" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H56" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="I56" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K56" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC56" s="36" t="n">
-        <v>27.259460739252184</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="C57" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="F57" s="76" t="n">
-        <v>44966.747453738426</v>
-      </c>
-      <c r="H57" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="I57" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K57" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC57" s="36" t="n">
-        <v>45.15154488604291</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" s="84" t="s">
-        <v>338</v>
-      </c>
-      <c r="F58" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H58" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="I58" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K58" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC58" s="36" t="n">
-        <v>84.29841795494445</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="F59" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H59" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="I59" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K59" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC59" s="36" t="n">
-        <v>22.197206189746556</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="84" t="s">
-        <v>340</v>
-      </c>
-      <c r="F60" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H60" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="I60" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K60" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC60" s="36" t="n">
-        <v>42.035871836606944</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" s="84" t="s">
-        <v>341</v>
-      </c>
-      <c r="F61" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H61" s="78" t="s">
-        <v>430</v>
-      </c>
-      <c r="I61" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K61" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC61" s="36" t="n">
-        <v>1.1458414177453524</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="F62" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H62" s="78" t="s">
-        <v>431</v>
-      </c>
-      <c r="I62" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K62" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC62" s="36" t="n">
-        <v>42.48770075927938</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="F63" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H63" s="78" t="s">
-        <v>432</v>
-      </c>
-      <c r="I63" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K63" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC63" s="36" t="n">
-        <v>89.46298265128956</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" s="84" t="s">
-        <v>344</v>
-      </c>
-      <c r="F64" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H64" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="I64" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K64" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC64" s="36" t="n">
-        <v>95.06407344091741</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" s="84" t="s">
-        <v>345</v>
-      </c>
-      <c r="F65" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H65" s="78" t="s">
-        <v>434</v>
-      </c>
-      <c r="I65" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K65" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC65" s="36" t="n">
-        <v>67.15862351205136</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" s="84" t="s">
-        <v>346</v>
-      </c>
-      <c r="F66" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H66" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="I66" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K66" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC66" s="36" t="n">
-        <v>91.1844347905504</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="F67" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H67" s="78" t="s">
-        <v>436</v>
-      </c>
-      <c r="I67" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K67" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC67" s="36" t="n">
-        <v>19.085560807135813</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" s="84" t="s">
-        <v>348</v>
-      </c>
-      <c r="F68" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H68" s="78" t="s">
-        <v>437</v>
-      </c>
-      <c r="I68" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K68" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC68" s="36" t="n">
-        <v>36.18555730769408</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H69" s="78" t="s">
-        <v>438</v>
-      </c>
-      <c r="I69" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K69" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC69" s="36" t="n">
-        <v>37.68467816342971</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H70" s="78" t="s">
-        <v>439</v>
-      </c>
-      <c r="I70" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K70" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC70" s="36" t="n">
-        <v>81.71495954441453</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H71" s="78" t="s">
-        <v>440</v>
-      </c>
-      <c r="I71" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K71" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC71" s="36" t="n">
-        <v>53.595258837439964</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="F72" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H72" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="I72" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K72" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC72" s="36" t="n">
-        <v>27.803937238019138</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="F73" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H73" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="I73" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K73" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC73" s="36" t="n">
-        <v>46.794155466168405</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H74" s="78" t="s">
-        <v>443</v>
-      </c>
-      <c r="I74" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K74" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC74" s="36" t="n">
-        <v>93.71899468971436</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H75" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="I75" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K75" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC75" s="36" t="n">
-        <v>86.57012557953628</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H76" s="78" t="s">
-        <v>445</v>
-      </c>
-      <c r="I76" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K76" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC76" s="36" t="n">
-        <v>43.87653997872947</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H77" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="I77" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K77" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC77" s="36" t="n">
-        <v>99.46395274178093</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H78" s="78" t="s">
-        <v>447</v>
-      </c>
-      <c r="I78" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K78" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC78" s="36" t="n">
-        <v>2.0146511367797437</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H79" s="78" t="s">
-        <v>448</v>
-      </c>
-      <c r="I79" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-      <c r="K79" s="36" t="n">
-        <v>44966.74745386574</v>
-      </c>
-      <c r="AC79" s="36" t="n">
-        <v>76.65894991631185</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="F80" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H80" s="78" t="s">
-        <v>449</v>
-      </c>
-      <c r="I80" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="F81" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="H81" s="78" t="s">
-        <v>450</v>
-      </c>
-      <c r="I81" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="F82" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I82" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="F83" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I83" s="36" t="n">
-        <v>44966.7474537963</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I84" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="F85" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I85" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I86" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="F87" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I87" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="F88" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I88" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="F89" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I89" s="36" t="n">
-        <v>44966.74745380787</v>
+      <c r="C89" s="84" t="n">
+        <v>94.92011161653275</v>
+      </c>
+      <c r="J89" s="36" t="n">
+        <v>44966.833050277775</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I90" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="F91" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I91" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="F92" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I92" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="F93" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-      <c r="I93" s="36" t="n">
-        <v>44966.74745380787</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="F94" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="F95" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="F96" s="76" t="n">
-        <v>44966.74745375</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="F97" s="76" t="n">
-        <v>44966.74745375</v>
+      <c r="J90" s="36" t="n">
+        <v>44966.833050277775</v>
       </c>
     </row>
   </sheetData>
@@ -9928,7 +10175,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
-  <dimension ref="A2:G91"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -9937,476 +10184,55 @@
   <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>42.188678718458775</v>
+      <c r="A2" s="0" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>64.32498629206289</v>
+      <c r="A3" s="0" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="5:7">
-      <c r="A4" s="0" t="n">
-        <v>93.96994373573314</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>44966.74747255787</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>44966.74747255787</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>44966.74747255787</v>
+      <c r="A4" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="5:7">
-      <c r="A5" s="0" t="n">
-        <v>4.646878229795859</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>44966.74747255787</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>44966.74747255787</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>44966.74747255787</v>
-      </c>
+      <c r="A5" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
     </row>
     <row r="6" spans="5:7">
-      <c r="A6" s="0" t="n">
-        <v>26.868107019485244</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>44966.74747255787</v>
-      </c>
+      <c r="A6" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>54.521488070827</v>
+      <c r="A7" s="0" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>5.3078730524293904</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="n">
-        <v>94.84215928784594</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>51.445864685071896</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>94.23275518411536</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="n">
-        <v>10.408949217197838</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>49.45628066013694</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>67.9743867248543</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>17.662056222748724</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="n">
-        <v>27.366213054076326</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>77.77118073397554</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="n">
-        <v>99.00756886804135</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>53.8204778111313</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="n">
-        <v>18.937335420863445</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="n">
-        <v>13.084194689871676</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>9.36291451634429</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="n">
-        <v>91.36836506237152</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="n">
-        <v>63.73307536478511</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="n">
-        <v>48.68488390179141</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="n">
-        <v>53.09204227950025</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="n">
-        <v>73.7836936706718</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="n">
-        <v>48.69717209156244</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="n">
-        <v>15.537268603970421</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="n">
-        <v>65.38919040813168</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="n">
-        <v>54.27939118825481</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="n">
-        <v>92.49988404456958</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="n">
-        <v>44.81017958746655</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="n">
-        <v>74.73373620217583</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="n">
-        <v>74.36423669266013</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="n">
-        <v>79.09627585861301</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="n">
-        <v>19.433587570785736</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="n">
-        <v>69.25416138935027</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="n">
-        <v>42.5396678584921</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="n">
-        <v>53.4542241446735</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="n">
-        <v>8.018920198540581</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="n">
-        <v>63.11726403128721</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="n">
-        <v>80.34744253239288</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="n">
-        <v>7.336095617829253</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="n">
-        <v>91.76652890961378</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="n">
-        <v>73.68791806865596</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="n">
-        <v>71.83079175310968</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="n">
-        <v>62.02189268078534</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="n">
-        <v>40.39364353344309</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="n">
-        <v>38.270961493395426</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="n">
-        <v>99.44434504085365</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="n">
-        <v>36.9905872275031</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="n">
-        <v>66.65128883494182</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="n">
-        <v>70.43831229186206</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="n">
-        <v>74.54573948425974</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="n">
-        <v>78.83028670861893</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="n">
-        <v>90.65878797939997</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="n">
-        <v>80.26073262335534</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="n">
-        <v>73.82452661577462</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="n">
-        <v>13.026760149762694</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="n">
-        <v>75.06968922207588</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="n">
-        <v>60.205139341634684</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="n">
-        <v>74.37162968665413</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="n">
-        <v>72.78375693029137</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="n">
-        <v>49.99300648613324</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="n">
-        <v>69.02471577108872</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="n">
-        <v>39.565213003614886</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="n">
-        <v>53.65749857497101</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="n">
-        <v>32.62892546543592</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="n">
-        <v>29.660489957746872</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="n">
-        <v>45.54657285367741</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="n">
-        <v>40.54154818187769</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="n">
-        <v>60.738226416802945</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="n">
-        <v>93.98948309636056</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="n">
-        <v>53.78225117886855</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="n">
-        <v>54.417277820750876</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="n">
-        <v>1.349828956484389</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="n">
-        <v>17.19591653193927</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="n">
-        <v>29.056202283316026</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="n">
-        <v>70.28894554481876</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="n">
-        <v>66.52104761587286</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="n">
-        <v>27.608341350890488</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="n">
-        <v>74.20861973045828</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="n">
-        <v>64.85140462033206</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="n">
-        <v>66.5003000371687</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="n">
-        <v>74.0370403225697</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="n">
-        <v>3.0355305345165284</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="n">
-        <v>62.69227499871055</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="n">
-        <v>57.3021190898261</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="n">
-        <v>81.96237215511717</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="n">
-        <v>0.986053012156829</v>
+      <c r="A8" s="0" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -10424,22 +10250,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>0.021</v>
@@ -10447,22 +10273,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>100.3</v>
@@ -10470,22 +10296,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>9.275</v>
@@ -10493,19 +10319,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>100000.734</v>
@@ -10513,95 +10339,95 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="0" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="0" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
